--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007" tabRatio="581"/>
+    <workbookView windowWidth="23040" windowHeight="9407" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -292,6 +292,9 @@
   <si>
     <t>彭成龙</t>
   </si>
+  <si>
+    <t>luguanyu123</t>
+  </si>
 </sst>
 </file>
 
@@ -304,7 +307,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +379,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,22 +402,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -549,22 +545,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -580,7 +564,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,12 +645,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -686,12 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,12 +706,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,12 +772,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,7 +1151,13 @@
   </borders>
   <cellStyleXfs count="718">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1200,402 +1166,396 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1674,7 +1634,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1687,66 +1650,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1791,131 +1751,131 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1937,84 +1897,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2063,7 +2023,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2082,7 +2042,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2116,19 +2076,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2156,375 +2116,375 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2569,7 +2529,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2579,7 +2542,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2619,46 +2582,46 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2674,96 +2637,93 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2925,314 +2885,314 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3382,41 +3342,41 @@
   <cellStyles count="718">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="常规 2 2 4" xfId="5"/>
-    <cellStyle name="常规 5 9 2" xfId="6"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="標準 6 3" xfId="8"/>
-    <cellStyle name="常规 10 3" xfId="9"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="10"/>
-    <cellStyle name="常规 5 2 9" xfId="11"/>
-    <cellStyle name="常规 6 2 4 4" xfId="12"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="13"/>
-    <cellStyle name="常规 13 2" xfId="14"/>
-    <cellStyle name="常规 11 2 2" xfId="15"/>
-    <cellStyle name="千位分隔[0]" xfId="16" builtinId="6"/>
-    <cellStyle name="常规 3 4 3" xfId="17"/>
-    <cellStyle name="標準 4 2 2 3" xfId="18"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="常规 5 9 2" xfId="3"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="6"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="8"/>
+    <cellStyle name="常规 6 2 4 4" xfId="9"/>
+    <cellStyle name="常规 5 2 9" xfId="10"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="11"/>
+    <cellStyle name="常规 10 3" xfId="12"/>
+    <cellStyle name="標準 6 3" xfId="13"/>
+    <cellStyle name="常规 3 4 3" xfId="14"/>
+    <cellStyle name="千位分隔[0]" xfId="15" builtinId="6"/>
+    <cellStyle name="常规 11 2 2" xfId="16"/>
+    <cellStyle name="常规 13 2" xfId="17"/>
+    <cellStyle name="常规 7 3" xfId="18"/>
+    <cellStyle name="千位分隔" xfId="19" builtinId="3"/>
     <cellStyle name="常规 6 2 2 3 2 3" xfId="20"/>
-    <cellStyle name="差" xfId="21" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="22" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="23"/>
+    <cellStyle name="標準 4 2 2 3" xfId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="22" builtinId="39"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="24" builtinId="40"/>
     <cellStyle name="常规 3 6 3" xfId="25"/>
     <cellStyle name="超链接" xfId="26" builtinId="8"/>
     <cellStyle name="超链接 4 2 2" xfId="27"/>
     <cellStyle name="常规 2 7 3" xfId="28"/>
     <cellStyle name="百分比" xfId="29" builtinId="5"/>
-    <cellStyle name="標準 3 2 7" xfId="30"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9"/>
+    <cellStyle name="標準 3 2 7" xfId="31"/>
     <cellStyle name="注释" xfId="32" builtinId="10"/>
     <cellStyle name="常规 6" xfId="33"/>
-    <cellStyle name="標準 3 2 4 3" xfId="34"/>
-    <cellStyle name="常规 12 2 2" xfId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="36" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="34" builtinId="36"/>
+    <cellStyle name="標準 3 2 4 3" xfId="35"/>
+    <cellStyle name="常规 12 2 2" xfId="36"/>
     <cellStyle name="常规 4 12" xfId="37"/>
     <cellStyle name="常规 5 2 4" xfId="38"/>
     <cellStyle name="标题 4" xfId="39" builtinId="19"/>
@@ -3424,92 +3384,92 @@
     <cellStyle name="常规 4 2 2 3" xfId="41"/>
     <cellStyle name="常规 4 4 3" xfId="42"/>
     <cellStyle name="常规 6 5" xfId="43"/>
-    <cellStyle name="常规 5 2" xfId="44"/>
+    <cellStyle name="标题" xfId="44" builtinId="15"/>
     <cellStyle name="標準 2 6" xfId="45"/>
-    <cellStyle name="标题" xfId="46" builtinId="15"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="47"/>
-    <cellStyle name="標準 8" xfId="48"/>
-    <cellStyle name="常规 12" xfId="49"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="46"/>
+    <cellStyle name="常规 5 2" xfId="47"/>
+    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="49"/>
     <cellStyle name="常规 6 3 3 3" xfId="50"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="51"/>
-    <cellStyle name="解释性文本" xfId="52" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="53" builtinId="16"/>
+    <cellStyle name="标题 1" xfId="51" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="52" builtinId="17"/>
+    <cellStyle name="標準 2 6 2" xfId="53"/>
     <cellStyle name="常规 5 2 2" xfId="54"/>
-    <cellStyle name="標準 2 6 2" xfId="55"/>
-    <cellStyle name="标题 2" xfId="56" builtinId="17"/>
-    <cellStyle name="標準 3 2 4 2" xfId="57"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="58" builtinId="32"/>
-    <cellStyle name="常规 4 11" xfId="59"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="55" builtinId="32"/>
+    <cellStyle name="標準 3 2 4 2" xfId="56"/>
+    <cellStyle name="常规 4 11" xfId="57"/>
+    <cellStyle name="标题 3" xfId="58" builtinId="18"/>
+    <cellStyle name="標準 2 6 3" xfId="59"/>
     <cellStyle name="常规 5 2 3" xfId="60"/>
-    <cellStyle name="標準 2 6 3" xfId="61"/>
-    <cellStyle name="标题 3" xfId="62" builtinId="18"/>
-    <cellStyle name="常规 6 3 2 2" xfId="63"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="64" builtinId="44"/>
-    <cellStyle name="输出" xfId="65" builtinId="21"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="66"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="67"/>
-    <cellStyle name="计算" xfId="68" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="69" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="70" builtinId="50"/>
-    <cellStyle name="常规 8 3" xfId="71"/>
-    <cellStyle name="强调文字颜色 2" xfId="72" builtinId="33"/>
-    <cellStyle name="常规 2 2 2 5" xfId="73"/>
+    <cellStyle name="常规 6 3 2 2" xfId="61"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="62" builtinId="44"/>
+    <cellStyle name="输出" xfId="63" builtinId="21"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="64"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="65"/>
+    <cellStyle name="计算" xfId="66" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="67" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="68" builtinId="50"/>
+    <cellStyle name="常规 8 3" xfId="69"/>
+    <cellStyle name="强调文字颜色 2" xfId="70" builtinId="33"/>
+    <cellStyle name="常规 2 2 2 5" xfId="71"/>
+    <cellStyle name="链接单元格" xfId="72" builtinId="24"/>
+    <cellStyle name="標準 3 6 3" xfId="73"/>
     <cellStyle name="常规 6 2 3" xfId="74"/>
-    <cellStyle name="標準 3 6 3" xfId="75"/>
-    <cellStyle name="链接单元格" xfId="76" builtinId="24"/>
-    <cellStyle name="汇总" xfId="77" builtinId="25"/>
-    <cellStyle name="好" xfId="78" builtinId="26"/>
-    <cellStyle name="常规 3 2 6" xfId="79"/>
-    <cellStyle name="适中" xfId="80" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="81" builtinId="46"/>
-    <cellStyle name="常规 8 2" xfId="82"/>
-    <cellStyle name="强调文字颜色 1" xfId="83" builtinId="29"/>
-    <cellStyle name="常规 2 2 2 4" xfId="84"/>
+    <cellStyle name="汇总" xfId="75" builtinId="25"/>
+    <cellStyle name="好" xfId="76" builtinId="26"/>
+    <cellStyle name="常规 3 2 6" xfId="77"/>
+    <cellStyle name="适中" xfId="78" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="79" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="80"/>
+    <cellStyle name="强调文字颜色 1" xfId="81" builtinId="29"/>
+    <cellStyle name="常规 2 2 2 4" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="83" builtinId="30"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="84"/>
     <cellStyle name="標準 5 2" xfId="85"/>
     <cellStyle name="常规 6 2 3 3" xfId="86"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="88" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="89" builtinId="31"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="87" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="88" builtinId="34"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="89"/>
     <cellStyle name="標準 5 3" xfId="90"/>
     <cellStyle name="常规 2 2 2 2 2 3 2" xfId="91"/>
     <cellStyle name="常规 6 2 3 4" xfId="92"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="94" builtinId="34"/>
-    <cellStyle name="標準 4 2 2 2" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="96" builtinId="35"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="97"/>
-    <cellStyle name="强调文字颜色 3" xfId="98" builtinId="37"/>
-    <cellStyle name="常规 2 2 2 6" xfId="99"/>
-    <cellStyle name="强调文字颜色 4" xfId="100" builtinId="41"/>
-    <cellStyle name="常规 2 2 2 7" xfId="101"/>
-    <cellStyle name="常规 3 8 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="103" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="104" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="105" builtinId="45"/>
-    <cellStyle name="常规 2 2 2 8" xfId="106"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="107" builtinId="47"/>
-    <cellStyle name="常规 6 3 2 3" xfId="108"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="109" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="110" builtinId="49"/>
-    <cellStyle name="超链接 9" xfId="111"/>
-    <cellStyle name="常规 16 2" xfId="112"/>
-    <cellStyle name="標準 6" xfId="113"/>
-    <cellStyle name="常规 10" xfId="114"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="115" builtinId="51"/>
-    <cellStyle name="常规 3 2 6 2" xfId="116"/>
-    <cellStyle name="標準 6 2" xfId="117"/>
-    <cellStyle name="常规 10 2" xfId="118"/>
-    <cellStyle name="常规 5 2 8" xfId="119"/>
-    <cellStyle name="常规 6 2 4 3" xfId="120"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="121"/>
-    <cellStyle name="常规 6 3 2 4" xfId="122"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="123" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="93" builtinId="35"/>
+    <cellStyle name="標準 4 2 2 2" xfId="94"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="95"/>
+    <cellStyle name="强调文字颜色 3" xfId="96" builtinId="37"/>
+    <cellStyle name="常规 2 2 2 6" xfId="97"/>
+    <cellStyle name="强调文字颜色 4" xfId="98" builtinId="41"/>
+    <cellStyle name="常规 2 2 2 7" xfId="99"/>
+    <cellStyle name="常规 3 8 2" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="101" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="102" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="103" builtinId="45"/>
+    <cellStyle name="常规 2 2 2 8" xfId="104"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="105" builtinId="47"/>
+    <cellStyle name="常规 6 3 2 3" xfId="106"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="107" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="108" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="109" builtinId="51"/>
+    <cellStyle name="常规 3 2 6 2" xfId="110"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="111"/>
+    <cellStyle name="常规 6 3 2 4" xfId="112"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="113" builtinId="52"/>
+    <cellStyle name="標準 8" xfId="114"/>
+    <cellStyle name="常规 12" xfId="115"/>
+    <cellStyle name="標準 6" xfId="116"/>
+    <cellStyle name="常规 10" xfId="117"/>
+    <cellStyle name="超链接 9" xfId="118"/>
+    <cellStyle name="常规 16 2" xfId="119"/>
+    <cellStyle name="標準 6 2" xfId="120"/>
+    <cellStyle name="常规 10 2" xfId="121"/>
+    <cellStyle name="常规 5 2 8" xfId="122"/>
+    <cellStyle name="常规 6 2 4 3" xfId="123"/>
     <cellStyle name="常规 14" xfId="124"/>
-    <cellStyle name="常规 2 3 2 2" xfId="125"/>
-    <cellStyle name="常规 11 3" xfId="126"/>
-    <cellStyle name="常规 10 2 2" xfId="127"/>
-    <cellStyle name="常规 5 2 8 2" xfId="128"/>
-    <cellStyle name="常规 2 7" xfId="129"/>
+    <cellStyle name="常规 11 3" xfId="125"/>
+    <cellStyle name="常规 2 3 2 2" xfId="126"/>
+    <cellStyle name="常规 2 7" xfId="127"/>
+    <cellStyle name="常规 10 2 2" xfId="128"/>
+    <cellStyle name="常规 5 2 8 2" xfId="129"/>
     <cellStyle name="標準 7" xfId="130"/>
     <cellStyle name="常规 11" xfId="131"/>
     <cellStyle name="常规 13" xfId="132"/>
@@ -3517,8 +3477,8 @@
     <cellStyle name="常规 6 2 5 3" xfId="134"/>
     <cellStyle name="常规 12 2" xfId="135"/>
     <cellStyle name="常规 6 2 6 3" xfId="136"/>
-    <cellStyle name="常规 2 3 3 2" xfId="137"/>
-    <cellStyle name="常规 12 3" xfId="138"/>
+    <cellStyle name="常规 12 3" xfId="137"/>
+    <cellStyle name="常规 2 3 3 2" xfId="138"/>
     <cellStyle name="常规 14 2" xfId="139"/>
     <cellStyle name="常规 15" xfId="140"/>
     <cellStyle name="常规 15 2" xfId="141"/>
@@ -3540,8 +3500,8 @@
     <cellStyle name="超链接 2 6 2" xfId="157"/>
     <cellStyle name="常规 2 2 2" xfId="158"/>
     <cellStyle name="常规 2 2 2 2" xfId="159"/>
-    <cellStyle name="常规 2 4 4" xfId="160"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="161"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="160"/>
+    <cellStyle name="常规 2 4 4" xfId="161"/>
     <cellStyle name="常规 2 2 2 2 2 2" xfId="162"/>
     <cellStyle name="標準 4 3" xfId="163"/>
     <cellStyle name="常规 2 2 2 2 2 2 2" xfId="164"/>
@@ -3558,26 +3518,26 @@
     <cellStyle name="常规 6 2 2 5" xfId="175"/>
     <cellStyle name="標準 4 5" xfId="176"/>
     <cellStyle name="常规 2 2 2 2 2 2 4" xfId="177"/>
-    <cellStyle name="常规 6 8 3" xfId="178"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="179"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="178"/>
+    <cellStyle name="常规 6 8 3" xfId="179"/>
     <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="180"/>
     <cellStyle name="常规 2 2 2 2 2 4" xfId="181"/>
     <cellStyle name="常规 2 2 2 2 2 4 3" xfId="182"/>
-    <cellStyle name="超链接 2 7 2" xfId="183"/>
-    <cellStyle name="常规 2 3 2" xfId="184"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="185"/>
-    <cellStyle name="常规 2 4 5" xfId="186"/>
-    <cellStyle name="常规 7 2 2" xfId="187"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="188"/>
-    <cellStyle name="常规 7 2 2 2" xfId="189"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="190"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="183"/>
+    <cellStyle name="超链接 2 7 2" xfId="184"/>
+    <cellStyle name="常规 2 3 2" xfId="185"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="186"/>
+    <cellStyle name="常规 2 4 5" xfId="187"/>
+    <cellStyle name="常规 7 2 2" xfId="188"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="189"/>
+    <cellStyle name="常规 7 2 2 2" xfId="190"/>
     <cellStyle name="常规 2 2 2 2 3 2 3" xfId="191"/>
     <cellStyle name="常规 2 2 2 2 3 3" xfId="192"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="193"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="194"/>
-    <cellStyle name="常规 7 2 3" xfId="195"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="196"/>
-    <cellStyle name="常规 5 2 3 2" xfId="197"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="193"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="194"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="195"/>
+    <cellStyle name="常规 5 2 3 2" xfId="196"/>
+    <cellStyle name="常规 7 2 3" xfId="197"/>
     <cellStyle name="超链接 3 2 2 3" xfId="198"/>
     <cellStyle name="常规 2 2 2 2 4 2" xfId="199"/>
     <cellStyle name="常规 5 2 3 2 2" xfId="200"/>
@@ -3596,26 +3556,26 @@
     <cellStyle name="常规 2 2 2 2 6 3" xfId="213"/>
     <cellStyle name="常规 2 2 2 2 7" xfId="214"/>
     <cellStyle name="常规 2 2 2 3" xfId="215"/>
-    <cellStyle name="常规 2 5 4" xfId="216"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="217"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="216"/>
+    <cellStyle name="常规 2 5 4" xfId="217"/>
     <cellStyle name="常规 2 2 2 3 2 2" xfId="218"/>
     <cellStyle name="常规 2 2 2 3 2 2 3" xfId="219"/>
     <cellStyle name="常规 2 4 2" xfId="220"/>
     <cellStyle name="常规 2 2 2 3 2 3" xfId="221"/>
     <cellStyle name="常规 3 2 7 2" xfId="222"/>
     <cellStyle name="常规 2 2 2 3 2 4" xfId="223"/>
-    <cellStyle name="常规 7 3 2" xfId="224"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="225"/>
-    <cellStyle name="常规 7 3 2 2" xfId="226"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="227"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="224"/>
+    <cellStyle name="常规 7 3 2" xfId="225"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="226"/>
+    <cellStyle name="常规 7 3 2 2" xfId="227"/>
     <cellStyle name="常规 2 2 2 3 3 2 2" xfId="228"/>
     <cellStyle name="常规 2 2 2 3 3 2 3" xfId="229"/>
     <cellStyle name="常规 3 4 2" xfId="230"/>
     <cellStyle name="常规 2 2 2 3 3 3" xfId="231"/>
     <cellStyle name="常规 3 2 8 2" xfId="232"/>
-    <cellStyle name="常规 7 3 3" xfId="233"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="234"/>
-    <cellStyle name="常规 5 2 4 2" xfId="235"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="233"/>
+    <cellStyle name="常规 5 2 4 2" xfId="234"/>
+    <cellStyle name="常规 7 3 3" xfId="235"/>
     <cellStyle name="超链接 3 3 2 3" xfId="236"/>
     <cellStyle name="常规 2 2 2 3 4 2" xfId="237"/>
     <cellStyle name="常规 5 2 4 2 2" xfId="238"/>
@@ -3625,28 +3585,28 @@
     <cellStyle name="常规 2 2 2 4 2" xfId="242"/>
     <cellStyle name="標準 2 5" xfId="243"/>
     <cellStyle name="常规 2 2 2 4 2 2" xfId="244"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="245"/>
-    <cellStyle name="常规 4 5 2 2" xfId="246"/>
-    <cellStyle name="常规 7 4 2" xfId="247"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="248"/>
-    <cellStyle name="常规 7 4 3" xfId="249"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="250"/>
-    <cellStyle name="常规 5 2 5 2" xfId="251"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="245"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="246"/>
+    <cellStyle name="常规 4 5 2 2" xfId="247"/>
+    <cellStyle name="常规 7 4 2" xfId="248"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="249"/>
+    <cellStyle name="常规 5 2 5 2" xfId="250"/>
+    <cellStyle name="常规 7 4 3" xfId="251"/>
     <cellStyle name="常规 2 2 2 5 2" xfId="252"/>
     <cellStyle name="常规 2 2 2 5 2 2" xfId="253"/>
     <cellStyle name="常规 2 2 2 5 2 3" xfId="254"/>
-    <cellStyle name="常规 7 5 2" xfId="255"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="256"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="255"/>
+    <cellStyle name="常规 7 5 2" xfId="256"/>
     <cellStyle name="常规 2 2 2 5 4" xfId="257"/>
     <cellStyle name="常规 5 2 6 2" xfId="258"/>
     <cellStyle name="常规 2 2 2 6 2" xfId="259"/>
-    <cellStyle name="常规 7 6 2" xfId="260"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="261"/>
-    <cellStyle name="常规 2 5" xfId="262"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="263"/>
-    <cellStyle name="常规 2 6" xfId="264"/>
-    <cellStyle name="常规 7 7 2" xfId="265"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="266"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="260"/>
+    <cellStyle name="常规 7 6 2" xfId="261"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="262"/>
+    <cellStyle name="常规 2 5" xfId="263"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="264"/>
+    <cellStyle name="常规 2 6" xfId="265"/>
+    <cellStyle name="常规 7 7 2" xfId="266"/>
     <cellStyle name="超链接 2 6 3" xfId="267"/>
     <cellStyle name="常规 2 2 3" xfId="268"/>
     <cellStyle name="常规 2 2 3 2" xfId="269"/>
@@ -3655,37 +3615,37 @@
     <cellStyle name="常规 2 2 3 6" xfId="272"/>
     <cellStyle name="常规 2 2 3 2 2 3" xfId="273"/>
     <cellStyle name="常规 3 9 2" xfId="274"/>
-    <cellStyle name="常规 8 2 2" xfId="275"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="276"/>
-    <cellStyle name="常规 8 2 3" xfId="277"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="278"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="275"/>
+    <cellStyle name="常规 8 2 2" xfId="276"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="277"/>
+    <cellStyle name="常规 8 2 3" xfId="278"/>
     <cellStyle name="常规 2 2 3 3" xfId="279"/>
     <cellStyle name="常规 2 2 3 3 2" xfId="280"/>
     <cellStyle name="常规 2 2 3 3 2 2" xfId="281"/>
     <cellStyle name="常规 2 2 3 3 2 3" xfId="282"/>
     <cellStyle name="常规 4 2 7 2" xfId="283"/>
     <cellStyle name="常规 4 9 2" xfId="284"/>
-    <cellStyle name="常规 8 3 2" xfId="285"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="286"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="285"/>
+    <cellStyle name="常规 8 3 2" xfId="286"/>
     <cellStyle name="常规 2 2 3 4" xfId="287"/>
     <cellStyle name="常规 2 2 3 4 2" xfId="288"/>
-    <cellStyle name="常规 8 4 2" xfId="289"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="290"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="289"/>
+    <cellStyle name="常规 8 4 2" xfId="290"/>
     <cellStyle name="常规 2 2 3 5" xfId="291"/>
     <cellStyle name="常规 2 2 3 5 2" xfId="292"/>
     <cellStyle name="標準 2 2 3" xfId="293"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="294"/>
-    <cellStyle name="標準 2 2 4" xfId="295"/>
-    <cellStyle name="常规 8 5 2" xfId="296"/>
+    <cellStyle name="常规 8 5 2" xfId="294"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="295"/>
+    <cellStyle name="標準 2 2 4" xfId="296"/>
     <cellStyle name="适中 2 2 3" xfId="297"/>
     <cellStyle name="常规 2 2 4 2" xfId="298"/>
-    <cellStyle name="常规 6 6" xfId="299"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="300"/>
-    <cellStyle name="常规 3 10" xfId="301"/>
-    <cellStyle name="常规 6 7" xfId="302"/>
-    <cellStyle name="常规 9 2 2" xfId="303"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="304"/>
-    <cellStyle name="常规 3 11" xfId="305"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="299"/>
+    <cellStyle name="常规 3 10" xfId="300"/>
+    <cellStyle name="常规 6 6" xfId="301"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="302"/>
+    <cellStyle name="常规 3 11" xfId="303"/>
+    <cellStyle name="常规 6 7" xfId="304"/>
+    <cellStyle name="常规 9 2 2" xfId="305"/>
     <cellStyle name="常规 2 2 4 3" xfId="306"/>
     <cellStyle name="常规 2 2 4 4" xfId="307"/>
     <cellStyle name="常规 2 2 5" xfId="308"/>
@@ -3719,10 +3679,10 @@
     <cellStyle name="常规 2 3 5" xfId="336"/>
     <cellStyle name="常规 2 3 5 2" xfId="337"/>
     <cellStyle name="常规 2 3 5 3" xfId="338"/>
-    <cellStyle name="標準 4 5 3" xfId="339"/>
-    <cellStyle name="常规 5 2 2 2" xfId="340"/>
-    <cellStyle name="標準 2 6 2 2" xfId="341"/>
-    <cellStyle name="常规 2 3 6" xfId="342"/>
+    <cellStyle name="標準 2 6 2 2" xfId="339"/>
+    <cellStyle name="常规 2 3 6" xfId="340"/>
+    <cellStyle name="標準 4 5 3" xfId="341"/>
+    <cellStyle name="常规 5 2 2 2" xfId="342"/>
     <cellStyle name="超链接 2 8" xfId="343"/>
     <cellStyle name="常规 2 4" xfId="344"/>
     <cellStyle name="常规 2 4 2 2" xfId="345"/>
@@ -3732,8 +3692,8 @@
     <cellStyle name="常规 2 4 3 3" xfId="349"/>
     <cellStyle name="常规 2 5 2" xfId="350"/>
     <cellStyle name="常规 2 5 2 2" xfId="351"/>
-    <cellStyle name="常规 3 2 5 2" xfId="352"/>
-    <cellStyle name="常规 2 5 2 3" xfId="353"/>
+    <cellStyle name="常规 2 5 2 3" xfId="352"/>
+    <cellStyle name="常规 3 2 5 2" xfId="353"/>
     <cellStyle name="常规 2 5 3" xfId="354"/>
     <cellStyle name="常规 2 6 2" xfId="355"/>
     <cellStyle name="常规 2 6 3" xfId="356"/>
@@ -3741,12 +3701,12 @@
     <cellStyle name="常规 2 8" xfId="358"/>
     <cellStyle name="常规 3" xfId="359"/>
     <cellStyle name="常规 6 10" xfId="360"/>
-    <cellStyle name="常规 6 6 2" xfId="361"/>
-    <cellStyle name="常规 3 10 2" xfId="362"/>
-    <cellStyle name="常规 6 7 2" xfId="363"/>
-    <cellStyle name="常规 3 11 2" xfId="364"/>
-    <cellStyle name="常规 6 8" xfId="365"/>
-    <cellStyle name="常规 3 12" xfId="366"/>
+    <cellStyle name="常规 3 10 2" xfId="361"/>
+    <cellStyle name="常规 6 6 2" xfId="362"/>
+    <cellStyle name="常规 3 11 2" xfId="363"/>
+    <cellStyle name="常规 6 7 2" xfId="364"/>
+    <cellStyle name="常规 3 12" xfId="365"/>
+    <cellStyle name="常规 6 8" xfId="366"/>
     <cellStyle name="常规 3 2" xfId="367"/>
     <cellStyle name="常规 6 10 2" xfId="368"/>
     <cellStyle name="常规 3 2 2" xfId="369"/>
@@ -3778,8 +3738,8 @@
     <cellStyle name="標準 2 3 2 2" xfId="395"/>
     <cellStyle name="常规 3 5" xfId="396"/>
     <cellStyle name="常规 3 5 2" xfId="397"/>
-    <cellStyle name="常规 9 3" xfId="398"/>
-    <cellStyle name="常规 3 5 2 2" xfId="399"/>
+    <cellStyle name="常规 3 5 2 2" xfId="398"/>
+    <cellStyle name="常规 9 3" xfId="399"/>
     <cellStyle name="常规 3 5 3" xfId="400"/>
     <cellStyle name="常规 3 6" xfId="401"/>
     <cellStyle name="常规 7 8 2" xfId="402"/>
@@ -3838,15 +3798,15 @@
     <cellStyle name="常规 4 3 3" xfId="455"/>
     <cellStyle name="常规 5 5" xfId="456"/>
     <cellStyle name="常规 5" xfId="457"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="458"/>
-    <cellStyle name="常规 6 5 3" xfId="459"/>
-    <cellStyle name="常规 5 10" xfId="460"/>
+    <cellStyle name="常规 5 10" xfId="458"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="459"/>
+    <cellStyle name="常规 6 5 3" xfId="460"/>
     <cellStyle name="超链接 2 5 2 3" xfId="461"/>
     <cellStyle name="常规 5 10 2" xfId="462"/>
     <cellStyle name="常规 8" xfId="463"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="464"/>
-    <cellStyle name="常规 6 5 4" xfId="465"/>
-    <cellStyle name="常规 5 11" xfId="466"/>
+    <cellStyle name="常规 5 11" xfId="464"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="465"/>
+    <cellStyle name="常规 6 5 4" xfId="466"/>
     <cellStyle name="常规 5 2 2 2 2" xfId="467"/>
     <cellStyle name="標準 4 5 4" xfId="468"/>
     <cellStyle name="常规 5 2 2 3" xfId="469"/>
@@ -3859,8 +3819,8 @@
     <cellStyle name="常规 5 3" xfId="476"/>
     <cellStyle name="常规 5 3 2" xfId="477"/>
     <cellStyle name="常规 5 3 3" xfId="478"/>
-    <cellStyle name="常规 5 8" xfId="479"/>
-    <cellStyle name="常规 5 4 2 2" xfId="480"/>
+    <cellStyle name="常规 5 4 2 2" xfId="479"/>
+    <cellStyle name="常规 5 8" xfId="480"/>
     <cellStyle name="常规 5 4 3" xfId="481"/>
     <cellStyle name="超链接 2 2 4" xfId="482"/>
     <cellStyle name="常规 5 5 2" xfId="483"/>
@@ -3892,11 +3852,11 @@
     <cellStyle name="標準 4 2 3" xfId="509"/>
     <cellStyle name="常规 6 2 2 3 3" xfId="510"/>
     <cellStyle name="常规 6 2 3 2" xfId="511"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="512"/>
-    <cellStyle name="常规 6 6 3" xfId="513"/>
+    <cellStyle name="常规 6 6 3" xfId="512"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="513"/>
     <cellStyle name="常规 6 2 3 2 2" xfId="514"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="515"/>
-    <cellStyle name="常规 6 6 4" xfId="516"/>
+    <cellStyle name="常规 6 6 4" xfId="515"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="516"/>
     <cellStyle name="常规 6 2 3 2 3" xfId="517"/>
     <cellStyle name="常规 6 2 4" xfId="518"/>
     <cellStyle name="常规 6 2 4 2 3" xfId="519"/>
@@ -3904,10 +3864,10 @@
     <cellStyle name="常规 6 2 5 2" xfId="521"/>
     <cellStyle name="常规 6 2 6" xfId="522"/>
     <cellStyle name="常规 6 2 6 2" xfId="523"/>
-    <cellStyle name="常规 6 2 7" xfId="524"/>
-    <cellStyle name="常规 6 3 4 2" xfId="525"/>
-    <cellStyle name="常规 6 2 8" xfId="526"/>
-    <cellStyle name="常规 6 3 4 3" xfId="527"/>
+    <cellStyle name="常规 6 3 4 2" xfId="524"/>
+    <cellStyle name="常规 6 2 7" xfId="525"/>
+    <cellStyle name="常规 6 3 4 3" xfId="526"/>
+    <cellStyle name="常规 6 2 8" xfId="527"/>
     <cellStyle name="常规 6 2 9" xfId="528"/>
     <cellStyle name="常规 6 3" xfId="529"/>
     <cellStyle name="常规 6 3 2" xfId="530"/>
@@ -3915,24 +3875,24 @@
     <cellStyle name="常规 6 3 2 2 3" xfId="532"/>
     <cellStyle name="常规 6 3 3" xfId="533"/>
     <cellStyle name="常规 6 3 3 2" xfId="534"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="535"/>
-    <cellStyle name="常规 7 9" xfId="536"/>
+    <cellStyle name="常规 7 9" xfId="535"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="536"/>
     <cellStyle name="常规 6 3 3 2 3" xfId="537"/>
     <cellStyle name="常规 6 3 4" xfId="538"/>
     <cellStyle name="常规 6 3 5" xfId="539"/>
     <cellStyle name="常规 6 4 2 3" xfId="540"/>
-    <cellStyle name="超链接 3 2 4" xfId="541"/>
-    <cellStyle name="常规 6 5 2" xfId="542"/>
+    <cellStyle name="常规 6 5 2" xfId="541"/>
+    <cellStyle name="超链接 3 2 4" xfId="542"/>
     <cellStyle name="常规 6 5 2 2" xfId="543"/>
     <cellStyle name="常规 6 6 2 2" xfId="544"/>
     <cellStyle name="常规 6 6 2 3" xfId="545"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="546"/>
-    <cellStyle name="常规 6 7 3" xfId="547"/>
-    <cellStyle name="常规 6 8 2" xfId="548"/>
-    <cellStyle name="標準 2 2 2 3" xfId="549"/>
+    <cellStyle name="常规 6 7 3" xfId="546"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="547"/>
+    <cellStyle name="標準 2 2 2 3" xfId="548"/>
+    <cellStyle name="常规 6 8 2" xfId="549"/>
     <cellStyle name="常规 6 9" xfId="550"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="551"/>
-    <cellStyle name="常规 7" xfId="552"/>
+    <cellStyle name="常规 7" xfId="551"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="552"/>
     <cellStyle name="常规 8 6 2" xfId="553"/>
     <cellStyle name="常规 7 10" xfId="554"/>
     <cellStyle name="常规 7 2" xfId="555"/>
@@ -3970,19 +3930,19 @@
     <cellStyle name="標準 2 8" xfId="587"/>
     <cellStyle name="標準 2 8 2" xfId="588"/>
     <cellStyle name="標準 2 9" xfId="589"/>
-    <cellStyle name="標準 3 3 3 2" xfId="590"/>
-    <cellStyle name="標準 3" xfId="591"/>
+    <cellStyle name="標準 3" xfId="590"/>
+    <cellStyle name="標準 3 3 3 2" xfId="591"/>
     <cellStyle name="標準 3 2" xfId="592"/>
     <cellStyle name="標準 3 2 2" xfId="593"/>
-    <cellStyle name="標準 3 2 4" xfId="594"/>
-    <cellStyle name="標準 3 2 2 2" xfId="595"/>
-    <cellStyle name="標準 3 2 5" xfId="596"/>
-    <cellStyle name="標準 3 2 2 3" xfId="597"/>
+    <cellStyle name="標準 3 2 2 2" xfId="594"/>
+    <cellStyle name="標準 3 2 4" xfId="595"/>
+    <cellStyle name="標準 3 2 2 3" xfId="596"/>
+    <cellStyle name="標準 3 2 5" xfId="597"/>
     <cellStyle name="標準 3 2 3" xfId="598"/>
-    <cellStyle name="標準 3 3 4" xfId="599"/>
-    <cellStyle name="標準 3 2 3 2" xfId="600"/>
-    <cellStyle name="標準 3 3 5" xfId="601"/>
-    <cellStyle name="標準 3 2 3 3" xfId="602"/>
+    <cellStyle name="標準 3 2 3 2" xfId="599"/>
+    <cellStyle name="標準 3 3 4" xfId="600"/>
+    <cellStyle name="標準 3 2 3 3" xfId="601"/>
+    <cellStyle name="標準 3 3 5" xfId="602"/>
     <cellStyle name="標準 3 2 5 2" xfId="603"/>
     <cellStyle name="標準 3 2 5 3" xfId="604"/>
     <cellStyle name="標準 3 2 6" xfId="605"/>
@@ -3990,13 +3950,13 @@
     <cellStyle name="標準 3 2 6 3" xfId="607"/>
     <cellStyle name="標準 3 3" xfId="608"/>
     <cellStyle name="標準 3 3 2" xfId="609"/>
-    <cellStyle name="標準 4 2 4" xfId="610"/>
-    <cellStyle name="標準 3 3 2 2" xfId="611"/>
-    <cellStyle name="標準 4 2 5" xfId="612"/>
-    <cellStyle name="標準 3 3 2 3" xfId="613"/>
+    <cellStyle name="標準 3 3 2 2" xfId="610"/>
+    <cellStyle name="標準 4 2 4" xfId="611"/>
+    <cellStyle name="標準 3 3 2 3" xfId="612"/>
+    <cellStyle name="標準 4 2 5" xfId="613"/>
     <cellStyle name="標準 3 3 3" xfId="614"/>
-    <cellStyle name="標準 4" xfId="615"/>
-    <cellStyle name="標準 3 3 3 3" xfId="616"/>
+    <cellStyle name="標準 3 3 3 3" xfId="615"/>
+    <cellStyle name="標準 4" xfId="616"/>
     <cellStyle name="標準 3 4" xfId="617"/>
     <cellStyle name="標準 3 4 2" xfId="618"/>
     <cellStyle name="標準 3 5" xfId="619"/>
@@ -4018,8 +3978,8 @@
     <cellStyle name="標準 4 7" xfId="635"/>
     <cellStyle name="標準 5" xfId="636"/>
     <cellStyle name="超链接 10" xfId="637"/>
-    <cellStyle name="超链接 2 5 3" xfId="638"/>
-    <cellStyle name="超链接 2" xfId="639"/>
+    <cellStyle name="超链接 2" xfId="638"/>
+    <cellStyle name="超链接 2 5 3" xfId="639"/>
     <cellStyle name="超链接 2 2" xfId="640"/>
     <cellStyle name="超链接 2 2 2" xfId="641"/>
     <cellStyle name="超链接 2 2 2 2" xfId="642"/>
@@ -4041,8 +4001,8 @@
     <cellStyle name="超链接 2 2 4 3" xfId="658"/>
     <cellStyle name="超链接 2 2 4 4" xfId="659"/>
     <cellStyle name="超链接 2 2 5 2" xfId="660"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="661"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="662"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="661"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="662"/>
     <cellStyle name="超链接 2 2 6" xfId="663"/>
     <cellStyle name="超链接 2 2 6 2" xfId="664"/>
     <cellStyle name="超链接 2 2 6 3" xfId="665"/>
@@ -4408,9 +4368,9 @@
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10458,7 +10418,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -10589,9 +10549,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:5">
       <c r="D20" t="s">
         <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="4:4">

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\gitFile\skillup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hyron\study\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8D42AE-3EE2-44A8-A2FE-362C27178565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="rv">list!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -2837,676 +2836,676 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="670">
-    <cellStyle name="標準 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="標準 2 2" xfId="521" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
-    <cellStyle name="標準 2 2 2" xfId="522" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
-    <cellStyle name="標準 2 2 2 2" xfId="523" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="524" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
-    <cellStyle name="標準 2 2 2 3" xfId="502" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
-    <cellStyle name="標準 2 2 3" xfId="246" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="標準 2 2 3 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
-    <cellStyle name="標準 2 2 3 3" xfId="332" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
-    <cellStyle name="標準 2 2 4" xfId="248" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="標準 2 2 4 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="標準 2 2 5" xfId="525" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
-    <cellStyle name="標準 2 3" xfId="526" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
-    <cellStyle name="標準 2 3 2" xfId="527" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
-    <cellStyle name="標準 2 3 2 2" xfId="348" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
-    <cellStyle name="標準 2 3 3" xfId="528" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
-    <cellStyle name="標準 2 4" xfId="529" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
-    <cellStyle name="標準 2 4 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
-    <cellStyle name="標準 2 4 2 2" xfId="531" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
-    <cellStyle name="標準 2 4 3" xfId="532" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
-    <cellStyle name="標準 2 5" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="標準 2 5 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
-    <cellStyle name="標準 2 5 2 2" xfId="534" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
-    <cellStyle name="標準 2 5 3" xfId="535" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="標準 2 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="標準 2 6 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="標準 2 6 2 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="標準 2 6 3" xfId="41" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="標準 2 7" xfId="536" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
-    <cellStyle name="標準 2 7 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
-    <cellStyle name="標準 2 7 3" xfId="538" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
-    <cellStyle name="標準 2 8" xfId="539" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
-    <cellStyle name="標準 2 8 2" xfId="540" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="標準 2 9" xfId="541" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
-    <cellStyle name="標準 3" xfId="543" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
-    <cellStyle name="標準 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
-    <cellStyle name="標準 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
-    <cellStyle name="標準 3 2 2 2" xfId="547" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
-    <cellStyle name="標準 3 2 2 3" xfId="549" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
-    <cellStyle name="標準 3 2 3" xfId="550" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
-    <cellStyle name="標準 3 2 3 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
-    <cellStyle name="標準 3 2 3 3" xfId="554" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
-    <cellStyle name="標準 3 2 4" xfId="546" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
-    <cellStyle name="標準 3 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="標準 3 2 4 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="標準 3 2 5" xfId="548" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
-    <cellStyle name="標準 3 2 5 2" xfId="555" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
-    <cellStyle name="標準 3 2 5 3" xfId="556" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
-    <cellStyle name="標準 3 2 6" xfId="557" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
-    <cellStyle name="標準 3 2 6 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
-    <cellStyle name="標準 3 2 6 3" xfId="559" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
-    <cellStyle name="標準 3 2 7" xfId="20" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="標準 3 2 8" xfId="268" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="標準 3 3" xfId="560" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
-    <cellStyle name="標準 3 3 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
-    <cellStyle name="標準 3 3 2 2" xfId="563" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
-    <cellStyle name="標準 3 3 2 3" xfId="565" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
-    <cellStyle name="標準 3 3 3" xfId="566" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
-    <cellStyle name="標準 3 3 3 2" xfId="542" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="標準 3 3 3 3" xfId="568" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
-    <cellStyle name="標準 3 3 4" xfId="551" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
-    <cellStyle name="標準 3 3 5" xfId="553" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
-    <cellStyle name="標準 3 4" xfId="569" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
-    <cellStyle name="標準 3 4 2" xfId="570" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
-    <cellStyle name="標準 3 4 3" xfId="365" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
-    <cellStyle name="標準 3 5" xfId="571" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
-    <cellStyle name="標準 3 5 2" xfId="572" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
-    <cellStyle name="標準 3 5 3" xfId="573" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
-    <cellStyle name="標準 3 6" xfId="574" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
-    <cellStyle name="標準 3 6 2" xfId="575" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
-    <cellStyle name="標準 3 6 3" xfId="48" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="標準 3 7" xfId="576" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
-    <cellStyle name="標準 3 7 2" xfId="577" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
-    <cellStyle name="標準 3 7 3" xfId="578" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
-    <cellStyle name="標準 3 8" xfId="579" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
-    <cellStyle name="標準 3 9" xfId="580" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
-    <cellStyle name="標準 4" xfId="567" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
-    <cellStyle name="標準 4 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
-    <cellStyle name="標準 4 2 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
-    <cellStyle name="標準 4 2 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="標準 4 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="標準 4 2 3" xfId="462" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
-    <cellStyle name="標準 4 2 3 2" xfId="581" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
-    <cellStyle name="標準 4 2 3 3" xfId="582" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
-    <cellStyle name="標準 4 2 4" xfId="562" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
-    <cellStyle name="標準 4 2 5" xfId="564" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
-    <cellStyle name="標準 4 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="標準 4 3 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="標準 4 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="標準 4 4" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="標準 4 4 2" xfId="583" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
-    <cellStyle name="標準 4 4 3" xfId="584" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
-    <cellStyle name="標準 4 5" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="標準 4 5 2" xfId="585" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
-    <cellStyle name="標準 4 5 3" xfId="292" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="標準 4 5 4" xfId="421" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
-    <cellStyle name="標準 4 6" xfId="586" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
-    <cellStyle name="標準 4 7" xfId="587" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
-    <cellStyle name="標準 5" xfId="588" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
-    <cellStyle name="標準 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="標準 5 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="標準 6" xfId="68" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="標準 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="標準 6 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="標準 7" xfId="83" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="標準 8" xfId="32" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="標準 2" xfId="125"/>
+    <cellStyle name="標準 2 2" xfId="521"/>
+    <cellStyle name="標準 2 2 2" xfId="522"/>
+    <cellStyle name="標準 2 2 2 2" xfId="523"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="524"/>
+    <cellStyle name="標準 2 2 2 3" xfId="502"/>
+    <cellStyle name="標準 2 2 3" xfId="246"/>
+    <cellStyle name="標準 2 2 3 2" xfId="326"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="328"/>
+    <cellStyle name="標準 2 2 3 3" xfId="332"/>
+    <cellStyle name="標準 2 2 4" xfId="248"/>
+    <cellStyle name="標準 2 2 4 2" xfId="345"/>
+    <cellStyle name="標準 2 2 5" xfId="525"/>
+    <cellStyle name="標準 2 3" xfId="526"/>
+    <cellStyle name="標準 2 3 2" xfId="527"/>
+    <cellStyle name="標準 2 3 2 2" xfId="348"/>
+    <cellStyle name="標準 2 3 3" xfId="528"/>
+    <cellStyle name="標準 2 4" xfId="529"/>
+    <cellStyle name="標準 2 4 2" xfId="530"/>
+    <cellStyle name="標準 2 4 2 2" xfId="531"/>
+    <cellStyle name="標準 2 4 3" xfId="532"/>
+    <cellStyle name="標準 2 5" xfId="196"/>
+    <cellStyle name="標準 2 5 2" xfId="533"/>
+    <cellStyle name="標準 2 5 2 2" xfId="534"/>
+    <cellStyle name="標準 2 5 3" xfId="535"/>
+    <cellStyle name="標準 2 6" xfId="30"/>
+    <cellStyle name="標準 2 6 2" xfId="37"/>
+    <cellStyle name="標準 2 6 2 2" xfId="294"/>
+    <cellStyle name="標準 2 6 3" xfId="41"/>
+    <cellStyle name="標準 2 7" xfId="536"/>
+    <cellStyle name="標準 2 7 2" xfId="537"/>
+    <cellStyle name="標準 2 7 3" xfId="538"/>
+    <cellStyle name="標準 2 8" xfId="539"/>
+    <cellStyle name="標準 2 8 2" xfId="540"/>
+    <cellStyle name="標準 2 9" xfId="541"/>
+    <cellStyle name="標準 3" xfId="543"/>
+    <cellStyle name="標準 3 2" xfId="544"/>
+    <cellStyle name="標準 3 2 2" xfId="545"/>
+    <cellStyle name="標準 3 2 2 2" xfId="547"/>
+    <cellStyle name="標準 3 2 2 3" xfId="549"/>
+    <cellStyle name="標準 3 2 3" xfId="550"/>
+    <cellStyle name="標準 3 2 3 2" xfId="552"/>
+    <cellStyle name="標準 3 2 3 3" xfId="554"/>
+    <cellStyle name="標準 3 2 4" xfId="546"/>
+    <cellStyle name="標準 3 2 4 2" xfId="38"/>
+    <cellStyle name="標準 3 2 4 3" xfId="22"/>
+    <cellStyle name="標準 3 2 5" xfId="548"/>
+    <cellStyle name="標準 3 2 5 2" xfId="555"/>
+    <cellStyle name="標準 3 2 5 3" xfId="556"/>
+    <cellStyle name="標準 3 2 6" xfId="557"/>
+    <cellStyle name="標準 3 2 6 2" xfId="558"/>
+    <cellStyle name="標準 3 2 6 3" xfId="559"/>
+    <cellStyle name="標準 3 2 7" xfId="20"/>
+    <cellStyle name="標準 3 2 8" xfId="268"/>
+    <cellStyle name="標準 3 3" xfId="560"/>
+    <cellStyle name="標準 3 3 2" xfId="561"/>
+    <cellStyle name="標準 3 3 2 2" xfId="563"/>
+    <cellStyle name="標準 3 3 2 3" xfId="565"/>
+    <cellStyle name="標準 3 3 3" xfId="566"/>
+    <cellStyle name="標準 3 3 3 2" xfId="542"/>
+    <cellStyle name="標準 3 3 3 3" xfId="568"/>
+    <cellStyle name="標準 3 3 4" xfId="551"/>
+    <cellStyle name="標準 3 3 5" xfId="553"/>
+    <cellStyle name="標準 3 4" xfId="569"/>
+    <cellStyle name="標準 3 4 2" xfId="570"/>
+    <cellStyle name="標準 3 4 3" xfId="365"/>
+    <cellStyle name="標準 3 5" xfId="571"/>
+    <cellStyle name="標準 3 5 2" xfId="572"/>
+    <cellStyle name="標準 3 5 3" xfId="573"/>
+    <cellStyle name="標準 3 6" xfId="574"/>
+    <cellStyle name="標準 3 6 2" xfId="575"/>
+    <cellStyle name="標準 3 6 3" xfId="48"/>
+    <cellStyle name="標準 3 7" xfId="576"/>
+    <cellStyle name="標準 3 7 2" xfId="577"/>
+    <cellStyle name="標準 3 7 3" xfId="578"/>
+    <cellStyle name="標準 3 8" xfId="579"/>
+    <cellStyle name="標準 3 9" xfId="580"/>
+    <cellStyle name="標準 4" xfId="567"/>
+    <cellStyle name="標準 4 2" xfId="458"/>
+    <cellStyle name="標準 4 2 2" xfId="460"/>
+    <cellStyle name="標準 4 2 2 2" xfId="59"/>
+    <cellStyle name="標準 4 2 2 3" xfId="13"/>
+    <cellStyle name="標準 4 2 3" xfId="462"/>
+    <cellStyle name="標準 4 2 3 2" xfId="581"/>
+    <cellStyle name="標準 4 2 3 3" xfId="582"/>
+    <cellStyle name="標準 4 2 4" xfId="562"/>
+    <cellStyle name="標準 4 2 5" xfId="564"/>
+    <cellStyle name="標準 4 3" xfId="116"/>
+    <cellStyle name="標準 4 3 2" xfId="119"/>
+    <cellStyle name="標準 4 3 3" xfId="122"/>
+    <cellStyle name="標準 4 4" xfId="126"/>
+    <cellStyle name="標準 4 4 2" xfId="583"/>
+    <cellStyle name="標準 4 4 3" xfId="584"/>
+    <cellStyle name="標準 4 5" xfId="129"/>
+    <cellStyle name="標準 4 5 2" xfId="585"/>
+    <cellStyle name="標準 4 5 3" xfId="292"/>
+    <cellStyle name="標準 4 5 4" xfId="421"/>
+    <cellStyle name="標準 4 6" xfId="586"/>
+    <cellStyle name="標準 4 7" xfId="587"/>
+    <cellStyle name="標準 5" xfId="588"/>
+    <cellStyle name="標準 5 2" xfId="52"/>
+    <cellStyle name="標準 5 3" xfId="55"/>
+    <cellStyle name="標準 6" xfId="68"/>
+    <cellStyle name="標準 6 2" xfId="71"/>
+    <cellStyle name="標準 6 3" xfId="4"/>
+    <cellStyle name="標準 7" xfId="83"/>
+    <cellStyle name="標準 8" xfId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="69" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="常规 10 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="常规 10 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="常规 10 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="常规 11 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="常规 11 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 11 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="常规 12" xfId="33" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 12 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="常规 12 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="常规 12 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="常规 13" xfId="85" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="常规 13 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 14" xfId="77" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="常规 14 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="常规 15" xfId="93" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="常规 15 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="常规 16" xfId="95" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="常规 16 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="常规 17" xfId="96" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="常规 17 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="常规 18" xfId="103" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="常规 19" xfId="105" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="常规 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="常规 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="常规 2 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="常规 2 2 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="138" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="常规 2 2 2 2 4 4" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="常规 2 2 2 2 5 2" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="常规 2 2 2 2 5 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="常规 2 2 2 2 6" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="常规 2 2 2 2 6 3" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="常规 2 2 2 2 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="常规 2 2 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="常规 2 2 2 3 2 4" xfId="176" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="常规 2 2 2 3 4 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="常规 2 2 2 3 4 3" xfId="192" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="常规 2 2 2 3 5" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="常规 2 2 2 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="常规 2 2 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="常规 2 2 2 5 2 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="常规 2 2 2 5 2 3" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="209" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="常规 2 2 2 5 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="常规 2 2 2 6" xfId="61" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 2 2 6 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="常规 2 2 2 7" xfId="62" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="常规 2 2 2 8" xfId="64" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="常规 2 2 3" xfId="221" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="常规 2 2 3 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="226" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="常规 2 2 3 3" xfId="232" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="239" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="常规 2 2 3 4" xfId="240" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="241" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="常规 2 2 3 5" xfId="244" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="常规 2 2 3 5 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="247" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="常规 2 2 3 6" xfId="225" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="常规 2 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 2 2 4 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="常规 2 2 4 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="常规 2 2 4 4" xfId="260" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="常规 2 2 5" xfId="261" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="常规 2 2 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="常规 2 2 5 3" xfId="265" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="常规 2 2 5 4" xfId="266" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 2 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 2 6 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 2 6 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 2 7" xfId="271" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 2 7 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 2 7 3" xfId="273" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 2 8" xfId="274" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 2 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="280" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3" xfId="282" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="285" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="286" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="288" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 2 3 5" xfId="289" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="290" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 2 3 5 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="295" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 2 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 2 4 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="常规 2 4 2 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 2 4 2 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 2 4 3" xfId="300" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 2 4 3 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 2 4 3 3" xfId="302" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="常规 2 4 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="常规 2 4 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="常规 2 5" xfId="215" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="常规 2 5 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="常规 2 5 2 2" xfId="304" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="常规 2 5 2 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="常规 2 5 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="常规 2 5 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="常规 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="常规 2 6 2" xfId="308" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="常规 2 6 3" xfId="309" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="常规 2 7" xfId="82" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="常规 2 7 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="常规 2 7 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="常规 2 8" xfId="311" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="常规 22" xfId="97" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="常规 3" xfId="312" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="常规 3 10" xfId="254" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="常规 3 10 2" xfId="315" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
-    <cellStyle name="常规 3 11" xfId="258" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="常规 3 11 2" xfId="317" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
-    <cellStyle name="常规 3 12" xfId="319" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
-    <cellStyle name="常规 3 2" xfId="320" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
-    <cellStyle name="常规 3 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
-    <cellStyle name="常规 3 2 2 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
-    <cellStyle name="常规 3 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
-    <cellStyle name="常规 3 2 3" xfId="325" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
-    <cellStyle name="常规 3 2 3 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
-    <cellStyle name="常规 3 2 3 3" xfId="330" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
-    <cellStyle name="常规 3 2 4" xfId="331" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="常规 3 2 4 2" xfId="333" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
-    <cellStyle name="常规 3 2 4 3" xfId="336" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
-    <cellStyle name="常规 3 2 5" xfId="337" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
-    <cellStyle name="常规 3 2 5 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="常规 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="常规 3 2 6 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="常规 3 2 7" xfId="338" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
-    <cellStyle name="常规 3 2 7 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="常规 3 2 8" xfId="339" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="常规 3 2 8 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="常规 3 2 9" xfId="340" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
-    <cellStyle name="常规 3 3" xfId="341" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
-    <cellStyle name="常规 3 3 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
-    <cellStyle name="常规 3 3 2 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
-    <cellStyle name="常规 3 3 3" xfId="344" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
-    <cellStyle name="常规 3 4" xfId="346" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
-    <cellStyle name="常规 3 4 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="常规 3 4 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="常规 3 4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 3 5" xfId="349" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
-    <cellStyle name="常规 3 5 2" xfId="350" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="常规 3 5 2 2" xfId="352" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
-    <cellStyle name="常规 3 5 3" xfId="353" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
-    <cellStyle name="常规 3 6" xfId="354" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
-    <cellStyle name="常规 3 6 2" xfId="356" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
-    <cellStyle name="常规 3 6 2 2" xfId="357" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
-    <cellStyle name="常规 3 6 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 3 7" xfId="358" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="常规 3 7 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
-    <cellStyle name="常规 3 8" xfId="360" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
-    <cellStyle name="常规 3 8 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 3 9" xfId="361" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
-    <cellStyle name="常规 3 9 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="常规 4" xfId="362" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
-    <cellStyle name="常规 4 10" xfId="366" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
-    <cellStyle name="常规 4 10 2" xfId="367" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
-    <cellStyle name="常规 4 11" xfId="39" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="常规 4 12" xfId="24" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 4 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
-    <cellStyle name="常规 4 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
-    <cellStyle name="常规 4 2 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="常规 4 2 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="常规 4 2 3" xfId="374" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
-    <cellStyle name="常规 4 2 3 2" xfId="376" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="常规 4 2 3 3" xfId="379" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
-    <cellStyle name="常规 4 2 4" xfId="382" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="常规 4 2 4 2" xfId="385" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
-    <cellStyle name="常规 4 2 4 3" xfId="388" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
-    <cellStyle name="常规 4 2 5" xfId="390" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
-    <cellStyle name="常规 4 2 5 2" xfId="392" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
-    <cellStyle name="常规 4 2 6" xfId="394" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
-    <cellStyle name="常规 4 2 6 2" xfId="396" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
-    <cellStyle name="常规 4 2 7" xfId="398" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
-    <cellStyle name="常规 4 2 7 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="常规 4 2 8" xfId="400" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
-    <cellStyle name="常规 4 2 8 2" xfId="401" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
-    <cellStyle name="常规 4 2 9" xfId="402" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
-    <cellStyle name="常规 4 3" xfId="403" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
-    <cellStyle name="常规 4 3 2" xfId="404" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
-    <cellStyle name="常规 4 3 2 2" xfId="406" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="常规 4 3 3" xfId="408" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="常规 4 4" xfId="370" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
-    <cellStyle name="常规 4 4 2" xfId="372" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="常规 4 4 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="常规 4 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="常规 4 5" xfId="375" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
-    <cellStyle name="常规 4 5 2" xfId="377" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
-    <cellStyle name="常规 4 5 2 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="常规 4 5 3" xfId="380" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
-    <cellStyle name="常规 4 6" xfId="383" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
-    <cellStyle name="常规 4 6 2" xfId="386" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
-    <cellStyle name="常规 4 7" xfId="391" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
-    <cellStyle name="常规 4 7 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
-    <cellStyle name="常规 4 8" xfId="395" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
-    <cellStyle name="常规 4 8 2" xfId="397" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
-    <cellStyle name="常规 4 9" xfId="399" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
-    <cellStyle name="常规 4 9 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="常规 5" xfId="410" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="常规 5 10" xfId="413" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
-    <cellStyle name="常规 5 10 2" xfId="415" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="常规 5 11" xfId="419" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
-    <cellStyle name="常规 5 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="420" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="422" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="40" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="常规 5 2 3 3" xfId="160" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="常规 5 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="常规 5 2 4 2 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="常规 5 2 4 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="常规 5 2 5" xfId="423" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="常规 5 2 5 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="424" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="常规 5 2 6 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="常规 5 2 7" xfId="425" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="常规 5 2 7 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
-    <cellStyle name="常规 5 2 8" xfId="73" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="常规 5 2 8 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="常规 5 2 9" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5 3" xfId="429" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
-    <cellStyle name="常规 5 3 2 2" xfId="363" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="431" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
-    <cellStyle name="常规 5 4" xfId="405" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="407" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
-    <cellStyle name="常规 5 4 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
-    <cellStyle name="常规 5 4 3" xfId="434" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
-    <cellStyle name="常规 5 5" xfId="409" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
-    <cellStyle name="常规 5 5 2 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
-    <cellStyle name="常规 5 5 3" xfId="440" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
-    <cellStyle name="常规 5 6" xfId="441" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
-    <cellStyle name="常规 5 6 2" xfId="443" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="常规 5 7" xfId="444" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
-    <cellStyle name="常规 5 7 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
-    <cellStyle name="常规 5 8" xfId="432" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
-    <cellStyle name="常规 5 8 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
-    <cellStyle name="常规 5 9" xfId="450" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
-    <cellStyle name="常规 5 9 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 6" xfId="21" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="常规 6 10" xfId="313" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="常规 6 10 2" xfId="321" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
-    <cellStyle name="常规 6 11" xfId="364" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
-    <cellStyle name="常规 6 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
-    <cellStyle name="常规 6 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="常规 6 2 2 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="常规 6 2 2 2 2 3" xfId="455" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="456" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="常规 6 2 2 2 4" xfId="457" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="常规 6 2 2 3" xfId="459" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="常规 6 2 2 3 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="常规 6 2 2 3 3" xfId="463" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
-    <cellStyle name="常规 6 2 2 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="常规 6 2 2 4 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="常规 6 2 2 5" xfId="128" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="常规 6 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="常规 6 2 3 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
-    <cellStyle name="常规 6 2 3 2 2" xfId="467" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="常规 6 2 3 2 3" xfId="470" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
-    <cellStyle name="常规 6 2 3 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 6 2 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 6 2 4" xfId="471" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="常规 6 2 4 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="常规 6 2 4 2 3" xfId="472" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
-    <cellStyle name="常规 6 2 4 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="常规 6 2 4 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 6 2 5" xfId="473" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="常规 6 2 5 2" xfId="474" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
-    <cellStyle name="常规 6 2 5 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="常规 6 2 6" xfId="475" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
-    <cellStyle name="常规 6 2 6 2" xfId="476" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="常规 6 2 6 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="常规 6 2 7" xfId="477" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
-    <cellStyle name="常规 6 2 8" xfId="479" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
-    <cellStyle name="常规 6 2 9" xfId="481" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="常规 6 3" xfId="482" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
-    <cellStyle name="常规 6 3 2" xfId="483" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
-    <cellStyle name="常规 6 3 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="常规 6 3 2 2 2" xfId="484" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="常规 6 3 2 2 3" xfId="485" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="常规 6 3 2 3" xfId="65" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="常规 6 3 2 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="常规 6 3 3" xfId="486" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
-    <cellStyle name="常规 6 3 3 2" xfId="487" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
-    <cellStyle name="常规 6 3 3 2 3" xfId="490" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
-    <cellStyle name="常规 6 3 3 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6 3 4" xfId="491" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
-    <cellStyle name="常规 6 3 4 2" xfId="478" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
-    <cellStyle name="常规 6 3 4 3" xfId="480" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="常规 6 3 5" xfId="492" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
-    <cellStyle name="常规 6 4" xfId="373" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
-    <cellStyle name="常规 6 4 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="常规 6 4 2 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="常规 6 4 2 3" xfId="493" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
-    <cellStyle name="常规 6 4 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="常规 6 4 4" xfId="106" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="常规 6 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="常规 6 5 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="常规 6 5 2 2" xfId="496" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
-    <cellStyle name="常规 6 5 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="常规 6 5 3" xfId="412" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
-    <cellStyle name="常规 6 5 4" xfId="418" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
-    <cellStyle name="常规 6 6" xfId="252" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="常规 6 6 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
-    <cellStyle name="常规 6 6 2 2" xfId="497" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
-    <cellStyle name="常规 6 6 2 3" xfId="498" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
-    <cellStyle name="常规 6 6 3" xfId="466" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
-    <cellStyle name="常规 6 6 4" xfId="469" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
-    <cellStyle name="常规 6 7" xfId="255" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="常规 6 7 2" xfId="316" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
-    <cellStyle name="常规 6 7 3" xfId="500" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
-    <cellStyle name="常规 6 8" xfId="318" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
-    <cellStyle name="常规 6 8 2" xfId="501" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
-    <cellStyle name="常规 6 8 3" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="常规 6 9" xfId="503" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
-    <cellStyle name="常规 7" xfId="505" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
-    <cellStyle name="常规 7 10" xfId="507" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
-    <cellStyle name="常规 7 2" xfId="508" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
-    <cellStyle name="常规 7 2 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="常规 7 2 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="常规 7 2 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="常规 7 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 7 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="常规 7 3 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="常规 7 3 3" xfId="186" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="常规 7 4" xfId="378" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
-    <cellStyle name="常规 7 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="常规 7 4 3" xfId="202" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="常规 7 5" xfId="381" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
-    <cellStyle name="常规 7 5 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="常规 7 6" xfId="509" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
-    <cellStyle name="常规 7 6 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="常规 7 7" xfId="510" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
-    <cellStyle name="常规 7 7 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="常规 7 8" xfId="511" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
-    <cellStyle name="常规 7 8 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="常规 7 9" xfId="489" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
-    <cellStyle name="常规 7 9 2" xfId="384" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
-    <cellStyle name="常规 8" xfId="416" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
-    <cellStyle name="常规 8 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="常规 8 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="常规 8 2 2 2" xfId="512" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
-    <cellStyle name="常规 8 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="常规 8 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="常规 8 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="常规 8 3 2 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
-    <cellStyle name="常规 8 3 3" xfId="514" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
-    <cellStyle name="常规 8 4" xfId="387" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
-    <cellStyle name="常规 8 4 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="常规 8 5" xfId="389" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
-    <cellStyle name="常规 8 5 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="常规 8 6" xfId="515" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
-    <cellStyle name="常规 8 6 2" xfId="506" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
-    <cellStyle name="常规 8 7" xfId="516" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
-    <cellStyle name="常规 8 7 2" xfId="517" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
-    <cellStyle name="常规 8 8" xfId="518" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
-    <cellStyle name="常规 9" xfId="519" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
-    <cellStyle name="常规 9 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
-    <cellStyle name="常规 9 2 2" xfId="256" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="常规 9 3" xfId="351" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="常规 10" xfId="69"/>
+    <cellStyle name="常规 10 2" xfId="72"/>
+    <cellStyle name="常规 10 2 2" xfId="80"/>
+    <cellStyle name="常规 10 3" xfId="5"/>
+    <cellStyle name="常规 11" xfId="84"/>
+    <cellStyle name="常规 11 2" xfId="86"/>
+    <cellStyle name="常规 11 2 2" xfId="11"/>
+    <cellStyle name="常规 11 3" xfId="79"/>
+    <cellStyle name="常规 12" xfId="33"/>
+    <cellStyle name="常规 12 2" xfId="88"/>
+    <cellStyle name="常规 12 2 2" xfId="23"/>
+    <cellStyle name="常规 12 3" xfId="91"/>
+    <cellStyle name="常规 13" xfId="85"/>
+    <cellStyle name="常规 13 2" xfId="10"/>
+    <cellStyle name="常规 14" xfId="77"/>
+    <cellStyle name="常规 14 2" xfId="92"/>
+    <cellStyle name="常规 15" xfId="93"/>
+    <cellStyle name="常规 15 2" xfId="94"/>
+    <cellStyle name="常规 16" xfId="95"/>
+    <cellStyle name="常规 16 2" xfId="67"/>
+    <cellStyle name="常规 17" xfId="96"/>
+    <cellStyle name="常规 17 2" xfId="101"/>
+    <cellStyle name="常规 18" xfId="103"/>
+    <cellStyle name="常规 19" xfId="105"/>
+    <cellStyle name="常规 2" xfId="107"/>
+    <cellStyle name="常规 2 2" xfId="109"/>
+    <cellStyle name="常规 2 2 2" xfId="111"/>
+    <cellStyle name="常规 2 2 2 2" xfId="112"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="114"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="115"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="117"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="120"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="123"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="127"/>
+    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="130"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="43"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="56"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="132"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="133"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="1"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="134"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="6"/>
+    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="135"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="138"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="141"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="143"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="75"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="144"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="145"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="147"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="149"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="152"/>
+    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="154"/>
+    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="155"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="157"/>
+    <cellStyle name="常规 2 2 2 2 4 4" xfId="158"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="159"/>
+    <cellStyle name="常规 2 2 2 2 5 2" xfId="161"/>
+    <cellStyle name="常规 2 2 2 2 5 3" xfId="162"/>
+    <cellStyle name="常规 2 2 2 2 6" xfId="163"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="164"/>
+    <cellStyle name="常规 2 2 2 2 6 3" xfId="166"/>
+    <cellStyle name="常规 2 2 2 2 7" xfId="167"/>
+    <cellStyle name="常规 2 2 2 3" xfId="168"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="170"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="171"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="146"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="172"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="174"/>
+    <cellStyle name="常规 2 2 2 3 2 4" xfId="176"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="178"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="180"/>
+    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="181"/>
+    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="182"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="184"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="187"/>
+    <cellStyle name="常规 2 2 2 3 4 2" xfId="190"/>
+    <cellStyle name="常规 2 2 2 3 4 3" xfId="192"/>
+    <cellStyle name="常规 2 2 2 3 5" xfId="193"/>
+    <cellStyle name="常规 2 2 2 4" xfId="51"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="195"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="197"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="31"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="201"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="203"/>
+    <cellStyle name="常规 2 2 2 5" xfId="46"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="205"/>
+    <cellStyle name="常规 2 2 2 5 2 2" xfId="206"/>
+    <cellStyle name="常规 2 2 2 5 2 3" xfId="207"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="209"/>
+    <cellStyle name="常规 2 2 2 5 4" xfId="210"/>
+    <cellStyle name="常规 2 2 2 6" xfId="61"/>
+    <cellStyle name="常规 2 2 2 6 2" xfId="212"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="214"/>
+    <cellStyle name="常规 2 2 2 7" xfId="62"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="216"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="219"/>
+    <cellStyle name="常规 2 2 2 8" xfId="64"/>
+    <cellStyle name="常规 2 2 3" xfId="221"/>
+    <cellStyle name="常规 2 2 3 2" xfId="222"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="223"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="224"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="226"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="229"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="231"/>
+    <cellStyle name="常规 2 2 3 3" xfId="232"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="233"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="234"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="235"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="239"/>
+    <cellStyle name="常规 2 2 3 4" xfId="240"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="241"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="243"/>
+    <cellStyle name="常规 2 2 3 5" xfId="244"/>
+    <cellStyle name="常规 2 2 3 5 2" xfId="245"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="247"/>
+    <cellStyle name="常规 2 2 3 6" xfId="225"/>
+    <cellStyle name="常规 2 2 4" xfId="2"/>
+    <cellStyle name="常规 2 2 4 2" xfId="251"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="253"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="257"/>
+    <cellStyle name="常规 2 2 4 3" xfId="259"/>
+    <cellStyle name="常规 2 2 4 4" xfId="260"/>
+    <cellStyle name="常规 2 2 5" xfId="261"/>
+    <cellStyle name="常规 2 2 5 2" xfId="262"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="263"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="264"/>
+    <cellStyle name="常规 2 2 5 3" xfId="265"/>
+    <cellStyle name="常规 2 2 5 4" xfId="266"/>
+    <cellStyle name="常规 2 2 6" xfId="267"/>
+    <cellStyle name="常规 2 2 6 2" xfId="269"/>
+    <cellStyle name="常规 2 2 6 3" xfId="270"/>
+    <cellStyle name="常规 2 2 7" xfId="271"/>
+    <cellStyle name="常规 2 2 7 2" xfId="272"/>
+    <cellStyle name="常规 2 2 7 3" xfId="273"/>
+    <cellStyle name="常规 2 2 8" xfId="274"/>
+    <cellStyle name="常规 2 3" xfId="276"/>
+    <cellStyle name="常规 2 3 2" xfId="137"/>
+    <cellStyle name="常规 2 3 2 2" xfId="78"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="277"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="278"/>
+    <cellStyle name="常规 2 3 2 3" xfId="279"/>
+    <cellStyle name="常规 2 3 2 4" xfId="280"/>
+    <cellStyle name="常规 2 3 3" xfId="282"/>
+    <cellStyle name="常规 2 3 3 2" xfId="90"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="283"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="284"/>
+    <cellStyle name="常规 2 3 3 3" xfId="285"/>
+    <cellStyle name="常规 2 3 4" xfId="286"/>
+    <cellStyle name="常规 2 3 4 2" xfId="287"/>
+    <cellStyle name="常规 2 3 4 3" xfId="288"/>
+    <cellStyle name="常规 2 3 5" xfId="289"/>
+    <cellStyle name="常规 2 3 5 2" xfId="290"/>
+    <cellStyle name="常规 2 3 5 3" xfId="291"/>
+    <cellStyle name="常规 2 3 6" xfId="295"/>
+    <cellStyle name="常规 2 4" xfId="297"/>
+    <cellStyle name="常规 2 4 2" xfId="173"/>
+    <cellStyle name="常规 2 4 2 2" xfId="298"/>
+    <cellStyle name="常规 2 4 2 3" xfId="299"/>
+    <cellStyle name="常规 2 4 3" xfId="300"/>
+    <cellStyle name="常规 2 4 3 2" xfId="301"/>
+    <cellStyle name="常规 2 4 3 3" xfId="302"/>
+    <cellStyle name="常规 2 4 4" xfId="113"/>
+    <cellStyle name="常规 2 4 5" xfId="139"/>
+    <cellStyle name="常规 2 5" xfId="215"/>
+    <cellStyle name="常规 2 5 2" xfId="303"/>
+    <cellStyle name="常规 2 5 2 2" xfId="304"/>
+    <cellStyle name="常规 2 5 2 3" xfId="306"/>
+    <cellStyle name="常规 2 5 3" xfId="307"/>
+    <cellStyle name="常规 2 5 4" xfId="169"/>
+    <cellStyle name="常规 2 6" xfId="217"/>
+    <cellStyle name="常规 2 6 2" xfId="308"/>
+    <cellStyle name="常规 2 6 3" xfId="309"/>
+    <cellStyle name="常规 2 7" xfId="82"/>
+    <cellStyle name="常规 2 7 2" xfId="310"/>
+    <cellStyle name="常规 2 7 3" xfId="19"/>
+    <cellStyle name="常规 2 8" xfId="311"/>
+    <cellStyle name="常规 22" xfId="97"/>
+    <cellStyle name="常规 3" xfId="312"/>
+    <cellStyle name="常规 3 10" xfId="254"/>
+    <cellStyle name="常规 3 10 2" xfId="315"/>
+    <cellStyle name="常规 3 11" xfId="258"/>
+    <cellStyle name="常规 3 11 2" xfId="317"/>
+    <cellStyle name="常规 3 12" xfId="319"/>
+    <cellStyle name="常规 3 2" xfId="320"/>
+    <cellStyle name="常规 3 2 2" xfId="322"/>
+    <cellStyle name="常规 3 2 2 2" xfId="156"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="323"/>
+    <cellStyle name="常规 3 2 2 3" xfId="324"/>
+    <cellStyle name="常规 3 2 3" xfId="325"/>
+    <cellStyle name="常规 3 2 3 2" xfId="327"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="329"/>
+    <cellStyle name="常规 3 2 3 3" xfId="330"/>
+    <cellStyle name="常规 3 2 4" xfId="331"/>
+    <cellStyle name="常规 3 2 4 2" xfId="333"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="335"/>
+    <cellStyle name="常规 3 2 4 3" xfId="336"/>
+    <cellStyle name="常规 3 2 5" xfId="337"/>
+    <cellStyle name="常规 3 2 5 2" xfId="305"/>
+    <cellStyle name="常规 3 2 6" xfId="49"/>
+    <cellStyle name="常规 3 2 6 2" xfId="70"/>
+    <cellStyle name="常规 3 2 7" xfId="338"/>
+    <cellStyle name="常规 3 2 7 2" xfId="175"/>
+    <cellStyle name="常规 3 2 8" xfId="339"/>
+    <cellStyle name="常规 3 2 8 2" xfId="185"/>
+    <cellStyle name="常规 3 2 9" xfId="340"/>
+    <cellStyle name="常规 3 3" xfId="341"/>
+    <cellStyle name="常规 3 3 2" xfId="342"/>
+    <cellStyle name="常规 3 3 2 2" xfId="343"/>
+    <cellStyle name="常规 3 3 3" xfId="344"/>
+    <cellStyle name="常规 3 4" xfId="346"/>
+    <cellStyle name="常规 3 4 2" xfId="183"/>
+    <cellStyle name="常规 3 4 2 2" xfId="347"/>
+    <cellStyle name="常规 3 4 3" xfId="12"/>
+    <cellStyle name="常规 3 5" xfId="349"/>
+    <cellStyle name="常规 3 5 2" xfId="350"/>
+    <cellStyle name="常规 3 5 2 2" xfId="352"/>
+    <cellStyle name="常规 3 5 3" xfId="353"/>
+    <cellStyle name="常规 3 6" xfId="354"/>
+    <cellStyle name="常规 3 6 2" xfId="356"/>
+    <cellStyle name="常规 3 6 2 2" xfId="357"/>
+    <cellStyle name="常规 3 6 3" xfId="16"/>
+    <cellStyle name="常规 3 7" xfId="358"/>
+    <cellStyle name="常规 3 7 2" xfId="359"/>
+    <cellStyle name="常规 3 8" xfId="360"/>
+    <cellStyle name="常规 3 8 2" xfId="63"/>
+    <cellStyle name="常规 3 9" xfId="361"/>
+    <cellStyle name="常规 3 9 2" xfId="227"/>
+    <cellStyle name="常规 4" xfId="362"/>
+    <cellStyle name="常规 4 10" xfId="366"/>
+    <cellStyle name="常规 4 10 2" xfId="367"/>
+    <cellStyle name="常规 4 11" xfId="39"/>
+    <cellStyle name="常规 4 12" xfId="24"/>
+    <cellStyle name="常规 4 2" xfId="368"/>
+    <cellStyle name="常规 4 2 2" xfId="369"/>
+    <cellStyle name="常规 4 2 2 2" xfId="371"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="98"/>
+    <cellStyle name="常规 4 2 2 3" xfId="26"/>
+    <cellStyle name="常规 4 2 3" xfId="374"/>
+    <cellStyle name="常规 4 2 3 2" xfId="376"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="198"/>
+    <cellStyle name="常规 4 2 3 3" xfId="379"/>
+    <cellStyle name="常规 4 2 4" xfId="382"/>
+    <cellStyle name="常规 4 2 4 2" xfId="385"/>
+    <cellStyle name="常规 4 2 4 3" xfId="388"/>
+    <cellStyle name="常规 4 2 5" xfId="390"/>
+    <cellStyle name="常规 4 2 5 2" xfId="392"/>
+    <cellStyle name="常规 4 2 6" xfId="394"/>
+    <cellStyle name="常规 4 2 6 2" xfId="396"/>
+    <cellStyle name="常规 4 2 7" xfId="398"/>
+    <cellStyle name="常规 4 2 7 2" xfId="236"/>
+    <cellStyle name="常规 4 2 8" xfId="400"/>
+    <cellStyle name="常规 4 2 8 2" xfId="401"/>
+    <cellStyle name="常规 4 2 9" xfId="402"/>
+    <cellStyle name="常规 4 3" xfId="403"/>
+    <cellStyle name="常规 4 3 2" xfId="404"/>
+    <cellStyle name="常规 4 3 2 2" xfId="406"/>
+    <cellStyle name="常规 4 3 3" xfId="408"/>
+    <cellStyle name="常规 4 4" xfId="370"/>
+    <cellStyle name="常规 4 4 2" xfId="372"/>
+    <cellStyle name="常规 4 4 2 2" xfId="99"/>
+    <cellStyle name="常规 4 4 3" xfId="27"/>
+    <cellStyle name="常规 4 5" xfId="375"/>
+    <cellStyle name="常规 4 5 2" xfId="377"/>
+    <cellStyle name="常规 4 5 2 2" xfId="199"/>
+    <cellStyle name="常规 4 5 3" xfId="380"/>
+    <cellStyle name="常规 4 6" xfId="383"/>
+    <cellStyle name="常规 4 6 2" xfId="386"/>
+    <cellStyle name="常规 4 7" xfId="391"/>
+    <cellStyle name="常规 4 7 2" xfId="393"/>
+    <cellStyle name="常规 4 8" xfId="395"/>
+    <cellStyle name="常规 4 8 2" xfId="397"/>
+    <cellStyle name="常规 4 9" xfId="399"/>
+    <cellStyle name="常规 4 9 2" xfId="237"/>
+    <cellStyle name="常规 5" xfId="410"/>
+    <cellStyle name="常规 5 10" xfId="413"/>
+    <cellStyle name="常规 5 10 2" xfId="415"/>
+    <cellStyle name="常规 5 11" xfId="419"/>
+    <cellStyle name="常规 5 2" xfId="29"/>
+    <cellStyle name="常规 5 2 2" xfId="36"/>
+    <cellStyle name="常规 5 2 2 2" xfId="293"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="420"/>
+    <cellStyle name="常规 5 2 2 3" xfId="422"/>
+    <cellStyle name="常规 5 2 3" xfId="40"/>
+    <cellStyle name="常规 5 2 3 2" xfId="150"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="153"/>
+    <cellStyle name="常规 5 2 3 3" xfId="160"/>
+    <cellStyle name="常规 5 2 4" xfId="25"/>
+    <cellStyle name="常规 5 2 4 2" xfId="188"/>
+    <cellStyle name="常规 5 2 4 2 2" xfId="191"/>
+    <cellStyle name="常规 5 2 4 3" xfId="194"/>
+    <cellStyle name="常规 5 2 5" xfId="423"/>
+    <cellStyle name="常规 5 2 5 2" xfId="204"/>
+    <cellStyle name="常规 5 2 6" xfId="424"/>
+    <cellStyle name="常规 5 2 6 2" xfId="211"/>
+    <cellStyle name="常规 5 2 7" xfId="425"/>
+    <cellStyle name="常规 5 2 7 2" xfId="427"/>
+    <cellStyle name="常规 5 2 8" xfId="73"/>
+    <cellStyle name="常规 5 2 8 2" xfId="81"/>
+    <cellStyle name="常规 5 2 9" xfId="7"/>
+    <cellStyle name="常规 5 3" xfId="429"/>
+    <cellStyle name="常规 5 3 2" xfId="430"/>
+    <cellStyle name="常规 5 3 2 2" xfId="363"/>
+    <cellStyle name="常规 5 3 3" xfId="431"/>
+    <cellStyle name="常规 5 4" xfId="405"/>
+    <cellStyle name="常规 5 4 2" xfId="407"/>
+    <cellStyle name="常规 5 4 2 2" xfId="433"/>
+    <cellStyle name="常规 5 4 3" xfId="434"/>
+    <cellStyle name="常规 5 5" xfId="409"/>
+    <cellStyle name="常规 5 5 2" xfId="436"/>
+    <cellStyle name="常规 5 5 2 2" xfId="438"/>
+    <cellStyle name="常规 5 5 3" xfId="440"/>
+    <cellStyle name="常规 5 6" xfId="441"/>
+    <cellStyle name="常规 5 6 2" xfId="443"/>
+    <cellStyle name="常规 5 7" xfId="444"/>
+    <cellStyle name="常规 5 7 2" xfId="446"/>
+    <cellStyle name="常规 5 8" xfId="432"/>
+    <cellStyle name="常规 5 8 2" xfId="449"/>
+    <cellStyle name="常规 5 9" xfId="450"/>
+    <cellStyle name="常规 5 9 2" xfId="3"/>
+    <cellStyle name="常规 6" xfId="21"/>
+    <cellStyle name="常规 6 10" xfId="313"/>
+    <cellStyle name="常规 6 10 2" xfId="321"/>
+    <cellStyle name="常规 6 11" xfId="364"/>
+    <cellStyle name="常规 6 2" xfId="451"/>
+    <cellStyle name="常规 6 2 2" xfId="452"/>
+    <cellStyle name="常规 6 2 2 2" xfId="453"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="454"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="44"/>
+    <cellStyle name="常规 6 2 2 2 2 3" xfId="455"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="456"/>
+    <cellStyle name="常规 6 2 2 2 4" xfId="457"/>
+    <cellStyle name="常规 6 2 2 3" xfId="459"/>
+    <cellStyle name="常规 6 2 2 3 2" xfId="461"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="60"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="14"/>
+    <cellStyle name="常规 6 2 2 3 3" xfId="463"/>
+    <cellStyle name="常规 6 2 2 4" xfId="118"/>
+    <cellStyle name="常规 6 2 2 4 2" xfId="121"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="124"/>
+    <cellStyle name="常规 6 2 2 5" xfId="128"/>
+    <cellStyle name="常规 6 2 3" xfId="47"/>
+    <cellStyle name="常规 6 2 3 2" xfId="464"/>
+    <cellStyle name="常规 6 2 3 2 2" xfId="467"/>
+    <cellStyle name="常规 6 2 3 2 3" xfId="470"/>
+    <cellStyle name="常规 6 2 3 3" xfId="53"/>
+    <cellStyle name="常规 6 2 3 4" xfId="57"/>
+    <cellStyle name="常规 6 2 4" xfId="471"/>
+    <cellStyle name="常规 6 2 4 2" xfId="426"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="428"/>
+    <cellStyle name="常规 6 2 4 2 3" xfId="472"/>
+    <cellStyle name="常规 6 2 4 3" xfId="74"/>
+    <cellStyle name="常规 6 2 4 4" xfId="8"/>
+    <cellStyle name="常规 6 2 5" xfId="473"/>
+    <cellStyle name="常规 6 2 5 2" xfId="474"/>
+    <cellStyle name="常规 6 2 5 3" xfId="87"/>
+    <cellStyle name="常规 6 2 6" xfId="475"/>
+    <cellStyle name="常规 6 2 6 2" xfId="476"/>
+    <cellStyle name="常规 6 2 6 3" xfId="89"/>
+    <cellStyle name="常规 6 2 7" xfId="477"/>
+    <cellStyle name="常规 6 2 8" xfId="479"/>
+    <cellStyle name="常规 6 2 9" xfId="481"/>
+    <cellStyle name="常规 6 3" xfId="482"/>
+    <cellStyle name="常规 6 3 2" xfId="483"/>
+    <cellStyle name="常规 6 3 2 2" xfId="42"/>
+    <cellStyle name="常规 6 3 2 2 2" xfId="484"/>
+    <cellStyle name="常规 6 3 2 2 3" xfId="485"/>
+    <cellStyle name="常规 6 3 2 3" xfId="65"/>
+    <cellStyle name="常规 6 3 2 4" xfId="76"/>
+    <cellStyle name="常规 6 3 3" xfId="486"/>
+    <cellStyle name="常规 6 3 3 2" xfId="487"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="488"/>
+    <cellStyle name="常规 6 3 3 2 3" xfId="490"/>
+    <cellStyle name="常规 6 3 3 3" xfId="34"/>
+    <cellStyle name="常规 6 3 4" xfId="491"/>
+    <cellStyle name="常规 6 3 4 2" xfId="478"/>
+    <cellStyle name="常规 6 3 4 3" xfId="480"/>
+    <cellStyle name="常规 6 3 5" xfId="492"/>
+    <cellStyle name="常规 6 4" xfId="373"/>
+    <cellStyle name="常规 6 4 2" xfId="100"/>
+    <cellStyle name="常规 6 4 2 2" xfId="102"/>
+    <cellStyle name="常规 6 4 2 3" xfId="493"/>
+    <cellStyle name="常规 6 4 3" xfId="104"/>
+    <cellStyle name="常规 6 4 4" xfId="106"/>
+    <cellStyle name="常规 6 5" xfId="28"/>
+    <cellStyle name="常规 6 5 2" xfId="495"/>
+    <cellStyle name="常规 6 5 2 2" xfId="496"/>
+    <cellStyle name="常规 6 5 2 3" xfId="165"/>
+    <cellStyle name="常规 6 5 3" xfId="412"/>
+    <cellStyle name="常规 6 5 4" xfId="418"/>
+    <cellStyle name="常规 6 6" xfId="252"/>
+    <cellStyle name="常规 6 6 2" xfId="314"/>
+    <cellStyle name="常规 6 6 2 2" xfId="497"/>
+    <cellStyle name="常规 6 6 2 3" xfId="498"/>
+    <cellStyle name="常规 6 6 3" xfId="466"/>
+    <cellStyle name="常规 6 6 4" xfId="469"/>
+    <cellStyle name="常规 6 7" xfId="255"/>
+    <cellStyle name="常规 6 7 2" xfId="316"/>
+    <cellStyle name="常规 6 7 3" xfId="500"/>
+    <cellStyle name="常规 6 8" xfId="318"/>
+    <cellStyle name="常规 6 8 2" xfId="501"/>
+    <cellStyle name="常规 6 8 3" xfId="131"/>
+    <cellStyle name="常规 6 9" xfId="503"/>
+    <cellStyle name="常规 7" xfId="505"/>
+    <cellStyle name="常规 7 10" xfId="507"/>
+    <cellStyle name="常规 7 2" xfId="508"/>
+    <cellStyle name="常规 7 2 2" xfId="140"/>
+    <cellStyle name="常规 7 2 2 2" xfId="142"/>
+    <cellStyle name="常规 7 2 3" xfId="148"/>
+    <cellStyle name="常规 7 3" xfId="15"/>
+    <cellStyle name="常规 7 3 2" xfId="177"/>
+    <cellStyle name="常规 7 3 2 2" xfId="179"/>
+    <cellStyle name="常规 7 3 3" xfId="186"/>
+    <cellStyle name="常规 7 4" xfId="378"/>
+    <cellStyle name="常规 7 4 2" xfId="200"/>
+    <cellStyle name="常规 7 4 3" xfId="202"/>
+    <cellStyle name="常规 7 5" xfId="381"/>
+    <cellStyle name="常规 7 5 2" xfId="208"/>
+    <cellStyle name="常规 7 6" xfId="509"/>
+    <cellStyle name="常规 7 6 2" xfId="213"/>
+    <cellStyle name="常规 7 7" xfId="510"/>
+    <cellStyle name="常规 7 7 2" xfId="218"/>
+    <cellStyle name="常规 7 8" xfId="511"/>
+    <cellStyle name="常规 7 8 2" xfId="355"/>
+    <cellStyle name="常规 7 9" xfId="489"/>
+    <cellStyle name="常规 7 9 2" xfId="384"/>
+    <cellStyle name="常规 8" xfId="416"/>
+    <cellStyle name="常规 8 2" xfId="50"/>
+    <cellStyle name="常规 8 2 2" xfId="228"/>
+    <cellStyle name="常规 8 2 2 2" xfId="512"/>
+    <cellStyle name="常规 8 2 3" xfId="230"/>
+    <cellStyle name="常规 8 3" xfId="45"/>
+    <cellStyle name="常规 8 3 2" xfId="238"/>
+    <cellStyle name="常规 8 3 2 2" xfId="513"/>
+    <cellStyle name="常规 8 3 3" xfId="514"/>
+    <cellStyle name="常规 8 4" xfId="387"/>
+    <cellStyle name="常规 8 4 2" xfId="242"/>
+    <cellStyle name="常规 8 5" xfId="389"/>
+    <cellStyle name="常规 8 5 2" xfId="249"/>
+    <cellStyle name="常规 8 6" xfId="515"/>
+    <cellStyle name="常规 8 6 2" xfId="506"/>
+    <cellStyle name="常规 8 7" xfId="516"/>
+    <cellStyle name="常规 8 7 2" xfId="517"/>
+    <cellStyle name="常规 8 8" xfId="518"/>
+    <cellStyle name="常规 9" xfId="519"/>
+    <cellStyle name="常规 9 2" xfId="520"/>
+    <cellStyle name="常规 9 2 2" xfId="256"/>
+    <cellStyle name="常规 9 3" xfId="351"/>
     <cellStyle name="超链接" xfId="17" builtinId="8"/>
-    <cellStyle name="超链接 10" xfId="589" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
-    <cellStyle name="超链接 2" xfId="591" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
-    <cellStyle name="超链接 2 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
-    <cellStyle name="超链接 2 2 2" xfId="593" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
-    <cellStyle name="超链接 2 2 2 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="超链接 2 2 2 2 2 2" xfId="595" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
-    <cellStyle name="超链接 2 2 2 2 2 3" xfId="596" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="417" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="超链接 2 2 2 2 4" xfId="597" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
-    <cellStyle name="超链接 2 2 2 3" xfId="598" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="465" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
-    <cellStyle name="超链接 2 2 2 3 2 2" xfId="599" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="超链接 2 2 2 3 2 3" xfId="600" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="468" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="54" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="499" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
-    <cellStyle name="超链接 2 2 2 4 3" xfId="601" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="58" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="超链接 2 2 3" xfId="602" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="超链接 2 2 3 2" xfId="603" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="超链接 2 2 3 2 2" xfId="604" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="超链接 2 2 3 2 3" xfId="605" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
-    <cellStyle name="超链接 2 2 3 3" xfId="606" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="超链接 2 2 3 4" xfId="607" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
-    <cellStyle name="超链接 2 2 4" xfId="435" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
-    <cellStyle name="超链接 2 2 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
-    <cellStyle name="超链接 2 2 4 2 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
-    <cellStyle name="超链接 2 2 4 2 3" xfId="609" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
-    <cellStyle name="超链接 2 2 4 3" xfId="610" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="超链接 2 2 4 4" xfId="611" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
-    <cellStyle name="超链接 2 2 5" xfId="439" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="超链接 2 2 5 2" xfId="612" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="614" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
-    <cellStyle name="超链接 2 2 6" xfId="615" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
-    <cellStyle name="超链接 2 2 6 2" xfId="616" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
-    <cellStyle name="超链接 2 2 6 3" xfId="617" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
-    <cellStyle name="超链接 2 2 7" xfId="618" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
-    <cellStyle name="超链接 2 3" xfId="619" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
-    <cellStyle name="超链接 2 3 2" xfId="620" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
-    <cellStyle name="超链接 2 3 2 2" xfId="621" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
-    <cellStyle name="超链接 2 3 2 2 2" xfId="622" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="超链接 2 3 2 3" xfId="623" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="超链接 2 3 3" xfId="624" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
-    <cellStyle name="超链接 2 3 3 2" xfId="625" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
-    <cellStyle name="超链接 2 3 3 2 3" xfId="626" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
-    <cellStyle name="超链接 2 3 3 3" xfId="627" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
-    <cellStyle name="超链接 2 3 4" xfId="442" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="超链接 2 3 4 2" xfId="628" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
-    <cellStyle name="超链接 2 3 4 3" xfId="629" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
-    <cellStyle name="超链接 2 3 5" xfId="630" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
-    <cellStyle name="超链接 2 4" xfId="631" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
-    <cellStyle name="超链接 2 4 2" xfId="632" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
-    <cellStyle name="超链接 2 4 2 2" xfId="633" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
-    <cellStyle name="超链接 2 4 2 3" xfId="634" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
-    <cellStyle name="超链接 2 4 3" xfId="635" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
-    <cellStyle name="超链接 2 4 4" xfId="445" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="超链接 2 5" xfId="636" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
-    <cellStyle name="超链接 2 5 2" xfId="637" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="504" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
-    <cellStyle name="超链接 2 5 2 3" xfId="414" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="超链接 2 5 3" xfId="590" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
-    <cellStyle name="超链接 2 5 4" xfId="448" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="超链接 2 6" xfId="108" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="超链接 2 6 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="超链接 2 6 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="超链接 2 7" xfId="275" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="超链接 2 7 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="超链接 2 7 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="超链接 2 8" xfId="296" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="超链接 3" xfId="447" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
-    <cellStyle name="超链接 3 2" xfId="638" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
-    <cellStyle name="超链接 3 2 2" xfId="639" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
-    <cellStyle name="超链接 3 2 2 2" xfId="640" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
-    <cellStyle name="超链接 3 2 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="超链接 3 2 3" xfId="641" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
-    <cellStyle name="超链接 3 2 4" xfId="494" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
-    <cellStyle name="超链接 3 3" xfId="642" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
-    <cellStyle name="超链接 3 3 2" xfId="643" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
-    <cellStyle name="超链接 3 3 2 2" xfId="644" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
-    <cellStyle name="超链接 3 3 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="超链接 3 3 3" xfId="645" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
-    <cellStyle name="超链接 3 4" xfId="646" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
-    <cellStyle name="超链接 3 4 2" xfId="647" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
-    <cellStyle name="超链接 3 4 3" xfId="648" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
-    <cellStyle name="超链接 3 5" xfId="649" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
-    <cellStyle name="超链接 4" xfId="650" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
-    <cellStyle name="超链接 4 2" xfId="651" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
-    <cellStyle name="超链接 4 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="超链接 4 3" xfId="652" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
-    <cellStyle name="超链接 5" xfId="653" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
-    <cellStyle name="超链接 5 2" xfId="654" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="超链接 5 2 2" xfId="655" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
-    <cellStyle name="超链接 5 2 3" xfId="656" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
-    <cellStyle name="超链接 5 3" xfId="657" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
-    <cellStyle name="超链接 5 4" xfId="334" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
-    <cellStyle name="超链接 6" xfId="658" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
-    <cellStyle name="超链接 6 2" xfId="659" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
-    <cellStyle name="超链接 6 3" xfId="660" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
-    <cellStyle name="超链接 7" xfId="661" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
-    <cellStyle name="超链接 7 2" xfId="662" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
-    <cellStyle name="超链接 7 3" xfId="663" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
-    <cellStyle name="超链接 8" xfId="664" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
-    <cellStyle name="超链接 9" xfId="66" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="适中 2" xfId="665" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
-    <cellStyle name="适中 2 2" xfId="666" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
-    <cellStyle name="适中 2 2 2" xfId="667" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
-    <cellStyle name="适中 2 2 3" xfId="250" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="适中 2 3" xfId="668" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
-    <cellStyle name="适中 2 4" xfId="669" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="超链接 10" xfId="589"/>
+    <cellStyle name="超链接 2" xfId="591"/>
+    <cellStyle name="超链接 2 2" xfId="592"/>
+    <cellStyle name="超链接 2 2 2" xfId="593"/>
+    <cellStyle name="超链接 2 2 2 2" xfId="594"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="411"/>
+    <cellStyle name="超链接 2 2 2 2 2 2" xfId="595"/>
+    <cellStyle name="超链接 2 2 2 2 2 3" xfId="596"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="417"/>
+    <cellStyle name="超链接 2 2 2 2 4" xfId="597"/>
+    <cellStyle name="超链接 2 2 2 3" xfId="598"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="465"/>
+    <cellStyle name="超链接 2 2 2 3 2 2" xfId="599"/>
+    <cellStyle name="超链接 2 2 2 3 2 3" xfId="600"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="468"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="54"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="499"/>
+    <cellStyle name="超链接 2 2 2 4 3" xfId="601"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="58"/>
+    <cellStyle name="超链接 2 2 3" xfId="602"/>
+    <cellStyle name="超链接 2 2 3 2" xfId="603"/>
+    <cellStyle name="超链接 2 2 3 2 2" xfId="604"/>
+    <cellStyle name="超链接 2 2 3 2 3" xfId="605"/>
+    <cellStyle name="超链接 2 2 3 3" xfId="606"/>
+    <cellStyle name="超链接 2 2 3 4" xfId="607"/>
+    <cellStyle name="超链接 2 2 4" xfId="435"/>
+    <cellStyle name="超链接 2 2 4 2" xfId="437"/>
+    <cellStyle name="超链接 2 2 4 2 2" xfId="608"/>
+    <cellStyle name="超链接 2 2 4 2 3" xfId="609"/>
+    <cellStyle name="超链接 2 2 4 3" xfId="610"/>
+    <cellStyle name="超链接 2 2 4 4" xfId="611"/>
+    <cellStyle name="超链接 2 2 5" xfId="439"/>
+    <cellStyle name="超链接 2 2 5 2" xfId="612"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="614"/>
+    <cellStyle name="超链接 2 2 6" xfId="615"/>
+    <cellStyle name="超链接 2 2 6 2" xfId="616"/>
+    <cellStyle name="超链接 2 2 6 3" xfId="617"/>
+    <cellStyle name="超链接 2 2 7" xfId="618"/>
+    <cellStyle name="超链接 2 3" xfId="619"/>
+    <cellStyle name="超链接 2 3 2" xfId="620"/>
+    <cellStyle name="超链接 2 3 2 2" xfId="621"/>
+    <cellStyle name="超链接 2 3 2 2 2" xfId="622"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="9"/>
+    <cellStyle name="超链接 2 3 2 3" xfId="623"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="35"/>
+    <cellStyle name="超链接 2 3 3" xfId="624"/>
+    <cellStyle name="超链接 2 3 3 2" xfId="625"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="613"/>
+    <cellStyle name="超链接 2 3 3 2 3" xfId="626"/>
+    <cellStyle name="超链接 2 3 3 3" xfId="627"/>
+    <cellStyle name="超链接 2 3 4" xfId="442"/>
+    <cellStyle name="超链接 2 3 4 2" xfId="628"/>
+    <cellStyle name="超链接 2 3 4 3" xfId="629"/>
+    <cellStyle name="超链接 2 3 5" xfId="630"/>
+    <cellStyle name="超链接 2 4" xfId="631"/>
+    <cellStyle name="超链接 2 4 2" xfId="632"/>
+    <cellStyle name="超链接 2 4 2 2" xfId="633"/>
+    <cellStyle name="超链接 2 4 2 3" xfId="634"/>
+    <cellStyle name="超链接 2 4 3" xfId="635"/>
+    <cellStyle name="超链接 2 4 4" xfId="445"/>
+    <cellStyle name="超链接 2 5" xfId="636"/>
+    <cellStyle name="超链接 2 5 2" xfId="637"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="504"/>
+    <cellStyle name="超链接 2 5 2 3" xfId="414"/>
+    <cellStyle name="超链接 2 5 3" xfId="590"/>
+    <cellStyle name="超链接 2 5 4" xfId="448"/>
+    <cellStyle name="超链接 2 6" xfId="108"/>
+    <cellStyle name="超链接 2 6 2" xfId="110"/>
+    <cellStyle name="超链接 2 6 3" xfId="220"/>
+    <cellStyle name="超链接 2 7" xfId="275"/>
+    <cellStyle name="超链接 2 7 2" xfId="136"/>
+    <cellStyle name="超链接 2 7 3" xfId="281"/>
+    <cellStyle name="超链接 2 8" xfId="296"/>
+    <cellStyle name="超链接 3" xfId="447"/>
+    <cellStyle name="超链接 3 2" xfId="638"/>
+    <cellStyle name="超链接 3 2 2" xfId="639"/>
+    <cellStyle name="超链接 3 2 2 2" xfId="640"/>
+    <cellStyle name="超链接 3 2 2 3" xfId="151"/>
+    <cellStyle name="超链接 3 2 3" xfId="641"/>
+    <cellStyle name="超链接 3 2 4" xfId="494"/>
+    <cellStyle name="超链接 3 3" xfId="642"/>
+    <cellStyle name="超链接 3 3 2" xfId="643"/>
+    <cellStyle name="超链接 3 3 2 2" xfId="644"/>
+    <cellStyle name="超链接 3 3 2 3" xfId="189"/>
+    <cellStyle name="超链接 3 3 3" xfId="645"/>
+    <cellStyle name="超链接 3 4" xfId="646"/>
+    <cellStyle name="超链接 3 4 2" xfId="647"/>
+    <cellStyle name="超链接 3 4 3" xfId="648"/>
+    <cellStyle name="超链接 3 5" xfId="649"/>
+    <cellStyle name="超链接 4" xfId="650"/>
+    <cellStyle name="超链接 4 2" xfId="651"/>
+    <cellStyle name="超链接 4 2 2" xfId="18"/>
+    <cellStyle name="超链接 4 3" xfId="652"/>
+    <cellStyle name="超链接 5" xfId="653"/>
+    <cellStyle name="超链接 5 2" xfId="654"/>
+    <cellStyle name="超链接 5 2 2" xfId="655"/>
+    <cellStyle name="超链接 5 2 3" xfId="656"/>
+    <cellStyle name="超链接 5 3" xfId="657"/>
+    <cellStyle name="超链接 5 4" xfId="334"/>
+    <cellStyle name="超链接 6" xfId="658"/>
+    <cellStyle name="超链接 6 2" xfId="659"/>
+    <cellStyle name="超链接 6 3" xfId="660"/>
+    <cellStyle name="超链接 7" xfId="661"/>
+    <cellStyle name="超链接 7 2" xfId="662"/>
+    <cellStyle name="超链接 7 3" xfId="663"/>
+    <cellStyle name="超链接 8" xfId="664"/>
+    <cellStyle name="超链接 9" xfId="66"/>
+    <cellStyle name="适中 2" xfId="665"/>
+    <cellStyle name="适中 2 2" xfId="666"/>
+    <cellStyle name="适中 2 2 2" xfId="667"/>
+    <cellStyle name="适中 2 2 3" xfId="250"/>
+    <cellStyle name="适中 2 3" xfId="668"/>
+    <cellStyle name="适中 2 4" xfId="669"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3817,31 +3816,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="6" customWidth="1"/>
-    <col min="6" max="9" width="7.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="6" customWidth="1"/>
-    <col min="12" max="15" width="7.6640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="52.44140625" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="1.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="6" customWidth="1"/>
+    <col min="6" max="9" width="7.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
+    <col min="12" max="15" width="7.625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="52.5" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="33">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3892,7 +3891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="17.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3927,7 +3926,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="40"/>
     </row>
-    <row r="3" spans="1:17" outlineLevel="1">
+    <row r="3" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B3" s="57" t="str">
         <f>$B$2&amp;"-1"</f>
         <v>1-1</v>
@@ -3974,7 +3973,7 @@
       </c>
       <c r="Q3" s="41"/>
     </row>
-    <row r="4" spans="1:17" outlineLevel="1">
+    <row r="4" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B4" s="57" t="str">
         <f>$B$2&amp;"-2"</f>
         <v>1-2</v>
@@ -4023,7 +4022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" outlineLevel="1">
+    <row r="5" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B5" s="57" t="str">
         <f>$B$2&amp;"-3"</f>
         <v>1-3</v>
@@ -4068,7 +4067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" outlineLevel="1">
+    <row r="6" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B6" s="57" t="str">
         <f>$B$2&amp;"-4"</f>
         <v>1-4</v>
@@ -4115,7 +4114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" outlineLevel="1">
+    <row r="7" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B7" s="57" t="str">
         <f>$B$2&amp;"-5"</f>
         <v>1-5</v>
@@ -4160,7 +4159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" outlineLevel="1">
+    <row r="8" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B8" s="57" t="str">
         <f>$B$2&amp;"-6"</f>
         <v>1-6</v>
@@ -4203,7 +4202,7 @@
       </c>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="17.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -4247,7 +4246,7 @@
       </c>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="17.25">
       <c r="B10" s="57" t="str">
         <f>$B$9&amp;"-1"</f>
         <v>2-1</v>
@@ -4282,7 +4281,7 @@
       <c r="P10" s="37"/>
       <c r="Q10" s="42"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="17.25">
       <c r="B11" s="57" t="str">
         <f t="shared" ref="B11:B33" si="0">$B$9&amp;"-2"</f>
         <v>2-2</v>
@@ -4325,7 +4324,7 @@
       </c>
       <c r="Q11" s="42"/>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1">
+    <row r="12" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B12" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4362,7 +4361,7 @@
       </c>
       <c r="Q12" s="41"/>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1">
+    <row r="13" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B13" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4399,7 +4398,7 @@
       </c>
       <c r="Q13" s="41"/>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1">
+    <row r="14" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B14" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4415,10 +4414,14 @@
       <c r="G14" s="20">
         <v>44853</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="H14" s="20">
+        <v>44848</v>
+      </c>
+      <c r="I14" s="20">
+        <v>44850</v>
+      </c>
       <c r="J14" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>37</v>
@@ -4436,7 +4439,7 @@
       </c>
       <c r="Q14" s="41"/>
     </row>
-    <row r="15" spans="1:17" outlineLevel="1">
+    <row r="15" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B15" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4477,7 +4480,7 @@
       </c>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1">
+    <row r="16" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B16" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4514,7 +4517,7 @@
       </c>
       <c r="Q16" s="41"/>
     </row>
-    <row r="17" spans="2:17" outlineLevel="1">
+    <row r="17" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B17" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4551,7 +4554,7 @@
       </c>
       <c r="Q17" s="41"/>
     </row>
-    <row r="18" spans="2:17" outlineLevel="1">
+    <row r="18" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B18" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4588,7 +4591,7 @@
       </c>
       <c r="Q18" s="41"/>
     </row>
-    <row r="19" spans="2:17" outlineLevel="1">
+    <row r="19" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B19" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4625,7 +4628,7 @@
       </c>
       <c r="Q19" s="41"/>
     </row>
-    <row r="20" spans="2:17" outlineLevel="1">
+    <row r="20" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B20" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4662,7 +4665,7 @@
       </c>
       <c r="Q20" s="41"/>
     </row>
-    <row r="21" spans="2:17" outlineLevel="1">
+    <row r="21" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B21" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4699,7 +4702,7 @@
       </c>
       <c r="Q21" s="41"/>
     </row>
-    <row r="22" spans="2:17" outlineLevel="1">
+    <row r="22" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B22" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4736,7 +4739,7 @@
       </c>
       <c r="Q22" s="41"/>
     </row>
-    <row r="23" spans="2:17" outlineLevel="1">
+    <row r="23" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B23" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4773,7 +4776,7 @@
       </c>
       <c r="Q23" s="41"/>
     </row>
-    <row r="24" spans="2:17" outlineLevel="1">
+    <row r="24" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B24" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4810,7 +4813,7 @@
       </c>
       <c r="Q24" s="41"/>
     </row>
-    <row r="25" spans="2:17" outlineLevel="1">
+    <row r="25" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B25" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4847,7 +4850,7 @@
       </c>
       <c r="Q25" s="41"/>
     </row>
-    <row r="26" spans="2:17" outlineLevel="1">
+    <row r="26" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B26" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4884,7 +4887,7 @@
       </c>
       <c r="Q26" s="41"/>
     </row>
-    <row r="27" spans="2:17" outlineLevel="1">
+    <row r="27" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B27" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4921,7 +4924,7 @@
       </c>
       <c r="Q27" s="41"/>
     </row>
-    <row r="28" spans="2:17" outlineLevel="1">
+    <row r="28" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B28" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4958,7 +4961,7 @@
       </c>
       <c r="Q28" s="41"/>
     </row>
-    <row r="29" spans="2:17" outlineLevel="1">
+    <row r="29" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B29" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4995,7 +4998,7 @@
       </c>
       <c r="Q29" s="41"/>
     </row>
-    <row r="30" spans="2:17" outlineLevel="1">
+    <row r="30" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B30" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5036,7 +5039,7 @@
       </c>
       <c r="Q30" s="41"/>
     </row>
-    <row r="31" spans="2:17" outlineLevel="1">
+    <row r="31" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B31" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5073,7 +5076,7 @@
       </c>
       <c r="Q31" s="41"/>
     </row>
-    <row r="32" spans="2:17" outlineLevel="1">
+    <row r="32" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B32" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5110,7 +5113,7 @@
       </c>
       <c r="Q32" s="41"/>
     </row>
-    <row r="33" spans="1:17" outlineLevel="1">
+    <row r="33" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B33" s="57" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5147,7 +5150,7 @@
       </c>
       <c r="Q33" s="41"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" ht="17.25">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -5191,7 +5194,7 @@
       </c>
       <c r="Q34" s="43"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" ht="17.25">
       <c r="B35" s="57" t="str">
         <f>$B$34&amp;"-1"</f>
         <v>3-1</v>
@@ -5222,7 +5225,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="42"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" ht="17.25">
       <c r="B36" s="57" t="str">
         <f>$B$34&amp;"-2"</f>
         <v>3-2</v>
@@ -5265,7 +5268,7 @@
       </c>
       <c r="Q36" s="42"/>
     </row>
-    <row r="37" spans="1:17" outlineLevel="1">
+    <row r="37" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B37" s="57" t="str">
         <f t="shared" ref="B37:B58" si="1">$B$34&amp;"-2"</f>
         <v>3-2</v>
@@ -5302,7 +5305,7 @@
       </c>
       <c r="Q37" s="41"/>
     </row>
-    <row r="38" spans="1:17" outlineLevel="1">
+    <row r="38" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B38" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5339,7 +5342,7 @@
       </c>
       <c r="Q38" s="41"/>
     </row>
-    <row r="39" spans="1:17" outlineLevel="1">
+    <row r="39" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B39" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5376,7 +5379,7 @@
       </c>
       <c r="Q39" s="41"/>
     </row>
-    <row r="40" spans="1:17" outlineLevel="1">
+    <row r="40" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B40" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5413,7 +5416,7 @@
       </c>
       <c r="Q40" s="41"/>
     </row>
-    <row r="41" spans="1:17" outlineLevel="1">
+    <row r="41" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B41" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5450,7 +5453,7 @@
       </c>
       <c r="Q41" s="41"/>
     </row>
-    <row r="42" spans="1:17" outlineLevel="1">
+    <row r="42" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B42" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5487,7 +5490,7 @@
       </c>
       <c r="Q42" s="41"/>
     </row>
-    <row r="43" spans="1:17" outlineLevel="1">
+    <row r="43" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B43" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5524,7 +5527,7 @@
       </c>
       <c r="Q43" s="41"/>
     </row>
-    <row r="44" spans="1:17" outlineLevel="1">
+    <row r="44" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B44" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5561,7 +5564,7 @@
       </c>
       <c r="Q44" s="41"/>
     </row>
-    <row r="45" spans="1:17" outlineLevel="1">
+    <row r="45" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B45" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5598,7 +5601,7 @@
       </c>
       <c r="Q45" s="41"/>
     </row>
-    <row r="46" spans="1:17" outlineLevel="1">
+    <row r="46" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B46" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5635,7 +5638,7 @@
       </c>
       <c r="Q46" s="41"/>
     </row>
-    <row r="47" spans="1:17" outlineLevel="1">
+    <row r="47" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B47" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5672,7 +5675,7 @@
       </c>
       <c r="Q47" s="41"/>
     </row>
-    <row r="48" spans="1:17" outlineLevel="1">
+    <row r="48" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B48" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5709,7 +5712,7 @@
       </c>
       <c r="Q48" s="41"/>
     </row>
-    <row r="49" spans="1:17" outlineLevel="1">
+    <row r="49" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B49" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5746,7 +5749,7 @@
       </c>
       <c r="Q49" s="41"/>
     </row>
-    <row r="50" spans="1:17" outlineLevel="1">
+    <row r="50" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B50" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5783,7 +5786,7 @@
       </c>
       <c r="Q50" s="41"/>
     </row>
-    <row r="51" spans="1:17" outlineLevel="1">
+    <row r="51" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B51" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5820,7 +5823,7 @@
       </c>
       <c r="Q51" s="41"/>
     </row>
-    <row r="52" spans="1:17" outlineLevel="1">
+    <row r="52" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B52" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5857,7 +5860,7 @@
       </c>
       <c r="Q52" s="41"/>
     </row>
-    <row r="53" spans="1:17" outlineLevel="1">
+    <row r="53" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B53" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5894,7 +5897,7 @@
       </c>
       <c r="Q53" s="41"/>
     </row>
-    <row r="54" spans="1:17" outlineLevel="1">
+    <row r="54" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B54" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5931,7 +5934,7 @@
       </c>
       <c r="Q54" s="41"/>
     </row>
-    <row r="55" spans="1:17" outlineLevel="1">
+    <row r="55" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B55" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5968,7 +5971,7 @@
       </c>
       <c r="Q55" s="41"/>
     </row>
-    <row r="56" spans="1:17" outlineLevel="1">
+    <row r="56" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B56" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6005,7 +6008,7 @@
       </c>
       <c r="Q56" s="41"/>
     </row>
-    <row r="57" spans="1:17" outlineLevel="1">
+    <row r="57" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B57" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6042,7 +6045,7 @@
       </c>
       <c r="Q57" s="41"/>
     </row>
-    <row r="58" spans="1:17" outlineLevel="1">
+    <row r="58" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B58" s="57" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6079,7 +6082,7 @@
       </c>
       <c r="Q58" s="41"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" ht="17.25">
       <c r="A59" s="4">
         <v>4</v>
       </c>
@@ -6123,7 +6126,7 @@
       </c>
       <c r="Q59" s="43"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" ht="17.25">
       <c r="B60" s="57" t="str">
         <f>$B$59&amp;"-1"</f>
         <v>4-1</v>
@@ -6154,7 +6157,7 @@
       <c r="P60" s="37"/>
       <c r="Q60" s="42"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" ht="17.25">
       <c r="B61" s="57" t="str">
         <f>$B$59&amp;"-2"</f>
         <v>4-2</v>
@@ -6185,7 +6188,7 @@
       <c r="P61" s="37"/>
       <c r="Q61" s="42"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" ht="17.25">
       <c r="B62" s="57" t="str">
         <f>$B$59&amp;"-3"</f>
         <v>4-3</v>
@@ -6228,7 +6231,7 @@
       </c>
       <c r="Q62" s="42"/>
     </row>
-    <row r="63" spans="1:17" outlineLevel="1">
+    <row r="63" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B63" s="57" t="str">
         <f t="shared" ref="B63:B84" si="2">$B$59&amp;"-3"</f>
         <v>4-3</v>
@@ -6265,7 +6268,7 @@
       </c>
       <c r="Q63" s="41"/>
     </row>
-    <row r="64" spans="1:17" outlineLevel="1">
+    <row r="64" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B64" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6302,7 +6305,7 @@
       </c>
       <c r="Q64" s="41"/>
     </row>
-    <row r="65" spans="2:17" outlineLevel="1">
+    <row r="65" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B65" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6339,7 +6342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:17" outlineLevel="1">
+    <row r="66" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B66" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6376,7 +6379,7 @@
       </c>
       <c r="Q66" s="41"/>
     </row>
-    <row r="67" spans="2:17" outlineLevel="1">
+    <row r="67" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B67" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6413,7 +6416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:17" outlineLevel="1">
+    <row r="68" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B68" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6450,7 +6453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:17" outlineLevel="1">
+    <row r="69" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B69" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6487,7 +6490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:17" outlineLevel="1">
+    <row r="70" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B70" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6524,7 +6527,7 @@
       </c>
       <c r="Q70" s="41"/>
     </row>
-    <row r="71" spans="2:17" outlineLevel="1">
+    <row r="71" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B71" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6561,7 +6564,7 @@
       </c>
       <c r="Q71" s="41"/>
     </row>
-    <row r="72" spans="2:17" outlineLevel="1">
+    <row r="72" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B72" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6598,7 +6601,7 @@
       </c>
       <c r="Q72" s="41"/>
     </row>
-    <row r="73" spans="2:17" outlineLevel="1">
+    <row r="73" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B73" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6635,7 +6638,7 @@
       </c>
       <c r="Q73" s="41"/>
     </row>
-    <row r="74" spans="2:17" outlineLevel="1">
+    <row r="74" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B74" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6672,7 +6675,7 @@
       </c>
       <c r="Q74" s="41"/>
     </row>
-    <row r="75" spans="2:17" outlineLevel="1">
+    <row r="75" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B75" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6709,7 +6712,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="2:17" outlineLevel="1">
+    <row r="76" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B76" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6746,7 +6749,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:17" outlineLevel="1">
+    <row r="77" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B77" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6783,7 +6786,7 @@
       </c>
       <c r="Q77" s="41"/>
     </row>
-    <row r="78" spans="2:17" outlineLevel="1">
+    <row r="78" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B78" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6820,7 +6823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="2:17" outlineLevel="1">
+    <row r="79" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B79" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6857,7 +6860,7 @@
       </c>
       <c r="Q79" s="41"/>
     </row>
-    <row r="80" spans="2:17" outlineLevel="1">
+    <row r="80" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B80" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6894,7 +6897,7 @@
       </c>
       <c r="Q80" s="41"/>
     </row>
-    <row r="81" spans="1:17" outlineLevel="1">
+    <row r="81" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B81" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6931,7 +6934,7 @@
       </c>
       <c r="Q81" s="41"/>
     </row>
-    <row r="82" spans="1:17" outlineLevel="1">
+    <row r="82" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B82" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6968,7 +6971,7 @@
       </c>
       <c r="Q82" s="41"/>
     </row>
-    <row r="83" spans="1:17" outlineLevel="1">
+    <row r="83" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B83" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -7005,7 +7008,7 @@
       </c>
       <c r="Q83" s="41"/>
     </row>
-    <row r="84" spans="1:17" outlineLevel="1">
+    <row r="84" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B84" s="57" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -7042,7 +7045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" ht="17.25">
       <c r="A85" s="4">
         <v>5</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" ht="17.25">
       <c r="B86" s="57" t="str">
         <f>$B$85&amp;"-1"</f>
         <v>5-1</v>
@@ -7123,7 +7126,7 @@
       <c r="P86" s="37"/>
       <c r="Q86" s="42"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" ht="17.25">
       <c r="B87" s="57" t="str">
         <f t="shared" ref="B87:B109" si="3">$B$85&amp;"-2"</f>
         <v>5-2</v>
@@ -7166,7 +7169,7 @@
       </c>
       <c r="Q87" s="42"/>
     </row>
-    <row r="88" spans="1:17" outlineLevel="1">
+    <row r="88" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B88" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7203,7 +7206,7 @@
       </c>
       <c r="Q88" s="41"/>
     </row>
-    <row r="89" spans="1:17" outlineLevel="1">
+    <row r="89" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B89" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7240,7 +7243,7 @@
       </c>
       <c r="Q89" s="41"/>
     </row>
-    <row r="90" spans="1:17" outlineLevel="1">
+    <row r="90" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B90" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7277,7 +7280,7 @@
       </c>
       <c r="Q90" s="41"/>
     </row>
-    <row r="91" spans="1:17" outlineLevel="1">
+    <row r="91" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B91" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7314,7 +7317,7 @@
       </c>
       <c r="Q91" s="41"/>
     </row>
-    <row r="92" spans="1:17" outlineLevel="1">
+    <row r="92" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B92" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7351,7 +7354,7 @@
       </c>
       <c r="Q92" s="41"/>
     </row>
-    <row r="93" spans="1:17" outlineLevel="1">
+    <row r="93" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B93" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7388,7 +7391,7 @@
       </c>
       <c r="Q93" s="41"/>
     </row>
-    <row r="94" spans="1:17" outlineLevel="1">
+    <row r="94" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B94" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7425,7 +7428,7 @@
       </c>
       <c r="Q94" s="41"/>
     </row>
-    <row r="95" spans="1:17" outlineLevel="1">
+    <row r="95" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B95" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7462,7 +7465,7 @@
       </c>
       <c r="Q95" s="41"/>
     </row>
-    <row r="96" spans="1:17" outlineLevel="1">
+    <row r="96" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B96" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7499,7 +7502,7 @@
       </c>
       <c r="Q96" s="41"/>
     </row>
-    <row r="97" spans="1:17" outlineLevel="1">
+    <row r="97" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B97" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7536,7 +7539,7 @@
       </c>
       <c r="Q97" s="41"/>
     </row>
-    <row r="98" spans="1:17" outlineLevel="1">
+    <row r="98" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B98" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7573,7 +7576,7 @@
       </c>
       <c r="Q98" s="41"/>
     </row>
-    <row r="99" spans="1:17" outlineLevel="1">
+    <row r="99" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B99" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7610,7 +7613,7 @@
       </c>
       <c r="Q99" s="41"/>
     </row>
-    <row r="100" spans="1:17" outlineLevel="1">
+    <row r="100" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B100" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7647,7 +7650,7 @@
       </c>
       <c r="Q100" s="41"/>
     </row>
-    <row r="101" spans="1:17" outlineLevel="1">
+    <row r="101" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B101" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7684,7 +7687,7 @@
       </c>
       <c r="Q101" s="41"/>
     </row>
-    <row r="102" spans="1:17" outlineLevel="1">
+    <row r="102" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B102" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7721,7 +7724,7 @@
       </c>
       <c r="Q102" s="41"/>
     </row>
-    <row r="103" spans="1:17" outlineLevel="1">
+    <row r="103" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B103" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7758,7 +7761,7 @@
       </c>
       <c r="Q103" s="41"/>
     </row>
-    <row r="104" spans="1:17" outlineLevel="1">
+    <row r="104" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B104" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7795,7 +7798,7 @@
       </c>
       <c r="Q104" s="41"/>
     </row>
-    <row r="105" spans="1:17" outlineLevel="1">
+    <row r="105" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B105" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7832,7 +7835,7 @@
       </c>
       <c r="Q105" s="41"/>
     </row>
-    <row r="106" spans="1:17" outlineLevel="1">
+    <row r="106" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B106" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7869,7 +7872,7 @@
       </c>
       <c r="Q106" s="41"/>
     </row>
-    <row r="107" spans="1:17" outlineLevel="1">
+    <row r="107" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B107" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7906,7 +7909,7 @@
       </c>
       <c r="Q107" s="41"/>
     </row>
-    <row r="108" spans="1:17" outlineLevel="1">
+    <row r="108" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B108" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7943,7 +7946,7 @@
       </c>
       <c r="Q108" s="41"/>
     </row>
-    <row r="109" spans="1:17" outlineLevel="1">
+    <row r="109" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B109" s="57" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7980,7 +7983,7 @@
       </c>
       <c r="Q109" s="41"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" ht="17.25">
       <c r="A110" s="4">
         <v>6</v>
       </c>
@@ -8024,7 +8027,7 @@
       </c>
       <c r="Q110" s="40"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" ht="17.25">
       <c r="B111" s="57" t="str">
         <f>$B$110&amp;"-1"</f>
         <v>6-1</v>
@@ -8061,7 +8064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" ht="17.25">
       <c r="B112" s="57" t="str">
         <f t="shared" ref="B112:B134" si="4">$B$110&amp;"-2"</f>
         <v>6-2</v>
@@ -8104,7 +8107,7 @@
       </c>
       <c r="Q112" s="42"/>
     </row>
-    <row r="113" spans="2:17" outlineLevel="1">
+    <row r="113" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B113" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8141,7 +8144,7 @@
       </c>
       <c r="Q113" s="41"/>
     </row>
-    <row r="114" spans="2:17" outlineLevel="1">
+    <row r="114" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B114" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8178,7 +8181,7 @@
       </c>
       <c r="Q114" s="41"/>
     </row>
-    <row r="115" spans="2:17" outlineLevel="1">
+    <row r="115" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B115" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8215,7 +8218,7 @@
       </c>
       <c r="Q115" s="41"/>
     </row>
-    <row r="116" spans="2:17" outlineLevel="1">
+    <row r="116" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B116" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8252,7 +8255,7 @@
       </c>
       <c r="Q116" s="41"/>
     </row>
-    <row r="117" spans="2:17" outlineLevel="1">
+    <row r="117" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B117" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8289,7 +8292,7 @@
       </c>
       <c r="Q117" s="41"/>
     </row>
-    <row r="118" spans="2:17" outlineLevel="1">
+    <row r="118" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B118" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8326,7 +8329,7 @@
       </c>
       <c r="Q118" s="41"/>
     </row>
-    <row r="119" spans="2:17" outlineLevel="1">
+    <row r="119" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B119" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8363,7 +8366,7 @@
       </c>
       <c r="Q119" s="41"/>
     </row>
-    <row r="120" spans="2:17" outlineLevel="1">
+    <row r="120" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B120" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8400,7 +8403,7 @@
       </c>
       <c r="Q120" s="41"/>
     </row>
-    <row r="121" spans="2:17" outlineLevel="1">
+    <row r="121" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B121" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8437,7 +8440,7 @@
       </c>
       <c r="Q121" s="41"/>
     </row>
-    <row r="122" spans="2:17" outlineLevel="1">
+    <row r="122" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B122" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8474,7 +8477,7 @@
       </c>
       <c r="Q122" s="41"/>
     </row>
-    <row r="123" spans="2:17" outlineLevel="1">
+    <row r="123" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B123" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8511,7 +8514,7 @@
       </c>
       <c r="Q123" s="41"/>
     </row>
-    <row r="124" spans="2:17" outlineLevel="1">
+    <row r="124" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B124" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8548,7 +8551,7 @@
       </c>
       <c r="Q124" s="41"/>
     </row>
-    <row r="125" spans="2:17" outlineLevel="1">
+    <row r="125" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B125" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8585,7 +8588,7 @@
       </c>
       <c r="Q125" s="41"/>
     </row>
-    <row r="126" spans="2:17" outlineLevel="1">
+    <row r="126" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B126" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8622,7 +8625,7 @@
       </c>
       <c r="Q126" s="41"/>
     </row>
-    <row r="127" spans="2:17" outlineLevel="1">
+    <row r="127" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B127" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8659,7 +8662,7 @@
       </c>
       <c r="Q127" s="41"/>
     </row>
-    <row r="128" spans="2:17" outlineLevel="1">
+    <row r="128" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B128" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8698,7 +8701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:17" outlineLevel="1">
+    <row r="129" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B129" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8735,7 +8738,7 @@
       </c>
       <c r="Q129" s="41"/>
     </row>
-    <row r="130" spans="1:17" outlineLevel="1">
+    <row r="130" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B130" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8772,7 +8775,7 @@
       </c>
       <c r="Q130" s="41"/>
     </row>
-    <row r="131" spans="1:17" outlineLevel="1">
+    <row r="131" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B131" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8809,7 +8812,7 @@
       </c>
       <c r="Q131" s="41"/>
     </row>
-    <row r="132" spans="1:17" outlineLevel="1">
+    <row r="132" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B132" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8846,7 +8849,7 @@
       </c>
       <c r="Q132" s="41"/>
     </row>
-    <row r="133" spans="1:17" outlineLevel="1">
+    <row r="133" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B133" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8883,7 +8886,7 @@
       </c>
       <c r="Q133" s="41"/>
     </row>
-    <row r="134" spans="1:17" outlineLevel="1">
+    <row r="134" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B134" s="57" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8920,7 +8923,7 @@
       </c>
       <c r="Q134" s="41"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" ht="17.25">
       <c r="A135" s="4">
         <v>7</v>
       </c>
@@ -8964,7 +8967,7 @@
       </c>
       <c r="Q135" s="40"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" ht="17.25">
       <c r="B136" s="57" t="str">
         <f>$B$135&amp;"-1"</f>
         <v>7-1</v>
@@ -8999,7 +9002,7 @@
       <c r="P136" s="37"/>
       <c r="Q136" s="42"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" ht="17.25">
       <c r="B137" s="57" t="str">
         <f>$B$135&amp;"-2"</f>
         <v>7-2</v>
@@ -9042,7 +9045,7 @@
       </c>
       <c r="Q137" s="42"/>
     </row>
-    <row r="138" spans="1:17" outlineLevel="1">
+    <row r="138" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B138" s="57" t="str">
         <f t="shared" ref="B138:B159" si="5">$B$135&amp;"-2"</f>
         <v>7-2</v>
@@ -9079,7 +9082,7 @@
       </c>
       <c r="Q138" s="41"/>
     </row>
-    <row r="139" spans="1:17" outlineLevel="1">
+    <row r="139" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B139" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9116,7 +9119,7 @@
       </c>
       <c r="Q139" s="41"/>
     </row>
-    <row r="140" spans="1:17" outlineLevel="1">
+    <row r="140" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B140" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9153,7 +9156,7 @@
       </c>
       <c r="Q140" s="41"/>
     </row>
-    <row r="141" spans="1:17" outlineLevel="1">
+    <row r="141" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B141" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9190,7 +9193,7 @@
       </c>
       <c r="Q141" s="41"/>
     </row>
-    <row r="142" spans="1:17" outlineLevel="1">
+    <row r="142" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B142" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9227,7 +9230,7 @@
       </c>
       <c r="Q142" s="41"/>
     </row>
-    <row r="143" spans="1:17" outlineLevel="1">
+    <row r="143" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B143" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9264,7 +9267,7 @@
       </c>
       <c r="Q143" s="41"/>
     </row>
-    <row r="144" spans="1:17" outlineLevel="1">
+    <row r="144" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B144" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9301,7 +9304,7 @@
       </c>
       <c r="Q144" s="41"/>
     </row>
-    <row r="145" spans="2:17" outlineLevel="1">
+    <row r="145" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B145" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9338,7 +9341,7 @@
       </c>
       <c r="Q145" s="41"/>
     </row>
-    <row r="146" spans="2:17" outlineLevel="1">
+    <row r="146" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B146" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9375,7 +9378,7 @@
       </c>
       <c r="Q146" s="41"/>
     </row>
-    <row r="147" spans="2:17" outlineLevel="1">
+    <row r="147" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B147" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9412,7 +9415,7 @@
       </c>
       <c r="Q147" s="41"/>
     </row>
-    <row r="148" spans="2:17" outlineLevel="1">
+    <row r="148" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B148" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9449,7 +9452,7 @@
       </c>
       <c r="Q148" s="41"/>
     </row>
-    <row r="149" spans="2:17" outlineLevel="1">
+    <row r="149" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B149" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9486,7 +9489,7 @@
       </c>
       <c r="Q149" s="41"/>
     </row>
-    <row r="150" spans="2:17" outlineLevel="1">
+    <row r="150" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B150" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9523,7 +9526,7 @@
       </c>
       <c r="Q150" s="41"/>
     </row>
-    <row r="151" spans="2:17" outlineLevel="1">
+    <row r="151" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B151" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9560,7 +9563,7 @@
       </c>
       <c r="Q151" s="41"/>
     </row>
-    <row r="152" spans="2:17" outlineLevel="1">
+    <row r="152" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B152" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9597,7 +9600,7 @@
       </c>
       <c r="Q152" s="41"/>
     </row>
-    <row r="153" spans="2:17" outlineLevel="1">
+    <row r="153" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B153" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9634,7 +9637,7 @@
       </c>
       <c r="Q153" s="41"/>
     </row>
-    <row r="154" spans="2:17" outlineLevel="1">
+    <row r="154" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B154" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9671,7 +9674,7 @@
       </c>
       <c r="Q154" s="41"/>
     </row>
-    <row r="155" spans="2:17" outlineLevel="1">
+    <row r="155" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B155" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9708,7 +9711,7 @@
       </c>
       <c r="Q155" s="41"/>
     </row>
-    <row r="156" spans="2:17" outlineLevel="1">
+    <row r="156" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B156" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9745,7 +9748,7 @@
       </c>
       <c r="Q156" s="41"/>
     </row>
-    <row r="157" spans="2:17" outlineLevel="1">
+    <row r="157" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B157" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9782,7 +9785,7 @@
       </c>
       <c r="Q157" s="41"/>
     </row>
-    <row r="158" spans="2:17" outlineLevel="1">
+    <row r="158" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B158" s="57" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9819,7 +9822,7 @@
       </c>
       <c r="Q158" s="41"/>
     </row>
-    <row r="159" spans="2:17" outlineLevel="1">
+    <row r="159" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B159" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9859,30 +9862,30 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159">
       <formula1>rv</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -9901,7 +9904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -9929,7 +9932,7 @@
       </c>
       <c r="F5" s="59"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -9945,7 +9948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -10031,8 +10034,8 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{579DA9AA-F186-4331-B1B7-DFA71D6B4148}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15295\Downloads\skillup-main (2)\skillup-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3827AF12-233B-40BD-8E28-96396650A0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="9840" tabRatio="581"/>
+    <workbookView xWindow="28190" yWindow="1810" windowWidth="28800" windowHeight="19190" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -13,7 +19,17 @@
   <definedNames>
     <definedName name="rv">list!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -246,7 +262,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>github</t>
@@ -255,7 +272,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>账</t>
@@ -264,7 +282,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>号一</t>
@@ -273,7 +292,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>览：</t>
@@ -295,15 +315,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,14 +337,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -375,35 +396,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,17 +437,18 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2676,7 +2703,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2687,7 +2714,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2698,12 +2725,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2711,7 +2738,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2722,14 +2749,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2762,10 +2789,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2785,7 +2812,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2805,676 +2832,676 @@
     </xf>
   </cellXfs>
   <cellStyles count="670">
-    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8"/>
-    <cellStyle name="常规 10" xfId="199"/>
-    <cellStyle name="常规 10 2" xfId="201"/>
-    <cellStyle name="常规 10 2 2" xfId="213"/>
-    <cellStyle name="常规 10 3" xfId="205"/>
-    <cellStyle name="常规 11" xfId="210"/>
-    <cellStyle name="常规 11 2" xfId="216"/>
-    <cellStyle name="常规 11 2 2" xfId="218"/>
-    <cellStyle name="常规 11 3" xfId="220"/>
-    <cellStyle name="常规 12" xfId="212"/>
-    <cellStyle name="常规 12 2" xfId="222"/>
-    <cellStyle name="常规 12 2 2" xfId="22"/>
-    <cellStyle name="常规 12 3" xfId="224"/>
-    <cellStyle name="常规 13" xfId="225"/>
-    <cellStyle name="常规 13 2" xfId="226"/>
-    <cellStyle name="常规 14" xfId="227"/>
-    <cellStyle name="常规 14 2" xfId="228"/>
-    <cellStyle name="常规 15" xfId="229"/>
-    <cellStyle name="常规 15 2" xfId="230"/>
-    <cellStyle name="常规 16" xfId="231"/>
-    <cellStyle name="常规 16 2" xfId="197"/>
-    <cellStyle name="常规 17" xfId="233"/>
-    <cellStyle name="常规 17 2" xfId="238"/>
-    <cellStyle name="常规 18" xfId="240"/>
-    <cellStyle name="常规 19" xfId="242"/>
-    <cellStyle name="常规 2" xfId="243"/>
-    <cellStyle name="常规 2 2" xfId="245"/>
-    <cellStyle name="常规 2 2 2" xfId="247"/>
-    <cellStyle name="常规 2 2 2 2" xfId="248"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="250"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="251"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="176"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="179"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="60"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="182"/>
-    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="189"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="41"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="55"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="252"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="253"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="2"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="254"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="206"/>
-    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="255"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="258"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="261"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="262"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="74"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="263"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="264"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="266"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="267"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="270"/>
-    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="272"/>
-    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="273"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="275"/>
-    <cellStyle name="常规 2 2 2 2 4 4" xfId="276"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="277"/>
-    <cellStyle name="常规 2 2 2 2 5 2" xfId="279"/>
-    <cellStyle name="常规 2 2 2 2 5 3" xfId="280"/>
-    <cellStyle name="常规 2 2 2 2 6" xfId="281"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="283"/>
-    <cellStyle name="常规 2 2 2 2 6 3" xfId="284"/>
-    <cellStyle name="常规 2 2 2 2 7" xfId="285"/>
-    <cellStyle name="常规 2 2 2 3" xfId="286"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="288"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="289"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="265"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="290"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="292"/>
-    <cellStyle name="常规 2 2 2 3 2 4" xfId="294"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="295"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="296"/>
-    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="297"/>
-    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="298"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="300"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="302"/>
-    <cellStyle name="常规 2 2 2 3 4 2" xfId="305"/>
-    <cellStyle name="常规 2 2 2 3 4 3" xfId="307"/>
-    <cellStyle name="常规 2 2 2 3 5" xfId="308"/>
-    <cellStyle name="常规 2 2 2 4" xfId="50"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="310"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="95"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="31"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="314"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="315"/>
-    <cellStyle name="常规 2 2 2 5" xfId="44"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="317"/>
-    <cellStyle name="常规 2 2 2 5 2 2" xfId="318"/>
-    <cellStyle name="常规 2 2 2 5 2 3" xfId="319"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="320"/>
-    <cellStyle name="常规 2 2 2 5 4" xfId="321"/>
-    <cellStyle name="常规 2 2 2 6" xfId="64"/>
-    <cellStyle name="常规 2 2 2 6 2" xfId="323"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="324"/>
-    <cellStyle name="常规 2 2 2 7" xfId="65"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="326"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="329"/>
-    <cellStyle name="常规 2 2 2 8" xfId="67"/>
-    <cellStyle name="常规 2 2 3" xfId="331"/>
-    <cellStyle name="常规 2 2 3 2" xfId="332"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="333"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="334"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="336"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="338"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="339"/>
-    <cellStyle name="常规 2 2 3 3" xfId="340"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="341"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="342"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="343"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="346"/>
-    <cellStyle name="常规 2 2 3 4" xfId="347"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="348"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="349"/>
-    <cellStyle name="常规 2 2 3 5" xfId="350"/>
-    <cellStyle name="常规 2 2 3 5 2" xfId="79"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="33"/>
-    <cellStyle name="常规 2 2 3 6" xfId="335"/>
-    <cellStyle name="常规 2 2 4" xfId="3"/>
-    <cellStyle name="常规 2 2 4 2" xfId="352"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="353"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="355"/>
-    <cellStyle name="常规 2 2 4 3" xfId="357"/>
-    <cellStyle name="常规 2 2 4 4" xfId="358"/>
-    <cellStyle name="常规 2 2 5" xfId="184"/>
-    <cellStyle name="常规 2 2 5 2" xfId="359"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="360"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="361"/>
-    <cellStyle name="常规 2 2 5 3" xfId="362"/>
-    <cellStyle name="常规 2 2 5 4" xfId="363"/>
-    <cellStyle name="常规 2 2 6" xfId="186"/>
-    <cellStyle name="常规 2 2 6 2" xfId="140"/>
-    <cellStyle name="常规 2 2 6 3" xfId="364"/>
-    <cellStyle name="常规 2 2 7" xfId="365"/>
-    <cellStyle name="常规 2 2 7 2" xfId="366"/>
-    <cellStyle name="常规 2 2 7 3" xfId="367"/>
-    <cellStyle name="常规 2 2 8" xfId="368"/>
-    <cellStyle name="常规 2 3" xfId="370"/>
-    <cellStyle name="常规 2 3 2" xfId="257"/>
-    <cellStyle name="常规 2 3 2 2" xfId="219"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="372"/>
-    <cellStyle name="常规 2 3 2 3" xfId="373"/>
-    <cellStyle name="常规 2 3 2 4" xfId="374"/>
-    <cellStyle name="常规 2 3 3" xfId="376"/>
-    <cellStyle name="常规 2 3 3 2" xfId="223"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="132"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="377"/>
-    <cellStyle name="常规 2 3 3 3" xfId="378"/>
-    <cellStyle name="常规 2 3 4" xfId="379"/>
-    <cellStyle name="常规 2 3 4 2" xfId="380"/>
-    <cellStyle name="常规 2 3 4 3" xfId="381"/>
-    <cellStyle name="常规 2 3 5" xfId="190"/>
-    <cellStyle name="常规 2 3 5 2" xfId="382"/>
-    <cellStyle name="常规 2 3 5 3" xfId="383"/>
-    <cellStyle name="常规 2 3 6" xfId="102"/>
-    <cellStyle name="常规 2 4" xfId="385"/>
-    <cellStyle name="常规 2 4 2" xfId="291"/>
-    <cellStyle name="常规 2 4 2 2" xfId="386"/>
-    <cellStyle name="常规 2 4 2 3" xfId="387"/>
-    <cellStyle name="常规 2 4 3" xfId="388"/>
-    <cellStyle name="常规 2 4 3 2" xfId="389"/>
-    <cellStyle name="常规 2 4 3 3" xfId="390"/>
-    <cellStyle name="常规 2 4 4" xfId="249"/>
-    <cellStyle name="常规 2 4 5" xfId="260"/>
-    <cellStyle name="常规 2 5" xfId="325"/>
-    <cellStyle name="常规 2 5 2" xfId="391"/>
-    <cellStyle name="常规 2 5 2 2" xfId="392"/>
-    <cellStyle name="常规 2 5 2 3" xfId="394"/>
-    <cellStyle name="常规 2 5 3" xfId="395"/>
-    <cellStyle name="常规 2 5 4" xfId="287"/>
-    <cellStyle name="常规 2 6" xfId="328"/>
-    <cellStyle name="常规 2 6 2" xfId="396"/>
-    <cellStyle name="常规 2 6 3" xfId="397"/>
-    <cellStyle name="常规 2 7" xfId="215"/>
-    <cellStyle name="常规 2 7 2" xfId="398"/>
-    <cellStyle name="常规 2 7 3" xfId="18"/>
-    <cellStyle name="常规 2 8" xfId="399"/>
-    <cellStyle name="常规 22" xfId="234"/>
-    <cellStyle name="常规 3" xfId="400"/>
-    <cellStyle name="常规 3 10" xfId="354"/>
-    <cellStyle name="常规 3 10 2" xfId="402"/>
-    <cellStyle name="常规 3 11" xfId="356"/>
-    <cellStyle name="常规 3 11 2" xfId="403"/>
-    <cellStyle name="常规 3 12" xfId="404"/>
-    <cellStyle name="常规 3 2" xfId="405"/>
-    <cellStyle name="常规 3 2 2" xfId="407"/>
-    <cellStyle name="常规 3 2 2 2" xfId="274"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="408"/>
-    <cellStyle name="常规 3 2 2 3" xfId="409"/>
-    <cellStyle name="常规 3 2 3" xfId="82"/>
-    <cellStyle name="常规 3 2 3 2" xfId="9"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="410"/>
-    <cellStyle name="常规 3 2 3 3" xfId="411"/>
-    <cellStyle name="常规 3 2 4" xfId="76"/>
-    <cellStyle name="常规 3 2 4 2" xfId="412"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="89"/>
-    <cellStyle name="常规 3 2 4 3" xfId="413"/>
-    <cellStyle name="常规 3 2 5" xfId="414"/>
-    <cellStyle name="常规 3 2 5 2" xfId="393"/>
-    <cellStyle name="常规 3 2 6" xfId="48"/>
-    <cellStyle name="常规 3 2 6 2" xfId="71"/>
-    <cellStyle name="常规 3 2 7" xfId="415"/>
-    <cellStyle name="常规 3 2 7 2" xfId="293"/>
-    <cellStyle name="常规 3 2 8" xfId="416"/>
-    <cellStyle name="常规 3 2 8 2" xfId="301"/>
-    <cellStyle name="常规 3 2 9" xfId="417"/>
-    <cellStyle name="常规 3 3" xfId="418"/>
-    <cellStyle name="常规 3 3 2" xfId="419"/>
-    <cellStyle name="常规 3 3 2 2" xfId="420"/>
-    <cellStyle name="常规 3 3 3" xfId="84"/>
-    <cellStyle name="常规 3 4" xfId="421"/>
-    <cellStyle name="常规 3 4 2" xfId="299"/>
-    <cellStyle name="常规 3 4 2 2" xfId="422"/>
-    <cellStyle name="常规 3 4 3" xfId="10"/>
-    <cellStyle name="常规 3 5" xfId="87"/>
-    <cellStyle name="常规 3 5 2" xfId="423"/>
-    <cellStyle name="常规 3 5 2 2" xfId="424"/>
-    <cellStyle name="常规 3 5 3" xfId="425"/>
-    <cellStyle name="常规 3 6" xfId="427"/>
-    <cellStyle name="常规 3 6 2" xfId="428"/>
-    <cellStyle name="常规 3 6 2 2" xfId="429"/>
-    <cellStyle name="常规 3 6 3" xfId="15"/>
-    <cellStyle name="常规 3 7" xfId="430"/>
-    <cellStyle name="常规 3 7 2" xfId="431"/>
-    <cellStyle name="常规 3 8" xfId="432"/>
-    <cellStyle name="常规 3 8 2" xfId="66"/>
-    <cellStyle name="常规 3 9" xfId="433"/>
-    <cellStyle name="常规 3 9 2" xfId="337"/>
-    <cellStyle name="常规 4" xfId="434"/>
-    <cellStyle name="常规 4 10" xfId="153"/>
-    <cellStyle name="常规 4 10 2" xfId="437"/>
-    <cellStyle name="常规 4 11" xfId="38"/>
-    <cellStyle name="常规 4 12" xfId="23"/>
-    <cellStyle name="常规 4 2" xfId="438"/>
-    <cellStyle name="常规 4 2 2" xfId="439"/>
-    <cellStyle name="常规 4 2 2 2" xfId="164"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="235"/>
-    <cellStyle name="常规 4 2 2 3" xfId="26"/>
-    <cellStyle name="常规 4 2 3" xfId="441"/>
-    <cellStyle name="常规 4 2 3 2" xfId="444"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="312"/>
-    <cellStyle name="常规 4 2 3 3" xfId="447"/>
-    <cellStyle name="常规 4 2 4" xfId="450"/>
-    <cellStyle name="常规 4 2 4 2" xfId="453"/>
-    <cellStyle name="常规 4 2 4 3" xfId="456"/>
-    <cellStyle name="常规 4 2 5" xfId="457"/>
-    <cellStyle name="常规 4 2 5 2" xfId="459"/>
-    <cellStyle name="常规 4 2 6" xfId="461"/>
-    <cellStyle name="常规 4 2 6 2" xfId="463"/>
-    <cellStyle name="常规 4 2 7" xfId="465"/>
-    <cellStyle name="常规 4 2 7 2" xfId="344"/>
-    <cellStyle name="常规 4 2 8" xfId="467"/>
-    <cellStyle name="常规 4 2 8 2" xfId="468"/>
-    <cellStyle name="常规 4 2 9" xfId="469"/>
-    <cellStyle name="常规 4 3" xfId="470"/>
-    <cellStyle name="常规 4 3 2" xfId="109"/>
-    <cellStyle name="常规 4 3 2 2" xfId="112"/>
-    <cellStyle name="常规 4 3 3" xfId="115"/>
-    <cellStyle name="常规 4 4" xfId="440"/>
-    <cellStyle name="常规 4 4 2" xfId="165"/>
-    <cellStyle name="常规 4 4 2 2" xfId="236"/>
-    <cellStyle name="常规 4 4 3" xfId="27"/>
-    <cellStyle name="常规 4 5" xfId="442"/>
-    <cellStyle name="常规 4 5 2" xfId="445"/>
-    <cellStyle name="常规 4 5 2 2" xfId="313"/>
-    <cellStyle name="常规 4 5 3" xfId="448"/>
-    <cellStyle name="常规 4 6" xfId="451"/>
-    <cellStyle name="常规 4 6 2" xfId="454"/>
-    <cellStyle name="常规 4 7" xfId="458"/>
-    <cellStyle name="常规 4 7 2" xfId="460"/>
-    <cellStyle name="常规 4 8" xfId="462"/>
-    <cellStyle name="常规 4 8 2" xfId="464"/>
-    <cellStyle name="常规 4 9" xfId="466"/>
-    <cellStyle name="常规 4 9 2" xfId="345"/>
-    <cellStyle name="常规 5" xfId="471"/>
-    <cellStyle name="常规 5 10" xfId="472"/>
-    <cellStyle name="常规 5 10 2" xfId="475"/>
-    <cellStyle name="常规 5 11" xfId="476"/>
-    <cellStyle name="常规 5 2" xfId="29"/>
-    <cellStyle name="常规 5 2 2" xfId="35"/>
-    <cellStyle name="常规 5 2 2 2" xfId="100"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="477"/>
-    <cellStyle name="常规 5 2 2 3" xfId="193"/>
-    <cellStyle name="常规 5 2 3" xfId="39"/>
-    <cellStyle name="常规 5 2 3 2" xfId="268"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="271"/>
-    <cellStyle name="常规 5 2 3 3" xfId="278"/>
-    <cellStyle name="常规 5 2 4" xfId="24"/>
-    <cellStyle name="常规 5 2 4 2" xfId="303"/>
-    <cellStyle name="常规 5 2 4 2 2" xfId="306"/>
-    <cellStyle name="常规 5 2 4 3" xfId="309"/>
-    <cellStyle name="常规 5 2 5" xfId="478"/>
-    <cellStyle name="常规 5 2 5 2" xfId="316"/>
-    <cellStyle name="常规 5 2 6" xfId="479"/>
-    <cellStyle name="常规 5 2 6 2" xfId="322"/>
-    <cellStyle name="常规 5 2 7" xfId="480"/>
-    <cellStyle name="常规 5 2 7 2" xfId="482"/>
-    <cellStyle name="常规 5 2 8" xfId="202"/>
-    <cellStyle name="常规 5 2 8 2" xfId="214"/>
-    <cellStyle name="常规 5 2 9" xfId="207"/>
-    <cellStyle name="常规 5 3" xfId="103"/>
-    <cellStyle name="常规 5 3 2" xfId="105"/>
-    <cellStyle name="常规 5 3 2 2" xfId="435"/>
-    <cellStyle name="常规 5 3 3" xfId="107"/>
-    <cellStyle name="常规 5 4" xfId="110"/>
-    <cellStyle name="常规 5 4 2" xfId="113"/>
-    <cellStyle name="常规 5 4 2 2" xfId="485"/>
-    <cellStyle name="常规 5 4 3" xfId="486"/>
-    <cellStyle name="常规 5 5" xfId="116"/>
-    <cellStyle name="常规 5 5 2" xfId="488"/>
-    <cellStyle name="常规 5 5 2 2" xfId="490"/>
-    <cellStyle name="常规 5 5 3" xfId="492"/>
-    <cellStyle name="常规 5 6" xfId="493"/>
-    <cellStyle name="常规 5 6 2" xfId="495"/>
-    <cellStyle name="常规 5 7" xfId="496"/>
-    <cellStyle name="常规 5 7 2" xfId="498"/>
-    <cellStyle name="常规 5 8" xfId="484"/>
-    <cellStyle name="常规 5 8 2" xfId="501"/>
-    <cellStyle name="常规 5 9" xfId="502"/>
-    <cellStyle name="常规 5 9 2" xfId="4"/>
-    <cellStyle name="常规 6" xfId="20"/>
-    <cellStyle name="常规 6 10" xfId="401"/>
-    <cellStyle name="常规 6 10 2" xfId="406"/>
-    <cellStyle name="常规 6 11" xfId="436"/>
-    <cellStyle name="常规 6 2" xfId="156"/>
-    <cellStyle name="常规 6 2 2" xfId="158"/>
-    <cellStyle name="常规 6 2 2 2" xfId="503"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="504"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="42"/>
-    <cellStyle name="常规 6 2 2 2 2 3" xfId="505"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="506"/>
-    <cellStyle name="常规 6 2 2 2 4" xfId="507"/>
-    <cellStyle name="常规 6 2 2 3" xfId="168"/>
-    <cellStyle name="常规 6 2 2 3 2" xfId="170"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="63"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="12"/>
-    <cellStyle name="常规 6 2 2 3 3" xfId="172"/>
-    <cellStyle name="常规 6 2 2 4" xfId="177"/>
-    <cellStyle name="常规 6 2 2 4 2" xfId="180"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="61"/>
-    <cellStyle name="常规 6 2 2 5" xfId="183"/>
-    <cellStyle name="常规 6 2 3" xfId="45"/>
-    <cellStyle name="常规 6 2 3 2" xfId="508"/>
-    <cellStyle name="常规 6 2 3 2 2" xfId="509"/>
-    <cellStyle name="常规 6 2 3 2 3" xfId="510"/>
-    <cellStyle name="常规 6 2 3 3" xfId="52"/>
-    <cellStyle name="常规 6 2 3 4" xfId="56"/>
-    <cellStyle name="常规 6 2 4" xfId="135"/>
-    <cellStyle name="常规 6 2 4 2" xfId="481"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="483"/>
-    <cellStyle name="常规 6 2 4 2 3" xfId="511"/>
-    <cellStyle name="常规 6 2 4 3" xfId="203"/>
-    <cellStyle name="常规 6 2 4 4" xfId="208"/>
-    <cellStyle name="常规 6 2 5" xfId="137"/>
-    <cellStyle name="常规 6 2 5 2" xfId="512"/>
-    <cellStyle name="常规 6 2 5 3" xfId="217"/>
-    <cellStyle name="常规 6 2 6" xfId="513"/>
-    <cellStyle name="常规 6 2 6 2" xfId="514"/>
-    <cellStyle name="常规 6 2 6 3" xfId="221"/>
-    <cellStyle name="常规 6 2 7" xfId="516"/>
-    <cellStyle name="常规 6 2 8" xfId="518"/>
-    <cellStyle name="常规 6 2 9" xfId="519"/>
-    <cellStyle name="常规 6 3" xfId="520"/>
-    <cellStyle name="常规 6 3 2" xfId="521"/>
-    <cellStyle name="常规 6 3 2 2" xfId="522"/>
-    <cellStyle name="常规 6 3 2 2 2" xfId="523"/>
-    <cellStyle name="常规 6 3 2 2 3" xfId="524"/>
-    <cellStyle name="常规 6 3 2 3" xfId="525"/>
-    <cellStyle name="常规 6 3 2 4" xfId="73"/>
-    <cellStyle name="常规 6 3 3" xfId="526"/>
-    <cellStyle name="常规 6 3 3 2" xfId="527"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="529"/>
-    <cellStyle name="常规 6 3 3 2 3" xfId="530"/>
-    <cellStyle name="常规 6 3 3 3" xfId="531"/>
-    <cellStyle name="常规 6 3 4" xfId="532"/>
-    <cellStyle name="常规 6 3 4 2" xfId="515"/>
-    <cellStyle name="常规 6 3 4 3" xfId="517"/>
-    <cellStyle name="常规 6 3 5" xfId="533"/>
-    <cellStyle name="常规 6 4" xfId="163"/>
-    <cellStyle name="常规 6 4 2" xfId="232"/>
-    <cellStyle name="常规 6 4 2 2" xfId="237"/>
-    <cellStyle name="常规 6 4 2 3" xfId="534"/>
-    <cellStyle name="常规 6 4 3" xfId="239"/>
-    <cellStyle name="常规 6 4 4" xfId="241"/>
-    <cellStyle name="常规 6 5" xfId="25"/>
-    <cellStyle name="常规 6 5 2" xfId="536"/>
-    <cellStyle name="常规 6 5 2 2" xfId="537"/>
-    <cellStyle name="常规 6 5 2 3" xfId="282"/>
-    <cellStyle name="常规 6 5 3" xfId="539"/>
-    <cellStyle name="常规 6 5 4" xfId="541"/>
-    <cellStyle name="常规 6 6" xfId="542"/>
-    <cellStyle name="常规 6 6 2" xfId="543"/>
-    <cellStyle name="常规 6 6 2 2" xfId="544"/>
-    <cellStyle name="常规 6 6 2 3" xfId="545"/>
-    <cellStyle name="常规 6 6 3" xfId="547"/>
-    <cellStyle name="常规 6 6 4" xfId="549"/>
-    <cellStyle name="常规 6 7" xfId="551"/>
-    <cellStyle name="常规 6 7 2" xfId="552"/>
-    <cellStyle name="常规 6 7 3" xfId="554"/>
-    <cellStyle name="常规 6 8" xfId="555"/>
-    <cellStyle name="常规 6 8 2" xfId="5"/>
-    <cellStyle name="常规 6 8 3" xfId="556"/>
-    <cellStyle name="常规 6 9" xfId="557"/>
-    <cellStyle name="常规 7" xfId="559"/>
-    <cellStyle name="常规 7 10" xfId="560"/>
-    <cellStyle name="常规 7 2" xfId="561"/>
-    <cellStyle name="常规 7 2 2" xfId="259"/>
-    <cellStyle name="常规 7 2 2 2" xfId="562"/>
-    <cellStyle name="常规 7 2 3" xfId="563"/>
-    <cellStyle name="常规 7 3" xfId="14"/>
-    <cellStyle name="常规 7 3 2" xfId="564"/>
-    <cellStyle name="常规 7 3 2 2" xfId="565"/>
-    <cellStyle name="常规 7 3 3" xfId="566"/>
-    <cellStyle name="常规 7 4" xfId="443"/>
-    <cellStyle name="常规 7 4 2" xfId="311"/>
-    <cellStyle name="常规 7 4 3" xfId="567"/>
-    <cellStyle name="常规 7 5" xfId="446"/>
-    <cellStyle name="常规 7 5 2" xfId="568"/>
-    <cellStyle name="常规 7 6" xfId="569"/>
-    <cellStyle name="常规 7 6 2" xfId="570"/>
-    <cellStyle name="常规 7 7" xfId="571"/>
-    <cellStyle name="常规 7 7 2" xfId="327"/>
-    <cellStyle name="常规 7 8" xfId="572"/>
-    <cellStyle name="常规 7 8 2" xfId="426"/>
-    <cellStyle name="常规 7 9" xfId="528"/>
-    <cellStyle name="常规 7 9 2" xfId="449"/>
-    <cellStyle name="常规 8" xfId="474"/>
-    <cellStyle name="常规 8 2" xfId="49"/>
-    <cellStyle name="常规 8 2 2" xfId="573"/>
-    <cellStyle name="常规 8 2 2 2" xfId="574"/>
-    <cellStyle name="常规 8 2 3" xfId="575"/>
-    <cellStyle name="常规 8 3" xfId="43"/>
-    <cellStyle name="常规 8 3 2" xfId="576"/>
-    <cellStyle name="常规 8 3 2 2" xfId="577"/>
-    <cellStyle name="常规 8 3 3" xfId="578"/>
-    <cellStyle name="常规 8 4" xfId="452"/>
-    <cellStyle name="常规 8 4 2" xfId="579"/>
-    <cellStyle name="常规 8 5" xfId="455"/>
-    <cellStyle name="常规 8 5 2" xfId="580"/>
-    <cellStyle name="常规 8 6" xfId="581"/>
-    <cellStyle name="常规 8 6 2" xfId="582"/>
-    <cellStyle name="常规 8 7" xfId="583"/>
-    <cellStyle name="常规 8 7 2" xfId="584"/>
-    <cellStyle name="常规 8 8" xfId="585"/>
-    <cellStyle name="常规 9" xfId="586"/>
-    <cellStyle name="常规 9 2" xfId="587"/>
-    <cellStyle name="常规 9 2 2" xfId="550"/>
-    <cellStyle name="常规 9 3" xfId="588"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="58"/>
-    <cellStyle name="標準 2 2" xfId="47"/>
-    <cellStyle name="標準 2 2 2" xfId="70"/>
-    <cellStyle name="標準 2 2 2 2" xfId="72"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="77"/>
-    <cellStyle name="標準 2 2 2 3" xfId="6"/>
-    <cellStyle name="標準 2 2 3" xfId="78"/>
-    <cellStyle name="標準 2 2 3 2" xfId="81"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="8"/>
-    <cellStyle name="標準 2 2 3 3" xfId="75"/>
-    <cellStyle name="標準 2 2 4" xfId="32"/>
-    <cellStyle name="標準 2 2 4 2" xfId="83"/>
-    <cellStyle name="標準 2 2 5" xfId="80"/>
-    <cellStyle name="標準 2 3" xfId="85"/>
-    <cellStyle name="標準 2 3 2" xfId="68"/>
-    <cellStyle name="標準 2 3 2 2" xfId="86"/>
-    <cellStyle name="標準 2 3 3" xfId="69"/>
-    <cellStyle name="標準 2 4" xfId="90"/>
-    <cellStyle name="標準 2 4 2" xfId="91"/>
-    <cellStyle name="標準 2 4 2 2" xfId="93"/>
-    <cellStyle name="標準 2 4 3" xfId="1"/>
-    <cellStyle name="標準 2 5" xfId="94"/>
-    <cellStyle name="標準 2 5 2" xfId="96"/>
-    <cellStyle name="標準 2 5 2 2" xfId="98"/>
-    <cellStyle name="標準 2 5 3" xfId="92"/>
-    <cellStyle name="標準 2 6" xfId="30"/>
-    <cellStyle name="標準 2 6 2" xfId="36"/>
-    <cellStyle name="標準 2 6 2 2" xfId="101"/>
-    <cellStyle name="標準 2 6 3" xfId="40"/>
-    <cellStyle name="標準 2 7" xfId="104"/>
-    <cellStyle name="標準 2 7 2" xfId="106"/>
-    <cellStyle name="標準 2 7 3" xfId="108"/>
-    <cellStyle name="標準 2 8" xfId="111"/>
-    <cellStyle name="標準 2 8 2" xfId="114"/>
-    <cellStyle name="標準 2 9" xfId="117"/>
-    <cellStyle name="標準 3" xfId="118"/>
-    <cellStyle name="標準 3 2" xfId="120"/>
-    <cellStyle name="標準 3 2 2" xfId="121"/>
-    <cellStyle name="標準 3 2 2 2" xfId="122"/>
-    <cellStyle name="標準 3 2 2 3" xfId="124"/>
-    <cellStyle name="標準 3 2 3" xfId="126"/>
-    <cellStyle name="標準 3 2 3 2" xfId="127"/>
-    <cellStyle name="標準 3 2 3 3" xfId="129"/>
-    <cellStyle name="標準 3 2 4" xfId="123"/>
-    <cellStyle name="標準 3 2 4 2" xfId="37"/>
-    <cellStyle name="標準 3 2 4 3" xfId="21"/>
-    <cellStyle name="標準 3 2 5" xfId="125"/>
-    <cellStyle name="標準 3 2 5 2" xfId="131"/>
-    <cellStyle name="標準 3 2 5 3" xfId="133"/>
-    <cellStyle name="標準 3 2 6" xfId="134"/>
-    <cellStyle name="標準 3 2 6 2" xfId="136"/>
-    <cellStyle name="標準 3 2 6 3" xfId="138"/>
-    <cellStyle name="標準 3 2 7" xfId="19"/>
-    <cellStyle name="標準 3 2 8" xfId="139"/>
-    <cellStyle name="標準 3 3" xfId="141"/>
-    <cellStyle name="標準 3 3 2" xfId="142"/>
-    <cellStyle name="標準 3 3 2 2" xfId="143"/>
-    <cellStyle name="標準 3 3 2 3" xfId="145"/>
-    <cellStyle name="標準 3 3 3" xfId="147"/>
-    <cellStyle name="標準 3 3 3 2" xfId="119"/>
-    <cellStyle name="標準 3 3 3 3" xfId="148"/>
-    <cellStyle name="標準 3 3 4" xfId="128"/>
-    <cellStyle name="標準 3 3 5" xfId="130"/>
-    <cellStyle name="標準 3 4" xfId="150"/>
-    <cellStyle name="標準 3 4 2" xfId="151"/>
-    <cellStyle name="標準 3 4 3" xfId="152"/>
-    <cellStyle name="標準 3 5" xfId="154"/>
-    <cellStyle name="標準 3 5 2" xfId="155"/>
-    <cellStyle name="標準 3 5 3" xfId="97"/>
-    <cellStyle name="標準 3 6" xfId="157"/>
-    <cellStyle name="標準 3 6 2" xfId="159"/>
-    <cellStyle name="標準 3 6 3" xfId="46"/>
-    <cellStyle name="標準 3 7" xfId="160"/>
-    <cellStyle name="標準 3 7 2" xfId="161"/>
-    <cellStyle name="標準 3 7 3" xfId="162"/>
-    <cellStyle name="標準 3 8" xfId="166"/>
-    <cellStyle name="標準 3 9" xfId="28"/>
-    <cellStyle name="標準 4" xfId="149"/>
-    <cellStyle name="標準 4 2" xfId="167"/>
-    <cellStyle name="標準 4 2 2" xfId="169"/>
-    <cellStyle name="標準 4 2 2 2" xfId="62"/>
-    <cellStyle name="標準 4 2 2 3" xfId="11"/>
-    <cellStyle name="標準 4 2 3" xfId="171"/>
-    <cellStyle name="標準 4 2 3 2" xfId="173"/>
-    <cellStyle name="標準 4 2 3 3" xfId="174"/>
-    <cellStyle name="標準 4 2 4" xfId="144"/>
-    <cellStyle name="標準 4 2 5" xfId="146"/>
-    <cellStyle name="標準 4 3" xfId="175"/>
-    <cellStyle name="標準 4 3 2" xfId="178"/>
-    <cellStyle name="標準 4 3 3" xfId="59"/>
-    <cellStyle name="標準 4 4" xfId="181"/>
-    <cellStyle name="標準 4 4 2" xfId="185"/>
-    <cellStyle name="標準 4 4 3" xfId="187"/>
-    <cellStyle name="標準 4 5" xfId="188"/>
-    <cellStyle name="標準 4 5 2" xfId="191"/>
-    <cellStyle name="標準 4 5 3" xfId="99"/>
-    <cellStyle name="標準 4 5 4" xfId="192"/>
-    <cellStyle name="標準 4 6" xfId="194"/>
-    <cellStyle name="標準 4 7" xfId="13"/>
-    <cellStyle name="標準 5" xfId="195"/>
-    <cellStyle name="標準 5 2" xfId="51"/>
-    <cellStyle name="標準 5 3" xfId="54"/>
-    <cellStyle name="標準 6" xfId="198"/>
-    <cellStyle name="標準 6 2" xfId="200"/>
-    <cellStyle name="標準 6 3" xfId="204"/>
-    <cellStyle name="標準 7" xfId="209"/>
-    <cellStyle name="標準 8" xfId="211"/>
-    <cellStyle name="超链接 10" xfId="589"/>
-    <cellStyle name="超链接 2" xfId="591"/>
-    <cellStyle name="超链接 2 2" xfId="592"/>
-    <cellStyle name="超链接 2 2 2" xfId="593"/>
-    <cellStyle name="超链接 2 2 2 2" xfId="594"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="538"/>
-    <cellStyle name="超链接 2 2 2 2 2 2" xfId="595"/>
-    <cellStyle name="超链接 2 2 2 2 2 3" xfId="596"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="540"/>
-    <cellStyle name="超链接 2 2 2 2 4" xfId="597"/>
-    <cellStyle name="超链接 2 2 2 3" xfId="598"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="546"/>
-    <cellStyle name="超链接 2 2 2 3 2 2" xfId="599"/>
-    <cellStyle name="超链接 2 2 2 3 2 3" xfId="600"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="548"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="53"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="553"/>
-    <cellStyle name="超链接 2 2 2 4 3" xfId="601"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="57"/>
-    <cellStyle name="超链接 2 2 3" xfId="602"/>
-    <cellStyle name="超链接 2 2 3 2" xfId="603"/>
-    <cellStyle name="超链接 2 2 3 2 2" xfId="604"/>
-    <cellStyle name="超链接 2 2 3 2 3" xfId="605"/>
-    <cellStyle name="超链接 2 2 3 3" xfId="606"/>
-    <cellStyle name="超链接 2 2 3 4" xfId="607"/>
-    <cellStyle name="超链接 2 2 4" xfId="487"/>
-    <cellStyle name="超链接 2 2 4 2" xfId="489"/>
-    <cellStyle name="超链接 2 2 4 2 2" xfId="608"/>
-    <cellStyle name="超链接 2 2 4 2 3" xfId="609"/>
-    <cellStyle name="超链接 2 2 4 3" xfId="610"/>
-    <cellStyle name="超链接 2 2 4 4" xfId="611"/>
-    <cellStyle name="超链接 2 2 5" xfId="491"/>
-    <cellStyle name="超链接 2 2 5 2" xfId="612"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="614"/>
-    <cellStyle name="超链接 2 2 6" xfId="615"/>
-    <cellStyle name="超链接 2 2 6 2" xfId="616"/>
-    <cellStyle name="超链接 2 2 6 3" xfId="617"/>
-    <cellStyle name="超链接 2 2 7" xfId="618"/>
-    <cellStyle name="超链接 2 3" xfId="619"/>
-    <cellStyle name="超链接 2 3 2" xfId="620"/>
-    <cellStyle name="超链接 2 3 2 2" xfId="621"/>
-    <cellStyle name="超链接 2 3 2 2 2" xfId="622"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="7"/>
-    <cellStyle name="超链接 2 3 2 3" xfId="623"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="34"/>
-    <cellStyle name="超链接 2 3 3" xfId="624"/>
-    <cellStyle name="超链接 2 3 3 2" xfId="625"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="613"/>
-    <cellStyle name="超链接 2 3 3 2 3" xfId="626"/>
-    <cellStyle name="超链接 2 3 3 3" xfId="627"/>
-    <cellStyle name="超链接 2 3 4" xfId="494"/>
-    <cellStyle name="超链接 2 3 4 2" xfId="628"/>
-    <cellStyle name="超链接 2 3 4 3" xfId="629"/>
-    <cellStyle name="超链接 2 3 5" xfId="630"/>
-    <cellStyle name="超链接 2 4" xfId="631"/>
-    <cellStyle name="超链接 2 4 2" xfId="632"/>
-    <cellStyle name="超链接 2 4 2 2" xfId="633"/>
-    <cellStyle name="超链接 2 4 2 3" xfId="634"/>
-    <cellStyle name="超链接 2 4 3" xfId="635"/>
-    <cellStyle name="超链接 2 4 4" xfId="497"/>
-    <cellStyle name="超链接 2 5" xfId="636"/>
-    <cellStyle name="超链接 2 5 2" xfId="637"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="558"/>
-    <cellStyle name="超链接 2 5 2 3" xfId="473"/>
-    <cellStyle name="超链接 2 5 3" xfId="590"/>
-    <cellStyle name="超链接 2 5 4" xfId="500"/>
-    <cellStyle name="超链接 2 6" xfId="244"/>
-    <cellStyle name="超链接 2 6 2" xfId="246"/>
-    <cellStyle name="超链接 2 6 3" xfId="330"/>
-    <cellStyle name="超链接 2 7" xfId="369"/>
-    <cellStyle name="超链接 2 7 2" xfId="256"/>
-    <cellStyle name="超链接 2 7 3" xfId="375"/>
-    <cellStyle name="超链接 2 8" xfId="384"/>
-    <cellStyle name="超链接 3" xfId="499"/>
-    <cellStyle name="超链接 3 2" xfId="638"/>
-    <cellStyle name="超链接 3 2 2" xfId="639"/>
-    <cellStyle name="超链接 3 2 2 2" xfId="640"/>
-    <cellStyle name="超链接 3 2 2 3" xfId="269"/>
-    <cellStyle name="超链接 3 2 3" xfId="641"/>
-    <cellStyle name="超链接 3 2 4" xfId="535"/>
-    <cellStyle name="超链接 3 3" xfId="642"/>
-    <cellStyle name="超链接 3 3 2" xfId="643"/>
-    <cellStyle name="超链接 3 3 2 2" xfId="644"/>
-    <cellStyle name="超链接 3 3 2 3" xfId="304"/>
-    <cellStyle name="超链接 3 3 3" xfId="645"/>
-    <cellStyle name="超链接 3 4" xfId="646"/>
-    <cellStyle name="超链接 3 4 2" xfId="647"/>
-    <cellStyle name="超链接 3 4 3" xfId="648"/>
-    <cellStyle name="超链接 3 5" xfId="649"/>
-    <cellStyle name="超链接 4" xfId="650"/>
-    <cellStyle name="超链接 4 2" xfId="651"/>
-    <cellStyle name="超链接 4 2 2" xfId="17"/>
-    <cellStyle name="超链接 4 3" xfId="652"/>
-    <cellStyle name="超链接 5" xfId="653"/>
-    <cellStyle name="超链接 5 2" xfId="654"/>
-    <cellStyle name="超链接 5 2 2" xfId="655"/>
-    <cellStyle name="超链接 5 2 3" xfId="656"/>
-    <cellStyle name="超链接 5 3" xfId="657"/>
-    <cellStyle name="超链接 5 4" xfId="88"/>
-    <cellStyle name="超链接 6" xfId="658"/>
-    <cellStyle name="超链接 6 2" xfId="659"/>
-    <cellStyle name="超链接 6 3" xfId="660"/>
-    <cellStyle name="超链接 7" xfId="661"/>
-    <cellStyle name="超链接 7 2" xfId="662"/>
-    <cellStyle name="超链接 7 3" xfId="663"/>
-    <cellStyle name="超链接 8" xfId="664"/>
-    <cellStyle name="超链接 9" xfId="196"/>
-    <cellStyle name="适中 2" xfId="665"/>
-    <cellStyle name="适中 2 2" xfId="666"/>
-    <cellStyle name="适中 2 2 2" xfId="667"/>
-    <cellStyle name="适中 2 2 3" xfId="351"/>
-    <cellStyle name="适中 2 3" xfId="668"/>
-    <cellStyle name="适中 2 4" xfId="669"/>
+    <cellStyle name="標準 2" xfId="58" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="標準 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="標準 2 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="標準 2 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="標準 2 2 3 3" xfId="75" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="標準 2 2 4" xfId="32" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="標準 2 2 4 2" xfId="83" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="標準 2 2 5" xfId="80" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="標準 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="標準 2 3 2" xfId="68" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="標準 2 3 3" xfId="69" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="標準 2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="標準 2 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="93" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="標準 2 4 3" xfId="1" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="標準 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="標準 2 5 2" xfId="96" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="標準 2 5 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="標準 2 5 3" xfId="92" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="標準 2 6" xfId="30" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="標準 2 6 2" xfId="36" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="標準 2 6 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="標準 2 6 3" xfId="40" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="標準 2 7" xfId="104" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="標準 2 7 2" xfId="106" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="標準 2 7 3" xfId="108" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="標準 2 8" xfId="111" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="標準 2 8 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="標準 2 9" xfId="117" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="標準 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="標準 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="標準 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="標準 3 2 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="標準 3 2 2 3" xfId="124" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="標準 3 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="標準 3 2 3 2" xfId="127" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="標準 3 2 3 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="標準 3 2 4" xfId="123" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="標準 3 2 4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="標準 3 2 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="標準 3 2 5" xfId="125" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="標準 3 2 5 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="標準 3 2 5 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="標準 3 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="標準 3 2 6 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="標準 3 2 6 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="標準 3 2 7" xfId="19" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="標準 3 2 8" xfId="139" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="標準 3 3" xfId="141" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="標準 3 3 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="標準 3 3 2 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="標準 3 3 2 3" xfId="145" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 3 3 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 3 3 3 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 3 3 3 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 3 3 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 3 3 5" xfId="130" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 3 4" xfId="150" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 3 4 3" xfId="152" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 3 5" xfId="154" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 3 5 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 3 5 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 3 6" xfId="157" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 3 6 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 3 6 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 3 7" xfId="160" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 3 7 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 3 7 3" xfId="162" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 3 8" xfId="166" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 3 9" xfId="28" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 4" xfId="149" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 4 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 4 2 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 4 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 4 2 3" xfId="171" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 4 2 3 2" xfId="173" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 4 2 3 3" xfId="174" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 4 2 4" xfId="144" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 4 2 5" xfId="146" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 4 3" xfId="175" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 4 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 4 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 4 4" xfId="181" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 4 4 2" xfId="185" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 4 4 3" xfId="187" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4 5" xfId="188" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 4 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 4 5 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 4 5 4" xfId="192" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 4 6" xfId="194" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 4 7" xfId="13" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 5" xfId="195" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 6" xfId="198" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 6 2" xfId="200" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準 6 3" xfId="204" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準 7" xfId="209" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準 8" xfId="211" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="199" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 10 2" xfId="201" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 10 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 10 3" xfId="205" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 11" xfId="210" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 11 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 11 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 11 3" xfId="220" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 12" xfId="212" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 12 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 12 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 12 3" xfId="224" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 13" xfId="225" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 13 2" xfId="226" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 14" xfId="227" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 14 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 15" xfId="229" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 15 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 16" xfId="231" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 16 2" xfId="197" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 17" xfId="233" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 17 2" xfId="238" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 18" xfId="240" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 19" xfId="242" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 2 2" xfId="245" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2 2 2 2" xfId="248" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="60" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="182" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="206" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="255" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="258" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="261" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="263" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="266" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="267" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="273" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="275" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 4" xfId="276" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="277" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 2 2 2 2 5 2" xfId="279" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="常规 2 2 2 2 5 3" xfId="280" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="常规 2 2 2 2 6" xfId="281" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="常规 2 2 2 2 6 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 2 2 2 2 7" xfId="285" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 2 2 2 3" xfId="286" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="292" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 4" xfId="294" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="297" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="300" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="302" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 2 2 2 3 4 2" xfId="305" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="常规 2 2 2 3 4 3" xfId="307" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 2 2 3 5" xfId="308" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 2 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="314" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="315" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 2 2 5" xfId="44" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 2 2 5 2 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 2 2 5 2 3" xfId="319" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="320" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 2 2 2 5 4" xfId="321" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 2 2 6" xfId="64" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2 2 6 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 2 2 7" xfId="65" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 2 2 8" xfId="67" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="331" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 2 3 2" xfId="332" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="336" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="338" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="339" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 2 3 3" xfId="340" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="342" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="343" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="346" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="常规 2 2 3 4" xfId="347" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="348" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="349" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="常规 2 2 3 5" xfId="350" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="常规 2 2 3 5 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="常规 2 2 3 6" xfId="335" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="常规 2 2 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="常规 2 2 4 2" xfId="352" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="355" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="常规 2 2 4 3" xfId="357" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="常规 2 2 4 4" xfId="358" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="常规 2 2 5" xfId="184" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="常规 2 2 5 2" xfId="359" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="360" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="361" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="常规 2 2 5 3" xfId="362" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="常规 2 2 5 4" xfId="363" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="常规 2 2 6" xfId="186" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="常规 2 2 6 2" xfId="140" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="常规 2 2 6 3" xfId="364" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="常规 2 2 7" xfId="365" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="常规 2 2 7 2" xfId="366" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="常规 2 2 7 3" xfId="367" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="常规 2 2 8" xfId="368" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="常规 2 3" xfId="370" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="372" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="373" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="374" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="376" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="223" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="377" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="378" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="379" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="381" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="190" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="382" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="常规 2 3 5 3" xfId="383" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="常规 2 3 6" xfId="102" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="常规 2 4" xfId="385" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="常规 2 4 2" xfId="291" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="常规 2 4 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="常规 2 4 2 3" xfId="387" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="常规 2 4 3" xfId="388" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 2 4 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 2 4 3 3" xfId="390" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="常规 2 4 4" xfId="249" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="常规 2 4 5" xfId="260" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 2 5" xfId="325" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 2 5 2" xfId="391" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="常规 2 5 2 2" xfId="392" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="常规 2 5 2 3" xfId="394" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="常规 2 5 3" xfId="395" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="常规 2 5 4" xfId="287" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="常规 2 6" xfId="328" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="常规 2 6 2" xfId="396" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="常规 2 6 3" xfId="397" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="常规 2 7" xfId="215" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="常规 2 7 2" xfId="398" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="常规 2 7 3" xfId="18" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="常规 2 8" xfId="399" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="常规 22" xfId="234" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="常规 3" xfId="400" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="常规 3 10" xfId="354" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="常规 3 10 2" xfId="402" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="常规 3 11" xfId="356" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="常规 3 11 2" xfId="403" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="常规 3 12" xfId="404" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="常规 3 2" xfId="405" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="407" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="常规 3 2 2 2" xfId="274" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="408" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="常规 3 2 2 3" xfId="409" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="常规 3 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="常规 3 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="410" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="常规 3 2 3 3" xfId="411" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="常规 3 2 4" xfId="76" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="常规 3 2 4 2" xfId="412" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="常规 3 2 4 3" xfId="413" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="常规 3 2 5" xfId="414" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="常规 3 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="常规 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="常规 3 2 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="常规 3 2 7" xfId="415" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="常规 3 2 7 2" xfId="293" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="常规 3 2 8" xfId="416" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="常规 3 2 8 2" xfId="301" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="常规 3 2 9" xfId="417" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="常规 3 3" xfId="418" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="常规 3 3 2" xfId="419" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="常规 3 3 2 2" xfId="420" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="常规 3 3 3" xfId="84" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="常规 3 4" xfId="421" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="常规 3 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="常规 3 4 2 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="常规 3 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="常规 3 5" xfId="87" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="常规 3 5 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="常规 3 5 2 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="常规 3 5 3" xfId="425" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="常规 3 6" xfId="427" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="常规 3 6 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="常规 3 6 2 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="常规 3 6 3" xfId="15" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="常规 3 7" xfId="430" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 3 7 2" xfId="431" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="常规 3 8" xfId="432" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="常规 3 8 2" xfId="66" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="常规 3 9" xfId="433" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="常规 3 9 2" xfId="337" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规 4" xfId="434" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="常规 4 10" xfId="153" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="常规 4 10 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="常规 4 11" xfId="38" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="常规 4 12" xfId="23" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="常规 4 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="常规 4 2 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="常规 4 2 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="常规 4 2 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="常规 4 2 3" xfId="441" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="常规 4 2 3 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="312" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="常规 4 2 3 3" xfId="447" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="常规 4 2 4" xfId="450" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="常规 4 2 4 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="常规 4 2 4 3" xfId="456" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="常规 4 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="常规 4 2 5 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="常规 4 2 6" xfId="461" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="常规 4 2 6 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="常规 4 2 7" xfId="465" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 4 2 7 2" xfId="344" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="常规 4 2 8" xfId="467" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="常规 4 2 8 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="常规 4 2 9" xfId="469" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="常规 4 3" xfId="470" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="常规 4 3 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 4 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="常规 4 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="常规 4 4" xfId="440" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="常规 4 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="常规 4 4 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="常规 4 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="常规 4 5" xfId="442" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="常规 4 5 2" xfId="445" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="常规 4 5 2 2" xfId="313" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="常规 4 5 3" xfId="448" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 4 6" xfId="451" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="常规 4 6 2" xfId="454" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="常规 4 7" xfId="458" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 4 7 2" xfId="460" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="常规 4 8" xfId="462" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="常规 4 8 2" xfId="464" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="常规 4 9" xfId="466" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="常规 4 9 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="常规 5" xfId="471" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="常规 5 10" xfId="472" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="常规 5 10 2" xfId="475" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="常规 5 11" xfId="476" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="常规 5 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="常规 5 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="477" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="193" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="271" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="常规 5 2 3 3" xfId="278" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="常规 5 2 4 2 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="常规 5 2 4 3" xfId="309" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="478" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="常规 5 2 5 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="常规 5 2 6" xfId="479" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="常规 5 2 6 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="常规 5 2 7" xfId="480" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="常规 5 2 7 2" xfId="482" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="常规 5 2 8" xfId="202" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 5 2 8 2" xfId="214" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 2 9" xfId="207" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="常规 5 3" xfId="103" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="常规 5 3 2 2" xfId="435" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="107" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="常规 5 4" xfId="110" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="常规 5 4 2 2" xfId="485" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="常规 5 4 3" xfId="486" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="常规 5 5" xfId="116" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="488" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="常规 5 5 2 2" xfId="490" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="常规 5 5 3" xfId="492" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 5 6" xfId="493" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 5 6 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 5 7" xfId="496" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 5 7 2" xfId="498" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 5 8" xfId="484" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 5 8 2" xfId="501" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 5 9" xfId="502" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 5 9 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 6" xfId="20" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 6 10" xfId="401" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 6 10 2" xfId="406" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 6 11" xfId="436" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 6 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 6 2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 6 2 2 2" xfId="503" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="504" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 6 2 2 2 2 3" xfId="505" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="506" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 6 2 2 2 4" xfId="507" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 6 2 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 6 2 2 3 2" xfId="170" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 6 2 2 3 3" xfId="172" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 6 2 2 4" xfId="177" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 6 2 2 4 2" xfId="180" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 6 2 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 6 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 6 2 3 2" xfId="508" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 6 2 3 2 2" xfId="509" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 6 2 3 2 3" xfId="510" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 6 2 3 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 6 2 3 4" xfId="56" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 6 2 4" xfId="135" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 6 2 4 2" xfId="481" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="483" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="常规 6 2 4 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="常规 6 2 4 3" xfId="203" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="常规 6 2 4 4" xfId="208" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="常规 6 2 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="常规 6 2 5 2" xfId="512" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="常规 6 2 5 3" xfId="217" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="常规 6 2 6" xfId="513" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="常规 6 2 6 2" xfId="514" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="常规 6 2 6 3" xfId="221" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="常规 6 2 7" xfId="516" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="常规 6 2 8" xfId="518" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="常规 6 2 9" xfId="519" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="常规 6 3" xfId="520" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="常规 6 3 2" xfId="521" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="常规 6 3 2 2" xfId="522" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="常规 6 3 2 2 2" xfId="523" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="常规 6 3 2 2 3" xfId="524" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="常规 6 3 2 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="常规 6 3 2 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="常规 6 3 3" xfId="526" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="常规 6 3 3 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="529" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="常规 6 3 3 2 3" xfId="530" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="常规 6 3 3 3" xfId="531" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="常规 6 3 4" xfId="532" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="常规 6 3 4 2" xfId="515" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="常规 6 3 4 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="常规 6 3 5" xfId="533" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="常规 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="常规 6 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="常规 6 4 2 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="常规 6 4 2 3" xfId="534" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="常规 6 4 3" xfId="239" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="常规 6 4 4" xfId="241" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="常规 6 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="常规 6 5 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="常规 6 5 2 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="常规 6 5 2 3" xfId="282" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="常规 6 5 3" xfId="539" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="常规 6 5 4" xfId="541" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="常规 6 6" xfId="542" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="常规 6 6 2" xfId="543" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="常规 6 6 2 2" xfId="544" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="常规 6 6 2 3" xfId="545" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="常规 6 6 3" xfId="547" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="常规 6 6 4" xfId="549" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="常规 6 7" xfId="551" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="常规 6 7 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="常规 6 7 3" xfId="554" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="常规 6 8" xfId="555" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="常规 6 8 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="常规 6 8 3" xfId="556" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="常规 6 9" xfId="557" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="常规 7" xfId="559" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="常规 7 10" xfId="560" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="常规 7 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="常规 7 2 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="常规 7 2 2 2" xfId="562" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="常规 7 2 3" xfId="563" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="常规 7 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="常规 7 3 2" xfId="564" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="常规 7 3 2 2" xfId="565" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="常规 7 3 3" xfId="566" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="常规 7 4" xfId="443" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="常规 7 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="常规 7 4 3" xfId="567" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="常规 7 5" xfId="446" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="常规 7 5 2" xfId="568" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="常规 7 6" xfId="569" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="常规 7 6 2" xfId="570" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="常规 7 7" xfId="571" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="常规 7 7 2" xfId="327" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="常规 7 8" xfId="572" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="常规 7 8 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="常规 7 9" xfId="528" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="常规 7 9 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="常规 8" xfId="474" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="常规 8 2" xfId="49" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="常规 8 2 2" xfId="573" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="常规 8 2 2 2" xfId="574" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="常规 8 2 3" xfId="575" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="常规 8 3" xfId="43" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="常规 8 3 2" xfId="576" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="常规 8 3 2 2" xfId="577" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="常规 8 3 3" xfId="578" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="常规 8 4" xfId="452" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="常规 8 4 2" xfId="579" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="常规 8 5" xfId="455" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="常规 8 5 2" xfId="580" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="常规 8 6" xfId="581" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="常规 8 6 2" xfId="582" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="常规 8 7" xfId="583" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="常规 8 7 2" xfId="584" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="常规 8 8" xfId="585" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="常规 9" xfId="586" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="常规 9 2" xfId="587" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="常规 9 2 2" xfId="550" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="常规 9 3" xfId="588" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8"/>
+    <cellStyle name="超链接 10" xfId="589" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="超链接 2" xfId="591" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="超链接 2 2" xfId="592" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="超链接 2 2 2" xfId="593" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="超链接 2 2 2 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="538" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2 2" xfId="595" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2 3" xfId="596" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="540" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="超链接 2 2 2 2 4" xfId="597" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="超链接 2 2 2 3" xfId="598" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="546" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2 2" xfId="599" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2 3" xfId="600" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="548" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="53" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="553" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="超链接 2 2 2 4 3" xfId="601" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="57" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="超链接 2 2 3" xfId="602" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="超链接 2 2 3 2" xfId="603" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="超链接 2 2 3 2 2" xfId="604" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="超链接 2 2 3 2 3" xfId="605" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="超链接 2 2 3 3" xfId="606" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="超链接 2 2 3 4" xfId="607" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="超链接 2 2 4" xfId="487" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="超链接 2 2 4 2" xfId="489" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="超链接 2 2 4 2 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="超链接 2 2 4 2 3" xfId="609" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="超链接 2 2 4 3" xfId="610" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="超链接 2 2 4 4" xfId="611" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="超链接 2 2 5" xfId="491" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="超链接 2 2 5 2" xfId="612" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="614" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="超链接 2 2 6" xfId="615" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="超链接 2 2 6 2" xfId="616" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="超链接 2 2 6 3" xfId="617" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="超链接 2 2 7" xfId="618" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="超链接 2 3" xfId="619" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="超链接 2 3 2" xfId="620" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="超链接 2 3 2 2" xfId="621" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="超链接 2 3 2 2 2" xfId="622" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="超链接 2 3 2 3" xfId="623" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="超链接 2 3 3" xfId="624" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="超链接 2 3 3 2" xfId="625" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="613" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="超链接 2 3 3 2 3" xfId="626" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="超链接 2 3 3 3" xfId="627" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="超链接 2 3 4" xfId="494" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="超链接 2 3 4 2" xfId="628" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="超链接 2 3 4 3" xfId="629" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="超链接 2 3 5" xfId="630" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="超链接 2 4" xfId="631" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="超链接 2 4 2" xfId="632" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="超链接 2 4 2 2" xfId="633" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="超链接 2 4 2 3" xfId="634" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="超链接 2 4 3" xfId="635" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="超链接 2 4 4" xfId="497" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="超链接 2 5" xfId="636" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="超链接 2 5 2" xfId="637" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="超链接 2 5 2 3" xfId="473" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="超链接 2 5 3" xfId="590" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="超链接 2 5 4" xfId="500" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="超链接 2 6" xfId="244" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="超链接 2 6 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="超链接 2 6 3" xfId="330" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="超链接 2 7" xfId="369" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="超链接 2 7 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="超链接 2 7 3" xfId="375" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="超链接 2 8" xfId="384" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="超链接 3" xfId="499" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="超链接 3 2" xfId="638" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="超链接 3 2 2" xfId="639" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="超链接 3 2 2 2" xfId="640" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="超链接 3 2 2 3" xfId="269" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="超链接 3 2 3" xfId="641" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="超链接 3 2 4" xfId="535" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="超链接 3 3" xfId="642" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="超链接 3 3 2" xfId="643" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="超链接 3 3 2 2" xfId="644" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="超链接 3 3 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="超链接 3 3 3" xfId="645" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="超链接 3 4" xfId="646" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="超链接 3 4 2" xfId="647" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="超链接 3 4 3" xfId="648" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="超链接 3 5" xfId="649" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="超链接 4" xfId="650" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="超链接 4 2" xfId="651" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="超链接 4 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="超链接 4 3" xfId="652" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="超链接 5" xfId="653" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="超链接 5 2" xfId="654" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="超链接 5 2 2" xfId="655" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="超链接 5 2 3" xfId="656" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="超链接 5 3" xfId="657" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="超链接 5 4" xfId="88" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="超链接 6" xfId="658" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="超链接 6 2" xfId="659" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="超链接 6 3" xfId="660" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="超链接 7" xfId="661" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="超链接 7 2" xfId="662" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="超链接 7 3" xfId="663" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="超链接 8" xfId="664" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="超链接 9" xfId="196" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="适中 2" xfId="665" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="适中 2 2" xfId="666" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="适中 2 2 2" xfId="667" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="适中 2 2 3" xfId="351" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="适中 2 3" xfId="668" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="适中 2 4" xfId="669" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3492,12 +3519,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3539,7 +3569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3572,9 +3602,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3607,6 +3654,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3782,31 +3846,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="7" customWidth="1"/>
-    <col min="6" max="9" width="7.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="7" customWidth="1"/>
-    <col min="12" max="15" width="7.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="52.44140625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="1.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="7" customWidth="1"/>
+    <col min="6" max="9" width="7.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="7" customWidth="1"/>
+    <col min="12" max="15" width="7.625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="52.5" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="30">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="33">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -3857,7 +3921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="17.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3892,7 +3956,7 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="41"/>
     </row>
-    <row r="3" spans="1:17" outlineLevel="1">
+    <row r="3" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B3" s="58" t="str">
         <f>$B$2&amp;"-1"</f>
         <v>1-1</v>
@@ -3939,7 +4003,7 @@
       </c>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="1:17" outlineLevel="1">
+    <row r="4" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B4" s="58" t="str">
         <f>$B$2&amp;"-2"</f>
         <v>1-2</v>
@@ -3988,7 +4052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" outlineLevel="1">
+    <row r="5" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B5" s="58" t="str">
         <f>$B$2&amp;"-3"</f>
         <v>1-3</v>
@@ -4033,7 +4097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" outlineLevel="1">
+    <row r="6" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B6" s="58" t="str">
         <f>$B$2&amp;"-4"</f>
         <v>1-4</v>
@@ -4082,7 +4146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" outlineLevel="1">
+    <row r="7" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B7" s="58" t="str">
         <f>$B$2&amp;"-5"</f>
         <v>1-5</v>
@@ -4127,7 +4191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" outlineLevel="1">
+    <row r="8" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B8" s="58" t="str">
         <f>$B$2&amp;"-6"</f>
         <v>1-6</v>
@@ -4170,7 +4234,7 @@
       </c>
       <c r="Q8" s="42"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="17.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -4214,7 +4278,7 @@
       </c>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="17.25">
       <c r="B10" s="58" t="str">
         <f>$B$9&amp;"-1"</f>
         <v>2-1</v>
@@ -4249,7 +4313,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="43"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="17.25">
       <c r="B11" s="58" t="str">
         <f t="shared" ref="B11:B33" si="0">$B$9&amp;"-2"</f>
         <v>2-2</v>
@@ -4292,7 +4356,7 @@
       </c>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1">
+    <row r="12" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B12" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4329,7 +4393,7 @@
       </c>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1">
+    <row r="13" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B13" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4366,7 +4430,7 @@
       </c>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1">
+    <row r="14" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B14" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4407,7 +4471,7 @@
       </c>
       <c r="Q14" s="60"/>
     </row>
-    <row r="15" spans="1:17" outlineLevel="1">
+    <row r="15" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B15" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4448,7 +4512,7 @@
       </c>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1">
+    <row r="16" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B16" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4485,7 +4549,7 @@
       </c>
       <c r="Q16" s="42"/>
     </row>
-    <row r="17" spans="2:17" outlineLevel="1">
+    <row r="17" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B17" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4522,7 +4586,7 @@
       </c>
       <c r="Q17" s="42"/>
     </row>
-    <row r="18" spans="2:17" outlineLevel="1">
+    <row r="18" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B18" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4559,7 +4623,7 @@
       </c>
       <c r="Q18" s="42"/>
     </row>
-    <row r="19" spans="2:17" outlineLevel="1">
+    <row r="19" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B19" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4596,7 +4660,7 @@
       </c>
       <c r="Q19" s="42"/>
     </row>
-    <row r="20" spans="2:17" outlineLevel="1">
+    <row r="20" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B20" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4633,7 +4697,7 @@
       </c>
       <c r="Q20" s="42"/>
     </row>
-    <row r="21" spans="2:17" outlineLevel="1">
+    <row r="21" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B21" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4670,7 +4734,7 @@
       </c>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" spans="2:17" outlineLevel="1">
+    <row r="22" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B22" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4707,7 +4771,7 @@
       </c>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="2:17" outlineLevel="1">
+    <row r="23" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B23" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4723,10 +4787,14 @@
       <c r="G23" s="21">
         <v>44853</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="H23" s="21">
+        <v>44850</v>
+      </c>
+      <c r="I23" s="21">
+        <v>44850</v>
+      </c>
       <c r="J23" s="37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>37</v>
@@ -4744,7 +4812,7 @@
       </c>
       <c r="Q23" s="42"/>
     </row>
-    <row r="24" spans="2:17" outlineLevel="1">
+    <row r="24" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B24" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4781,7 +4849,7 @@
       </c>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="2:17" outlineLevel="1">
+    <row r="25" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B25" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4818,7 +4886,7 @@
       </c>
       <c r="Q25" s="42"/>
     </row>
-    <row r="26" spans="2:17" outlineLevel="1">
+    <row r="26" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B26" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4855,7 +4923,7 @@
       </c>
       <c r="Q26" s="42"/>
     </row>
-    <row r="27" spans="2:17" outlineLevel="1">
+    <row r="27" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B27" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4892,7 +4960,7 @@
       </c>
       <c r="Q27" s="42"/>
     </row>
-    <row r="28" spans="2:17" outlineLevel="1">
+    <row r="28" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B28" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4929,7 +4997,7 @@
       </c>
       <c r="Q28" s="42"/>
     </row>
-    <row r="29" spans="2:17" outlineLevel="1">
+    <row r="29" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B29" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4966,7 +5034,7 @@
       </c>
       <c r="Q29" s="42"/>
     </row>
-    <row r="30" spans="2:17" outlineLevel="1">
+    <row r="30" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B30" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5007,7 +5075,7 @@
       </c>
       <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="2:17" outlineLevel="1">
+    <row r="31" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B31" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5044,7 +5112,7 @@
       </c>
       <c r="Q31" s="42"/>
     </row>
-    <row r="32" spans="2:17" outlineLevel="1">
+    <row r="32" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B32" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5081,7 +5149,7 @@
       </c>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="1:17" outlineLevel="1">
+    <row r="33" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B33" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5118,7 +5186,7 @@
       </c>
       <c r="Q33" s="42"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" ht="17.25">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -5162,7 +5230,7 @@
       </c>
       <c r="Q34" s="44"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" ht="17.25">
       <c r="B35" s="58" t="str">
         <f>$B$34&amp;"-1"</f>
         <v>3-1</v>
@@ -5193,7 +5261,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" ht="17.25">
       <c r="B36" s="58" t="str">
         <f>$B$34&amp;"-2"</f>
         <v>3-2</v>
@@ -5236,7 +5304,7 @@
       </c>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="1:17" outlineLevel="1">
+    <row r="37" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B37" s="58" t="str">
         <f t="shared" ref="B37:B58" si="1">$B$34&amp;"-2"</f>
         <v>3-2</v>
@@ -5273,7 +5341,7 @@
       </c>
       <c r="Q37" s="42"/>
     </row>
-    <row r="38" spans="1:17" outlineLevel="1">
+    <row r="38" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B38" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5310,7 +5378,7 @@
       </c>
       <c r="Q38" s="42"/>
     </row>
-    <row r="39" spans="1:17" outlineLevel="1">
+    <row r="39" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B39" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5347,7 +5415,7 @@
       </c>
       <c r="Q39" s="42"/>
     </row>
-    <row r="40" spans="1:17" outlineLevel="1">
+    <row r="40" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B40" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5384,7 +5452,7 @@
       </c>
       <c r="Q40" s="42"/>
     </row>
-    <row r="41" spans="1:17" outlineLevel="1">
+    <row r="41" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B41" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5421,7 +5489,7 @@
       </c>
       <c r="Q41" s="42"/>
     </row>
-    <row r="42" spans="1:17" outlineLevel="1">
+    <row r="42" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B42" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5458,7 +5526,7 @@
       </c>
       <c r="Q42" s="42"/>
     </row>
-    <row r="43" spans="1:17" outlineLevel="1">
+    <row r="43" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B43" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5495,7 +5563,7 @@
       </c>
       <c r="Q43" s="42"/>
     </row>
-    <row r="44" spans="1:17" outlineLevel="1">
+    <row r="44" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B44" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5532,7 +5600,7 @@
       </c>
       <c r="Q44" s="42"/>
     </row>
-    <row r="45" spans="1:17" outlineLevel="1">
+    <row r="45" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B45" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5569,7 +5637,7 @@
       </c>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17" outlineLevel="1">
+    <row r="46" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B46" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5606,7 +5674,7 @@
       </c>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17" outlineLevel="1">
+    <row r="47" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B47" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5643,7 +5711,7 @@
       </c>
       <c r="Q47" s="42"/>
     </row>
-    <row r="48" spans="1:17" outlineLevel="1">
+    <row r="48" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B48" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5680,7 +5748,7 @@
       </c>
       <c r="Q48" s="42"/>
     </row>
-    <row r="49" spans="1:17" outlineLevel="1">
+    <row r="49" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B49" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5717,7 +5785,7 @@
       </c>
       <c r="Q49" s="42"/>
     </row>
-    <row r="50" spans="1:17" outlineLevel="1">
+    <row r="50" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B50" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5754,7 +5822,7 @@
       </c>
       <c r="Q50" s="42"/>
     </row>
-    <row r="51" spans="1:17" outlineLevel="1">
+    <row r="51" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B51" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5791,7 +5859,7 @@
       </c>
       <c r="Q51" s="42"/>
     </row>
-    <row r="52" spans="1:17" outlineLevel="1">
+    <row r="52" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B52" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5828,7 +5896,7 @@
       </c>
       <c r="Q52" s="42"/>
     </row>
-    <row r="53" spans="1:17" outlineLevel="1">
+    <row r="53" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B53" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5865,7 +5933,7 @@
       </c>
       <c r="Q53" s="42"/>
     </row>
-    <row r="54" spans="1:17" outlineLevel="1">
+    <row r="54" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B54" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5902,7 +5970,7 @@
       </c>
       <c r="Q54" s="42"/>
     </row>
-    <row r="55" spans="1:17" outlineLevel="1">
+    <row r="55" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B55" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5939,7 +6007,7 @@
       </c>
       <c r="Q55" s="42"/>
     </row>
-    <row r="56" spans="1:17" outlineLevel="1">
+    <row r="56" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B56" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5976,7 +6044,7 @@
       </c>
       <c r="Q56" s="42"/>
     </row>
-    <row r="57" spans="1:17" outlineLevel="1">
+    <row r="57" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B57" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6013,7 +6081,7 @@
       </c>
       <c r="Q57" s="42"/>
     </row>
-    <row r="58" spans="1:17" outlineLevel="1">
+    <row r="58" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B58" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6050,7 +6118,7 @@
       </c>
       <c r="Q58" s="42"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" ht="17.25">
       <c r="A59" s="5">
         <v>4</v>
       </c>
@@ -6094,7 +6162,7 @@
       </c>
       <c r="Q59" s="44"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" ht="17.25">
       <c r="B60" s="58" t="str">
         <f>$B$59&amp;"-1"</f>
         <v>4-1</v>
@@ -6125,7 +6193,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="43"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" ht="17.25">
       <c r="B61" s="58" t="str">
         <f>$B$59&amp;"-2"</f>
         <v>4-2</v>
@@ -6156,7 +6224,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="43"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" ht="17.25">
       <c r="B62" s="58" t="str">
         <f>$B$59&amp;"-3"</f>
         <v>4-3</v>
@@ -6199,7 +6267,7 @@
       </c>
       <c r="Q62" s="43"/>
     </row>
-    <row r="63" spans="1:17" outlineLevel="1">
+    <row r="63" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B63" s="58" t="str">
         <f t="shared" ref="B63:B84" si="2">$B$59&amp;"-3"</f>
         <v>4-3</v>
@@ -6236,7 +6304,7 @@
       </c>
       <c r="Q63" s="42"/>
     </row>
-    <row r="64" spans="1:17" outlineLevel="1">
+    <row r="64" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B64" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6273,7 +6341,7 @@
       </c>
       <c r="Q64" s="42"/>
     </row>
-    <row r="65" spans="2:17" outlineLevel="1">
+    <row r="65" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B65" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6310,7 +6378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:17" outlineLevel="1">
+    <row r="66" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B66" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6347,7 +6415,7 @@
       </c>
       <c r="Q66" s="42"/>
     </row>
-    <row r="67" spans="2:17" outlineLevel="1">
+    <row r="67" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B67" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6384,7 +6452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:17" outlineLevel="1">
+    <row r="68" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B68" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6421,7 +6489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:17" outlineLevel="1">
+    <row r="69" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B69" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6458,7 +6526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:17" outlineLevel="1">
+    <row r="70" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B70" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6495,7 +6563,7 @@
       </c>
       <c r="Q70" s="42"/>
     </row>
-    <row r="71" spans="2:17" outlineLevel="1">
+    <row r="71" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B71" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6532,7 +6600,7 @@
       </c>
       <c r="Q71" s="42"/>
     </row>
-    <row r="72" spans="2:17" outlineLevel="1">
+    <row r="72" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B72" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6569,7 +6637,7 @@
       </c>
       <c r="Q72" s="42"/>
     </row>
-    <row r="73" spans="2:17" outlineLevel="1">
+    <row r="73" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B73" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6606,7 +6674,7 @@
       </c>
       <c r="Q73" s="42"/>
     </row>
-    <row r="74" spans="2:17" outlineLevel="1">
+    <row r="74" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B74" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6643,7 +6711,7 @@
       </c>
       <c r="Q74" s="42"/>
     </row>
-    <row r="75" spans="2:17" outlineLevel="1">
+    <row r="75" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B75" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6680,7 +6748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="2:17" outlineLevel="1">
+    <row r="76" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B76" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6717,7 +6785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:17" outlineLevel="1">
+    <row r="77" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B77" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6754,7 +6822,7 @@
       </c>
       <c r="Q77" s="42"/>
     </row>
-    <row r="78" spans="2:17" outlineLevel="1">
+    <row r="78" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B78" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6791,7 +6859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="2:17" outlineLevel="1">
+    <row r="79" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B79" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6828,7 +6896,7 @@
       </c>
       <c r="Q79" s="42"/>
     </row>
-    <row r="80" spans="2:17" outlineLevel="1">
+    <row r="80" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B80" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6865,7 +6933,7 @@
       </c>
       <c r="Q80" s="42"/>
     </row>
-    <row r="81" spans="1:17" outlineLevel="1">
+    <row r="81" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B81" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6902,7 +6970,7 @@
       </c>
       <c r="Q81" s="42"/>
     </row>
-    <row r="82" spans="1:17" outlineLevel="1">
+    <row r="82" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B82" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6939,7 +7007,7 @@
       </c>
       <c r="Q82" s="42"/>
     </row>
-    <row r="83" spans="1:17" outlineLevel="1">
+    <row r="83" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B83" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6976,7 +7044,7 @@
       </c>
       <c r="Q83" s="42"/>
     </row>
-    <row r="84" spans="1:17" outlineLevel="1">
+    <row r="84" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B84" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -7013,7 +7081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" ht="17.25">
       <c r="A85" s="5">
         <v>5</v>
       </c>
@@ -7059,7 +7127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" ht="17.25">
       <c r="B86" s="58" t="str">
         <f>$B$85&amp;"-1"</f>
         <v>5-1</v>
@@ -7094,7 +7162,7 @@
       <c r="P86" s="38"/>
       <c r="Q86" s="43"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" ht="17.25">
       <c r="B87" s="58" t="str">
         <f t="shared" ref="B87:B109" si="3">$B$85&amp;"-2"</f>
         <v>5-2</v>
@@ -7137,7 +7205,7 @@
       </c>
       <c r="Q87" s="43"/>
     </row>
-    <row r="88" spans="1:17" outlineLevel="1">
+    <row r="88" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B88" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7174,7 +7242,7 @@
       </c>
       <c r="Q88" s="42"/>
     </row>
-    <row r="89" spans="1:17" outlineLevel="1">
+    <row r="89" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B89" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7211,7 +7279,7 @@
       </c>
       <c r="Q89" s="42"/>
     </row>
-    <row r="90" spans="1:17" outlineLevel="1">
+    <row r="90" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B90" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7248,7 +7316,7 @@
       </c>
       <c r="Q90" s="42"/>
     </row>
-    <row r="91" spans="1:17" outlineLevel="1">
+    <row r="91" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B91" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7285,7 +7353,7 @@
       </c>
       <c r="Q91" s="42"/>
     </row>
-    <row r="92" spans="1:17" outlineLevel="1">
+    <row r="92" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B92" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7322,7 +7390,7 @@
       </c>
       <c r="Q92" s="42"/>
     </row>
-    <row r="93" spans="1:17" outlineLevel="1">
+    <row r="93" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B93" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7359,7 +7427,7 @@
       </c>
       <c r="Q93" s="42"/>
     </row>
-    <row r="94" spans="1:17" outlineLevel="1">
+    <row r="94" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B94" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7396,7 +7464,7 @@
       </c>
       <c r="Q94" s="42"/>
     </row>
-    <row r="95" spans="1:17" outlineLevel="1">
+    <row r="95" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B95" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7433,7 +7501,7 @@
       </c>
       <c r="Q95" s="42"/>
     </row>
-    <row r="96" spans="1:17" outlineLevel="1">
+    <row r="96" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B96" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7470,7 +7538,7 @@
       </c>
       <c r="Q96" s="42"/>
     </row>
-    <row r="97" spans="1:17" outlineLevel="1">
+    <row r="97" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B97" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7507,7 +7575,7 @@
       </c>
       <c r="Q97" s="42"/>
     </row>
-    <row r="98" spans="1:17" outlineLevel="1">
+    <row r="98" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B98" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7544,7 +7612,7 @@
       </c>
       <c r="Q98" s="42"/>
     </row>
-    <row r="99" spans="1:17" outlineLevel="1">
+    <row r="99" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B99" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7581,7 +7649,7 @@
       </c>
       <c r="Q99" s="42"/>
     </row>
-    <row r="100" spans="1:17" outlineLevel="1">
+    <row r="100" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B100" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7618,7 +7686,7 @@
       </c>
       <c r="Q100" s="42"/>
     </row>
-    <row r="101" spans="1:17" outlineLevel="1">
+    <row r="101" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B101" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7655,7 +7723,7 @@
       </c>
       <c r="Q101" s="42"/>
     </row>
-    <row r="102" spans="1:17" outlineLevel="1">
+    <row r="102" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B102" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7692,7 +7760,7 @@
       </c>
       <c r="Q102" s="42"/>
     </row>
-    <row r="103" spans="1:17" outlineLevel="1">
+    <row r="103" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B103" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7729,7 +7797,7 @@
       </c>
       <c r="Q103" s="42"/>
     </row>
-    <row r="104" spans="1:17" outlineLevel="1">
+    <row r="104" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B104" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7766,7 +7834,7 @@
       </c>
       <c r="Q104" s="42"/>
     </row>
-    <row r="105" spans="1:17" outlineLevel="1">
+    <row r="105" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B105" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7803,7 +7871,7 @@
       </c>
       <c r="Q105" s="42"/>
     </row>
-    <row r="106" spans="1:17" outlineLevel="1">
+    <row r="106" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B106" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7840,7 +7908,7 @@
       </c>
       <c r="Q106" s="42"/>
     </row>
-    <row r="107" spans="1:17" outlineLevel="1">
+    <row r="107" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B107" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7877,7 +7945,7 @@
       </c>
       <c r="Q107" s="42"/>
     </row>
-    <row r="108" spans="1:17" outlineLevel="1">
+    <row r="108" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B108" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7914,7 +7982,7 @@
       </c>
       <c r="Q108" s="42"/>
     </row>
-    <row r="109" spans="1:17" outlineLevel="1">
+    <row r="109" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B109" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7951,7 +8019,7 @@
       </c>
       <c r="Q109" s="42"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" ht="17.25">
       <c r="A110" s="5">
         <v>6</v>
       </c>
@@ -7995,7 +8063,7 @@
       </c>
       <c r="Q110" s="41"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" ht="17.25">
       <c r="B111" s="58" t="str">
         <f>$B$110&amp;"-1"</f>
         <v>6-1</v>
@@ -8032,7 +8100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" ht="17.25">
       <c r="B112" s="58" t="str">
         <f t="shared" ref="B112:B134" si="4">$B$110&amp;"-2"</f>
         <v>6-2</v>
@@ -8075,7 +8143,7 @@
       </c>
       <c r="Q112" s="43"/>
     </row>
-    <row r="113" spans="2:17" outlineLevel="1">
+    <row r="113" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B113" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8112,7 +8180,7 @@
       </c>
       <c r="Q113" s="42"/>
     </row>
-    <row r="114" spans="2:17" outlineLevel="1">
+    <row r="114" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B114" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8149,7 +8217,7 @@
       </c>
       <c r="Q114" s="42"/>
     </row>
-    <row r="115" spans="2:17" outlineLevel="1">
+    <row r="115" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B115" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8186,7 +8254,7 @@
       </c>
       <c r="Q115" s="42"/>
     </row>
-    <row r="116" spans="2:17" outlineLevel="1">
+    <row r="116" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B116" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8223,7 +8291,7 @@
       </c>
       <c r="Q116" s="42"/>
     </row>
-    <row r="117" spans="2:17" outlineLevel="1">
+    <row r="117" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B117" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8260,7 +8328,7 @@
       </c>
       <c r="Q117" s="42"/>
     </row>
-    <row r="118" spans="2:17" outlineLevel="1">
+    <row r="118" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B118" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8297,7 +8365,7 @@
       </c>
       <c r="Q118" s="42"/>
     </row>
-    <row r="119" spans="2:17" outlineLevel="1">
+    <row r="119" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B119" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8334,7 +8402,7 @@
       </c>
       <c r="Q119" s="42"/>
     </row>
-    <row r="120" spans="2:17" outlineLevel="1">
+    <row r="120" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B120" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8371,7 +8439,7 @@
       </c>
       <c r="Q120" s="42"/>
     </row>
-    <row r="121" spans="2:17" outlineLevel="1">
+    <row r="121" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B121" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8408,7 +8476,7 @@
       </c>
       <c r="Q121" s="42"/>
     </row>
-    <row r="122" spans="2:17" outlineLevel="1">
+    <row r="122" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B122" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8445,7 +8513,7 @@
       </c>
       <c r="Q122" s="42"/>
     </row>
-    <row r="123" spans="2:17" outlineLevel="1">
+    <row r="123" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B123" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8482,7 +8550,7 @@
       </c>
       <c r="Q123" s="42"/>
     </row>
-    <row r="124" spans="2:17" outlineLevel="1">
+    <row r="124" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B124" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8519,7 +8587,7 @@
       </c>
       <c r="Q124" s="42"/>
     </row>
-    <row r="125" spans="2:17" outlineLevel="1">
+    <row r="125" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B125" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8556,7 +8624,7 @@
       </c>
       <c r="Q125" s="42"/>
     </row>
-    <row r="126" spans="2:17" outlineLevel="1">
+    <row r="126" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B126" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8593,7 +8661,7 @@
       </c>
       <c r="Q126" s="42"/>
     </row>
-    <row r="127" spans="2:17" outlineLevel="1">
+    <row r="127" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B127" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8630,7 +8698,7 @@
       </c>
       <c r="Q127" s="42"/>
     </row>
-    <row r="128" spans="2:17" outlineLevel="1">
+    <row r="128" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B128" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8669,7 +8737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:17" outlineLevel="1">
+    <row r="129" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B129" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8706,7 +8774,7 @@
       </c>
       <c r="Q129" s="42"/>
     </row>
-    <row r="130" spans="1:17" outlineLevel="1">
+    <row r="130" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B130" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8743,7 +8811,7 @@
       </c>
       <c r="Q130" s="42"/>
     </row>
-    <row r="131" spans="1:17" outlineLevel="1">
+    <row r="131" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B131" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8780,7 +8848,7 @@
       </c>
       <c r="Q131" s="42"/>
     </row>
-    <row r="132" spans="1:17" outlineLevel="1">
+    <row r="132" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B132" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8817,7 +8885,7 @@
       </c>
       <c r="Q132" s="42"/>
     </row>
-    <row r="133" spans="1:17" outlineLevel="1">
+    <row r="133" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B133" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8854,7 +8922,7 @@
       </c>
       <c r="Q133" s="42"/>
     </row>
-    <row r="134" spans="1:17" outlineLevel="1">
+    <row r="134" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B134" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8891,7 +8959,7 @@
       </c>
       <c r="Q134" s="42"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" ht="17.25">
       <c r="A135" s="5">
         <v>7</v>
       </c>
@@ -8935,7 +9003,7 @@
       </c>
       <c r="Q135" s="41"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" ht="17.25">
       <c r="B136" s="58" t="str">
         <f>$B$135&amp;"-1"</f>
         <v>7-1</v>
@@ -8970,7 +9038,7 @@
       <c r="P136" s="38"/>
       <c r="Q136" s="43"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" ht="17.25">
       <c r="B137" s="58" t="str">
         <f>$B$135&amp;"-2"</f>
         <v>7-2</v>
@@ -9013,7 +9081,7 @@
       </c>
       <c r="Q137" s="43"/>
     </row>
-    <row r="138" spans="1:17" outlineLevel="1">
+    <row r="138" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B138" s="58" t="str">
         <f t="shared" ref="B138:B159" si="5">$B$135&amp;"-2"</f>
         <v>7-2</v>
@@ -9050,7 +9118,7 @@
       </c>
       <c r="Q138" s="42"/>
     </row>
-    <row r="139" spans="1:17" outlineLevel="1">
+    <row r="139" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B139" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9087,7 +9155,7 @@
       </c>
       <c r="Q139" s="42"/>
     </row>
-    <row r="140" spans="1:17" outlineLevel="1">
+    <row r="140" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B140" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9124,7 +9192,7 @@
       </c>
       <c r="Q140" s="42"/>
     </row>
-    <row r="141" spans="1:17" outlineLevel="1">
+    <row r="141" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B141" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9161,7 +9229,7 @@
       </c>
       <c r="Q141" s="42"/>
     </row>
-    <row r="142" spans="1:17" outlineLevel="1">
+    <row r="142" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B142" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9198,7 +9266,7 @@
       </c>
       <c r="Q142" s="42"/>
     </row>
-    <row r="143" spans="1:17" outlineLevel="1">
+    <row r="143" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B143" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9235,7 +9303,7 @@
       </c>
       <c r="Q143" s="42"/>
     </row>
-    <row r="144" spans="1:17" outlineLevel="1">
+    <row r="144" spans="1:17" ht="17.25" outlineLevel="1">
       <c r="B144" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9272,7 +9340,7 @@
       </c>
       <c r="Q144" s="42"/>
     </row>
-    <row r="145" spans="2:17" outlineLevel="1">
+    <row r="145" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B145" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9309,7 +9377,7 @@
       </c>
       <c r="Q145" s="42"/>
     </row>
-    <row r="146" spans="2:17" outlineLevel="1">
+    <row r="146" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B146" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9346,7 +9414,7 @@
       </c>
       <c r="Q146" s="42"/>
     </row>
-    <row r="147" spans="2:17" outlineLevel="1">
+    <row r="147" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B147" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9383,7 +9451,7 @@
       </c>
       <c r="Q147" s="42"/>
     </row>
-    <row r="148" spans="2:17" outlineLevel="1">
+    <row r="148" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B148" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9420,7 +9488,7 @@
       </c>
       <c r="Q148" s="42"/>
     </row>
-    <row r="149" spans="2:17" outlineLevel="1">
+    <row r="149" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B149" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9457,7 +9525,7 @@
       </c>
       <c r="Q149" s="42"/>
     </row>
-    <row r="150" spans="2:17" outlineLevel="1">
+    <row r="150" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B150" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9494,7 +9562,7 @@
       </c>
       <c r="Q150" s="42"/>
     </row>
-    <row r="151" spans="2:17" outlineLevel="1">
+    <row r="151" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B151" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9531,7 +9599,7 @@
       </c>
       <c r="Q151" s="42"/>
     </row>
-    <row r="152" spans="2:17" outlineLevel="1">
+    <row r="152" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B152" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9568,7 +9636,7 @@
       </c>
       <c r="Q152" s="42"/>
     </row>
-    <row r="153" spans="2:17" outlineLevel="1">
+    <row r="153" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B153" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9605,7 +9673,7 @@
       </c>
       <c r="Q153" s="42"/>
     </row>
-    <row r="154" spans="2:17" outlineLevel="1">
+    <row r="154" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B154" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9642,7 +9710,7 @@
       </c>
       <c r="Q154" s="42"/>
     </row>
-    <row r="155" spans="2:17" outlineLevel="1">
+    <row r="155" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B155" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9679,7 +9747,7 @@
       </c>
       <c r="Q155" s="42"/>
     </row>
-    <row r="156" spans="2:17" outlineLevel="1">
+    <row r="156" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B156" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9716,7 +9784,7 @@
       </c>
       <c r="Q156" s="42"/>
     </row>
-    <row r="157" spans="2:17" outlineLevel="1">
+    <row r="157" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B157" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9753,7 +9821,7 @@
       </c>
       <c r="Q157" s="42"/>
     </row>
-    <row r="158" spans="2:17" outlineLevel="1">
+    <row r="158" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B158" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9790,7 +9858,7 @@
       </c>
       <c r="Q158" s="42"/>
     </row>
-    <row r="159" spans="2:17" outlineLevel="1">
+    <row r="159" spans="2:17" ht="17.25" outlineLevel="1">
       <c r="B159" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9830,7 +9898,7 @@
   </sheetData>
   <phoneticPr fontId="19"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>rv</formula1>
     </dataValidation>
   </dataValidations>
@@ -9840,20 +9908,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -9861,7 +9929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -9872,7 +9940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -9880,7 +9948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -9888,7 +9956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -9900,7 +9968,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9908,7 +9976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -9916,7 +9984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -10002,8 +10070,8 @@
   </sheetData>
   <phoneticPr fontId="19"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -307,7 +307,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,13 +536,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -556,7 +549,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,12 +781,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,34 +1160,28 @@
   </borders>
   <cellStyleXfs count="717">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,85 +1191,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1306,28 +1290,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,15 +1318,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,83 +1345,68 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,15 +1444,15 @@
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1499,16 +1465,10 @@
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,6 +1481,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,6 +1535,335 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1555,340 +1871,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,29 +1897,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1944,12 +1932,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2009,6 +1996,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -2043,9 +2033,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2169,6 +2156,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2179,28 +2169,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2216,9 +2206,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2284,7 +2271,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2409,10 +2396,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2472,7 +2459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2583,36 +2570,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2676,7 +2666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2845,15 +2835,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2906,7 +2893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3201,19 +3188,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3222,7 +3209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3366,31 +3353,31 @@
   </cellXfs>
   <cellStyles count="717">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2 4 3" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="常规 2 2 4" xfId="6"/>
-    <cellStyle name="常规 5 9 2" xfId="7"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="常规 6 8 2" xfId="9"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="標準 2 4 3" xfId="2"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="常规 5 9 2" xfId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="7"/>
+    <cellStyle name="输入" xfId="8" builtinId="20"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="9"/>
     <cellStyle name="標準 2 2 2 3" xfId="10"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="11"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="12"/>
-    <cellStyle name="常规 3 2 3 2" xfId="13"/>
-    <cellStyle name="千位分隔[0]" xfId="14" builtinId="6"/>
-    <cellStyle name="常规 3 4 3" xfId="15"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="16" builtinId="39"/>
-    <cellStyle name="標準 4 2 2 3" xfId="17"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="18"/>
-    <cellStyle name="差" xfId="19" builtinId="27"/>
-    <cellStyle name="標準 4 7" xfId="20"/>
-    <cellStyle name="常规 7 3" xfId="21"/>
-    <cellStyle name="千位分隔" xfId="22" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="23" builtinId="40"/>
+    <cellStyle name="常规 6 8 2" xfId="11"/>
+    <cellStyle name="常规 3 4 3" xfId="12"/>
+    <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
+    <cellStyle name="常规 3 2 3 2" xfId="14"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="15"/>
+    <cellStyle name="常规 7 3" xfId="16"/>
+    <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
+    <cellStyle name="標準 4 7" xfId="18"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="19"/>
+    <cellStyle name="標準 4 2 2 3" xfId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="21" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8"/>
     <cellStyle name="常规 3 6 3" xfId="24"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="25" builtinId="40"/>
     <cellStyle name="超链接 4 2 2" xfId="26"/>
     <cellStyle name="常规 2 7 3" xfId="27"/>
     <cellStyle name="百分比" xfId="28" builtinId="5"/>
@@ -3404,89 +3391,89 @@
     <cellStyle name="常规 4 12" xfId="36"/>
     <cellStyle name="常规 5 2 4" xfId="37"/>
     <cellStyle name="标题 4" xfId="38" builtinId="19"/>
-    <cellStyle name="常规 6 5" xfId="39"/>
+    <cellStyle name="標準 3 9" xfId="39"/>
     <cellStyle name="警告文本" xfId="40" builtinId="11"/>
-    <cellStyle name="常规 4 2 2 3" xfId="41"/>
-    <cellStyle name="常规 4 4 3" xfId="42"/>
-    <cellStyle name="標準 3 9" xfId="43"/>
-    <cellStyle name="常规 5 2" xfId="44"/>
-    <cellStyle name="标题" xfId="45" builtinId="15"/>
-    <cellStyle name="標準 2 6" xfId="46"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="47"/>
-    <cellStyle name="標準 2 2 4" xfId="48"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="49"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="50"/>
-    <cellStyle name="解释性文本" xfId="51" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="52" builtinId="16"/>
+    <cellStyle name="常规 6 5" xfId="41"/>
+    <cellStyle name="常规 4 2 2 3" xfId="42"/>
+    <cellStyle name="常规 4 4 3" xfId="43"/>
+    <cellStyle name="标题" xfId="44" builtinId="15"/>
+    <cellStyle name="標準 2 6" xfId="45"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="46"/>
+    <cellStyle name="常规 5 2" xfId="47"/>
+    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="49"/>
+    <cellStyle name="标题 1" xfId="50" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="51" builtinId="17"/>
+    <cellStyle name="標準 2 6 2" xfId="52"/>
     <cellStyle name="常规 5 2 2" xfId="53"/>
-    <cellStyle name="标题 2" xfId="54" builtinId="17"/>
-    <cellStyle name="標準 2 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="56" builtinId="32"/>
-    <cellStyle name="標準 3 2 4 2" xfId="57"/>
-    <cellStyle name="常规 4 11" xfId="58"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="54" builtinId="32"/>
+    <cellStyle name="標準 3 2 4 2" xfId="55"/>
+    <cellStyle name="常规 4 11" xfId="56"/>
+    <cellStyle name="标题 3" xfId="57" builtinId="18"/>
+    <cellStyle name="標準 2 6 3" xfId="58"/>
     <cellStyle name="常规 5 2 3" xfId="59"/>
-    <cellStyle name="标题 3" xfId="60" builtinId="18"/>
-    <cellStyle name="標準 2 6 3" xfId="61"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="62" builtinId="44"/>
-    <cellStyle name="输出" xfId="63" builtinId="21"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="64"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="65"/>
-    <cellStyle name="计算" xfId="66" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="67" builtinId="23"/>
-    <cellStyle name="常规 8 3" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="69" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="70" builtinId="33"/>
-    <cellStyle name="常规 2 2 2 5" xfId="71"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="60" builtinId="44"/>
+    <cellStyle name="输出" xfId="61" builtinId="21"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="62"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="63"/>
+    <cellStyle name="计算" xfId="64" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="65" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="66" builtinId="50"/>
+    <cellStyle name="常规 8 3" xfId="67"/>
+    <cellStyle name="强调文字颜色 2" xfId="68" builtinId="33"/>
+    <cellStyle name="常规 2 2 2 5" xfId="69"/>
+    <cellStyle name="链接单元格" xfId="70" builtinId="24"/>
+    <cellStyle name="標準 3 6 3" xfId="71"/>
     <cellStyle name="常规 6 2 3" xfId="72"/>
-    <cellStyle name="链接单元格" xfId="73" builtinId="24"/>
-    <cellStyle name="標準 3 6 3" xfId="74"/>
-    <cellStyle name="汇总" xfId="75" builtinId="25"/>
-    <cellStyle name="好" xfId="76" builtinId="26"/>
-    <cellStyle name="標準 2 2" xfId="77"/>
-    <cellStyle name="常规 3 2 6" xfId="78"/>
-    <cellStyle name="适中" xfId="79" builtinId="28"/>
-    <cellStyle name="常规 8 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="81" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="82" builtinId="29"/>
-    <cellStyle name="常规 2 2 2 4" xfId="83"/>
-    <cellStyle name="標準 5 2" xfId="84"/>
-    <cellStyle name="常规 6 2 3 3" xfId="85"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="87" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="88" builtinId="31"/>
-    <cellStyle name="標準 5 3" xfId="89"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="90"/>
-    <cellStyle name="常规 6 2 3 4" xfId="91"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="93" builtinId="34"/>
-    <cellStyle name="標準 2" xfId="94"/>
-    <cellStyle name="標準 4 3 3" xfId="95"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="96"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="98" builtinId="35"/>
-    <cellStyle name="標準 4 2 2 2" xfId="99"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="100"/>
-    <cellStyle name="强调文字颜色 3" xfId="101" builtinId="37"/>
-    <cellStyle name="常规 2 2 2 6" xfId="102"/>
-    <cellStyle name="强调文字颜色 4" xfId="103" builtinId="41"/>
-    <cellStyle name="常规 2 2 2 7" xfId="104"/>
-    <cellStyle name="常规 3 8 2" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="106" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="107" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="108" builtinId="45"/>
-    <cellStyle name="常规 2 2 2 8" xfId="109"/>
-    <cellStyle name="標準 2 3 2" xfId="110"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="111" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="112" builtinId="48"/>
-    <cellStyle name="標準 2 3 3" xfId="113"/>
-    <cellStyle name="强调文字颜色 6" xfId="114" builtinId="49"/>
-    <cellStyle name="標準 2 2 2" xfId="115"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="116" builtinId="51"/>
-    <cellStyle name="常规 3 2 6 2" xfId="117"/>
-    <cellStyle name="標準 2 2 2 2" xfId="118"/>
-    <cellStyle name="常规 6 3 2 4" xfId="119"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="120"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="121" builtinId="52"/>
+    <cellStyle name="汇总" xfId="73" builtinId="25"/>
+    <cellStyle name="好" xfId="74" builtinId="26"/>
+    <cellStyle name="常规 3 2 6" xfId="75"/>
+    <cellStyle name="适中" xfId="76" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="77" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="78"/>
+    <cellStyle name="强调文字颜色 1" xfId="79" builtinId="29"/>
+    <cellStyle name="常规 2 2 2 4" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="81" builtinId="30"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="82"/>
+    <cellStyle name="標準 5 2" xfId="83"/>
+    <cellStyle name="常规 6 2 3 3" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="85" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="86" builtinId="34"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="87"/>
+    <cellStyle name="標準 5 3" xfId="88"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="89"/>
+    <cellStyle name="常规 6 2 3 4" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="91" builtinId="35"/>
+    <cellStyle name="標準 4 2 2 2" xfId="92"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="93"/>
+    <cellStyle name="强调文字颜色 3" xfId="94" builtinId="37"/>
+    <cellStyle name="常规 2 2 2 6" xfId="95"/>
+    <cellStyle name="强调文字颜色 4" xfId="96" builtinId="41"/>
+    <cellStyle name="常规 2 2 2 7" xfId="97"/>
+    <cellStyle name="常规 3 8 2" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="99" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="100" builtinId="43"/>
+    <cellStyle name="標準 2 3 2" xfId="101"/>
+    <cellStyle name="强调文字颜色 5" xfId="102" builtinId="45"/>
+    <cellStyle name="常规 2 2 2 8" xfId="103"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="104" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="105" builtinId="48"/>
+    <cellStyle name="標準 2 3 3" xfId="106"/>
+    <cellStyle name="强调文字颜色 6" xfId="107" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="108" builtinId="51"/>
+    <cellStyle name="常规 3 2 6 2" xfId="109"/>
+    <cellStyle name="常规 6 3 2 4" xfId="110"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="111"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="112" builtinId="52"/>
+    <cellStyle name="標準 2 2 4" xfId="113"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="114"/>
+    <cellStyle name="標準 2 2" xfId="115"/>
+    <cellStyle name="標準 2" xfId="116"/>
+    <cellStyle name="標準 4 3 3" xfId="117"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="118"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="119"/>
+    <cellStyle name="標準 2 2 2" xfId="120"/>
+    <cellStyle name="標準 2 2 2 2" xfId="121"/>
     <cellStyle name="標準 2 2 3 3" xfId="122"/>
     <cellStyle name="常规 3 2 4" xfId="123"/>
     <cellStyle name="標準 2 2 2 2 2" xfId="124"/>
@@ -3500,36 +3487,36 @@
     <cellStyle name="標準 2 3" xfId="132"/>
     <cellStyle name="標準 2 3 2 2" xfId="133"/>
     <cellStyle name="常规 3 5" xfId="134"/>
-    <cellStyle name="超链接 5 4" xfId="135"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="136"/>
-    <cellStyle name="標準 2 4" xfId="137"/>
+    <cellStyle name="標準 2 4" xfId="135"/>
+    <cellStyle name="超链接 5 4" xfId="136"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="137"/>
     <cellStyle name="標準 2 4 2" xfId="138"/>
-    <cellStyle name="標準 2 5 3" xfId="139"/>
-    <cellStyle name="標準 2 4 2 2" xfId="140"/>
+    <cellStyle name="標準 2 4 2 2" xfId="139"/>
+    <cellStyle name="標準 2 5 3" xfId="140"/>
     <cellStyle name="標準 2 5" xfId="141"/>
     <cellStyle name="常规 2 2 2 4 2 2" xfId="142"/>
     <cellStyle name="標準 2 5 2" xfId="143"/>
-    <cellStyle name="標準 3 5 3" xfId="144"/>
-    <cellStyle name="標準 2 5 2 2" xfId="145"/>
-    <cellStyle name="標準 4 5 3" xfId="146"/>
-    <cellStyle name="常规 5 2 2 2" xfId="147"/>
-    <cellStyle name="標準 2 6 2 2" xfId="148"/>
-    <cellStyle name="常规 2 3 6" xfId="149"/>
-    <cellStyle name="常规 5 3" xfId="150"/>
-    <cellStyle name="標準 2 7" xfId="151"/>
-    <cellStyle name="常规 5 3 2" xfId="152"/>
-    <cellStyle name="標準 2 7 2" xfId="153"/>
-    <cellStyle name="常规 5 3 3" xfId="154"/>
-    <cellStyle name="標準 2 7 3" xfId="155"/>
-    <cellStyle name="常规 4 3 2" xfId="156"/>
-    <cellStyle name="常规 5 4" xfId="157"/>
-    <cellStyle name="標準 2 8" xfId="158"/>
-    <cellStyle name="常规 4 3 2 2" xfId="159"/>
-    <cellStyle name="常规 5 4 2" xfId="160"/>
-    <cellStyle name="標準 2 8 2" xfId="161"/>
-    <cellStyle name="常规 4 3 3" xfId="162"/>
-    <cellStyle name="常规 5 5" xfId="163"/>
-    <cellStyle name="標準 2 9" xfId="164"/>
+    <cellStyle name="標準 2 5 2 2" xfId="144"/>
+    <cellStyle name="標準 3 5 3" xfId="145"/>
+    <cellStyle name="標準 2 6 2 2" xfId="146"/>
+    <cellStyle name="常规 2 3 6" xfId="147"/>
+    <cellStyle name="標準 4 5 3" xfId="148"/>
+    <cellStyle name="常规 5 2 2 2" xfId="149"/>
+    <cellStyle name="標準 2 7" xfId="150"/>
+    <cellStyle name="常规 5 3" xfId="151"/>
+    <cellStyle name="標準 2 7 2" xfId="152"/>
+    <cellStyle name="常规 5 3 2" xfId="153"/>
+    <cellStyle name="標準 2 7 3" xfId="154"/>
+    <cellStyle name="常规 5 3 3" xfId="155"/>
+    <cellStyle name="標準 2 8" xfId="156"/>
+    <cellStyle name="常规 4 3 2" xfId="157"/>
+    <cellStyle name="常规 5 4" xfId="158"/>
+    <cellStyle name="標準 2 8 2" xfId="159"/>
+    <cellStyle name="常规 4 3 2 2" xfId="160"/>
+    <cellStyle name="常规 5 4 2" xfId="161"/>
+    <cellStyle name="標準 2 9" xfId="162"/>
+    <cellStyle name="常规 4 3 3" xfId="163"/>
+    <cellStyle name="常规 5 5" xfId="164"/>
     <cellStyle name="標準 3" xfId="165"/>
     <cellStyle name="標準 3 3 3 2" xfId="166"/>
     <cellStyle name="標準 3 2" xfId="167"/>
@@ -3544,13 +3531,13 @@
     <cellStyle name="標準 3 2 3 3" xfId="176"/>
     <cellStyle name="標準 3 3 5" xfId="177"/>
     <cellStyle name="標準 3 2 5 2" xfId="178"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="179"/>
-    <cellStyle name="標準 3 2 5 3" xfId="180"/>
+    <cellStyle name="標準 3 2 5 3" xfId="179"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="180"/>
     <cellStyle name="標準 3 2 6" xfId="181"/>
-    <cellStyle name="常规 6 2 4" xfId="182"/>
-    <cellStyle name="標準 3 2 6 2" xfId="183"/>
-    <cellStyle name="常规 6 2 5" xfId="184"/>
-    <cellStyle name="標準 3 2 6 3" xfId="185"/>
+    <cellStyle name="標準 3 2 6 2" xfId="182"/>
+    <cellStyle name="常规 6 2 4" xfId="183"/>
+    <cellStyle name="標準 3 2 6 3" xfId="184"/>
+    <cellStyle name="常规 6 2 5" xfId="185"/>
     <cellStyle name="標準 3 2 8" xfId="186"/>
     <cellStyle name="常规 2 2 6 2" xfId="187"/>
     <cellStyle name="標準 3 3" xfId="188"/>
@@ -3568,17 +3555,17 @@
     <cellStyle name="常规 4 10" xfId="200"/>
     <cellStyle name="標準 3 5" xfId="201"/>
     <cellStyle name="標準 3 5 2" xfId="202"/>
-    <cellStyle name="常规 6 2" xfId="203"/>
-    <cellStyle name="標準 3 6" xfId="204"/>
-    <cellStyle name="常规 6 2 2" xfId="205"/>
-    <cellStyle name="標準 3 6 2" xfId="206"/>
+    <cellStyle name="標準 3 6" xfId="203"/>
+    <cellStyle name="常规 6 2" xfId="204"/>
+    <cellStyle name="標準 3 6 2" xfId="205"/>
+    <cellStyle name="常规 6 2 2" xfId="206"/>
     <cellStyle name="標準 3 7" xfId="207"/>
     <cellStyle name="標準 3 7 2" xfId="208"/>
     <cellStyle name="標準 3 7 3" xfId="209"/>
-    <cellStyle name="常规 6 4" xfId="210"/>
-    <cellStyle name="常规 4 2 2 2" xfId="211"/>
-    <cellStyle name="常规 4 4 2" xfId="212"/>
-    <cellStyle name="標準 3 8" xfId="213"/>
+    <cellStyle name="標準 3 8" xfId="210"/>
+    <cellStyle name="常规 6 4" xfId="211"/>
+    <cellStyle name="常规 4 2 2 2" xfId="212"/>
+    <cellStyle name="常规 4 4 2" xfId="213"/>
     <cellStyle name="標準 4 2" xfId="214"/>
     <cellStyle name="常规 6 2 2 3" xfId="215"/>
     <cellStyle name="標準 4 2 2" xfId="216"/>
@@ -3596,22 +3583,22 @@
     <cellStyle name="標準 4 4" xfId="228"/>
     <cellStyle name="常规 2 2 2 2 2 2 3" xfId="229"/>
     <cellStyle name="常规 6 2 2 5" xfId="230"/>
-    <cellStyle name="常规 2 2 5" xfId="231"/>
-    <cellStyle name="標準 4 4 2" xfId="232"/>
-    <cellStyle name="常规 2 2 6" xfId="233"/>
-    <cellStyle name="標準 4 4 3" xfId="234"/>
+    <cellStyle name="標準 4 4 2" xfId="231"/>
+    <cellStyle name="常规 2 2 5" xfId="232"/>
+    <cellStyle name="標準 4 4 3" xfId="233"/>
+    <cellStyle name="常规 2 2 6" xfId="234"/>
     <cellStyle name="標準 4 5" xfId="235"/>
     <cellStyle name="常规 2 2 2 2 2 2 4" xfId="236"/>
-    <cellStyle name="常规 2 3 5" xfId="237"/>
-    <cellStyle name="標準 4 5 2" xfId="238"/>
+    <cellStyle name="標準 4 5 2" xfId="237"/>
+    <cellStyle name="常规 2 3 5" xfId="238"/>
     <cellStyle name="標準 4 5 4" xfId="239"/>
     <cellStyle name="常规 5 2 2 3" xfId="240"/>
     <cellStyle name="標準 4 6" xfId="241"/>
     <cellStyle name="標準 5" xfId="242"/>
-    <cellStyle name="超链接 9" xfId="243"/>
-    <cellStyle name="常规 16 2" xfId="244"/>
-    <cellStyle name="標準 6" xfId="245"/>
-    <cellStyle name="常规 10" xfId="246"/>
+    <cellStyle name="標準 6" xfId="243"/>
+    <cellStyle name="常规 10" xfId="244"/>
+    <cellStyle name="超链接 9" xfId="245"/>
+    <cellStyle name="常规 16 2" xfId="246"/>
     <cellStyle name="標準 6 2" xfId="247"/>
     <cellStyle name="常规 10 2" xfId="248"/>
     <cellStyle name="常规 5 2 8" xfId="249"/>
@@ -3625,18 +3612,18 @@
     <cellStyle name="常规 11" xfId="257"/>
     <cellStyle name="標準 8" xfId="258"/>
     <cellStyle name="常规 12" xfId="259"/>
-    <cellStyle name="常规 10 2 2" xfId="260"/>
-    <cellStyle name="常规 5 2 8 2" xfId="261"/>
-    <cellStyle name="常规 2 7" xfId="262"/>
+    <cellStyle name="常规 2 7" xfId="260"/>
+    <cellStyle name="常规 10 2 2" xfId="261"/>
+    <cellStyle name="常规 5 2 8 2" xfId="262"/>
     <cellStyle name="常规 11 2" xfId="263"/>
     <cellStyle name="常规 6 2 5 3" xfId="264"/>
     <cellStyle name="常规 11 2 2" xfId="265"/>
-    <cellStyle name="常规 2 3 2 2" xfId="266"/>
-    <cellStyle name="常规 11 3" xfId="267"/>
+    <cellStyle name="常规 11 3" xfId="266"/>
+    <cellStyle name="常规 2 3 2 2" xfId="267"/>
     <cellStyle name="常规 6 2 6 3" xfId="268"/>
     <cellStyle name="常规 12 2" xfId="269"/>
-    <cellStyle name="常规 2 3 3 2" xfId="270"/>
-    <cellStyle name="常规 12 3" xfId="271"/>
+    <cellStyle name="常规 12 3" xfId="270"/>
+    <cellStyle name="常规 2 3 3 2" xfId="271"/>
     <cellStyle name="常规 13" xfId="272"/>
     <cellStyle name="常规 13 2" xfId="273"/>
     <cellStyle name="常规 14" xfId="274"/>
@@ -3661,24 +3648,24 @@
     <cellStyle name="超链接 2 6 2" xfId="293"/>
     <cellStyle name="常规 2 2 2" xfId="294"/>
     <cellStyle name="常规 2 2 2 2" xfId="295"/>
-    <cellStyle name="常规 2 4 4" xfId="296"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="297"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="296"/>
+    <cellStyle name="常规 2 4 4" xfId="297"/>
     <cellStyle name="常规 2 2 2 2 2 2" xfId="298"/>
     <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="299"/>
     <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="300"/>
     <cellStyle name="常规 2 2 2 2 2 4" xfId="301"/>
     <cellStyle name="常规 2 2 2 2 2 4 3" xfId="302"/>
-    <cellStyle name="超链接 2 7 2" xfId="303"/>
-    <cellStyle name="常规 2 3 2" xfId="304"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="305"/>
-    <cellStyle name="常规 7 2 2" xfId="306"/>
-    <cellStyle name="常规 2 4 5" xfId="307"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="308"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="303"/>
+    <cellStyle name="超链接 2 7 2" xfId="304"/>
+    <cellStyle name="常规 2 3 2" xfId="305"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="306"/>
+    <cellStyle name="常规 7 2 2" xfId="307"/>
+    <cellStyle name="常规 2 4 5" xfId="308"/>
     <cellStyle name="常规 2 2 2 2 3 2" xfId="309"/>
     <cellStyle name="常规 2 2 2 2 3 2 3" xfId="310"/>
     <cellStyle name="常规 2 2 2 2 3 3" xfId="311"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="312"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="313"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="312"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="313"/>
     <cellStyle name="常规 2 2 2 2 4" xfId="314"/>
     <cellStyle name="常规 5 2 3 2" xfId="315"/>
     <cellStyle name="超链接 3 2 2 3" xfId="316"/>
@@ -3699,8 +3686,8 @@
     <cellStyle name="常规 2 2 2 2 6 3" xfId="331"/>
     <cellStyle name="常规 2 2 2 2 7" xfId="332"/>
     <cellStyle name="常规 2 2 2 3" xfId="333"/>
-    <cellStyle name="常规 2 5 4" xfId="334"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="335"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="334"/>
+    <cellStyle name="常规 2 5 4" xfId="335"/>
     <cellStyle name="常规 2 2 2 3 2 2" xfId="336"/>
     <cellStyle name="常规 2 2 2 3 2 2 3" xfId="337"/>
     <cellStyle name="常规 2 4 2" xfId="338"/>
@@ -3723,10 +3710,10 @@
     <cellStyle name="常规 2 2 2 3 5" xfId="355"/>
     <cellStyle name="常规 5 2 4 3" xfId="356"/>
     <cellStyle name="常规 2 2 2 4 2" xfId="357"/>
-    <cellStyle name="常规 7 4 2" xfId="358"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="359"/>
-    <cellStyle name="常规 4 5 2 2" xfId="360"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="361"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="358"/>
+    <cellStyle name="常规 7 4 2" xfId="359"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="360"/>
+    <cellStyle name="常规 4 5 2 2" xfId="361"/>
     <cellStyle name="常规 2 2 2 4 4" xfId="362"/>
     <cellStyle name="常规 5 2 5 2" xfId="363"/>
     <cellStyle name="常规 2 2 2 5 2" xfId="364"/>
@@ -3737,11 +3724,11 @@
     <cellStyle name="常规 5 2 6 2" xfId="369"/>
     <cellStyle name="常规 2 2 2 6 2" xfId="370"/>
     <cellStyle name="常规 2 2 2 6 3" xfId="371"/>
-    <cellStyle name="常规 2 5" xfId="372"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="373"/>
-    <cellStyle name="常规 7 7 2" xfId="374"/>
-    <cellStyle name="常规 2 6" xfId="375"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="376"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="372"/>
+    <cellStyle name="常规 2 5" xfId="373"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="374"/>
+    <cellStyle name="常规 7 7 2" xfId="375"/>
+    <cellStyle name="常规 2 6" xfId="376"/>
     <cellStyle name="超链接 2 6 3" xfId="377"/>
     <cellStyle name="常规 2 2 3" xfId="378"/>
     <cellStyle name="常规 2 2 3 2" xfId="379"/>
@@ -3805,8 +3792,8 @@
     <cellStyle name="常规 2 4 3 3" xfId="437"/>
     <cellStyle name="常规 2 5 2" xfId="438"/>
     <cellStyle name="常规 2 5 2 2" xfId="439"/>
-    <cellStyle name="常规 3 2 5 2" xfId="440"/>
-    <cellStyle name="常规 2 5 2 3" xfId="441"/>
+    <cellStyle name="常规 2 5 2 3" xfId="440"/>
+    <cellStyle name="常规 3 2 5 2" xfId="441"/>
     <cellStyle name="常规 2 5 3" xfId="442"/>
     <cellStyle name="常规 2 6 2" xfId="443"/>
     <cellStyle name="常规 2 6 3" xfId="444"/>
@@ -3877,43 +3864,43 @@
     <cellStyle name="常规 4 8" xfId="509"/>
     <cellStyle name="常规 4 2 6 2" xfId="510"/>
     <cellStyle name="常规 4 8 2" xfId="511"/>
-    <cellStyle name="常规 4 2 7" xfId="512"/>
-    <cellStyle name="常规 4 9" xfId="513"/>
+    <cellStyle name="常规 4 9" xfId="512"/>
+    <cellStyle name="常规 4 2 7" xfId="513"/>
     <cellStyle name="常规 4 2 8" xfId="514"/>
     <cellStyle name="常规 4 2 8 2" xfId="515"/>
     <cellStyle name="常规 4 2 9" xfId="516"/>
     <cellStyle name="常规 4 3" xfId="517"/>
     <cellStyle name="常规 5" xfId="518"/>
     <cellStyle name="常规 5 10" xfId="519"/>
-    <cellStyle name="超链接 2 5 2 3" xfId="520"/>
+    <cellStyle name="常规 5 10 2" xfId="520"/>
     <cellStyle name="常规 8" xfId="521"/>
-    <cellStyle name="常规 5 10 2" xfId="522"/>
+    <cellStyle name="超链接 2 5 2 3" xfId="522"/>
     <cellStyle name="常规 5 11" xfId="523"/>
     <cellStyle name="常规 5 2 2 2 2" xfId="524"/>
     <cellStyle name="常规 5 2 5" xfId="525"/>
     <cellStyle name="常规 5 2 6" xfId="526"/>
-    <cellStyle name="常规 5 2 7" xfId="527"/>
-    <cellStyle name="常规 6 2 4 2" xfId="528"/>
-    <cellStyle name="常规 5 2 7 2" xfId="529"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="530"/>
+    <cellStyle name="常规 6 2 4 2" xfId="527"/>
+    <cellStyle name="常规 5 2 7" xfId="528"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="529"/>
+    <cellStyle name="常规 5 2 7 2" xfId="530"/>
     <cellStyle name="常规 5 8" xfId="531"/>
     <cellStyle name="常规 5 4 2 2" xfId="532"/>
     <cellStyle name="常规 5 4 3" xfId="533"/>
-    <cellStyle name="超链接 2 2 4" xfId="534"/>
-    <cellStyle name="常规 5 5 2" xfId="535"/>
-    <cellStyle name="超链接 2 2 4 2" xfId="536"/>
-    <cellStyle name="常规 5 5 2 2" xfId="537"/>
-    <cellStyle name="超链接 2 2 5" xfId="538"/>
-    <cellStyle name="常规 5 5 3" xfId="539"/>
+    <cellStyle name="常规 5 5 2" xfId="534"/>
+    <cellStyle name="超链接 2 2 4" xfId="535"/>
+    <cellStyle name="常规 5 5 2 2" xfId="536"/>
+    <cellStyle name="超链接 2 2 4 2" xfId="537"/>
+    <cellStyle name="常规 5 5 3" xfId="538"/>
+    <cellStyle name="超链接 2 2 5" xfId="539"/>
     <cellStyle name="常规 5 6" xfId="540"/>
-    <cellStyle name="超链接 2 3 4" xfId="541"/>
-    <cellStyle name="常规 5 6 2" xfId="542"/>
+    <cellStyle name="常规 5 6 2" xfId="541"/>
+    <cellStyle name="超链接 2 3 4" xfId="542"/>
     <cellStyle name="常规 5 7" xfId="543"/>
-    <cellStyle name="超链接 2 4 4" xfId="544"/>
-    <cellStyle name="常规 5 7 2" xfId="545"/>
-    <cellStyle name="超链接 3" xfId="546"/>
+    <cellStyle name="常规 5 7 2" xfId="544"/>
+    <cellStyle name="超链接 2 4 4" xfId="545"/>
+    <cellStyle name="常规 5 8 2" xfId="546"/>
     <cellStyle name="超链接 2 5 4" xfId="547"/>
-    <cellStyle name="常规 5 8 2" xfId="548"/>
+    <cellStyle name="超链接 3" xfId="548"/>
     <cellStyle name="常规 5 9" xfId="549"/>
     <cellStyle name="常规 6 2 2 2" xfId="550"/>
     <cellStyle name="常规 6 2 2 2 2" xfId="551"/>
@@ -3927,10 +3914,10 @@
     <cellStyle name="常规 6 2 5 2" xfId="559"/>
     <cellStyle name="常规 6 2 6" xfId="560"/>
     <cellStyle name="常规 6 2 6 2" xfId="561"/>
-    <cellStyle name="常规 6 3 4 2" xfId="562"/>
-    <cellStyle name="常规 6 2 7" xfId="563"/>
-    <cellStyle name="常规 6 3 4 3" xfId="564"/>
-    <cellStyle name="常规 6 2 8" xfId="565"/>
+    <cellStyle name="常规 6 2 7" xfId="562"/>
+    <cellStyle name="常规 6 3 4 2" xfId="563"/>
+    <cellStyle name="常规 6 2 8" xfId="564"/>
+    <cellStyle name="常规 6 3 4 3" xfId="565"/>
     <cellStyle name="常规 6 2 9" xfId="566"/>
     <cellStyle name="常规 6 3" xfId="567"/>
     <cellStyle name="常规 6 3 2" xfId="568"/>
@@ -3940,38 +3927,38 @@
     <cellStyle name="常规 6 3 2 3" xfId="572"/>
     <cellStyle name="常规 6 3 3" xfId="573"/>
     <cellStyle name="常规 6 3 3 2" xfId="574"/>
-    <cellStyle name="常规 7 9" xfId="575"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="576"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="575"/>
+    <cellStyle name="常规 7 9" xfId="576"/>
     <cellStyle name="常规 6 3 3 2 3" xfId="577"/>
     <cellStyle name="常规 6 3 3 3" xfId="578"/>
     <cellStyle name="常规 6 3 4" xfId="579"/>
     <cellStyle name="常规 6 3 5" xfId="580"/>
     <cellStyle name="常规 6 4 2 3" xfId="581"/>
-    <cellStyle name="超链接 3 2 4" xfId="582"/>
-    <cellStyle name="常规 6 5 2" xfId="583"/>
+    <cellStyle name="常规 6 5 2" xfId="582"/>
+    <cellStyle name="超链接 3 2 4" xfId="583"/>
     <cellStyle name="常规 6 5 2 2" xfId="584"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="585"/>
-    <cellStyle name="常规 6 5 3" xfId="586"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="587"/>
-    <cellStyle name="常规 6 5 4" xfId="588"/>
+    <cellStyle name="常规 6 5 3" xfId="585"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="586"/>
+    <cellStyle name="常规 6 5 4" xfId="587"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="588"/>
     <cellStyle name="常规 6 6" xfId="589"/>
     <cellStyle name="常规 6 6 2" xfId="590"/>
     <cellStyle name="常规 6 6 2 2" xfId="591"/>
     <cellStyle name="常规 6 6 2 3" xfId="592"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="593"/>
-    <cellStyle name="常规 6 6 3" xfId="594"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="595"/>
-    <cellStyle name="常规 6 6 4" xfId="596"/>
-    <cellStyle name="常规 9 2 2" xfId="597"/>
-    <cellStyle name="常规 6 7" xfId="598"/>
+    <cellStyle name="常规 6 6 3" xfId="593"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="594"/>
+    <cellStyle name="常规 6 6 4" xfId="595"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="596"/>
+    <cellStyle name="常规 6 7" xfId="597"/>
+    <cellStyle name="常规 9 2 2" xfId="598"/>
     <cellStyle name="常规 6 7 2" xfId="599"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="600"/>
-    <cellStyle name="常规 6 7 3" xfId="601"/>
+    <cellStyle name="常规 6 7 3" xfId="600"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="601"/>
     <cellStyle name="常规 6 8" xfId="602"/>
     <cellStyle name="常规 6 8 3" xfId="603"/>
     <cellStyle name="常规 6 9" xfId="604"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="605"/>
-    <cellStyle name="常规 7" xfId="606"/>
+    <cellStyle name="常规 7" xfId="605"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="606"/>
     <cellStyle name="常规 7 10" xfId="607"/>
     <cellStyle name="常规 7 2" xfId="608"/>
     <cellStyle name="常规 7 2 2 2" xfId="609"/>
@@ -4002,8 +3989,8 @@
     <cellStyle name="常规 9 2" xfId="634"/>
     <cellStyle name="常规 9 3" xfId="635"/>
     <cellStyle name="超链接 10" xfId="636"/>
-    <cellStyle name="超链接 2 5 3" xfId="637"/>
-    <cellStyle name="超链接 2" xfId="638"/>
+    <cellStyle name="超链接 2" xfId="637"/>
+    <cellStyle name="超链接 2 5 3" xfId="638"/>
     <cellStyle name="超链接 2 2" xfId="639"/>
     <cellStyle name="超链接 2 2 2" xfId="640"/>
     <cellStyle name="超链接 2 2 2 2" xfId="641"/>
@@ -4025,8 +4012,8 @@
     <cellStyle name="超链接 2 2 4 3" xfId="657"/>
     <cellStyle name="超链接 2 2 4 4" xfId="658"/>
     <cellStyle name="超链接 2 2 5 2" xfId="659"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="660"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="661"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="660"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="661"/>
     <cellStyle name="超链接 2 2 6" xfId="662"/>
     <cellStyle name="超链接 2 2 6 2" xfId="663"/>
     <cellStyle name="超链接 2 2 6 3" xfId="664"/>
@@ -4392,9 +4379,9 @@
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87155963302752" defaultRowHeight="15.7"/>
@@ -5109,7 +5096,7 @@
         <v>44853</v>
       </c>
       <c r="H17" s="22">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="I17" s="22">
         <v>44851</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007" tabRatio="581"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -304,7 +304,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +376,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,22 +399,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -549,22 +542,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -580,7 +561,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,12 +642,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -686,12 +661,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,12 +703,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,12 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,7 +1148,13 @@
   </borders>
   <cellStyleXfs count="718">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1200,402 +1163,396 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1674,7 +1631,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1687,66 +1647,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1791,131 +1748,131 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1937,84 +1894,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2063,7 +2020,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2082,7 +2039,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2116,19 +2073,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2156,375 +2113,375 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2569,7 +2526,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2579,7 +2539,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2619,46 +2579,46 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2674,96 +2634,93 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2925,314 +2882,314 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3382,41 +3339,41 @@
   <cellStyles count="718">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="常规 2 2 4" xfId="5"/>
-    <cellStyle name="常规 5 9 2" xfId="6"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="標準 6 3" xfId="8"/>
-    <cellStyle name="常规 10 3" xfId="9"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="10"/>
-    <cellStyle name="常规 5 2 9" xfId="11"/>
-    <cellStyle name="常规 6 2 4 4" xfId="12"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="13"/>
-    <cellStyle name="常规 13 2" xfId="14"/>
-    <cellStyle name="常规 11 2 2" xfId="15"/>
-    <cellStyle name="千位分隔[0]" xfId="16" builtinId="6"/>
-    <cellStyle name="常规 3 4 3" xfId="17"/>
-    <cellStyle name="標準 4 2 2 3" xfId="18"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="常规 5 9 2" xfId="3"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="6"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="8"/>
+    <cellStyle name="常规 6 2 4 4" xfId="9"/>
+    <cellStyle name="常规 5 2 9" xfId="10"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="11"/>
+    <cellStyle name="常规 10 3" xfId="12"/>
+    <cellStyle name="標準 6 3" xfId="13"/>
+    <cellStyle name="常规 3 4 3" xfId="14"/>
+    <cellStyle name="千位分隔[0]" xfId="15" builtinId="6"/>
+    <cellStyle name="常规 11 2 2" xfId="16"/>
+    <cellStyle name="常规 13 2" xfId="17"/>
+    <cellStyle name="常规 7 3" xfId="18"/>
+    <cellStyle name="千位分隔" xfId="19" builtinId="3"/>
     <cellStyle name="常规 6 2 2 3 2 3" xfId="20"/>
-    <cellStyle name="差" xfId="21" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="22" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="23"/>
+    <cellStyle name="標準 4 2 2 3" xfId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="22" builtinId="39"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="24" builtinId="40"/>
     <cellStyle name="常规 3 6 3" xfId="25"/>
     <cellStyle name="超链接" xfId="26" builtinId="8"/>
     <cellStyle name="超链接 4 2 2" xfId="27"/>
     <cellStyle name="常规 2 7 3" xfId="28"/>
     <cellStyle name="百分比" xfId="29" builtinId="5"/>
-    <cellStyle name="標準 3 2 7" xfId="30"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9"/>
+    <cellStyle name="標準 3 2 7" xfId="31"/>
     <cellStyle name="注释" xfId="32" builtinId="10"/>
     <cellStyle name="常规 6" xfId="33"/>
-    <cellStyle name="標準 3 2 4 3" xfId="34"/>
-    <cellStyle name="常规 12 2 2" xfId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="36" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="34" builtinId="36"/>
+    <cellStyle name="標準 3 2 4 3" xfId="35"/>
+    <cellStyle name="常规 12 2 2" xfId="36"/>
     <cellStyle name="常规 4 12" xfId="37"/>
     <cellStyle name="常规 5 2 4" xfId="38"/>
     <cellStyle name="标题 4" xfId="39" builtinId="19"/>
@@ -3424,92 +3381,92 @@
     <cellStyle name="常规 4 2 2 3" xfId="41"/>
     <cellStyle name="常规 4 4 3" xfId="42"/>
     <cellStyle name="常规 6 5" xfId="43"/>
-    <cellStyle name="常规 5 2" xfId="44"/>
+    <cellStyle name="标题" xfId="44" builtinId="15"/>
     <cellStyle name="標準 2 6" xfId="45"/>
-    <cellStyle name="标题" xfId="46" builtinId="15"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="47"/>
-    <cellStyle name="標準 8" xfId="48"/>
-    <cellStyle name="常规 12" xfId="49"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="46"/>
+    <cellStyle name="常规 5 2" xfId="47"/>
+    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="49"/>
     <cellStyle name="常规 6 3 3 3" xfId="50"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="51"/>
-    <cellStyle name="解释性文本" xfId="52" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="53" builtinId="16"/>
+    <cellStyle name="标题 1" xfId="51" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="52" builtinId="17"/>
+    <cellStyle name="標準 2 6 2" xfId="53"/>
     <cellStyle name="常规 5 2 2" xfId="54"/>
-    <cellStyle name="標準 2 6 2" xfId="55"/>
-    <cellStyle name="标题 2" xfId="56" builtinId="17"/>
-    <cellStyle name="標準 3 2 4 2" xfId="57"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="58" builtinId="32"/>
-    <cellStyle name="常规 4 11" xfId="59"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="55" builtinId="32"/>
+    <cellStyle name="標準 3 2 4 2" xfId="56"/>
+    <cellStyle name="常规 4 11" xfId="57"/>
+    <cellStyle name="标题 3" xfId="58" builtinId="18"/>
+    <cellStyle name="標準 2 6 3" xfId="59"/>
     <cellStyle name="常规 5 2 3" xfId="60"/>
-    <cellStyle name="標準 2 6 3" xfId="61"/>
-    <cellStyle name="标题 3" xfId="62" builtinId="18"/>
-    <cellStyle name="常规 6 3 2 2" xfId="63"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="64" builtinId="44"/>
-    <cellStyle name="输出" xfId="65" builtinId="21"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="66"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="67"/>
-    <cellStyle name="计算" xfId="68" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="69" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="70" builtinId="50"/>
-    <cellStyle name="常规 8 3" xfId="71"/>
-    <cellStyle name="强调文字颜色 2" xfId="72" builtinId="33"/>
-    <cellStyle name="常规 2 2 2 5" xfId="73"/>
+    <cellStyle name="常规 6 3 2 2" xfId="61"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="62" builtinId="44"/>
+    <cellStyle name="输出" xfId="63" builtinId="21"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="64"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="65"/>
+    <cellStyle name="计算" xfId="66" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="67" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="68" builtinId="50"/>
+    <cellStyle name="常规 8 3" xfId="69"/>
+    <cellStyle name="强调文字颜色 2" xfId="70" builtinId="33"/>
+    <cellStyle name="常规 2 2 2 5" xfId="71"/>
+    <cellStyle name="链接单元格" xfId="72" builtinId="24"/>
+    <cellStyle name="標準 3 6 3" xfId="73"/>
     <cellStyle name="常规 6 2 3" xfId="74"/>
-    <cellStyle name="標準 3 6 3" xfId="75"/>
-    <cellStyle name="链接单元格" xfId="76" builtinId="24"/>
-    <cellStyle name="汇总" xfId="77" builtinId="25"/>
-    <cellStyle name="好" xfId="78" builtinId="26"/>
-    <cellStyle name="常规 3 2 6" xfId="79"/>
-    <cellStyle name="适中" xfId="80" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="81" builtinId="46"/>
-    <cellStyle name="常规 8 2" xfId="82"/>
-    <cellStyle name="强调文字颜色 1" xfId="83" builtinId="29"/>
-    <cellStyle name="常规 2 2 2 4" xfId="84"/>
+    <cellStyle name="汇总" xfId="75" builtinId="25"/>
+    <cellStyle name="好" xfId="76" builtinId="26"/>
+    <cellStyle name="常规 3 2 6" xfId="77"/>
+    <cellStyle name="适中" xfId="78" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="79" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="80"/>
+    <cellStyle name="强调文字颜色 1" xfId="81" builtinId="29"/>
+    <cellStyle name="常规 2 2 2 4" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="83" builtinId="30"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="84"/>
     <cellStyle name="標準 5 2" xfId="85"/>
     <cellStyle name="常规 6 2 3 3" xfId="86"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="88" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="89" builtinId="31"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="87" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="88" builtinId="34"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="89"/>
     <cellStyle name="標準 5 3" xfId="90"/>
     <cellStyle name="常规 2 2 2 2 2 3 2" xfId="91"/>
     <cellStyle name="常规 6 2 3 4" xfId="92"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="94" builtinId="34"/>
-    <cellStyle name="標準 4 2 2 2" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="96" builtinId="35"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="97"/>
-    <cellStyle name="强调文字颜色 3" xfId="98" builtinId="37"/>
-    <cellStyle name="常规 2 2 2 6" xfId="99"/>
-    <cellStyle name="强调文字颜色 4" xfId="100" builtinId="41"/>
-    <cellStyle name="常规 2 2 2 7" xfId="101"/>
-    <cellStyle name="常规 3 8 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="103" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="104" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="105" builtinId="45"/>
-    <cellStyle name="常规 2 2 2 8" xfId="106"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="107" builtinId="47"/>
-    <cellStyle name="常规 6 3 2 3" xfId="108"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="109" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="110" builtinId="49"/>
-    <cellStyle name="超链接 9" xfId="111"/>
-    <cellStyle name="常规 16 2" xfId="112"/>
-    <cellStyle name="標準 6" xfId="113"/>
-    <cellStyle name="常规 10" xfId="114"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="115" builtinId="51"/>
-    <cellStyle name="常规 3 2 6 2" xfId="116"/>
-    <cellStyle name="標準 6 2" xfId="117"/>
-    <cellStyle name="常规 10 2" xfId="118"/>
-    <cellStyle name="常规 5 2 8" xfId="119"/>
-    <cellStyle name="常规 6 2 4 3" xfId="120"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="121"/>
-    <cellStyle name="常规 6 3 2 4" xfId="122"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="123" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="93" builtinId="35"/>
+    <cellStyle name="標準 4 2 2 2" xfId="94"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="95"/>
+    <cellStyle name="强调文字颜色 3" xfId="96" builtinId="37"/>
+    <cellStyle name="常规 2 2 2 6" xfId="97"/>
+    <cellStyle name="强调文字颜色 4" xfId="98" builtinId="41"/>
+    <cellStyle name="常规 2 2 2 7" xfId="99"/>
+    <cellStyle name="常规 3 8 2" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="101" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="102" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="103" builtinId="45"/>
+    <cellStyle name="常规 2 2 2 8" xfId="104"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="105" builtinId="47"/>
+    <cellStyle name="常规 6 3 2 3" xfId="106"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="107" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="108" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="109" builtinId="51"/>
+    <cellStyle name="常规 3 2 6 2" xfId="110"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="111"/>
+    <cellStyle name="常规 6 3 2 4" xfId="112"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="113" builtinId="52"/>
+    <cellStyle name="標準 8" xfId="114"/>
+    <cellStyle name="常规 12" xfId="115"/>
+    <cellStyle name="標準 6" xfId="116"/>
+    <cellStyle name="常规 10" xfId="117"/>
+    <cellStyle name="超链接 9" xfId="118"/>
+    <cellStyle name="常规 16 2" xfId="119"/>
+    <cellStyle name="標準 6 2" xfId="120"/>
+    <cellStyle name="常规 10 2" xfId="121"/>
+    <cellStyle name="常规 5 2 8" xfId="122"/>
+    <cellStyle name="常规 6 2 4 3" xfId="123"/>
     <cellStyle name="常规 14" xfId="124"/>
-    <cellStyle name="常规 2 3 2 2" xfId="125"/>
-    <cellStyle name="常规 11 3" xfId="126"/>
-    <cellStyle name="常规 10 2 2" xfId="127"/>
-    <cellStyle name="常规 5 2 8 2" xfId="128"/>
-    <cellStyle name="常规 2 7" xfId="129"/>
+    <cellStyle name="常规 11 3" xfId="125"/>
+    <cellStyle name="常规 2 3 2 2" xfId="126"/>
+    <cellStyle name="常规 2 7" xfId="127"/>
+    <cellStyle name="常规 10 2 2" xfId="128"/>
+    <cellStyle name="常规 5 2 8 2" xfId="129"/>
     <cellStyle name="標準 7" xfId="130"/>
     <cellStyle name="常规 11" xfId="131"/>
     <cellStyle name="常规 13" xfId="132"/>
@@ -3517,8 +3474,8 @@
     <cellStyle name="常规 6 2 5 3" xfId="134"/>
     <cellStyle name="常规 12 2" xfId="135"/>
     <cellStyle name="常规 6 2 6 3" xfId="136"/>
-    <cellStyle name="常规 2 3 3 2" xfId="137"/>
-    <cellStyle name="常规 12 3" xfId="138"/>
+    <cellStyle name="常规 12 3" xfId="137"/>
+    <cellStyle name="常规 2 3 3 2" xfId="138"/>
     <cellStyle name="常规 14 2" xfId="139"/>
     <cellStyle name="常规 15" xfId="140"/>
     <cellStyle name="常规 15 2" xfId="141"/>
@@ -3540,8 +3497,8 @@
     <cellStyle name="超链接 2 6 2" xfId="157"/>
     <cellStyle name="常规 2 2 2" xfId="158"/>
     <cellStyle name="常规 2 2 2 2" xfId="159"/>
-    <cellStyle name="常规 2 4 4" xfId="160"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="161"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="160"/>
+    <cellStyle name="常规 2 4 4" xfId="161"/>
     <cellStyle name="常规 2 2 2 2 2 2" xfId="162"/>
     <cellStyle name="標準 4 3" xfId="163"/>
     <cellStyle name="常规 2 2 2 2 2 2 2" xfId="164"/>
@@ -3558,26 +3515,26 @@
     <cellStyle name="常规 6 2 2 5" xfId="175"/>
     <cellStyle name="標準 4 5" xfId="176"/>
     <cellStyle name="常规 2 2 2 2 2 2 4" xfId="177"/>
-    <cellStyle name="常规 6 8 3" xfId="178"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="179"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="178"/>
+    <cellStyle name="常规 6 8 3" xfId="179"/>
     <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="180"/>
     <cellStyle name="常规 2 2 2 2 2 4" xfId="181"/>
     <cellStyle name="常规 2 2 2 2 2 4 3" xfId="182"/>
-    <cellStyle name="超链接 2 7 2" xfId="183"/>
-    <cellStyle name="常规 2 3 2" xfId="184"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="185"/>
-    <cellStyle name="常规 2 4 5" xfId="186"/>
-    <cellStyle name="常规 7 2 2" xfId="187"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="188"/>
-    <cellStyle name="常规 7 2 2 2" xfId="189"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="190"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="183"/>
+    <cellStyle name="超链接 2 7 2" xfId="184"/>
+    <cellStyle name="常规 2 3 2" xfId="185"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="186"/>
+    <cellStyle name="常规 2 4 5" xfId="187"/>
+    <cellStyle name="常规 7 2 2" xfId="188"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="189"/>
+    <cellStyle name="常规 7 2 2 2" xfId="190"/>
     <cellStyle name="常规 2 2 2 2 3 2 3" xfId="191"/>
     <cellStyle name="常规 2 2 2 2 3 3" xfId="192"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="193"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="194"/>
-    <cellStyle name="常规 7 2 3" xfId="195"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="196"/>
-    <cellStyle name="常规 5 2 3 2" xfId="197"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="193"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="194"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="195"/>
+    <cellStyle name="常规 5 2 3 2" xfId="196"/>
+    <cellStyle name="常规 7 2 3" xfId="197"/>
     <cellStyle name="超链接 3 2 2 3" xfId="198"/>
     <cellStyle name="常规 2 2 2 2 4 2" xfId="199"/>
     <cellStyle name="常规 5 2 3 2 2" xfId="200"/>
@@ -3596,26 +3553,26 @@
     <cellStyle name="常规 2 2 2 2 6 3" xfId="213"/>
     <cellStyle name="常规 2 2 2 2 7" xfId="214"/>
     <cellStyle name="常规 2 2 2 3" xfId="215"/>
-    <cellStyle name="常规 2 5 4" xfId="216"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="217"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="216"/>
+    <cellStyle name="常规 2 5 4" xfId="217"/>
     <cellStyle name="常规 2 2 2 3 2 2" xfId="218"/>
     <cellStyle name="常规 2 2 2 3 2 2 3" xfId="219"/>
     <cellStyle name="常规 2 4 2" xfId="220"/>
     <cellStyle name="常规 2 2 2 3 2 3" xfId="221"/>
     <cellStyle name="常规 3 2 7 2" xfId="222"/>
     <cellStyle name="常规 2 2 2 3 2 4" xfId="223"/>
-    <cellStyle name="常规 7 3 2" xfId="224"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="225"/>
-    <cellStyle name="常规 7 3 2 2" xfId="226"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="227"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="224"/>
+    <cellStyle name="常规 7 3 2" xfId="225"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="226"/>
+    <cellStyle name="常规 7 3 2 2" xfId="227"/>
     <cellStyle name="常规 2 2 2 3 3 2 2" xfId="228"/>
     <cellStyle name="常规 2 2 2 3 3 2 3" xfId="229"/>
     <cellStyle name="常规 3 4 2" xfId="230"/>
     <cellStyle name="常规 2 2 2 3 3 3" xfId="231"/>
     <cellStyle name="常规 3 2 8 2" xfId="232"/>
-    <cellStyle name="常规 7 3 3" xfId="233"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="234"/>
-    <cellStyle name="常规 5 2 4 2" xfId="235"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="233"/>
+    <cellStyle name="常规 5 2 4 2" xfId="234"/>
+    <cellStyle name="常规 7 3 3" xfId="235"/>
     <cellStyle name="超链接 3 3 2 3" xfId="236"/>
     <cellStyle name="常规 2 2 2 3 4 2" xfId="237"/>
     <cellStyle name="常规 5 2 4 2 2" xfId="238"/>
@@ -3625,28 +3582,28 @@
     <cellStyle name="常规 2 2 2 4 2" xfId="242"/>
     <cellStyle name="標準 2 5" xfId="243"/>
     <cellStyle name="常规 2 2 2 4 2 2" xfId="244"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="245"/>
-    <cellStyle name="常规 4 5 2 2" xfId="246"/>
-    <cellStyle name="常规 7 4 2" xfId="247"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="248"/>
-    <cellStyle name="常规 7 4 3" xfId="249"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="250"/>
-    <cellStyle name="常规 5 2 5 2" xfId="251"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="245"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="246"/>
+    <cellStyle name="常规 4 5 2 2" xfId="247"/>
+    <cellStyle name="常规 7 4 2" xfId="248"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="249"/>
+    <cellStyle name="常规 5 2 5 2" xfId="250"/>
+    <cellStyle name="常规 7 4 3" xfId="251"/>
     <cellStyle name="常规 2 2 2 5 2" xfId="252"/>
     <cellStyle name="常规 2 2 2 5 2 2" xfId="253"/>
     <cellStyle name="常规 2 2 2 5 2 3" xfId="254"/>
-    <cellStyle name="常规 7 5 2" xfId="255"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="256"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="255"/>
+    <cellStyle name="常规 7 5 2" xfId="256"/>
     <cellStyle name="常规 2 2 2 5 4" xfId="257"/>
     <cellStyle name="常规 5 2 6 2" xfId="258"/>
     <cellStyle name="常规 2 2 2 6 2" xfId="259"/>
-    <cellStyle name="常规 7 6 2" xfId="260"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="261"/>
-    <cellStyle name="常规 2 5" xfId="262"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="263"/>
-    <cellStyle name="常规 2 6" xfId="264"/>
-    <cellStyle name="常规 7 7 2" xfId="265"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="266"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="260"/>
+    <cellStyle name="常规 7 6 2" xfId="261"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="262"/>
+    <cellStyle name="常规 2 5" xfId="263"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="264"/>
+    <cellStyle name="常规 2 6" xfId="265"/>
+    <cellStyle name="常规 7 7 2" xfId="266"/>
     <cellStyle name="超链接 2 6 3" xfId="267"/>
     <cellStyle name="常规 2 2 3" xfId="268"/>
     <cellStyle name="常规 2 2 3 2" xfId="269"/>
@@ -3655,37 +3612,37 @@
     <cellStyle name="常规 2 2 3 6" xfId="272"/>
     <cellStyle name="常规 2 2 3 2 2 3" xfId="273"/>
     <cellStyle name="常规 3 9 2" xfId="274"/>
-    <cellStyle name="常规 8 2 2" xfId="275"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="276"/>
-    <cellStyle name="常规 8 2 3" xfId="277"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="278"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="275"/>
+    <cellStyle name="常规 8 2 2" xfId="276"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="277"/>
+    <cellStyle name="常规 8 2 3" xfId="278"/>
     <cellStyle name="常规 2 2 3 3" xfId="279"/>
     <cellStyle name="常规 2 2 3 3 2" xfId="280"/>
     <cellStyle name="常规 2 2 3 3 2 2" xfId="281"/>
     <cellStyle name="常规 2 2 3 3 2 3" xfId="282"/>
     <cellStyle name="常规 4 2 7 2" xfId="283"/>
     <cellStyle name="常规 4 9 2" xfId="284"/>
-    <cellStyle name="常规 8 3 2" xfId="285"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="286"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="285"/>
+    <cellStyle name="常规 8 3 2" xfId="286"/>
     <cellStyle name="常规 2 2 3 4" xfId="287"/>
     <cellStyle name="常规 2 2 3 4 2" xfId="288"/>
-    <cellStyle name="常规 8 4 2" xfId="289"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="290"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="289"/>
+    <cellStyle name="常规 8 4 2" xfId="290"/>
     <cellStyle name="常规 2 2 3 5" xfId="291"/>
     <cellStyle name="常规 2 2 3 5 2" xfId="292"/>
     <cellStyle name="標準 2 2 3" xfId="293"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="294"/>
-    <cellStyle name="標準 2 2 4" xfId="295"/>
-    <cellStyle name="常规 8 5 2" xfId="296"/>
+    <cellStyle name="常规 8 5 2" xfId="294"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="295"/>
+    <cellStyle name="標準 2 2 4" xfId="296"/>
     <cellStyle name="适中 2 2 3" xfId="297"/>
     <cellStyle name="常规 2 2 4 2" xfId="298"/>
-    <cellStyle name="常规 6 6" xfId="299"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="300"/>
-    <cellStyle name="常规 3 10" xfId="301"/>
-    <cellStyle name="常规 6 7" xfId="302"/>
-    <cellStyle name="常规 9 2 2" xfId="303"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="304"/>
-    <cellStyle name="常规 3 11" xfId="305"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="299"/>
+    <cellStyle name="常规 3 10" xfId="300"/>
+    <cellStyle name="常规 6 6" xfId="301"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="302"/>
+    <cellStyle name="常规 3 11" xfId="303"/>
+    <cellStyle name="常规 6 7" xfId="304"/>
+    <cellStyle name="常规 9 2 2" xfId="305"/>
     <cellStyle name="常规 2 2 4 3" xfId="306"/>
     <cellStyle name="常规 2 2 4 4" xfId="307"/>
     <cellStyle name="常规 2 2 5" xfId="308"/>
@@ -3719,10 +3676,10 @@
     <cellStyle name="常规 2 3 5" xfId="336"/>
     <cellStyle name="常规 2 3 5 2" xfId="337"/>
     <cellStyle name="常规 2 3 5 3" xfId="338"/>
-    <cellStyle name="標準 4 5 3" xfId="339"/>
-    <cellStyle name="常规 5 2 2 2" xfId="340"/>
-    <cellStyle name="標準 2 6 2 2" xfId="341"/>
-    <cellStyle name="常规 2 3 6" xfId="342"/>
+    <cellStyle name="標準 2 6 2 2" xfId="339"/>
+    <cellStyle name="常规 2 3 6" xfId="340"/>
+    <cellStyle name="標準 4 5 3" xfId="341"/>
+    <cellStyle name="常规 5 2 2 2" xfId="342"/>
     <cellStyle name="超链接 2 8" xfId="343"/>
     <cellStyle name="常规 2 4" xfId="344"/>
     <cellStyle name="常规 2 4 2 2" xfId="345"/>
@@ -3732,8 +3689,8 @@
     <cellStyle name="常规 2 4 3 3" xfId="349"/>
     <cellStyle name="常规 2 5 2" xfId="350"/>
     <cellStyle name="常规 2 5 2 2" xfId="351"/>
-    <cellStyle name="常规 3 2 5 2" xfId="352"/>
-    <cellStyle name="常规 2 5 2 3" xfId="353"/>
+    <cellStyle name="常规 2 5 2 3" xfId="352"/>
+    <cellStyle name="常规 3 2 5 2" xfId="353"/>
     <cellStyle name="常规 2 5 3" xfId="354"/>
     <cellStyle name="常规 2 6 2" xfId="355"/>
     <cellStyle name="常规 2 6 3" xfId="356"/>
@@ -3741,12 +3698,12 @@
     <cellStyle name="常规 2 8" xfId="358"/>
     <cellStyle name="常规 3" xfId="359"/>
     <cellStyle name="常规 6 10" xfId="360"/>
-    <cellStyle name="常规 6 6 2" xfId="361"/>
-    <cellStyle name="常规 3 10 2" xfId="362"/>
-    <cellStyle name="常规 6 7 2" xfId="363"/>
-    <cellStyle name="常规 3 11 2" xfId="364"/>
-    <cellStyle name="常规 6 8" xfId="365"/>
-    <cellStyle name="常规 3 12" xfId="366"/>
+    <cellStyle name="常规 3 10 2" xfId="361"/>
+    <cellStyle name="常规 6 6 2" xfId="362"/>
+    <cellStyle name="常规 3 11 2" xfId="363"/>
+    <cellStyle name="常规 6 7 2" xfId="364"/>
+    <cellStyle name="常规 3 12" xfId="365"/>
+    <cellStyle name="常规 6 8" xfId="366"/>
     <cellStyle name="常规 3 2" xfId="367"/>
     <cellStyle name="常规 6 10 2" xfId="368"/>
     <cellStyle name="常规 3 2 2" xfId="369"/>
@@ -3778,8 +3735,8 @@
     <cellStyle name="標準 2 3 2 2" xfId="395"/>
     <cellStyle name="常规 3 5" xfId="396"/>
     <cellStyle name="常规 3 5 2" xfId="397"/>
-    <cellStyle name="常规 9 3" xfId="398"/>
-    <cellStyle name="常规 3 5 2 2" xfId="399"/>
+    <cellStyle name="常规 3 5 2 2" xfId="398"/>
+    <cellStyle name="常规 9 3" xfId="399"/>
     <cellStyle name="常规 3 5 3" xfId="400"/>
     <cellStyle name="常规 3 6" xfId="401"/>
     <cellStyle name="常规 7 8 2" xfId="402"/>
@@ -3838,15 +3795,15 @@
     <cellStyle name="常规 4 3 3" xfId="455"/>
     <cellStyle name="常规 5 5" xfId="456"/>
     <cellStyle name="常规 5" xfId="457"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="458"/>
-    <cellStyle name="常规 6 5 3" xfId="459"/>
-    <cellStyle name="常规 5 10" xfId="460"/>
+    <cellStyle name="常规 5 10" xfId="458"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="459"/>
+    <cellStyle name="常规 6 5 3" xfId="460"/>
     <cellStyle name="超链接 2 5 2 3" xfId="461"/>
     <cellStyle name="常规 5 10 2" xfId="462"/>
     <cellStyle name="常规 8" xfId="463"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="464"/>
-    <cellStyle name="常规 6 5 4" xfId="465"/>
-    <cellStyle name="常规 5 11" xfId="466"/>
+    <cellStyle name="常规 5 11" xfId="464"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="465"/>
+    <cellStyle name="常规 6 5 4" xfId="466"/>
     <cellStyle name="常规 5 2 2 2 2" xfId="467"/>
     <cellStyle name="標準 4 5 4" xfId="468"/>
     <cellStyle name="常规 5 2 2 3" xfId="469"/>
@@ -3859,8 +3816,8 @@
     <cellStyle name="常规 5 3" xfId="476"/>
     <cellStyle name="常规 5 3 2" xfId="477"/>
     <cellStyle name="常规 5 3 3" xfId="478"/>
-    <cellStyle name="常规 5 8" xfId="479"/>
-    <cellStyle name="常规 5 4 2 2" xfId="480"/>
+    <cellStyle name="常规 5 4 2 2" xfId="479"/>
+    <cellStyle name="常规 5 8" xfId="480"/>
     <cellStyle name="常规 5 4 3" xfId="481"/>
     <cellStyle name="超链接 2 2 4" xfId="482"/>
     <cellStyle name="常规 5 5 2" xfId="483"/>
@@ -3892,11 +3849,11 @@
     <cellStyle name="標準 4 2 3" xfId="509"/>
     <cellStyle name="常规 6 2 2 3 3" xfId="510"/>
     <cellStyle name="常规 6 2 3 2" xfId="511"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="512"/>
-    <cellStyle name="常规 6 6 3" xfId="513"/>
+    <cellStyle name="常规 6 6 3" xfId="512"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="513"/>
     <cellStyle name="常规 6 2 3 2 2" xfId="514"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="515"/>
-    <cellStyle name="常规 6 6 4" xfId="516"/>
+    <cellStyle name="常规 6 6 4" xfId="515"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="516"/>
     <cellStyle name="常规 6 2 3 2 3" xfId="517"/>
     <cellStyle name="常规 6 2 4" xfId="518"/>
     <cellStyle name="常规 6 2 4 2 3" xfId="519"/>
@@ -3904,10 +3861,10 @@
     <cellStyle name="常规 6 2 5 2" xfId="521"/>
     <cellStyle name="常规 6 2 6" xfId="522"/>
     <cellStyle name="常规 6 2 6 2" xfId="523"/>
-    <cellStyle name="常规 6 2 7" xfId="524"/>
-    <cellStyle name="常规 6 3 4 2" xfId="525"/>
-    <cellStyle name="常规 6 2 8" xfId="526"/>
-    <cellStyle name="常规 6 3 4 3" xfId="527"/>
+    <cellStyle name="常规 6 3 4 2" xfId="524"/>
+    <cellStyle name="常规 6 2 7" xfId="525"/>
+    <cellStyle name="常规 6 3 4 3" xfId="526"/>
+    <cellStyle name="常规 6 2 8" xfId="527"/>
     <cellStyle name="常规 6 2 9" xfId="528"/>
     <cellStyle name="常规 6 3" xfId="529"/>
     <cellStyle name="常规 6 3 2" xfId="530"/>
@@ -3915,24 +3872,24 @@
     <cellStyle name="常规 6 3 2 2 3" xfId="532"/>
     <cellStyle name="常规 6 3 3" xfId="533"/>
     <cellStyle name="常规 6 3 3 2" xfId="534"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="535"/>
-    <cellStyle name="常规 7 9" xfId="536"/>
+    <cellStyle name="常规 7 9" xfId="535"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="536"/>
     <cellStyle name="常规 6 3 3 2 3" xfId="537"/>
     <cellStyle name="常规 6 3 4" xfId="538"/>
     <cellStyle name="常规 6 3 5" xfId="539"/>
     <cellStyle name="常规 6 4 2 3" xfId="540"/>
-    <cellStyle name="超链接 3 2 4" xfId="541"/>
-    <cellStyle name="常规 6 5 2" xfId="542"/>
+    <cellStyle name="常规 6 5 2" xfId="541"/>
+    <cellStyle name="超链接 3 2 4" xfId="542"/>
     <cellStyle name="常规 6 5 2 2" xfId="543"/>
     <cellStyle name="常规 6 6 2 2" xfId="544"/>
     <cellStyle name="常规 6 6 2 3" xfId="545"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="546"/>
-    <cellStyle name="常规 6 7 3" xfId="547"/>
-    <cellStyle name="常规 6 8 2" xfId="548"/>
-    <cellStyle name="標準 2 2 2 3" xfId="549"/>
+    <cellStyle name="常规 6 7 3" xfId="546"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="547"/>
+    <cellStyle name="標準 2 2 2 3" xfId="548"/>
+    <cellStyle name="常规 6 8 2" xfId="549"/>
     <cellStyle name="常规 6 9" xfId="550"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="551"/>
-    <cellStyle name="常规 7" xfId="552"/>
+    <cellStyle name="常规 7" xfId="551"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="552"/>
     <cellStyle name="常规 8 6 2" xfId="553"/>
     <cellStyle name="常规 7 10" xfId="554"/>
     <cellStyle name="常规 7 2" xfId="555"/>
@@ -3970,19 +3927,19 @@
     <cellStyle name="標準 2 8" xfId="587"/>
     <cellStyle name="標準 2 8 2" xfId="588"/>
     <cellStyle name="標準 2 9" xfId="589"/>
-    <cellStyle name="標準 3 3 3 2" xfId="590"/>
-    <cellStyle name="標準 3" xfId="591"/>
+    <cellStyle name="標準 3" xfId="590"/>
+    <cellStyle name="標準 3 3 3 2" xfId="591"/>
     <cellStyle name="標準 3 2" xfId="592"/>
     <cellStyle name="標準 3 2 2" xfId="593"/>
-    <cellStyle name="標準 3 2 4" xfId="594"/>
-    <cellStyle name="標準 3 2 2 2" xfId="595"/>
-    <cellStyle name="標準 3 2 5" xfId="596"/>
-    <cellStyle name="標準 3 2 2 3" xfId="597"/>
+    <cellStyle name="標準 3 2 2 2" xfId="594"/>
+    <cellStyle name="標準 3 2 4" xfId="595"/>
+    <cellStyle name="標準 3 2 2 3" xfId="596"/>
+    <cellStyle name="標準 3 2 5" xfId="597"/>
     <cellStyle name="標準 3 2 3" xfId="598"/>
-    <cellStyle name="標準 3 3 4" xfId="599"/>
-    <cellStyle name="標準 3 2 3 2" xfId="600"/>
-    <cellStyle name="標準 3 3 5" xfId="601"/>
-    <cellStyle name="標準 3 2 3 3" xfId="602"/>
+    <cellStyle name="標準 3 2 3 2" xfId="599"/>
+    <cellStyle name="標準 3 3 4" xfId="600"/>
+    <cellStyle name="標準 3 2 3 3" xfId="601"/>
+    <cellStyle name="標準 3 3 5" xfId="602"/>
     <cellStyle name="標準 3 2 5 2" xfId="603"/>
     <cellStyle name="標準 3 2 5 3" xfId="604"/>
     <cellStyle name="標準 3 2 6" xfId="605"/>
@@ -3990,13 +3947,13 @@
     <cellStyle name="標準 3 2 6 3" xfId="607"/>
     <cellStyle name="標準 3 3" xfId="608"/>
     <cellStyle name="標準 3 3 2" xfId="609"/>
-    <cellStyle name="標準 4 2 4" xfId="610"/>
-    <cellStyle name="標準 3 3 2 2" xfId="611"/>
-    <cellStyle name="標準 4 2 5" xfId="612"/>
-    <cellStyle name="標準 3 3 2 3" xfId="613"/>
+    <cellStyle name="標準 3 3 2 2" xfId="610"/>
+    <cellStyle name="標準 4 2 4" xfId="611"/>
+    <cellStyle name="標準 3 3 2 3" xfId="612"/>
+    <cellStyle name="標準 4 2 5" xfId="613"/>
     <cellStyle name="標準 3 3 3" xfId="614"/>
-    <cellStyle name="標準 4" xfId="615"/>
-    <cellStyle name="標準 3 3 3 3" xfId="616"/>
+    <cellStyle name="標準 3 3 3 3" xfId="615"/>
+    <cellStyle name="標準 4" xfId="616"/>
     <cellStyle name="標準 3 4" xfId="617"/>
     <cellStyle name="標準 3 4 2" xfId="618"/>
     <cellStyle name="標準 3 5" xfId="619"/>
@@ -4018,8 +3975,8 @@
     <cellStyle name="標準 4 7" xfId="635"/>
     <cellStyle name="標準 5" xfId="636"/>
     <cellStyle name="超链接 10" xfId="637"/>
-    <cellStyle name="超链接 2 5 3" xfId="638"/>
-    <cellStyle name="超链接 2" xfId="639"/>
+    <cellStyle name="超链接 2" xfId="638"/>
+    <cellStyle name="超链接 2 5 3" xfId="639"/>
     <cellStyle name="超链接 2 2" xfId="640"/>
     <cellStyle name="超链接 2 2 2" xfId="641"/>
     <cellStyle name="超链接 2 2 2 2" xfId="642"/>
@@ -4041,8 +3998,8 @@
     <cellStyle name="超链接 2 2 4 3" xfId="658"/>
     <cellStyle name="超链接 2 2 4 4" xfId="659"/>
     <cellStyle name="超链接 2 2 5 2" xfId="660"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="661"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="662"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="661"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="662"/>
     <cellStyle name="超链接 2 2 6" xfId="663"/>
     <cellStyle name="超链接 2 2 6 2" xfId="664"/>
     <cellStyle name="超链接 2 2 6 3" xfId="665"/>
@@ -4410,7 +4367,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5521,10 +5478,14 @@
       <c r="G28" s="21">
         <v>44853</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="H28" s="21">
+        <v>44850</v>
+      </c>
+      <c r="I28" s="21">
+        <v>44851</v>
+      </c>
       <c r="J28" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>43</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\skillup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git_workspace\hyron技能培训\main\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16130D7-8EA8-46EC-AA46-9A655157CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA086959-71BB-4AE2-9411-1FFB58F49472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,7 +317,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -2694,7 +2694,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2705,7 +2705,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2716,12 +2716,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2729,7 +2729,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2740,14 +2740,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2783,10 +2783,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2806,7 +2806,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3808,7 +3808,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -4904,10 +4904,14 @@
       <c r="G27" s="21">
         <v>44853</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="H27" s="21">
+        <v>44850</v>
+      </c>
+      <c r="I27" s="21">
+        <v>44850</v>
+      </c>
       <c r="J27" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>52</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25806"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\skillup\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543DBBCE-9A06-4D14-BF37-F61CCD0A233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <definedNames>
     <definedName name="rv">list!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -262,8 +256,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>github</t>
@@ -272,8 +265,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>账</t>
@@ -282,8 +274,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>号一</t>
@@ -292,8 +283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>览：</t>
@@ -315,15 +305,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -331,14 +321,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,19 +340,19 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -371,38 +360,36 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,7 +397,6 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -420,8 +406,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,16 +414,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,12 +455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,7 +1718,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2658,19 +2635,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2687,7 +2664,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2698,7 +2675,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2709,12 +2686,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2722,7 +2699,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2733,14 +2710,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2767,22 +2744,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2791,7 +2765,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2799,7 +2773,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2814,678 +2788,681 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="670">
-    <cellStyle name="標準 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="標準 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="標準 2 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="標準 2 2 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="標準 2 2 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="標準 2 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="標準 2 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="標準 2 2 3 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="標準 2 2 4" xfId="32" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="標準 2 2 4 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="標準 2 2 5" xfId="80" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="標準 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="標準 2 3 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="標準 2 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="標準 2 3 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="標準 2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="標準 2 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="標準 2 4 2 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="標準 2 4 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="標準 2 5 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="標準 2 5 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="標準 2 5 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="標準 2 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="標準 2 6 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="標準 2 6 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="標準 2 6 3" xfId="40" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="標準 2 7" xfId="104" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="標準 2 7 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="標準 2 7 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="標準 2 8" xfId="111" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="標準 2 8 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="標準 2 9" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="標準 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="標準 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="標準 3 2 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="標準 3 2 2 3" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="標準 3 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="標準 3 2 3 2" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="標準 3 2 3 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="標準 3 2 4" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="標準 3 2 4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="標準 3 2 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="標準 3 2 5" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="標準 3 2 5 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="標準 3 2 5 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="標準 3 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="標準 3 2 6 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="標準 3 2 6 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="標準 3 2 7" xfId="19" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="標準 3 2 8" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="標準 3 3" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="標準 3 3 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="標準 3 3 2 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="標準 3 3 2 3" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="標準 3 3 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="標準 3 3 3 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="標準 3 3 3 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="標準 3 3 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="標準 3 3 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="標準 3 4" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="標準 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="標準 3 4 3" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="標準 3 5" xfId="154" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="標準 3 5 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="標準 3 5 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="標準 3 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="標準 3 6 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="標準 3 6 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="標準 3 7" xfId="160" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="標準 3 7 2" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="標準 3 7 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="標準 3 8" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="標準 3 9" xfId="28" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="標準 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="標準 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="標準 4 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="標準 4 2 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="標準 4 2 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="標準 4 2 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="標準 4 2 3 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="標準 4 2 3 3" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="標準 4 2 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="標準 4 2 5" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="標準 4 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="標準 4 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="標準 4 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="標準 4 4" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="標準 4 4 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="標準 4 4 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="標準 4 5" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="標準 4 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="標準 4 5 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="標準 4 5 4" xfId="192" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="標準 4 6" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="標準 4 7" xfId="13" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="標準 5" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="標準 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="標準 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="標準 6" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="標準 6 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="標準 6 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="標準 7" xfId="209" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="標準 8" xfId="211" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="常规 10 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="常规 10 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="常规 10 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="常规 11" xfId="210" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="常规 11 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="常规 11 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="常规 11 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="常规 12" xfId="212" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="常规 12 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="常规 12 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="常规 12 3" xfId="224" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="常规 13" xfId="225" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="常规 13 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="常规 14" xfId="227" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="常规 14 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="常规 15" xfId="229" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="常规 15 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="常规 16" xfId="231" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="常规 16 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="常规 17" xfId="233" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="常规 17 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="常规 18" xfId="240" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="常规 19" xfId="242" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="常规 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="常规 2 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="常规 2 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="常规 2 2 2 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="60" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="189" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="255" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="258" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="263" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="266" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="267" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="273" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="275" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 2 2 2 2 4 4" xfId="276" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="277" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 2 2 2 5 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 2 2 2 5 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 2 2 2 6" xfId="281" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 2 2 2 2 6 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 2 2 2 7" xfId="285" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 2 2 3" xfId="286" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="288" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="292" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 2 2 2 3 2 4" xfId="294" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="297" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="300" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="302" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="常规 2 2 2 3 4 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="常规 2 2 2 3 4 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="常规 2 2 2 3 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="常规 2 2 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="314" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
-    <cellStyle name="常规 2 2 2 5" xfId="44" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="317" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
-    <cellStyle name="常规 2 2 2 5 2 2" xfId="318" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
-    <cellStyle name="常规 2 2 2 5 2 3" xfId="319" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="320" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
-    <cellStyle name="常规 2 2 2 5 4" xfId="321" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
-    <cellStyle name="常规 2 2 2 6" xfId="64" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 2 2 2 6 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
-    <cellStyle name="常规 2 2 2 7" xfId="65" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
-    <cellStyle name="常规 2 2 2 8" xfId="67" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="常规 2 2 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="常规 2 2 3 2" xfId="332" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="333" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="334" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="336" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="338" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="339" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="常规 2 2 3 3" xfId="340" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="341" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="343" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="346" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
-    <cellStyle name="常规 2 2 3 4" xfId="347" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="348" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="349" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
-    <cellStyle name="常规 2 2 3 5" xfId="350" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="常规 2 2 3 5 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 2 2 3 6" xfId="335" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
-    <cellStyle name="常规 2 2 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 2 2 4 2" xfId="352" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="355" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="常规 2 2 4 3" xfId="357" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
-    <cellStyle name="常规 2 2 4 4" xfId="358" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="常规 2 2 5" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="常规 2 2 5 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="360" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="361" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
-    <cellStyle name="常规 2 2 5 3" xfId="362" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
-    <cellStyle name="常规 2 2 5 4" xfId="363" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
-    <cellStyle name="常规 2 2 6" xfId="186" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="常规 2 2 6 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="常规 2 2 6 3" xfId="364" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
-    <cellStyle name="常规 2 2 7" xfId="365" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
-    <cellStyle name="常规 2 2 7 2" xfId="366" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
-    <cellStyle name="常规 2 2 7 3" xfId="367" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
-    <cellStyle name="常规 2 2 8" xfId="368" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
-    <cellStyle name="常规 2 3" xfId="370" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="372" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="373" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="374" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
-    <cellStyle name="常规 2 3 3" xfId="376" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="377" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="378" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="379" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="380" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="381" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
-    <cellStyle name="常规 2 3 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="382" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="常规 2 3 5 3" xfId="383" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="常规 2 4" xfId="385" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
-    <cellStyle name="常规 2 4 2" xfId="291" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 2 4 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
-    <cellStyle name="常规 2 4 2 3" xfId="387" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
-    <cellStyle name="常规 2 4 3" xfId="388" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
-    <cellStyle name="常规 2 4 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
-    <cellStyle name="常规 2 4 3 3" xfId="390" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
-    <cellStyle name="常规 2 4 4" xfId="249" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="常规 2 4 5" xfId="260" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="常规 2 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
-    <cellStyle name="常规 2 5 2" xfId="391" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
-    <cellStyle name="常规 2 5 2 2" xfId="392" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
-    <cellStyle name="常规 2 5 2 3" xfId="394" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
-    <cellStyle name="常规 2 5 3" xfId="395" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
-    <cellStyle name="常规 2 5 4" xfId="287" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 2 6" xfId="328" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
-    <cellStyle name="常规 2 6 2" xfId="396" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
-    <cellStyle name="常规 2 6 3" xfId="397" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
-    <cellStyle name="常规 2 7" xfId="215" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="常规 2 7 2" xfId="398" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
-    <cellStyle name="常规 2 7 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="常规 2 8" xfId="399" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
-    <cellStyle name="常规 22" xfId="234" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="常规 3" xfId="400" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
-    <cellStyle name="常规 3 10" xfId="354" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
-    <cellStyle name="常规 3 10 2" xfId="402" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
-    <cellStyle name="常规 3 11" xfId="356" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
-    <cellStyle name="常规 3 11 2" xfId="403" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
-    <cellStyle name="常规 3 12" xfId="404" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
-    <cellStyle name="常规 3 2" xfId="405" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
-    <cellStyle name="常规 3 2 2" xfId="407" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
-    <cellStyle name="常规 3 2 2 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="408" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="常规 3 2 2 3" xfId="409" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
-    <cellStyle name="常规 3 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="常规 3 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="410" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="常规 3 2 3 3" xfId="411" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="常规 3 2 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="常规 3 2 4 2" xfId="412" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="常规 3 2 4 3" xfId="413" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
-    <cellStyle name="常规 3 2 5" xfId="414" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="常规 3 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
-    <cellStyle name="常规 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3 2 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="常规 3 2 7" xfId="415" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="常规 3 2 7 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 3 2 8" xfId="416" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
-    <cellStyle name="常规 3 2 8 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 3 2 9" xfId="417" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="常规 3 3" xfId="418" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
-    <cellStyle name="常规 3 3 2" xfId="419" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
-    <cellStyle name="常规 3 3 2 2" xfId="420" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="常规 3 3 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="常规 3 4" xfId="421" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
-    <cellStyle name="常规 3 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 3 4 2 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
-    <cellStyle name="常规 3 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 3 5" xfId="87" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="常规 3 5 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="常规 3 5 2 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="常规 3 5 3" xfId="425" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="常规 3 6" xfId="427" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
-    <cellStyle name="常规 3 6 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="常规 3 6 2 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
-    <cellStyle name="常规 3 6 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="常规 3 7" xfId="430" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
-    <cellStyle name="常规 3 7 2" xfId="431" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
-    <cellStyle name="常规 3 8" xfId="432" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
-    <cellStyle name="常规 3 8 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="常规 3 9" xfId="433" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
-    <cellStyle name="常规 3 9 2" xfId="337" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
-    <cellStyle name="常规 4" xfId="434" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
-    <cellStyle name="常规 4 10" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="常规 4 10 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
-    <cellStyle name="常规 4 11" xfId="38" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="常规 4 12" xfId="23" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="常规 4 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
-    <cellStyle name="常规 4 2 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="常规 4 2 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="常规 4 2 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="常规 4 2 3" xfId="441" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
-    <cellStyle name="常规 4 2 3 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="312" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="常规 4 2 3 3" xfId="447" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
-    <cellStyle name="常规 4 2 4" xfId="450" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
-    <cellStyle name="常规 4 2 4 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="常规 4 2 4 3" xfId="456" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="常规 4 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="常规 4 2 5 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="常规 4 2 6" xfId="461" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
-    <cellStyle name="常规 4 2 6 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
-    <cellStyle name="常规 4 2 7" xfId="465" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
-    <cellStyle name="常规 4 2 7 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
-    <cellStyle name="常规 4 2 8" xfId="467" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="常规 4 2 8 2" xfId="468" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
-    <cellStyle name="常规 4 2 9" xfId="469" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
-    <cellStyle name="常规 4 3" xfId="470" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
-    <cellStyle name="常规 4 3 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="常规 4 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="常规 4 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="常规 4 4" xfId="440" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
-    <cellStyle name="常规 4 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="常规 4 4 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="常规 4 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="常规 4 5" xfId="442" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="常规 4 5 2" xfId="445" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="常规 4 5 2 2" xfId="313" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="常规 4 5 3" xfId="448" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="常规 4 6" xfId="451" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
-    <cellStyle name="常规 4 6 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
-    <cellStyle name="常规 4 7" xfId="458" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
-    <cellStyle name="常规 4 7 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
-    <cellStyle name="常规 4 8" xfId="462" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
-    <cellStyle name="常规 4 8 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
-    <cellStyle name="常规 4 9" xfId="466" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
-    <cellStyle name="常规 4 9 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="常规 5" xfId="471" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="常规 5 10" xfId="472" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
-    <cellStyle name="常规 5 10 2" xfId="475" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
-    <cellStyle name="常规 5 11" xfId="476" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="常规 5 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="477" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="常规 5 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="271" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 5 2 3 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="常规 5 2 4 2 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="常规 5 2 4 3" xfId="309" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="478" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
-    <cellStyle name="常规 5 2 5 2" xfId="316" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
-    <cellStyle name="常规 5 2 6" xfId="479" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
-    <cellStyle name="常规 5 2 6 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
-    <cellStyle name="常规 5 2 7" xfId="480" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="常规 5 2 7 2" xfId="482" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
-    <cellStyle name="常规 5 2 8" xfId="202" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="常规 5 2 8 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="常规 5 2 9" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="常规 5 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="常规 5 3 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="常规 5 3 2 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="常规 5 4" xfId="110" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="常规 5 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="常规 5 4 2 2" xfId="485" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="常规 5 4 3" xfId="486" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
-    <cellStyle name="常规 5 5" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="常规 5 5 2" xfId="488" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
-    <cellStyle name="常规 5 5 2 2" xfId="490" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
-    <cellStyle name="常规 5 5 3" xfId="492" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
-    <cellStyle name="常规 5 6" xfId="493" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
-    <cellStyle name="常规 5 6 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="常规 5 7" xfId="496" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
-    <cellStyle name="常规 5 7 2" xfId="498" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
-    <cellStyle name="常规 5 8" xfId="484" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="常规 5 8 2" xfId="501" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
-    <cellStyle name="常规 5 9" xfId="502" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
-    <cellStyle name="常规 5 9 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 6" xfId="20" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="常规 6 10" xfId="401" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
-    <cellStyle name="常规 6 10 2" xfId="406" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="常规 6 11" xfId="436" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
-    <cellStyle name="常规 6 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="常规 6 2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="常规 6 2 2 2" xfId="503" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="504" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="常规 6 2 2 2 2 3" xfId="505" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="506" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
-    <cellStyle name="常规 6 2 2 2 4" xfId="507" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
-    <cellStyle name="常规 6 2 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="常规 6 2 2 3 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 6 2 2 3 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="常规 6 2 2 4" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="常规 6 2 2 4 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 6 2 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="常规 6 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="常规 6 2 3 2" xfId="508" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
-    <cellStyle name="常规 6 2 3 2 2" xfId="509" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
-    <cellStyle name="常规 6 2 3 2 3" xfId="510" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
-    <cellStyle name="常规 6 2 3 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 6 2 3 4" xfId="56" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 6 2 4" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="常规 6 2 4 2" xfId="481" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="483" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
-    <cellStyle name="常规 6 2 4 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
-    <cellStyle name="常规 6 2 4 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="常规 6 2 4 4" xfId="208" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="常规 6 2 5" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="常规 6 2 5 2" xfId="512" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
-    <cellStyle name="常规 6 2 5 3" xfId="217" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="常规 6 2 6" xfId="513" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
-    <cellStyle name="常规 6 2 6 2" xfId="514" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
-    <cellStyle name="常规 6 2 6 3" xfId="221" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="常规 6 2 7" xfId="516" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
-    <cellStyle name="常规 6 2 8" xfId="518" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
-    <cellStyle name="常规 6 2 9" xfId="519" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
-    <cellStyle name="常规 6 3" xfId="520" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
-    <cellStyle name="常规 6 3 2" xfId="521" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
-    <cellStyle name="常规 6 3 2 2" xfId="522" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
-    <cellStyle name="常规 6 3 2 2 2" xfId="523" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
-    <cellStyle name="常规 6 3 2 2 3" xfId="524" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
-    <cellStyle name="常规 6 3 2 3" xfId="525" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
-    <cellStyle name="常规 6 3 2 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="常规 6 3 3" xfId="526" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
-    <cellStyle name="常规 6 3 3 2" xfId="527" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="529" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
-    <cellStyle name="常规 6 3 3 2 3" xfId="530" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
-    <cellStyle name="常规 6 3 3 3" xfId="531" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
-    <cellStyle name="常规 6 3 4" xfId="532" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
-    <cellStyle name="常规 6 3 4 2" xfId="515" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
-    <cellStyle name="常规 6 3 4 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
-    <cellStyle name="常规 6 3 5" xfId="533" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
-    <cellStyle name="常规 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="常规 6 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="常规 6 4 2 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="常规 6 4 2 3" xfId="534" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
-    <cellStyle name="常规 6 4 3" xfId="239" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="常规 6 4 4" xfId="241" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="常规 6 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="常规 6 5 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="常规 6 5 2 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
-    <cellStyle name="常规 6 5 2 3" xfId="282" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 6 5 3" xfId="539" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
-    <cellStyle name="常规 6 5 4" xfId="541" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="常规 6 6" xfId="542" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
-    <cellStyle name="常规 6 6 2" xfId="543" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="常规 6 6 2 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
-    <cellStyle name="常规 6 6 2 3" xfId="545" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
-    <cellStyle name="常规 6 6 3" xfId="547" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
-    <cellStyle name="常规 6 6 4" xfId="549" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
-    <cellStyle name="常规 6 7" xfId="551" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
-    <cellStyle name="常规 6 7 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
-    <cellStyle name="常规 6 7 3" xfId="554" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
-    <cellStyle name="常规 6 8" xfId="555" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
-    <cellStyle name="常规 6 8 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 6 8 3" xfId="556" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
-    <cellStyle name="常规 6 9" xfId="557" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
-    <cellStyle name="常规 7" xfId="559" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
-    <cellStyle name="常规 7 10" xfId="560" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
-    <cellStyle name="常规 7 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
-    <cellStyle name="常规 7 2 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="常规 7 2 2 2" xfId="562" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
-    <cellStyle name="常规 7 2 3" xfId="563" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
-    <cellStyle name="常规 7 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 7 3 2" xfId="564" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
-    <cellStyle name="常规 7 3 2 2" xfId="565" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
-    <cellStyle name="常规 7 3 3" xfId="566" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
-    <cellStyle name="常规 7 4" xfId="443" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="常规 7 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="常规 7 4 3" xfId="567" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
-    <cellStyle name="常规 7 5" xfId="446" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
-    <cellStyle name="常规 7 5 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
-    <cellStyle name="常规 7 6" xfId="569" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
-    <cellStyle name="常规 7 6 2" xfId="570" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
-    <cellStyle name="常规 7 7" xfId="571" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
-    <cellStyle name="常规 7 7 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
-    <cellStyle name="常规 7 8" xfId="572" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
-    <cellStyle name="常规 7 8 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
-    <cellStyle name="常规 7 9" xfId="528" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
-    <cellStyle name="常规 7 9 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
-    <cellStyle name="常规 8" xfId="474" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
-    <cellStyle name="常规 8 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="常规 8 2 2" xfId="573" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
-    <cellStyle name="常规 8 2 2 2" xfId="574" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
-    <cellStyle name="常规 8 2 3" xfId="575" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
-    <cellStyle name="常规 8 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 8 3 2" xfId="576" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
-    <cellStyle name="常规 8 3 2 2" xfId="577" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
-    <cellStyle name="常规 8 3 3" xfId="578" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
-    <cellStyle name="常规 8 4" xfId="452" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="常规 8 4 2" xfId="579" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
-    <cellStyle name="常规 8 5" xfId="455" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
-    <cellStyle name="常规 8 5 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
-    <cellStyle name="常规 8 6" xfId="581" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
-    <cellStyle name="常规 8 6 2" xfId="582" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
-    <cellStyle name="常规 8 7" xfId="583" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
-    <cellStyle name="常规 8 7 2" xfId="584" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
-    <cellStyle name="常规 8 8" xfId="585" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
-    <cellStyle name="常规 9" xfId="586" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
-    <cellStyle name="常规 9 2" xfId="587" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
-    <cellStyle name="常规 9 2 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
-    <cellStyle name="常规 9 3" xfId="588" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8"/>
-    <cellStyle name="超链接 10" xfId="589" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
-    <cellStyle name="超链接 2" xfId="591" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
-    <cellStyle name="超链接 2 2" xfId="592" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
-    <cellStyle name="超链接 2 2 2" xfId="593" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
-    <cellStyle name="超链接 2 2 2 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="538" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
-    <cellStyle name="超链接 2 2 2 2 2 2" xfId="595" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
-    <cellStyle name="超链接 2 2 2 2 2 3" xfId="596" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="540" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
-    <cellStyle name="超链接 2 2 2 2 4" xfId="597" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
-    <cellStyle name="超链接 2 2 2 3" xfId="598" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="546" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
-    <cellStyle name="超链接 2 2 2 3 2 2" xfId="599" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
-    <cellStyle name="超链接 2 2 2 3 2 3" xfId="600" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="548" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="53" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="553" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
-    <cellStyle name="超链接 2 2 2 4 3" xfId="601" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="57" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="超链接 2 2 3" xfId="602" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="超链接 2 2 3 2" xfId="603" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="超链接 2 2 3 2 2" xfId="604" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="超链接 2 2 3 2 3" xfId="605" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="超链接 2 2 3 3" xfId="606" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
-    <cellStyle name="超链接 2 2 3 4" xfId="607" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="超链接 2 2 4" xfId="487" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="超链接 2 2 4 2" xfId="489" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
-    <cellStyle name="超链接 2 2 4 2 2" xfId="608" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
-    <cellStyle name="超链接 2 2 4 2 3" xfId="609" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
-    <cellStyle name="超链接 2 2 4 3" xfId="610" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
-    <cellStyle name="超链接 2 2 4 4" xfId="611" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="超链接 2 2 5" xfId="491" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
-    <cellStyle name="超链接 2 2 5 2" xfId="612" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="614" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
-    <cellStyle name="超链接 2 2 6" xfId="615" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
-    <cellStyle name="超链接 2 2 6 2" xfId="616" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
-    <cellStyle name="超链接 2 2 6 3" xfId="617" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
-    <cellStyle name="超链接 2 2 7" xfId="618" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
-    <cellStyle name="超链接 2 3" xfId="619" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
-    <cellStyle name="超链接 2 3 2" xfId="620" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
-    <cellStyle name="超链接 2 3 2 2" xfId="621" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
-    <cellStyle name="超链接 2 3 2 2 2" xfId="622" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="超链接 2 3 2 3" xfId="623" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="超链接 2 3 3" xfId="624" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
-    <cellStyle name="超链接 2 3 3 2" xfId="625" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
-    <cellStyle name="超链接 2 3 3 2 3" xfId="626" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
-    <cellStyle name="超链接 2 3 3 3" xfId="627" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
-    <cellStyle name="超链接 2 3 4" xfId="494" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
-    <cellStyle name="超链接 2 3 4 2" xfId="628" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
-    <cellStyle name="超链接 2 3 4 3" xfId="629" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
-    <cellStyle name="超链接 2 3 5" xfId="630" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
-    <cellStyle name="超链接 2 4" xfId="631" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
-    <cellStyle name="超链接 2 4 2" xfId="632" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
-    <cellStyle name="超链接 2 4 2 2" xfId="633" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
-    <cellStyle name="超链接 2 4 2 3" xfId="634" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
-    <cellStyle name="超链接 2 4 3" xfId="635" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
-    <cellStyle name="超链接 2 4 4" xfId="497" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
-    <cellStyle name="超链接 2 5" xfId="636" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
-    <cellStyle name="超链接 2 5 2" xfId="637" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
-    <cellStyle name="超链接 2 5 2 3" xfId="473" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="超链接 2 5 3" xfId="590" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
-    <cellStyle name="超链接 2 5 4" xfId="500" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
-    <cellStyle name="超链接 2 6" xfId="244" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="超链接 2 6 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="超链接 2 6 3" xfId="330" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
-    <cellStyle name="超链接 2 7" xfId="369" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
-    <cellStyle name="超链接 2 7 2" xfId="256" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="超链接 2 7 3" xfId="375" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
-    <cellStyle name="超链接 2 8" xfId="384" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
-    <cellStyle name="超链接 3" xfId="499" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
-    <cellStyle name="超链接 3 2" xfId="638" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
-    <cellStyle name="超链接 3 2 2" xfId="639" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
-    <cellStyle name="超链接 3 2 2 2" xfId="640" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
-    <cellStyle name="超链接 3 2 2 3" xfId="269" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="超链接 3 2 3" xfId="641" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
-    <cellStyle name="超链接 3 2 4" xfId="535" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
-    <cellStyle name="超链接 3 3" xfId="642" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
-    <cellStyle name="超链接 3 3 2" xfId="643" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
-    <cellStyle name="超链接 3 3 2 2" xfId="644" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
-    <cellStyle name="超链接 3 3 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="超链接 3 3 3" xfId="645" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
-    <cellStyle name="超链接 3 4" xfId="646" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
-    <cellStyle name="超链接 3 4 2" xfId="647" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
-    <cellStyle name="超链接 3 4 3" xfId="648" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
-    <cellStyle name="超链接 3 5" xfId="649" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
-    <cellStyle name="超链接 4" xfId="650" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
-    <cellStyle name="超链接 4 2" xfId="651" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
-    <cellStyle name="超链接 4 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="超链接 4 3" xfId="652" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
-    <cellStyle name="超链接 5" xfId="653" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
-    <cellStyle name="超链接 5 2" xfId="654" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
-    <cellStyle name="超链接 5 2 2" xfId="655" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="超链接 5 2 3" xfId="656" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
-    <cellStyle name="超链接 5 3" xfId="657" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
-    <cellStyle name="超链接 5 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="超链接 6" xfId="658" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
-    <cellStyle name="超链接 6 2" xfId="659" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
-    <cellStyle name="超链接 6 3" xfId="660" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
-    <cellStyle name="超链接 7" xfId="661" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
-    <cellStyle name="超链接 7 2" xfId="662" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
-    <cellStyle name="超链接 7 3" xfId="663" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
-    <cellStyle name="超链接 8" xfId="664" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
-    <cellStyle name="超链接 9" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="适中 2" xfId="665" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
-    <cellStyle name="适中 2 2" xfId="666" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
-    <cellStyle name="适中 2 2 2" xfId="667" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
-    <cellStyle name="适中 2 2 3" xfId="351" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
-    <cellStyle name="适中 2 3" xfId="668" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
-    <cellStyle name="适中 2 4" xfId="669" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8"/>
+    <cellStyle name="常规 10" xfId="199"/>
+    <cellStyle name="常规 10 2" xfId="201"/>
+    <cellStyle name="常规 10 2 2" xfId="213"/>
+    <cellStyle name="常规 10 3" xfId="205"/>
+    <cellStyle name="常规 11" xfId="210"/>
+    <cellStyle name="常规 11 2" xfId="216"/>
+    <cellStyle name="常规 11 2 2" xfId="218"/>
+    <cellStyle name="常规 11 3" xfId="220"/>
+    <cellStyle name="常规 12" xfId="212"/>
+    <cellStyle name="常规 12 2" xfId="222"/>
+    <cellStyle name="常规 12 2 2" xfId="22"/>
+    <cellStyle name="常规 12 3" xfId="224"/>
+    <cellStyle name="常规 13" xfId="225"/>
+    <cellStyle name="常规 13 2" xfId="226"/>
+    <cellStyle name="常规 14" xfId="227"/>
+    <cellStyle name="常规 14 2" xfId="228"/>
+    <cellStyle name="常规 15" xfId="229"/>
+    <cellStyle name="常规 15 2" xfId="230"/>
+    <cellStyle name="常规 16" xfId="231"/>
+    <cellStyle name="常规 16 2" xfId="197"/>
+    <cellStyle name="常规 17" xfId="233"/>
+    <cellStyle name="常规 17 2" xfId="238"/>
+    <cellStyle name="常规 18" xfId="240"/>
+    <cellStyle name="常规 19" xfId="242"/>
+    <cellStyle name="常规 2" xfId="243"/>
+    <cellStyle name="常规 2 2" xfId="245"/>
+    <cellStyle name="常规 2 2 2" xfId="247"/>
+    <cellStyle name="常规 2 2 2 2" xfId="248"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="250"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="251"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="176"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="179"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="60"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="182"/>
+    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="189"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="41"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="55"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="252"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="253"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="2"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="254"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="206"/>
+    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="255"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="258"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="261"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="262"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="74"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="263"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="264"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="266"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="267"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="270"/>
+    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="272"/>
+    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="273"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="275"/>
+    <cellStyle name="常规 2 2 2 2 4 4" xfId="276"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="277"/>
+    <cellStyle name="常规 2 2 2 2 5 2" xfId="279"/>
+    <cellStyle name="常规 2 2 2 2 5 3" xfId="280"/>
+    <cellStyle name="常规 2 2 2 2 6" xfId="281"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="283"/>
+    <cellStyle name="常规 2 2 2 2 6 3" xfId="284"/>
+    <cellStyle name="常规 2 2 2 2 7" xfId="285"/>
+    <cellStyle name="常规 2 2 2 3" xfId="286"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="288"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="289"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="265"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="290"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="292"/>
+    <cellStyle name="常规 2 2 2 3 2 4" xfId="294"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="295"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="296"/>
+    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="297"/>
+    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="298"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="300"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="302"/>
+    <cellStyle name="常规 2 2 2 3 4 2" xfId="305"/>
+    <cellStyle name="常规 2 2 2 3 4 3" xfId="307"/>
+    <cellStyle name="常规 2 2 2 3 5" xfId="308"/>
+    <cellStyle name="常规 2 2 2 4" xfId="50"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="310"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="95"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="31"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="314"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="315"/>
+    <cellStyle name="常规 2 2 2 5" xfId="44"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="317"/>
+    <cellStyle name="常规 2 2 2 5 2 2" xfId="318"/>
+    <cellStyle name="常规 2 2 2 5 2 3" xfId="319"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="320"/>
+    <cellStyle name="常规 2 2 2 5 4" xfId="321"/>
+    <cellStyle name="常规 2 2 2 6" xfId="64"/>
+    <cellStyle name="常规 2 2 2 6 2" xfId="323"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="324"/>
+    <cellStyle name="常规 2 2 2 7" xfId="65"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="326"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="329"/>
+    <cellStyle name="常规 2 2 2 8" xfId="67"/>
+    <cellStyle name="常规 2 2 3" xfId="331"/>
+    <cellStyle name="常规 2 2 3 2" xfId="332"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="333"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="334"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="336"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="338"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="339"/>
+    <cellStyle name="常规 2 2 3 3" xfId="340"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="341"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="342"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="343"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="346"/>
+    <cellStyle name="常规 2 2 3 4" xfId="347"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="348"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="349"/>
+    <cellStyle name="常规 2 2 3 5" xfId="350"/>
+    <cellStyle name="常规 2 2 3 5 2" xfId="79"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="33"/>
+    <cellStyle name="常规 2 2 3 6" xfId="335"/>
+    <cellStyle name="常规 2 2 4" xfId="3"/>
+    <cellStyle name="常规 2 2 4 2" xfId="352"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="353"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="355"/>
+    <cellStyle name="常规 2 2 4 3" xfId="357"/>
+    <cellStyle name="常规 2 2 4 4" xfId="358"/>
+    <cellStyle name="常规 2 2 5" xfId="184"/>
+    <cellStyle name="常规 2 2 5 2" xfId="359"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="360"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="361"/>
+    <cellStyle name="常规 2 2 5 3" xfId="362"/>
+    <cellStyle name="常规 2 2 5 4" xfId="363"/>
+    <cellStyle name="常规 2 2 6" xfId="186"/>
+    <cellStyle name="常规 2 2 6 2" xfId="140"/>
+    <cellStyle name="常规 2 2 6 3" xfId="364"/>
+    <cellStyle name="常规 2 2 7" xfId="365"/>
+    <cellStyle name="常规 2 2 7 2" xfId="366"/>
+    <cellStyle name="常规 2 2 7 3" xfId="367"/>
+    <cellStyle name="常规 2 2 8" xfId="368"/>
+    <cellStyle name="常规 2 3" xfId="370"/>
+    <cellStyle name="常规 2 3 2" xfId="257"/>
+    <cellStyle name="常规 2 3 2 2" xfId="219"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="371"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="372"/>
+    <cellStyle name="常规 2 3 2 3" xfId="373"/>
+    <cellStyle name="常规 2 3 2 4" xfId="374"/>
+    <cellStyle name="常规 2 3 3" xfId="376"/>
+    <cellStyle name="常规 2 3 3 2" xfId="223"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="132"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="377"/>
+    <cellStyle name="常规 2 3 3 3" xfId="378"/>
+    <cellStyle name="常规 2 3 4" xfId="379"/>
+    <cellStyle name="常规 2 3 4 2" xfId="380"/>
+    <cellStyle name="常规 2 3 4 3" xfId="381"/>
+    <cellStyle name="常规 2 3 5" xfId="190"/>
+    <cellStyle name="常规 2 3 5 2" xfId="382"/>
+    <cellStyle name="常规 2 3 5 3" xfId="383"/>
+    <cellStyle name="常规 2 3 6" xfId="102"/>
+    <cellStyle name="常规 2 4" xfId="385"/>
+    <cellStyle name="常规 2 4 2" xfId="291"/>
+    <cellStyle name="常规 2 4 2 2" xfId="386"/>
+    <cellStyle name="常规 2 4 2 3" xfId="387"/>
+    <cellStyle name="常规 2 4 3" xfId="388"/>
+    <cellStyle name="常规 2 4 3 2" xfId="389"/>
+    <cellStyle name="常规 2 4 3 3" xfId="390"/>
+    <cellStyle name="常规 2 4 4" xfId="249"/>
+    <cellStyle name="常规 2 4 5" xfId="260"/>
+    <cellStyle name="常规 2 5" xfId="325"/>
+    <cellStyle name="常规 2 5 2" xfId="391"/>
+    <cellStyle name="常规 2 5 2 2" xfId="392"/>
+    <cellStyle name="常规 2 5 2 3" xfId="394"/>
+    <cellStyle name="常规 2 5 3" xfId="395"/>
+    <cellStyle name="常规 2 5 4" xfId="287"/>
+    <cellStyle name="常规 2 6" xfId="328"/>
+    <cellStyle name="常规 2 6 2" xfId="396"/>
+    <cellStyle name="常规 2 6 3" xfId="397"/>
+    <cellStyle name="常规 2 7" xfId="215"/>
+    <cellStyle name="常规 2 7 2" xfId="398"/>
+    <cellStyle name="常规 2 7 3" xfId="18"/>
+    <cellStyle name="常规 2 8" xfId="399"/>
+    <cellStyle name="常规 22" xfId="234"/>
+    <cellStyle name="常规 3" xfId="400"/>
+    <cellStyle name="常规 3 10" xfId="354"/>
+    <cellStyle name="常规 3 10 2" xfId="402"/>
+    <cellStyle name="常规 3 11" xfId="356"/>
+    <cellStyle name="常规 3 11 2" xfId="403"/>
+    <cellStyle name="常规 3 12" xfId="404"/>
+    <cellStyle name="常规 3 2" xfId="405"/>
+    <cellStyle name="常规 3 2 2" xfId="407"/>
+    <cellStyle name="常规 3 2 2 2" xfId="274"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="408"/>
+    <cellStyle name="常规 3 2 2 3" xfId="409"/>
+    <cellStyle name="常规 3 2 3" xfId="82"/>
+    <cellStyle name="常规 3 2 3 2" xfId="9"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="410"/>
+    <cellStyle name="常规 3 2 3 3" xfId="411"/>
+    <cellStyle name="常规 3 2 4" xfId="76"/>
+    <cellStyle name="常规 3 2 4 2" xfId="412"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="89"/>
+    <cellStyle name="常规 3 2 4 3" xfId="413"/>
+    <cellStyle name="常规 3 2 5" xfId="414"/>
+    <cellStyle name="常规 3 2 5 2" xfId="393"/>
+    <cellStyle name="常规 3 2 6" xfId="48"/>
+    <cellStyle name="常规 3 2 6 2" xfId="71"/>
+    <cellStyle name="常规 3 2 7" xfId="415"/>
+    <cellStyle name="常规 3 2 7 2" xfId="293"/>
+    <cellStyle name="常规 3 2 8" xfId="416"/>
+    <cellStyle name="常规 3 2 8 2" xfId="301"/>
+    <cellStyle name="常规 3 2 9" xfId="417"/>
+    <cellStyle name="常规 3 3" xfId="418"/>
+    <cellStyle name="常规 3 3 2" xfId="419"/>
+    <cellStyle name="常规 3 3 2 2" xfId="420"/>
+    <cellStyle name="常规 3 3 3" xfId="84"/>
+    <cellStyle name="常规 3 4" xfId="421"/>
+    <cellStyle name="常规 3 4 2" xfId="299"/>
+    <cellStyle name="常规 3 4 2 2" xfId="422"/>
+    <cellStyle name="常规 3 4 3" xfId="10"/>
+    <cellStyle name="常规 3 5" xfId="87"/>
+    <cellStyle name="常规 3 5 2" xfId="423"/>
+    <cellStyle name="常规 3 5 2 2" xfId="424"/>
+    <cellStyle name="常规 3 5 3" xfId="425"/>
+    <cellStyle name="常规 3 6" xfId="427"/>
+    <cellStyle name="常规 3 6 2" xfId="428"/>
+    <cellStyle name="常规 3 6 2 2" xfId="429"/>
+    <cellStyle name="常规 3 6 3" xfId="15"/>
+    <cellStyle name="常规 3 7" xfId="430"/>
+    <cellStyle name="常规 3 7 2" xfId="431"/>
+    <cellStyle name="常规 3 8" xfId="432"/>
+    <cellStyle name="常规 3 8 2" xfId="66"/>
+    <cellStyle name="常规 3 9" xfId="433"/>
+    <cellStyle name="常规 3 9 2" xfId="337"/>
+    <cellStyle name="常规 4" xfId="434"/>
+    <cellStyle name="常规 4 10" xfId="153"/>
+    <cellStyle name="常规 4 10 2" xfId="437"/>
+    <cellStyle name="常规 4 11" xfId="38"/>
+    <cellStyle name="常规 4 12" xfId="23"/>
+    <cellStyle name="常规 4 2" xfId="438"/>
+    <cellStyle name="常规 4 2 2" xfId="439"/>
+    <cellStyle name="常规 4 2 2 2" xfId="164"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="235"/>
+    <cellStyle name="常规 4 2 2 3" xfId="26"/>
+    <cellStyle name="常规 4 2 3" xfId="441"/>
+    <cellStyle name="常规 4 2 3 2" xfId="444"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="312"/>
+    <cellStyle name="常规 4 2 3 3" xfId="447"/>
+    <cellStyle name="常规 4 2 4" xfId="450"/>
+    <cellStyle name="常规 4 2 4 2" xfId="453"/>
+    <cellStyle name="常规 4 2 4 3" xfId="456"/>
+    <cellStyle name="常规 4 2 5" xfId="457"/>
+    <cellStyle name="常规 4 2 5 2" xfId="459"/>
+    <cellStyle name="常规 4 2 6" xfId="461"/>
+    <cellStyle name="常规 4 2 6 2" xfId="463"/>
+    <cellStyle name="常规 4 2 7" xfId="465"/>
+    <cellStyle name="常规 4 2 7 2" xfId="344"/>
+    <cellStyle name="常规 4 2 8" xfId="467"/>
+    <cellStyle name="常规 4 2 8 2" xfId="468"/>
+    <cellStyle name="常规 4 2 9" xfId="469"/>
+    <cellStyle name="常规 4 3" xfId="470"/>
+    <cellStyle name="常规 4 3 2" xfId="109"/>
+    <cellStyle name="常规 4 3 2 2" xfId="112"/>
+    <cellStyle name="常规 4 3 3" xfId="115"/>
+    <cellStyle name="常规 4 4" xfId="440"/>
+    <cellStyle name="常规 4 4 2" xfId="165"/>
+    <cellStyle name="常规 4 4 2 2" xfId="236"/>
+    <cellStyle name="常规 4 4 3" xfId="27"/>
+    <cellStyle name="常规 4 5" xfId="442"/>
+    <cellStyle name="常规 4 5 2" xfId="445"/>
+    <cellStyle name="常规 4 5 2 2" xfId="313"/>
+    <cellStyle name="常规 4 5 3" xfId="448"/>
+    <cellStyle name="常规 4 6" xfId="451"/>
+    <cellStyle name="常规 4 6 2" xfId="454"/>
+    <cellStyle name="常规 4 7" xfId="458"/>
+    <cellStyle name="常规 4 7 2" xfId="460"/>
+    <cellStyle name="常规 4 8" xfId="462"/>
+    <cellStyle name="常规 4 8 2" xfId="464"/>
+    <cellStyle name="常规 4 9" xfId="466"/>
+    <cellStyle name="常规 4 9 2" xfId="345"/>
+    <cellStyle name="常规 5" xfId="471"/>
+    <cellStyle name="常规 5 10" xfId="472"/>
+    <cellStyle name="常规 5 10 2" xfId="475"/>
+    <cellStyle name="常规 5 11" xfId="476"/>
+    <cellStyle name="常规 5 2" xfId="29"/>
+    <cellStyle name="常规 5 2 2" xfId="35"/>
+    <cellStyle name="常规 5 2 2 2" xfId="100"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="477"/>
+    <cellStyle name="常规 5 2 2 3" xfId="193"/>
+    <cellStyle name="常规 5 2 3" xfId="39"/>
+    <cellStyle name="常规 5 2 3 2" xfId="268"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="271"/>
+    <cellStyle name="常规 5 2 3 3" xfId="278"/>
+    <cellStyle name="常规 5 2 4" xfId="24"/>
+    <cellStyle name="常规 5 2 4 2" xfId="303"/>
+    <cellStyle name="常规 5 2 4 2 2" xfId="306"/>
+    <cellStyle name="常规 5 2 4 3" xfId="309"/>
+    <cellStyle name="常规 5 2 5" xfId="478"/>
+    <cellStyle name="常规 5 2 5 2" xfId="316"/>
+    <cellStyle name="常规 5 2 6" xfId="479"/>
+    <cellStyle name="常规 5 2 6 2" xfId="322"/>
+    <cellStyle name="常规 5 2 7" xfId="480"/>
+    <cellStyle name="常规 5 2 7 2" xfId="482"/>
+    <cellStyle name="常规 5 2 8" xfId="202"/>
+    <cellStyle name="常规 5 2 8 2" xfId="214"/>
+    <cellStyle name="常规 5 2 9" xfId="207"/>
+    <cellStyle name="常规 5 3" xfId="103"/>
+    <cellStyle name="常规 5 3 2" xfId="105"/>
+    <cellStyle name="常规 5 3 2 2" xfId="435"/>
+    <cellStyle name="常规 5 3 3" xfId="107"/>
+    <cellStyle name="常规 5 4" xfId="110"/>
+    <cellStyle name="常规 5 4 2" xfId="113"/>
+    <cellStyle name="常规 5 4 2 2" xfId="485"/>
+    <cellStyle name="常规 5 4 3" xfId="486"/>
+    <cellStyle name="常规 5 5" xfId="116"/>
+    <cellStyle name="常规 5 5 2" xfId="488"/>
+    <cellStyle name="常规 5 5 2 2" xfId="490"/>
+    <cellStyle name="常规 5 5 3" xfId="492"/>
+    <cellStyle name="常规 5 6" xfId="493"/>
+    <cellStyle name="常规 5 6 2" xfId="495"/>
+    <cellStyle name="常规 5 7" xfId="496"/>
+    <cellStyle name="常规 5 7 2" xfId="498"/>
+    <cellStyle name="常规 5 8" xfId="484"/>
+    <cellStyle name="常规 5 8 2" xfId="501"/>
+    <cellStyle name="常规 5 9" xfId="502"/>
+    <cellStyle name="常规 5 9 2" xfId="4"/>
+    <cellStyle name="常规 6" xfId="20"/>
+    <cellStyle name="常规 6 10" xfId="401"/>
+    <cellStyle name="常规 6 10 2" xfId="406"/>
+    <cellStyle name="常规 6 11" xfId="436"/>
+    <cellStyle name="常规 6 2" xfId="156"/>
+    <cellStyle name="常规 6 2 2" xfId="158"/>
+    <cellStyle name="常规 6 2 2 2" xfId="503"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="504"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="42"/>
+    <cellStyle name="常规 6 2 2 2 2 3" xfId="505"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="506"/>
+    <cellStyle name="常规 6 2 2 2 4" xfId="507"/>
+    <cellStyle name="常规 6 2 2 3" xfId="168"/>
+    <cellStyle name="常规 6 2 2 3 2" xfId="170"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="63"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="12"/>
+    <cellStyle name="常规 6 2 2 3 3" xfId="172"/>
+    <cellStyle name="常规 6 2 2 4" xfId="177"/>
+    <cellStyle name="常规 6 2 2 4 2" xfId="180"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="61"/>
+    <cellStyle name="常规 6 2 2 5" xfId="183"/>
+    <cellStyle name="常规 6 2 3" xfId="45"/>
+    <cellStyle name="常规 6 2 3 2" xfId="508"/>
+    <cellStyle name="常规 6 2 3 2 2" xfId="509"/>
+    <cellStyle name="常规 6 2 3 2 3" xfId="510"/>
+    <cellStyle name="常规 6 2 3 3" xfId="52"/>
+    <cellStyle name="常规 6 2 3 4" xfId="56"/>
+    <cellStyle name="常规 6 2 4" xfId="135"/>
+    <cellStyle name="常规 6 2 4 2" xfId="481"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="483"/>
+    <cellStyle name="常规 6 2 4 2 3" xfId="511"/>
+    <cellStyle name="常规 6 2 4 3" xfId="203"/>
+    <cellStyle name="常规 6 2 4 4" xfId="208"/>
+    <cellStyle name="常规 6 2 5" xfId="137"/>
+    <cellStyle name="常规 6 2 5 2" xfId="512"/>
+    <cellStyle name="常规 6 2 5 3" xfId="217"/>
+    <cellStyle name="常规 6 2 6" xfId="513"/>
+    <cellStyle name="常规 6 2 6 2" xfId="514"/>
+    <cellStyle name="常规 6 2 6 3" xfId="221"/>
+    <cellStyle name="常规 6 2 7" xfId="516"/>
+    <cellStyle name="常规 6 2 8" xfId="518"/>
+    <cellStyle name="常规 6 2 9" xfId="519"/>
+    <cellStyle name="常规 6 3" xfId="520"/>
+    <cellStyle name="常规 6 3 2" xfId="521"/>
+    <cellStyle name="常规 6 3 2 2" xfId="522"/>
+    <cellStyle name="常规 6 3 2 2 2" xfId="523"/>
+    <cellStyle name="常规 6 3 2 2 3" xfId="524"/>
+    <cellStyle name="常规 6 3 2 3" xfId="525"/>
+    <cellStyle name="常规 6 3 2 4" xfId="73"/>
+    <cellStyle name="常规 6 3 3" xfId="526"/>
+    <cellStyle name="常规 6 3 3 2" xfId="527"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="529"/>
+    <cellStyle name="常规 6 3 3 2 3" xfId="530"/>
+    <cellStyle name="常规 6 3 3 3" xfId="531"/>
+    <cellStyle name="常规 6 3 4" xfId="532"/>
+    <cellStyle name="常规 6 3 4 2" xfId="515"/>
+    <cellStyle name="常规 6 3 4 3" xfId="517"/>
+    <cellStyle name="常规 6 3 5" xfId="533"/>
+    <cellStyle name="常规 6 4" xfId="163"/>
+    <cellStyle name="常规 6 4 2" xfId="232"/>
+    <cellStyle name="常规 6 4 2 2" xfId="237"/>
+    <cellStyle name="常规 6 4 2 3" xfId="534"/>
+    <cellStyle name="常规 6 4 3" xfId="239"/>
+    <cellStyle name="常规 6 4 4" xfId="241"/>
+    <cellStyle name="常规 6 5" xfId="25"/>
+    <cellStyle name="常规 6 5 2" xfId="536"/>
+    <cellStyle name="常规 6 5 2 2" xfId="537"/>
+    <cellStyle name="常规 6 5 2 3" xfId="282"/>
+    <cellStyle name="常规 6 5 3" xfId="539"/>
+    <cellStyle name="常规 6 5 4" xfId="541"/>
+    <cellStyle name="常规 6 6" xfId="542"/>
+    <cellStyle name="常规 6 6 2" xfId="543"/>
+    <cellStyle name="常规 6 6 2 2" xfId="544"/>
+    <cellStyle name="常规 6 6 2 3" xfId="545"/>
+    <cellStyle name="常规 6 6 3" xfId="547"/>
+    <cellStyle name="常规 6 6 4" xfId="549"/>
+    <cellStyle name="常规 6 7" xfId="551"/>
+    <cellStyle name="常规 6 7 2" xfId="552"/>
+    <cellStyle name="常规 6 7 3" xfId="554"/>
+    <cellStyle name="常规 6 8" xfId="555"/>
+    <cellStyle name="常规 6 8 2" xfId="5"/>
+    <cellStyle name="常规 6 8 3" xfId="556"/>
+    <cellStyle name="常规 6 9" xfId="557"/>
+    <cellStyle name="常规 7" xfId="559"/>
+    <cellStyle name="常规 7 10" xfId="560"/>
+    <cellStyle name="常规 7 2" xfId="561"/>
+    <cellStyle name="常规 7 2 2" xfId="259"/>
+    <cellStyle name="常规 7 2 2 2" xfId="562"/>
+    <cellStyle name="常规 7 2 3" xfId="563"/>
+    <cellStyle name="常规 7 3" xfId="14"/>
+    <cellStyle name="常规 7 3 2" xfId="564"/>
+    <cellStyle name="常规 7 3 2 2" xfId="565"/>
+    <cellStyle name="常规 7 3 3" xfId="566"/>
+    <cellStyle name="常规 7 4" xfId="443"/>
+    <cellStyle name="常规 7 4 2" xfId="311"/>
+    <cellStyle name="常规 7 4 3" xfId="567"/>
+    <cellStyle name="常规 7 5" xfId="446"/>
+    <cellStyle name="常规 7 5 2" xfId="568"/>
+    <cellStyle name="常规 7 6" xfId="569"/>
+    <cellStyle name="常规 7 6 2" xfId="570"/>
+    <cellStyle name="常规 7 7" xfId="571"/>
+    <cellStyle name="常规 7 7 2" xfId="327"/>
+    <cellStyle name="常规 7 8" xfId="572"/>
+    <cellStyle name="常规 7 8 2" xfId="426"/>
+    <cellStyle name="常规 7 9" xfId="528"/>
+    <cellStyle name="常规 7 9 2" xfId="449"/>
+    <cellStyle name="常规 8" xfId="474"/>
+    <cellStyle name="常规 8 2" xfId="49"/>
+    <cellStyle name="常规 8 2 2" xfId="573"/>
+    <cellStyle name="常规 8 2 2 2" xfId="574"/>
+    <cellStyle name="常规 8 2 3" xfId="575"/>
+    <cellStyle name="常规 8 3" xfId="43"/>
+    <cellStyle name="常规 8 3 2" xfId="576"/>
+    <cellStyle name="常规 8 3 2 2" xfId="577"/>
+    <cellStyle name="常规 8 3 3" xfId="578"/>
+    <cellStyle name="常规 8 4" xfId="452"/>
+    <cellStyle name="常规 8 4 2" xfId="579"/>
+    <cellStyle name="常规 8 5" xfId="455"/>
+    <cellStyle name="常规 8 5 2" xfId="580"/>
+    <cellStyle name="常规 8 6" xfId="581"/>
+    <cellStyle name="常规 8 6 2" xfId="582"/>
+    <cellStyle name="常规 8 7" xfId="583"/>
+    <cellStyle name="常规 8 7 2" xfId="584"/>
+    <cellStyle name="常规 8 8" xfId="585"/>
+    <cellStyle name="常规 9" xfId="586"/>
+    <cellStyle name="常规 9 2" xfId="587"/>
+    <cellStyle name="常规 9 2 2" xfId="550"/>
+    <cellStyle name="常规 9 3" xfId="588"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="58"/>
+    <cellStyle name="標準 2 2" xfId="47"/>
+    <cellStyle name="標準 2 2 2" xfId="70"/>
+    <cellStyle name="標準 2 2 2 2" xfId="72"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="77"/>
+    <cellStyle name="標準 2 2 2 3" xfId="6"/>
+    <cellStyle name="標準 2 2 3" xfId="78"/>
+    <cellStyle name="標準 2 2 3 2" xfId="81"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="8"/>
+    <cellStyle name="標準 2 2 3 3" xfId="75"/>
+    <cellStyle name="標準 2 2 4" xfId="32"/>
+    <cellStyle name="標準 2 2 4 2" xfId="83"/>
+    <cellStyle name="標準 2 2 5" xfId="80"/>
+    <cellStyle name="標準 2 3" xfId="85"/>
+    <cellStyle name="標準 2 3 2" xfId="68"/>
+    <cellStyle name="標準 2 3 2 2" xfId="86"/>
+    <cellStyle name="標準 2 3 3" xfId="69"/>
+    <cellStyle name="標準 2 4" xfId="90"/>
+    <cellStyle name="標準 2 4 2" xfId="91"/>
+    <cellStyle name="標準 2 4 2 2" xfId="93"/>
+    <cellStyle name="標準 2 4 3" xfId="1"/>
+    <cellStyle name="標準 2 5" xfId="94"/>
+    <cellStyle name="標準 2 5 2" xfId="96"/>
+    <cellStyle name="標準 2 5 2 2" xfId="98"/>
+    <cellStyle name="標準 2 5 3" xfId="92"/>
+    <cellStyle name="標準 2 6" xfId="30"/>
+    <cellStyle name="標準 2 6 2" xfId="36"/>
+    <cellStyle name="標準 2 6 2 2" xfId="101"/>
+    <cellStyle name="標準 2 6 3" xfId="40"/>
+    <cellStyle name="標準 2 7" xfId="104"/>
+    <cellStyle name="標準 2 7 2" xfId="106"/>
+    <cellStyle name="標準 2 7 3" xfId="108"/>
+    <cellStyle name="標準 2 8" xfId="111"/>
+    <cellStyle name="標準 2 8 2" xfId="114"/>
+    <cellStyle name="標準 2 9" xfId="117"/>
+    <cellStyle name="標準 3" xfId="118"/>
+    <cellStyle name="標準 3 2" xfId="120"/>
+    <cellStyle name="標準 3 2 2" xfId="121"/>
+    <cellStyle name="標準 3 2 2 2" xfId="122"/>
+    <cellStyle name="標準 3 2 2 3" xfId="124"/>
+    <cellStyle name="標準 3 2 3" xfId="126"/>
+    <cellStyle name="標準 3 2 3 2" xfId="127"/>
+    <cellStyle name="標準 3 2 3 3" xfId="129"/>
+    <cellStyle name="標準 3 2 4" xfId="123"/>
+    <cellStyle name="標準 3 2 4 2" xfId="37"/>
+    <cellStyle name="標準 3 2 4 3" xfId="21"/>
+    <cellStyle name="標準 3 2 5" xfId="125"/>
+    <cellStyle name="標準 3 2 5 2" xfId="131"/>
+    <cellStyle name="標準 3 2 5 3" xfId="133"/>
+    <cellStyle name="標準 3 2 6" xfId="134"/>
+    <cellStyle name="標準 3 2 6 2" xfId="136"/>
+    <cellStyle name="標準 3 2 6 3" xfId="138"/>
+    <cellStyle name="標準 3 2 7" xfId="19"/>
+    <cellStyle name="標準 3 2 8" xfId="139"/>
+    <cellStyle name="標準 3 3" xfId="141"/>
+    <cellStyle name="標準 3 3 2" xfId="142"/>
+    <cellStyle name="標準 3 3 2 2" xfId="143"/>
+    <cellStyle name="標準 3 3 2 3" xfId="145"/>
+    <cellStyle name="標準 3 3 3" xfId="147"/>
+    <cellStyle name="標準 3 3 3 2" xfId="119"/>
+    <cellStyle name="標準 3 3 3 3" xfId="148"/>
+    <cellStyle name="標準 3 3 4" xfId="128"/>
+    <cellStyle name="標準 3 3 5" xfId="130"/>
+    <cellStyle name="標準 3 4" xfId="150"/>
+    <cellStyle name="標準 3 4 2" xfId="151"/>
+    <cellStyle name="標準 3 4 3" xfId="152"/>
+    <cellStyle name="標準 3 5" xfId="154"/>
+    <cellStyle name="標準 3 5 2" xfId="155"/>
+    <cellStyle name="標準 3 5 3" xfId="97"/>
+    <cellStyle name="標準 3 6" xfId="157"/>
+    <cellStyle name="標準 3 6 2" xfId="159"/>
+    <cellStyle name="標準 3 6 3" xfId="46"/>
+    <cellStyle name="標準 3 7" xfId="160"/>
+    <cellStyle name="標準 3 7 2" xfId="161"/>
+    <cellStyle name="標準 3 7 3" xfId="162"/>
+    <cellStyle name="標準 3 8" xfId="166"/>
+    <cellStyle name="標準 3 9" xfId="28"/>
+    <cellStyle name="標準 4" xfId="149"/>
+    <cellStyle name="標準 4 2" xfId="167"/>
+    <cellStyle name="標準 4 2 2" xfId="169"/>
+    <cellStyle name="標準 4 2 2 2" xfId="62"/>
+    <cellStyle name="標準 4 2 2 3" xfId="11"/>
+    <cellStyle name="標準 4 2 3" xfId="171"/>
+    <cellStyle name="標準 4 2 3 2" xfId="173"/>
+    <cellStyle name="標準 4 2 3 3" xfId="174"/>
+    <cellStyle name="標準 4 2 4" xfId="144"/>
+    <cellStyle name="標準 4 2 5" xfId="146"/>
+    <cellStyle name="標準 4 3" xfId="175"/>
+    <cellStyle name="標準 4 3 2" xfId="178"/>
+    <cellStyle name="標準 4 3 3" xfId="59"/>
+    <cellStyle name="標準 4 4" xfId="181"/>
+    <cellStyle name="標準 4 4 2" xfId="185"/>
+    <cellStyle name="標準 4 4 3" xfId="187"/>
+    <cellStyle name="標準 4 5" xfId="188"/>
+    <cellStyle name="標準 4 5 2" xfId="191"/>
+    <cellStyle name="標準 4 5 3" xfId="99"/>
+    <cellStyle name="標準 4 5 4" xfId="192"/>
+    <cellStyle name="標準 4 6" xfId="194"/>
+    <cellStyle name="標準 4 7" xfId="13"/>
+    <cellStyle name="標準 5" xfId="195"/>
+    <cellStyle name="標準 5 2" xfId="51"/>
+    <cellStyle name="標準 5 3" xfId="54"/>
+    <cellStyle name="標準 6" xfId="198"/>
+    <cellStyle name="標準 6 2" xfId="200"/>
+    <cellStyle name="標準 6 3" xfId="204"/>
+    <cellStyle name="標準 7" xfId="209"/>
+    <cellStyle name="標準 8" xfId="211"/>
+    <cellStyle name="超链接 10" xfId="589"/>
+    <cellStyle name="超链接 2" xfId="591"/>
+    <cellStyle name="超链接 2 2" xfId="592"/>
+    <cellStyle name="超链接 2 2 2" xfId="593"/>
+    <cellStyle name="超链接 2 2 2 2" xfId="594"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="538"/>
+    <cellStyle name="超链接 2 2 2 2 2 2" xfId="595"/>
+    <cellStyle name="超链接 2 2 2 2 2 3" xfId="596"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="540"/>
+    <cellStyle name="超链接 2 2 2 2 4" xfId="597"/>
+    <cellStyle name="超链接 2 2 2 3" xfId="598"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="546"/>
+    <cellStyle name="超链接 2 2 2 3 2 2" xfId="599"/>
+    <cellStyle name="超链接 2 2 2 3 2 3" xfId="600"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="548"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="53"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="553"/>
+    <cellStyle name="超链接 2 2 2 4 3" xfId="601"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="57"/>
+    <cellStyle name="超链接 2 2 3" xfId="602"/>
+    <cellStyle name="超链接 2 2 3 2" xfId="603"/>
+    <cellStyle name="超链接 2 2 3 2 2" xfId="604"/>
+    <cellStyle name="超链接 2 2 3 2 3" xfId="605"/>
+    <cellStyle name="超链接 2 2 3 3" xfId="606"/>
+    <cellStyle name="超链接 2 2 3 4" xfId="607"/>
+    <cellStyle name="超链接 2 2 4" xfId="487"/>
+    <cellStyle name="超链接 2 2 4 2" xfId="489"/>
+    <cellStyle name="超链接 2 2 4 2 2" xfId="608"/>
+    <cellStyle name="超链接 2 2 4 2 3" xfId="609"/>
+    <cellStyle name="超链接 2 2 4 3" xfId="610"/>
+    <cellStyle name="超链接 2 2 4 4" xfId="611"/>
+    <cellStyle name="超链接 2 2 5" xfId="491"/>
+    <cellStyle name="超链接 2 2 5 2" xfId="612"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="614"/>
+    <cellStyle name="超链接 2 2 6" xfId="615"/>
+    <cellStyle name="超链接 2 2 6 2" xfId="616"/>
+    <cellStyle name="超链接 2 2 6 3" xfId="617"/>
+    <cellStyle name="超链接 2 2 7" xfId="618"/>
+    <cellStyle name="超链接 2 3" xfId="619"/>
+    <cellStyle name="超链接 2 3 2" xfId="620"/>
+    <cellStyle name="超链接 2 3 2 2" xfId="621"/>
+    <cellStyle name="超链接 2 3 2 2 2" xfId="622"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="7"/>
+    <cellStyle name="超链接 2 3 2 3" xfId="623"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="34"/>
+    <cellStyle name="超链接 2 3 3" xfId="624"/>
+    <cellStyle name="超链接 2 3 3 2" xfId="625"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="613"/>
+    <cellStyle name="超链接 2 3 3 2 3" xfId="626"/>
+    <cellStyle name="超链接 2 3 3 3" xfId="627"/>
+    <cellStyle name="超链接 2 3 4" xfId="494"/>
+    <cellStyle name="超链接 2 3 4 2" xfId="628"/>
+    <cellStyle name="超链接 2 3 4 3" xfId="629"/>
+    <cellStyle name="超链接 2 3 5" xfId="630"/>
+    <cellStyle name="超链接 2 4" xfId="631"/>
+    <cellStyle name="超链接 2 4 2" xfId="632"/>
+    <cellStyle name="超链接 2 4 2 2" xfId="633"/>
+    <cellStyle name="超链接 2 4 2 3" xfId="634"/>
+    <cellStyle name="超链接 2 4 3" xfId="635"/>
+    <cellStyle name="超链接 2 4 4" xfId="497"/>
+    <cellStyle name="超链接 2 5" xfId="636"/>
+    <cellStyle name="超链接 2 5 2" xfId="637"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="558"/>
+    <cellStyle name="超链接 2 5 2 3" xfId="473"/>
+    <cellStyle name="超链接 2 5 3" xfId="590"/>
+    <cellStyle name="超链接 2 5 4" xfId="500"/>
+    <cellStyle name="超链接 2 6" xfId="244"/>
+    <cellStyle name="超链接 2 6 2" xfId="246"/>
+    <cellStyle name="超链接 2 6 3" xfId="330"/>
+    <cellStyle name="超链接 2 7" xfId="369"/>
+    <cellStyle name="超链接 2 7 2" xfId="256"/>
+    <cellStyle name="超链接 2 7 3" xfId="375"/>
+    <cellStyle name="超链接 2 8" xfId="384"/>
+    <cellStyle name="超链接 3" xfId="499"/>
+    <cellStyle name="超链接 3 2" xfId="638"/>
+    <cellStyle name="超链接 3 2 2" xfId="639"/>
+    <cellStyle name="超链接 3 2 2 2" xfId="640"/>
+    <cellStyle name="超链接 3 2 2 3" xfId="269"/>
+    <cellStyle name="超链接 3 2 3" xfId="641"/>
+    <cellStyle name="超链接 3 2 4" xfId="535"/>
+    <cellStyle name="超链接 3 3" xfId="642"/>
+    <cellStyle name="超链接 3 3 2" xfId="643"/>
+    <cellStyle name="超链接 3 3 2 2" xfId="644"/>
+    <cellStyle name="超链接 3 3 2 3" xfId="304"/>
+    <cellStyle name="超链接 3 3 3" xfId="645"/>
+    <cellStyle name="超链接 3 4" xfId="646"/>
+    <cellStyle name="超链接 3 4 2" xfId="647"/>
+    <cellStyle name="超链接 3 4 3" xfId="648"/>
+    <cellStyle name="超链接 3 5" xfId="649"/>
+    <cellStyle name="超链接 4" xfId="650"/>
+    <cellStyle name="超链接 4 2" xfId="651"/>
+    <cellStyle name="超链接 4 2 2" xfId="17"/>
+    <cellStyle name="超链接 4 3" xfId="652"/>
+    <cellStyle name="超链接 5" xfId="653"/>
+    <cellStyle name="超链接 5 2" xfId="654"/>
+    <cellStyle name="超链接 5 2 2" xfId="655"/>
+    <cellStyle name="超链接 5 2 3" xfId="656"/>
+    <cellStyle name="超链接 5 3" xfId="657"/>
+    <cellStyle name="超链接 5 4" xfId="88"/>
+    <cellStyle name="超链接 6" xfId="658"/>
+    <cellStyle name="超链接 6 2" xfId="659"/>
+    <cellStyle name="超链接 6 3" xfId="660"/>
+    <cellStyle name="超链接 7" xfId="661"/>
+    <cellStyle name="超链接 7 2" xfId="662"/>
+    <cellStyle name="超链接 7 3" xfId="663"/>
+    <cellStyle name="超链接 8" xfId="664"/>
+    <cellStyle name="超链接 9" xfId="196"/>
+    <cellStyle name="适中 2" xfId="665"/>
+    <cellStyle name="适中 2 2" xfId="666"/>
+    <cellStyle name="适中 2 2 2" xfId="667"/>
+    <cellStyle name="适中 2 2 3" xfId="351"/>
+    <cellStyle name="适中 2 3" xfId="668"/>
+    <cellStyle name="适中 2 4" xfId="669"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3796,31 +3773,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25:J25"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="7" customWidth="1"/>
-    <col min="6" max="9" width="7.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="7" customWidth="1"/>
-    <col min="12" max="15" width="7.625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="52.5" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="7"/>
+    <col min="1" max="1" width="1.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="7" customWidth="1"/>
+    <col min="6" max="9" width="7.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="7" customWidth="1"/>
+    <col min="12" max="15" width="7.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="52.44140625" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="33">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -3871,7 +3848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3906,8 +3883,8 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="41"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B3" s="59" t="str">
+    <row r="3" spans="1:17" outlineLevel="1">
+      <c r="B3" s="58" t="str">
         <f>$B$2&amp;"-1"</f>
         <v>1-1</v>
       </c>
@@ -3953,8 +3930,8 @@
       </c>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B4" s="59" t="str">
+    <row r="4" spans="1:17" outlineLevel="1">
+      <c r="B4" s="58" t="str">
         <f>$B$2&amp;"-2"</f>
         <v>1-2</v>
       </c>
@@ -4002,8 +3979,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B5" s="59" t="str">
+    <row r="5" spans="1:17" outlineLevel="1">
+      <c r="B5" s="58" t="str">
         <f>$B$2&amp;"-3"</f>
         <v>1-3</v>
       </c>
@@ -4047,8 +4024,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B6" s="59" t="str">
+    <row r="6" spans="1:17" outlineLevel="1">
+      <c r="B6" s="58" t="str">
         <f>$B$2&amp;"-4"</f>
         <v>1-4</v>
       </c>
@@ -4096,8 +4073,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B7" s="59" t="str">
+    <row r="7" spans="1:17" outlineLevel="1">
+      <c r="B7" s="58" t="str">
         <f>$B$2&amp;"-5"</f>
         <v>1-5</v>
       </c>
@@ -4141,8 +4118,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B8" s="59" t="str">
+    <row r="8" spans="1:17" outlineLevel="1">
+      <c r="B8" s="58" t="str">
         <f>$B$2&amp;"-6"</f>
         <v>1-6</v>
       </c>
@@ -4184,7 +4161,7 @@
       </c>
       <c r="Q8" s="42"/>
     </row>
-    <row r="9" spans="1:17" ht="17.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -4228,8 +4205,8 @@
       </c>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" ht="17.25">
-      <c r="B10" s="59" t="str">
+    <row r="10" spans="1:17">
+      <c r="B10" s="58" t="str">
         <f>$B$9&amp;"-1"</f>
         <v>2-1</v>
       </c>
@@ -4263,8 +4240,8 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="43"/>
     </row>
-    <row r="11" spans="1:17" ht="17.25">
-      <c r="B11" s="59" t="str">
+    <row r="11" spans="1:17">
+      <c r="B11" s="58" t="str">
         <f t="shared" ref="B11:B33" si="0">$B$9&amp;"-2"</f>
         <v>2-2</v>
       </c>
@@ -4283,8 +4260,14 @@
         <f>MAX(G12:G33)</f>
         <v>44853</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="H11" s="25">
+        <f>MIN(H12:H33)</f>
+        <v>44848</v>
+      </c>
+      <c r="I11" s="25">
+        <f>MAX(I12:I33)</f>
+        <v>44851</v>
+      </c>
       <c r="J11" s="38">
         <f>MIN(J12:J33)</f>
         <v>0</v>
@@ -4306,8 +4289,8 @@
       </c>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B12" s="59" t="str">
+    <row r="12" spans="1:17" outlineLevel="1">
+      <c r="B12" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4343,8 +4326,8 @@
       </c>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B13" s="59" t="str">
+    <row r="13" spans="1:17" outlineLevel="1">
+      <c r="B13" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4380,8 +4363,8 @@
       </c>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B14" s="59" t="str">
+    <row r="14" spans="1:17" outlineLevel="1">
+      <c r="B14" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4419,10 +4402,10 @@
       <c r="P14" s="37">
         <v>0</v>
       </c>
-      <c r="Q14" s="44"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B15" s="59" t="str">
+      <c r="Q14" s="60"/>
+    </row>
+    <row r="15" spans="1:17" outlineLevel="1">
+      <c r="B15" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4462,8 +4445,8 @@
       </c>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B16" s="59" t="str">
+    <row r="16" spans="1:17" outlineLevel="1">
+      <c r="B16" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4503,8 +4486,8 @@
       </c>
       <c r="Q16" s="42"/>
     </row>
-    <row r="17" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B17" s="59" t="str">
+    <row r="17" spans="2:17" outlineLevel="1">
+      <c r="B17" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4544,8 +4527,8 @@
       </c>
       <c r="Q17" s="42"/>
     </row>
-    <row r="18" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B18" s="59" t="str">
+    <row r="18" spans="2:17" outlineLevel="1">
+      <c r="B18" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4581,8 +4564,8 @@
       </c>
       <c r="Q18" s="42"/>
     </row>
-    <row r="19" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B19" s="59" t="str">
+    <row r="19" spans="2:17" outlineLevel="1">
+      <c r="B19" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4618,8 +4601,8 @@
       </c>
       <c r="Q19" s="42"/>
     </row>
-    <row r="20" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B20" s="59" t="str">
+    <row r="20" spans="2:17" outlineLevel="1">
+      <c r="B20" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4655,8 +4638,8 @@
       </c>
       <c r="Q20" s="42"/>
     </row>
-    <row r="21" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B21" s="59" t="str">
+    <row r="21" spans="2:17" outlineLevel="1">
+      <c r="B21" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4692,8 +4675,8 @@
       </c>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B22" s="59" t="str">
+    <row r="22" spans="2:17" outlineLevel="1">
+      <c r="B22" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4733,8 +4716,8 @@
       </c>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B23" s="59" t="str">
+    <row r="23" spans="2:17" outlineLevel="1">
+      <c r="B23" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4774,8 +4757,8 @@
       </c>
       <c r="Q23" s="42"/>
     </row>
-    <row r="24" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B24" s="59" t="str">
+    <row r="24" spans="2:17" outlineLevel="1">
+      <c r="B24" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4811,8 +4794,8 @@
       </c>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B25" s="59" t="str">
+    <row r="25" spans="2:17" outlineLevel="1">
+      <c r="B25" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4852,8 +4835,8 @@
       </c>
       <c r="Q25" s="42"/>
     </row>
-    <row r="26" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B26" s="59" t="str">
+    <row r="26" spans="2:17" outlineLevel="1">
+      <c r="B26" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4889,8 +4872,8 @@
       </c>
       <c r="Q26" s="42"/>
     </row>
-    <row r="27" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B27" s="59" t="str">
+    <row r="27" spans="2:17" outlineLevel="1">
+      <c r="B27" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4930,8 +4913,8 @@
       </c>
       <c r="Q27" s="42"/>
     </row>
-    <row r="28" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B28" s="59" t="str">
+    <row r="28" spans="2:17" outlineLevel="1">
+      <c r="B28" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4971,8 +4954,8 @@
       </c>
       <c r="Q28" s="42"/>
     </row>
-    <row r="29" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B29" s="59" t="str">
+    <row r="29" spans="2:17" outlineLevel="1">
+      <c r="B29" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5008,8 +4991,8 @@
       </c>
       <c r="Q29" s="42"/>
     </row>
-    <row r="30" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B30" s="59" t="str">
+    <row r="30" spans="2:17" outlineLevel="1">
+      <c r="B30" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5049,8 +5032,8 @@
       </c>
       <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B31" s="59" t="str">
+    <row r="31" spans="2:17" outlineLevel="1">
+      <c r="B31" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5086,8 +5069,8 @@
       </c>
       <c r="Q31" s="42"/>
     </row>
-    <row r="32" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B32" s="59" t="str">
+    <row r="32" spans="2:17" outlineLevel="1">
+      <c r="B32" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5123,8 +5106,8 @@
       </c>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B33" s="59" t="str">
+    <row r="33" spans="1:17" outlineLevel="1">
+      <c r="B33" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5160,7 +5143,7 @@
       </c>
       <c r="Q33" s="42"/>
     </row>
-    <row r="34" spans="1:17" ht="17.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -5202,10 +5185,10 @@
         <f>MIN(P35:P58)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="45"/>
-    </row>
-    <row r="35" spans="1:17" ht="17.25">
-      <c r="B35" s="59" t="str">
+      <c r="Q34" s="44"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="B35" s="58" t="str">
         <f>$B$34&amp;"-1"</f>
         <v>3-1</v>
       </c>
@@ -5235,8 +5218,8 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:17" ht="17.25">
-      <c r="B36" s="59" t="str">
+    <row r="36" spans="1:17">
+      <c r="B36" s="58" t="str">
         <f>$B$34&amp;"-2"</f>
         <v>3-2</v>
       </c>
@@ -5278,8 +5261,8 @@
       </c>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B37" s="59" t="str">
+    <row r="37" spans="1:17" outlineLevel="1">
+      <c r="B37" s="58" t="str">
         <f t="shared" ref="B37:B58" si="1">$B$34&amp;"-2"</f>
         <v>3-2</v>
       </c>
@@ -5315,8 +5298,8 @@
       </c>
       <c r="Q37" s="42"/>
     </row>
-    <row r="38" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B38" s="59" t="str">
+    <row r="38" spans="1:17" outlineLevel="1">
+      <c r="B38" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5352,8 +5335,8 @@
       </c>
       <c r="Q38" s="42"/>
     </row>
-    <row r="39" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B39" s="59" t="str">
+    <row r="39" spans="1:17" outlineLevel="1">
+      <c r="B39" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5389,8 +5372,8 @@
       </c>
       <c r="Q39" s="42"/>
     </row>
-    <row r="40" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B40" s="59" t="str">
+    <row r="40" spans="1:17" outlineLevel="1">
+      <c r="B40" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5426,8 +5409,8 @@
       </c>
       <c r="Q40" s="42"/>
     </row>
-    <row r="41" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B41" s="59" t="str">
+    <row r="41" spans="1:17" outlineLevel="1">
+      <c r="B41" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5463,8 +5446,8 @@
       </c>
       <c r="Q41" s="42"/>
     </row>
-    <row r="42" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B42" s="59" t="str">
+    <row r="42" spans="1:17" outlineLevel="1">
+      <c r="B42" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5500,8 +5483,8 @@
       </c>
       <c r="Q42" s="42"/>
     </row>
-    <row r="43" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B43" s="59" t="str">
+    <row r="43" spans="1:17" outlineLevel="1">
+      <c r="B43" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5537,8 +5520,8 @@
       </c>
       <c r="Q43" s="42"/>
     </row>
-    <row r="44" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B44" s="59" t="str">
+    <row r="44" spans="1:17" outlineLevel="1">
+      <c r="B44" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5574,8 +5557,8 @@
       </c>
       <c r="Q44" s="42"/>
     </row>
-    <row r="45" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B45" s="59" t="str">
+    <row r="45" spans="1:17" outlineLevel="1">
+      <c r="B45" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5611,8 +5594,8 @@
       </c>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B46" s="59" t="str">
+    <row r="46" spans="1:17" outlineLevel="1">
+      <c r="B46" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5648,8 +5631,8 @@
       </c>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B47" s="59" t="str">
+    <row r="47" spans="1:17" outlineLevel="1">
+      <c r="B47" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5685,8 +5668,8 @@
       </c>
       <c r="Q47" s="42"/>
     </row>
-    <row r="48" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B48" s="59" t="str">
+    <row r="48" spans="1:17" outlineLevel="1">
+      <c r="B48" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5722,8 +5705,8 @@
       </c>
       <c r="Q48" s="42"/>
     </row>
-    <row r="49" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B49" s="59" t="str">
+    <row r="49" spans="1:17" outlineLevel="1">
+      <c r="B49" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5759,8 +5742,8 @@
       </c>
       <c r="Q49" s="42"/>
     </row>
-    <row r="50" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B50" s="59" t="str">
+    <row r="50" spans="1:17" outlineLevel="1">
+      <c r="B50" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5796,8 +5779,8 @@
       </c>
       <c r="Q50" s="42"/>
     </row>
-    <row r="51" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B51" s="59" t="str">
+    <row r="51" spans="1:17" outlineLevel="1">
+      <c r="B51" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5833,8 +5816,8 @@
       </c>
       <c r="Q51" s="42"/>
     </row>
-    <row r="52" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B52" s="59" t="str">
+    <row r="52" spans="1:17" outlineLevel="1">
+      <c r="B52" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5870,8 +5853,8 @@
       </c>
       <c r="Q52" s="42"/>
     </row>
-    <row r="53" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B53" s="59" t="str">
+    <row r="53" spans="1:17" outlineLevel="1">
+      <c r="B53" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5907,8 +5890,8 @@
       </c>
       <c r="Q53" s="42"/>
     </row>
-    <row r="54" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B54" s="59" t="str">
+    <row r="54" spans="1:17" outlineLevel="1">
+      <c r="B54" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5944,8 +5927,8 @@
       </c>
       <c r="Q54" s="42"/>
     </row>
-    <row r="55" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B55" s="59" t="str">
+    <row r="55" spans="1:17" outlineLevel="1">
+      <c r="B55" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5981,8 +5964,8 @@
       </c>
       <c r="Q55" s="42"/>
     </row>
-    <row r="56" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B56" s="59" t="str">
+    <row r="56" spans="1:17" outlineLevel="1">
+      <c r="B56" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6018,8 +6001,8 @@
       </c>
       <c r="Q56" s="42"/>
     </row>
-    <row r="57" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B57" s="59" t="str">
+    <row r="57" spans="1:17" outlineLevel="1">
+      <c r="B57" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6055,8 +6038,8 @@
       </c>
       <c r="Q57" s="42"/>
     </row>
-    <row r="58" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B58" s="59" t="str">
+    <row r="58" spans="1:17" outlineLevel="1">
+      <c r="B58" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6092,7 +6075,7 @@
       </c>
       <c r="Q58" s="42"/>
     </row>
-    <row r="59" spans="1:17" ht="17.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="5">
         <v>4</v>
       </c>
@@ -6134,10 +6117,10 @@
         <f>MIN(P61:P84)</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="45"/>
-    </row>
-    <row r="60" spans="1:17" ht="17.25">
-      <c r="B60" s="59" t="str">
+      <c r="Q59" s="44"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" s="58" t="str">
         <f>$B$59&amp;"-1"</f>
         <v>4-1</v>
       </c>
@@ -6167,8 +6150,8 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="43"/>
     </row>
-    <row r="61" spans="1:17" ht="17.25">
-      <c r="B61" s="59" t="str">
+    <row r="61" spans="1:17">
+      <c r="B61" s="58" t="str">
         <f>$B$59&amp;"-2"</f>
         <v>4-2</v>
       </c>
@@ -6198,8 +6181,8 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="43"/>
     </row>
-    <row r="62" spans="1:17" ht="17.25">
-      <c r="B62" s="59" t="str">
+    <row r="62" spans="1:17">
+      <c r="B62" s="58" t="str">
         <f>$B$59&amp;"-3"</f>
         <v>4-3</v>
       </c>
@@ -6241,8 +6224,8 @@
       </c>
       <c r="Q62" s="43"/>
     </row>
-    <row r="63" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B63" s="59" t="str">
+    <row r="63" spans="1:17" outlineLevel="1">
+      <c r="B63" s="58" t="str">
         <f t="shared" ref="B63:B84" si="2">$B$59&amp;"-3"</f>
         <v>4-3</v>
       </c>
@@ -6278,8 +6261,8 @@
       </c>
       <c r="Q63" s="42"/>
     </row>
-    <row r="64" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B64" s="59" t="str">
+    <row r="64" spans="1:17" outlineLevel="1">
+      <c r="B64" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6315,45 +6298,45 @@
       </c>
       <c r="Q64" s="42"/>
     </row>
-    <row r="65" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B65" s="59" t="str">
+    <row r="65" spans="2:17" outlineLevel="1">
+      <c r="B65" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="22"/>
-      <c r="E65" s="46" t="s">
+      <c r="E65" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="47">
+      <c r="F65" s="46">
         <v>44851</v>
       </c>
-      <c r="G65" s="47">
+      <c r="G65" s="46">
         <v>44854</v>
       </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="49">
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="48">
         <v>1</v>
       </c>
-      <c r="K65" s="46"/>
-      <c r="L65" s="47">
+      <c r="K65" s="45"/>
+      <c r="L65" s="46">
         <v>44851</v>
       </c>
-      <c r="M65" s="47">
+      <c r="M65" s="46">
         <v>44854</v>
       </c>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="52" t="s">
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B66" s="59" t="str">
+    <row r="66" spans="2:17" outlineLevel="1">
+      <c r="B66" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6389,119 +6372,119 @@
       </c>
       <c r="Q66" s="42"/>
     </row>
-    <row r="67" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B67" s="59" t="str">
+    <row r="67" spans="2:17" outlineLevel="1">
+      <c r="B67" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="22"/>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F67" s="46">
         <v>44851</v>
       </c>
-      <c r="G67" s="47">
+      <c r="G67" s="46">
         <v>44854</v>
       </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="49">
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="48">
         <v>1</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="47">
+      <c r="K67" s="45"/>
+      <c r="L67" s="46">
         <v>44851</v>
       </c>
-      <c r="M67" s="47">
+      <c r="M67" s="46">
         <v>44854</v>
       </c>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="52" t="s">
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B68" s="59" t="str">
+    <row r="68" spans="2:17" outlineLevel="1">
+      <c r="B68" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="22"/>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F68" s="46">
         <v>44851</v>
       </c>
-      <c r="G68" s="47">
+      <c r="G68" s="46">
         <v>44854</v>
       </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="49">
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="48">
         <v>1</v>
       </c>
-      <c r="K68" s="46"/>
-      <c r="L68" s="47">
+      <c r="K68" s="45"/>
+      <c r="L68" s="46">
         <v>44851</v>
       </c>
-      <c r="M68" s="47">
+      <c r="M68" s="46">
         <v>44854</v>
       </c>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="52" t="s">
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B69" s="59" t="str">
+    <row r="69" spans="2:17" outlineLevel="1">
+      <c r="B69" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="46">
         <v>44851</v>
       </c>
-      <c r="G69" s="47">
+      <c r="G69" s="46">
         <v>44854</v>
       </c>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="49">
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="48">
         <v>1</v>
       </c>
-      <c r="K69" s="46"/>
-      <c r="L69" s="47">
+      <c r="K69" s="45"/>
+      <c r="L69" s="46">
         <v>44851</v>
       </c>
-      <c r="M69" s="47">
+      <c r="M69" s="46">
         <v>44854</v>
       </c>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="52" t="s">
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B70" s="59" t="str">
+    <row r="70" spans="2:17" outlineLevel="1">
+      <c r="B70" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6537,8 +6520,8 @@
       </c>
       <c r="Q70" s="42"/>
     </row>
-    <row r="71" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B71" s="59" t="str">
+    <row r="71" spans="2:17" outlineLevel="1">
+      <c r="B71" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6574,8 +6557,8 @@
       </c>
       <c r="Q71" s="42"/>
     </row>
-    <row r="72" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B72" s="59" t="str">
+    <row r="72" spans="2:17" outlineLevel="1">
+      <c r="B72" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6611,8 +6594,8 @@
       </c>
       <c r="Q72" s="42"/>
     </row>
-    <row r="73" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B73" s="59" t="str">
+    <row r="73" spans="2:17" outlineLevel="1">
+      <c r="B73" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6648,8 +6631,8 @@
       </c>
       <c r="Q73" s="42"/>
     </row>
-    <row r="74" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B74" s="59" t="str">
+    <row r="74" spans="2:17" outlineLevel="1">
+      <c r="B74" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6685,82 +6668,82 @@
       </c>
       <c r="Q74" s="42"/>
     </row>
-    <row r="75" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B75" s="59" t="str">
+    <row r="75" spans="2:17" outlineLevel="1">
+      <c r="B75" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="46" t="s">
+      <c r="E75" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="46">
         <v>44851</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="46">
         <v>44854</v>
       </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="49">
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="48">
         <v>1</v>
       </c>
-      <c r="K75" s="46"/>
-      <c r="L75" s="47">
+      <c r="K75" s="45"/>
+      <c r="L75" s="46">
         <v>44851</v>
       </c>
-      <c r="M75" s="47">
+      <c r="M75" s="46">
         <v>44854</v>
       </c>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="52" t="s">
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B76" s="59" t="str">
+    <row r="76" spans="2:17" outlineLevel="1">
+      <c r="B76" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="22"/>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="46">
         <v>44851</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="46">
         <v>44854</v>
       </c>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="49">
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="48">
         <v>1</v>
       </c>
-      <c r="K76" s="46"/>
-      <c r="L76" s="47">
+      <c r="K76" s="45"/>
+      <c r="L76" s="46">
         <v>44851</v>
       </c>
-      <c r="M76" s="47">
+      <c r="M76" s="46">
         <v>44854</v>
       </c>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="52" t="s">
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B77" s="59" t="str">
+    <row r="77" spans="2:17" outlineLevel="1">
+      <c r="B77" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6796,45 +6779,45 @@
       </c>
       <c r="Q77" s="42"/>
     </row>
-    <row r="78" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B78" s="59" t="str">
+    <row r="78" spans="2:17" outlineLevel="1">
+      <c r="B78" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="22"/>
-      <c r="E78" s="46" t="s">
+      <c r="E78" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="47">
+      <c r="F78" s="46">
         <v>44851</v>
       </c>
-      <c r="G78" s="47">
+      <c r="G78" s="46">
         <v>44854</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="49">
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="48">
         <v>1</v>
       </c>
-      <c r="K78" s="46"/>
-      <c r="L78" s="47">
+      <c r="K78" s="45"/>
+      <c r="L78" s="46">
         <v>44851</v>
       </c>
-      <c r="M78" s="47">
+      <c r="M78" s="46">
         <v>44854</v>
       </c>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="52" t="s">
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B79" s="59" t="str">
+    <row r="79" spans="2:17" outlineLevel="1">
+      <c r="B79" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6870,8 +6853,8 @@
       </c>
       <c r="Q79" s="42"/>
     </row>
-    <row r="80" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B80" s="59" t="str">
+    <row r="80" spans="2:17" outlineLevel="1">
+      <c r="B80" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6907,8 +6890,8 @@
       </c>
       <c r="Q80" s="42"/>
     </row>
-    <row r="81" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B81" s="59" t="str">
+    <row r="81" spans="1:17" outlineLevel="1">
+      <c r="B81" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6944,8 +6927,8 @@
       </c>
       <c r="Q81" s="42"/>
     </row>
-    <row r="82" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B82" s="59" t="str">
+    <row r="82" spans="1:17" outlineLevel="1">
+      <c r="B82" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6981,8 +6964,8 @@
       </c>
       <c r="Q82" s="42"/>
     </row>
-    <row r="83" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B83" s="59" t="str">
+    <row r="83" spans="1:17" outlineLevel="1">
+      <c r="B83" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7018,44 +7001,44 @@
       </c>
       <c r="Q83" s="42"/>
     </row>
-    <row r="84" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B84" s="59" t="str">
+    <row r="84" spans="1:17" outlineLevel="1">
+      <c r="B84" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F84" s="47">
+      <c r="F84" s="46">
         <v>44851</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="46">
         <v>44854</v>
       </c>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="49">
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="48">
         <v>1</v>
       </c>
-      <c r="K84" s="46"/>
-      <c r="L84" s="47">
+      <c r="K84" s="45"/>
+      <c r="L84" s="46">
         <v>44851</v>
       </c>
-      <c r="M84" s="47">
+      <c r="M84" s="46">
         <v>44854</v>
       </c>
-      <c r="N84" s="47"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="52" t="s">
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="17.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="5">
         <v>5</v>
       </c>
@@ -7101,8 +7084,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="17.25">
-      <c r="B86" s="59" t="str">
+    <row r="86" spans="1:17">
+      <c r="B86" s="58" t="str">
         <f>$B$85&amp;"-1"</f>
         <v>5-1</v>
       </c>
@@ -7136,8 +7119,8 @@
       <c r="P86" s="38"/>
       <c r="Q86" s="43"/>
     </row>
-    <row r="87" spans="1:17" ht="17.25">
-      <c r="B87" s="59" t="str">
+    <row r="87" spans="1:17">
+      <c r="B87" s="58" t="str">
         <f t="shared" ref="B87:B109" si="3">$B$85&amp;"-2"</f>
         <v>5-2</v>
       </c>
@@ -7179,8 +7162,8 @@
       </c>
       <c r="Q87" s="43"/>
     </row>
-    <row r="88" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B88" s="59" t="str">
+    <row r="88" spans="1:17" outlineLevel="1">
+      <c r="B88" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7216,8 +7199,8 @@
       </c>
       <c r="Q88" s="42"/>
     </row>
-    <row r="89" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B89" s="59" t="str">
+    <row r="89" spans="1:17" outlineLevel="1">
+      <c r="B89" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7253,8 +7236,8 @@
       </c>
       <c r="Q89" s="42"/>
     </row>
-    <row r="90" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B90" s="59" t="str">
+    <row r="90" spans="1:17" outlineLevel="1">
+      <c r="B90" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7290,8 +7273,8 @@
       </c>
       <c r="Q90" s="42"/>
     </row>
-    <row r="91" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B91" s="59" t="str">
+    <row r="91" spans="1:17" outlineLevel="1">
+      <c r="B91" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7327,8 +7310,8 @@
       </c>
       <c r="Q91" s="42"/>
     </row>
-    <row r="92" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B92" s="59" t="str">
+    <row r="92" spans="1:17" outlineLevel="1">
+      <c r="B92" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7364,8 +7347,8 @@
       </c>
       <c r="Q92" s="42"/>
     </row>
-    <row r="93" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B93" s="59" t="str">
+    <row r="93" spans="1:17" outlineLevel="1">
+      <c r="B93" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7401,8 +7384,8 @@
       </c>
       <c r="Q93" s="42"/>
     </row>
-    <row r="94" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B94" s="59" t="str">
+    <row r="94" spans="1:17" outlineLevel="1">
+      <c r="B94" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7438,8 +7421,8 @@
       </c>
       <c r="Q94" s="42"/>
     </row>
-    <row r="95" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B95" s="59" t="str">
+    <row r="95" spans="1:17" outlineLevel="1">
+      <c r="B95" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7475,8 +7458,8 @@
       </c>
       <c r="Q95" s="42"/>
     </row>
-    <row r="96" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B96" s="59" t="str">
+    <row r="96" spans="1:17" outlineLevel="1">
+      <c r="B96" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7512,8 +7495,8 @@
       </c>
       <c r="Q96" s="42"/>
     </row>
-    <row r="97" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B97" s="59" t="str">
+    <row r="97" spans="1:17" outlineLevel="1">
+      <c r="B97" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7549,8 +7532,8 @@
       </c>
       <c r="Q97" s="42"/>
     </row>
-    <row r="98" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B98" s="59" t="str">
+    <row r="98" spans="1:17" outlineLevel="1">
+      <c r="B98" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7586,8 +7569,8 @@
       </c>
       <c r="Q98" s="42"/>
     </row>
-    <row r="99" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B99" s="59" t="str">
+    <row r="99" spans="1:17" outlineLevel="1">
+      <c r="B99" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7623,8 +7606,8 @@
       </c>
       <c r="Q99" s="42"/>
     </row>
-    <row r="100" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B100" s="59" t="str">
+    <row r="100" spans="1:17" outlineLevel="1">
+      <c r="B100" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7660,8 +7643,8 @@
       </c>
       <c r="Q100" s="42"/>
     </row>
-    <row r="101" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B101" s="59" t="str">
+    <row r="101" spans="1:17" outlineLevel="1">
+      <c r="B101" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7697,8 +7680,8 @@
       </c>
       <c r="Q101" s="42"/>
     </row>
-    <row r="102" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B102" s="59" t="str">
+    <row r="102" spans="1:17" outlineLevel="1">
+      <c r="B102" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7734,8 +7717,8 @@
       </c>
       <c r="Q102" s="42"/>
     </row>
-    <row r="103" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B103" s="59" t="str">
+    <row r="103" spans="1:17" outlineLevel="1">
+      <c r="B103" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7771,8 +7754,8 @@
       </c>
       <c r="Q103" s="42"/>
     </row>
-    <row r="104" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B104" s="59" t="str">
+    <row r="104" spans="1:17" outlineLevel="1">
+      <c r="B104" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7808,8 +7791,8 @@
       </c>
       <c r="Q104" s="42"/>
     </row>
-    <row r="105" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B105" s="59" t="str">
+    <row r="105" spans="1:17" outlineLevel="1">
+      <c r="B105" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7845,8 +7828,8 @@
       </c>
       <c r="Q105" s="42"/>
     </row>
-    <row r="106" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B106" s="59" t="str">
+    <row r="106" spans="1:17" outlineLevel="1">
+      <c r="B106" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7882,8 +7865,8 @@
       </c>
       <c r="Q106" s="42"/>
     </row>
-    <row r="107" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B107" s="59" t="str">
+    <row r="107" spans="1:17" outlineLevel="1">
+      <c r="B107" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7919,8 +7902,8 @@
       </c>
       <c r="Q107" s="42"/>
     </row>
-    <row r="108" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B108" s="59" t="str">
+    <row r="108" spans="1:17" outlineLevel="1">
+      <c r="B108" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7956,8 +7939,8 @@
       </c>
       <c r="Q108" s="42"/>
     </row>
-    <row r="109" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B109" s="59" t="str">
+    <row r="109" spans="1:17" outlineLevel="1">
+      <c r="B109" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7993,7 +7976,7 @@
       </c>
       <c r="Q109" s="42"/>
     </row>
-    <row r="110" spans="1:17" ht="17.25">
+    <row r="110" spans="1:17">
       <c r="A110" s="5">
         <v>6</v>
       </c>
@@ -8037,8 +8020,8 @@
       </c>
       <c r="Q110" s="41"/>
     </row>
-    <row r="111" spans="1:17" ht="17.25">
-      <c r="B111" s="59" t="str">
+    <row r="111" spans="1:17">
+      <c r="B111" s="58" t="str">
         <f>$B$110&amp;"-1"</f>
         <v>6-1</v>
       </c>
@@ -8049,22 +8032,22 @@
       <c r="E111" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F111" s="48">
-        <v>44865</v>
-      </c>
-      <c r="G111" s="48">
-        <v>44865</v>
-      </c>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="50">
-        <v>0</v>
-      </c>
-      <c r="K111" s="51"/>
-      <c r="L111" s="48">
-        <v>44865</v>
-      </c>
-      <c r="M111" s="48">
+      <c r="F111" s="47">
+        <v>44865</v>
+      </c>
+      <c r="G111" s="47">
+        <v>44865</v>
+      </c>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="49">
+        <v>0</v>
+      </c>
+      <c r="K111" s="50"/>
+      <c r="L111" s="47">
+        <v>44865</v>
+      </c>
+      <c r="M111" s="47">
         <v>44865</v>
       </c>
       <c r="N111" s="25"/>
@@ -8074,8 +8057,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="17.25">
-      <c r="B112" s="59" t="str">
+    <row r="112" spans="1:17">
+      <c r="B112" s="58" t="str">
         <f t="shared" ref="B112:B134" si="4">$B$110&amp;"-2"</f>
         <v>6-2</v>
       </c>
@@ -8117,8 +8100,8 @@
       </c>
       <c r="Q112" s="43"/>
     </row>
-    <row r="113" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B113" s="59" t="str">
+    <row r="113" spans="2:17" outlineLevel="1">
+      <c r="B113" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8154,8 +8137,8 @@
       </c>
       <c r="Q113" s="42"/>
     </row>
-    <row r="114" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B114" s="59" t="str">
+    <row r="114" spans="2:17" outlineLevel="1">
+      <c r="B114" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8191,8 +8174,8 @@
       </c>
       <c r="Q114" s="42"/>
     </row>
-    <row r="115" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B115" s="59" t="str">
+    <row r="115" spans="2:17" outlineLevel="1">
+      <c r="B115" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8228,8 +8211,8 @@
       </c>
       <c r="Q115" s="42"/>
     </row>
-    <row r="116" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B116" s="59" t="str">
+    <row r="116" spans="2:17" outlineLevel="1">
+      <c r="B116" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8265,8 +8248,8 @@
       </c>
       <c r="Q116" s="42"/>
     </row>
-    <row r="117" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B117" s="59" t="str">
+    <row r="117" spans="2:17" outlineLevel="1">
+      <c r="B117" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8302,8 +8285,8 @@
       </c>
       <c r="Q117" s="42"/>
     </row>
-    <row r="118" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B118" s="59" t="str">
+    <row r="118" spans="2:17" outlineLevel="1">
+      <c r="B118" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8339,8 +8322,8 @@
       </c>
       <c r="Q118" s="42"/>
     </row>
-    <row r="119" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B119" s="59" t="str">
+    <row r="119" spans="2:17" outlineLevel="1">
+      <c r="B119" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8376,8 +8359,8 @@
       </c>
       <c r="Q119" s="42"/>
     </row>
-    <row r="120" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B120" s="59" t="str">
+    <row r="120" spans="2:17" outlineLevel="1">
+      <c r="B120" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8413,8 +8396,8 @@
       </c>
       <c r="Q120" s="42"/>
     </row>
-    <row r="121" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B121" s="59" t="str">
+    <row r="121" spans="2:17" outlineLevel="1">
+      <c r="B121" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8450,8 +8433,8 @@
       </c>
       <c r="Q121" s="42"/>
     </row>
-    <row r="122" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B122" s="59" t="str">
+    <row r="122" spans="2:17" outlineLevel="1">
+      <c r="B122" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8487,8 +8470,8 @@
       </c>
       <c r="Q122" s="42"/>
     </row>
-    <row r="123" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B123" s="59" t="str">
+    <row r="123" spans="2:17" outlineLevel="1">
+      <c r="B123" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8524,8 +8507,8 @@
       </c>
       <c r="Q123" s="42"/>
     </row>
-    <row r="124" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B124" s="59" t="str">
+    <row r="124" spans="2:17" outlineLevel="1">
+      <c r="B124" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8561,8 +8544,8 @@
       </c>
       <c r="Q124" s="42"/>
     </row>
-    <row r="125" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B125" s="59" t="str">
+    <row r="125" spans="2:17" outlineLevel="1">
+      <c r="B125" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8598,8 +8581,8 @@
       </c>
       <c r="Q125" s="42"/>
     </row>
-    <row r="126" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B126" s="59" t="str">
+    <row r="126" spans="2:17" outlineLevel="1">
+      <c r="B126" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8635,8 +8618,8 @@
       </c>
       <c r="Q126" s="42"/>
     </row>
-    <row r="127" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B127" s="59" t="str">
+    <row r="127" spans="2:17" outlineLevel="1">
+      <c r="B127" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8672,47 +8655,47 @@
       </c>
       <c r="Q127" s="42"/>
     </row>
-    <row r="128" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B128" s="59" t="str">
+    <row r="128" spans="2:17" outlineLevel="1">
+      <c r="B128" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
       <c r="C128" s="26"/>
       <c r="D128" s="22"/>
-      <c r="E128" s="46" t="s">
+      <c r="E128" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F128" s="47">
+      <c r="F128" s="46">
         <v>44859</v>
       </c>
-      <c r="G128" s="47">
-        <v>44865</v>
-      </c>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
-      <c r="J128" s="49">
+      <c r="G128" s="46">
+        <v>44865</v>
+      </c>
+      <c r="H128" s="46"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="48">
         <v>1</v>
       </c>
-      <c r="K128" s="46" t="s">
+      <c r="K128" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L128" s="47">
+      <c r="L128" s="46">
         <v>44859</v>
       </c>
-      <c r="M128" s="47">
-        <v>44865</v>
-      </c>
-      <c r="N128" s="47"/>
-      <c r="O128" s="47"/>
-      <c r="P128" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="52" t="s">
+      <c r="M128" s="46">
+        <v>44865</v>
+      </c>
+      <c r="N128" s="46"/>
+      <c r="O128" s="46"/>
+      <c r="P128" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B129" s="59" t="str">
+    <row r="129" spans="1:17" outlineLevel="1">
+      <c r="B129" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8748,8 +8731,8 @@
       </c>
       <c r="Q129" s="42"/>
     </row>
-    <row r="130" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B130" s="59" t="str">
+    <row r="130" spans="1:17" outlineLevel="1">
+      <c r="B130" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8785,8 +8768,8 @@
       </c>
       <c r="Q130" s="42"/>
     </row>
-    <row r="131" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B131" s="59" t="str">
+    <row r="131" spans="1:17" outlineLevel="1">
+      <c r="B131" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8822,8 +8805,8 @@
       </c>
       <c r="Q131" s="42"/>
     </row>
-    <row r="132" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B132" s="59" t="str">
+    <row r="132" spans="1:17" outlineLevel="1">
+      <c r="B132" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8859,8 +8842,8 @@
       </c>
       <c r="Q132" s="42"/>
     </row>
-    <row r="133" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B133" s="59" t="str">
+    <row r="133" spans="1:17" outlineLevel="1">
+      <c r="B133" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8896,8 +8879,8 @@
       </c>
       <c r="Q133" s="42"/>
     </row>
-    <row r="134" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B134" s="59" t="str">
+    <row r="134" spans="1:17" outlineLevel="1">
+      <c r="B134" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8933,7 +8916,7 @@
       </c>
       <c r="Q134" s="42"/>
     </row>
-    <row r="135" spans="1:17" ht="17.25">
+    <row r="135" spans="1:17">
       <c r="A135" s="5">
         <v>7</v>
       </c>
@@ -8977,8 +8960,8 @@
       </c>
       <c r="Q135" s="41"/>
     </row>
-    <row r="136" spans="1:17" ht="17.25">
-      <c r="B136" s="59" t="str">
+    <row r="136" spans="1:17">
+      <c r="B136" s="58" t="str">
         <f>$B$135&amp;"-1"</f>
         <v>7-1</v>
       </c>
@@ -9012,8 +8995,8 @@
       <c r="P136" s="38"/>
       <c r="Q136" s="43"/>
     </row>
-    <row r="137" spans="1:17" ht="17.25">
-      <c r="B137" s="59" t="str">
+    <row r="137" spans="1:17">
+      <c r="B137" s="58" t="str">
         <f>$B$135&amp;"-2"</f>
         <v>7-2</v>
       </c>
@@ -9055,8 +9038,8 @@
       </c>
       <c r="Q137" s="43"/>
     </row>
-    <row r="138" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B138" s="59" t="str">
+    <row r="138" spans="1:17" outlineLevel="1">
+      <c r="B138" s="58" t="str">
         <f t="shared" ref="B138:B159" si="5">$B$135&amp;"-2"</f>
         <v>7-2</v>
       </c>
@@ -9092,8 +9075,8 @@
       </c>
       <c r="Q138" s="42"/>
     </row>
-    <row r="139" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B139" s="59" t="str">
+    <row r="139" spans="1:17" outlineLevel="1">
+      <c r="B139" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9129,8 +9112,8 @@
       </c>
       <c r="Q139" s="42"/>
     </row>
-    <row r="140" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B140" s="59" t="str">
+    <row r="140" spans="1:17" outlineLevel="1">
+      <c r="B140" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9166,8 +9149,8 @@
       </c>
       <c r="Q140" s="42"/>
     </row>
-    <row r="141" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B141" s="59" t="str">
+    <row r="141" spans="1:17" outlineLevel="1">
+      <c r="B141" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9203,8 +9186,8 @@
       </c>
       <c r="Q141" s="42"/>
     </row>
-    <row r="142" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B142" s="59" t="str">
+    <row r="142" spans="1:17" outlineLevel="1">
+      <c r="B142" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9240,8 +9223,8 @@
       </c>
       <c r="Q142" s="42"/>
     </row>
-    <row r="143" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B143" s="59" t="str">
+    <row r="143" spans="1:17" outlineLevel="1">
+      <c r="B143" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9277,8 +9260,8 @@
       </c>
       <c r="Q143" s="42"/>
     </row>
-    <row r="144" spans="1:17" ht="17.25" outlineLevel="1">
-      <c r="B144" s="59" t="str">
+    <row r="144" spans="1:17" outlineLevel="1">
+      <c r="B144" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9314,8 +9297,8 @@
       </c>
       <c r="Q144" s="42"/>
     </row>
-    <row r="145" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B145" s="59" t="str">
+    <row r="145" spans="2:17" outlineLevel="1">
+      <c r="B145" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9351,8 +9334,8 @@
       </c>
       <c r="Q145" s="42"/>
     </row>
-    <row r="146" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B146" s="59" t="str">
+    <row r="146" spans="2:17" outlineLevel="1">
+      <c r="B146" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9388,8 +9371,8 @@
       </c>
       <c r="Q146" s="42"/>
     </row>
-    <row r="147" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B147" s="59" t="str">
+    <row r="147" spans="2:17" outlineLevel="1">
+      <c r="B147" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9425,8 +9408,8 @@
       </c>
       <c r="Q147" s="42"/>
     </row>
-    <row r="148" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B148" s="59" t="str">
+    <row r="148" spans="2:17" outlineLevel="1">
+      <c r="B148" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9462,8 +9445,8 @@
       </c>
       <c r="Q148" s="42"/>
     </row>
-    <row r="149" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B149" s="59" t="str">
+    <row r="149" spans="2:17" outlineLevel="1">
+      <c r="B149" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9499,8 +9482,8 @@
       </c>
       <c r="Q149" s="42"/>
     </row>
-    <row r="150" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B150" s="59" t="str">
+    <row r="150" spans="2:17" outlineLevel="1">
+      <c r="B150" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9536,8 +9519,8 @@
       </c>
       <c r="Q150" s="42"/>
     </row>
-    <row r="151" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B151" s="59" t="str">
+    <row r="151" spans="2:17" outlineLevel="1">
+      <c r="B151" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9573,8 +9556,8 @@
       </c>
       <c r="Q151" s="42"/>
     </row>
-    <row r="152" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B152" s="59" t="str">
+    <row r="152" spans="2:17" outlineLevel="1">
+      <c r="B152" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9610,8 +9593,8 @@
       </c>
       <c r="Q152" s="42"/>
     </row>
-    <row r="153" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B153" s="59" t="str">
+    <row r="153" spans="2:17" outlineLevel="1">
+      <c r="B153" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9647,8 +9630,8 @@
       </c>
       <c r="Q153" s="42"/>
     </row>
-    <row r="154" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B154" s="59" t="str">
+    <row r="154" spans="2:17" outlineLevel="1">
+      <c r="B154" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9684,8 +9667,8 @@
       </c>
       <c r="Q154" s="42"/>
     </row>
-    <row r="155" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B155" s="59" t="str">
+    <row r="155" spans="2:17" outlineLevel="1">
+      <c r="B155" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9721,8 +9704,8 @@
       </c>
       <c r="Q155" s="42"/>
     </row>
-    <row r="156" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B156" s="59" t="str">
+    <row r="156" spans="2:17" outlineLevel="1">
+      <c r="B156" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9758,8 +9741,8 @@
       </c>
       <c r="Q156" s="42"/>
     </row>
-    <row r="157" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B157" s="59" t="str">
+    <row r="157" spans="2:17" outlineLevel="1">
+      <c r="B157" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9795,8 +9778,8 @@
       </c>
       <c r="Q157" s="42"/>
     </row>
-    <row r="158" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B158" s="59" t="str">
+    <row r="158" spans="2:17" outlineLevel="1">
+      <c r="B158" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9832,70 +9815,70 @@
       </c>
       <c r="Q158" s="42"/>
     </row>
-    <row r="159" spans="2:17" ht="17.25" outlineLevel="1">
-      <c r="B159" s="60" t="str">
+    <row r="159" spans="2:17" outlineLevel="1">
+      <c r="B159" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
-      <c r="C159" s="53"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="55" t="s">
+      <c r="C159" s="52"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F159" s="56">
-        <v>44865</v>
-      </c>
-      <c r="G159" s="56">
+      <c r="F159" s="55">
+        <v>44865</v>
+      </c>
+      <c r="G159" s="55">
         <v>44867</v>
       </c>
-      <c r="H159" s="56"/>
-      <c r="I159" s="56"/>
-      <c r="J159" s="57">
-        <v>0</v>
-      </c>
-      <c r="K159" s="55" t="s">
+      <c r="H159" s="55"/>
+      <c r="I159" s="55"/>
+      <c r="J159" s="56">
+        <v>0</v>
+      </c>
+      <c r="K159" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="L159" s="56">
-        <v>44865</v>
-      </c>
-      <c r="M159" s="56">
+      <c r="L159" s="55">
+        <v>44865</v>
+      </c>
+      <c r="M159" s="55">
         <v>44867</v>
       </c>
-      <c r="N159" s="56"/>
-      <c r="O159" s="56"/>
-      <c r="P159" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="58"/>
+      <c r="N159" s="55"/>
+      <c r="O159" s="55"/>
+      <c r="P159" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159">
       <formula1>rv</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -9903,7 +9886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -9914,7 +9897,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -9922,7 +9905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -9930,7 +9913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -9942,7 +9925,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9950,7 +9933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -9958,7 +9941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -10044,8 +10027,8 @@
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -401,15 +401,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
     <font>
@@ -549,7 +549,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,12 +775,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,63 +1157,63 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,25 +1228,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,60 +1268,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1361,13 +1351,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1390,42 +1380,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1450,15 +1440,15 @@
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1471,48 +1461,52 @@
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1526,6 +1520,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,13 +1530,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,21 +1551,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1586,67 +1580,70 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1686,13 +1683,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1757,7 +1751,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1767,16 +1761,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1790,16 +1784,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1827,42 +1821,45 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1884,10 +1881,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1910,6 +1904,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1927,36 +1924,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1966,10 +1954,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1982,6 +1973,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2014,28 +2008,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2054,7 +2048,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2070,47 +2064,50 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -2144,16 +2141,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2163,6 +2154,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2189,7 +2183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2239,72 +2233,72 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2371,17 +2365,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2389,7 +2383,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2399,66 +2396,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2468,7 +2462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2478,18 +2472,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2520,28 +2514,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2551,7 +2548,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2609,28 +2606,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2646,28 +2643,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2752,455 +2746,455 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3354,41 +3348,41 @@
   <cellStyles count="717">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="常规 2 2 4" xfId="5"/>
-    <cellStyle name="常规 5 9 2" xfId="6"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="標準 6 3" xfId="8"/>
-    <cellStyle name="常规 10 3" xfId="9"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="10"/>
-    <cellStyle name="常规 5 2 9" xfId="11"/>
-    <cellStyle name="常规 6 2 4 4" xfId="12"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="13"/>
-    <cellStyle name="常规 13 2" xfId="14"/>
-    <cellStyle name="常规 11 2 2" xfId="15"/>
-    <cellStyle name="千位分隔[0]" xfId="16" builtinId="6"/>
-    <cellStyle name="常规 3 4 3" xfId="17"/>
-    <cellStyle name="標準 4 2 2 3" xfId="18"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="常规 5 9 2" xfId="3"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="6"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="8"/>
+    <cellStyle name="常规 6 2 4 4" xfId="9"/>
+    <cellStyle name="常规 5 2 9" xfId="10"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="11"/>
+    <cellStyle name="常规 10 3" xfId="12"/>
+    <cellStyle name="標準 6 3" xfId="13"/>
+    <cellStyle name="常规 3 4 3" xfId="14"/>
+    <cellStyle name="千位分隔[0]" xfId="15" builtinId="6"/>
+    <cellStyle name="常规 11 2 2" xfId="16"/>
+    <cellStyle name="常规 13 2" xfId="17"/>
+    <cellStyle name="常规 7 3" xfId="18"/>
+    <cellStyle name="千位分隔" xfId="19" builtinId="3"/>
     <cellStyle name="常规 6 2 2 3 2 3" xfId="20"/>
-    <cellStyle name="差" xfId="21" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="22" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="23"/>
+    <cellStyle name="標準 4 2 2 3" xfId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="22" builtinId="39"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="24" builtinId="40"/>
     <cellStyle name="常规 3 6 3" xfId="25"/>
     <cellStyle name="超链接" xfId="26" builtinId="8"/>
     <cellStyle name="超链接 4 2 2" xfId="27"/>
     <cellStyle name="常规 2 7 3" xfId="28"/>
     <cellStyle name="百分比" xfId="29" builtinId="5"/>
-    <cellStyle name="標準 3 2 7" xfId="30"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9"/>
+    <cellStyle name="標準 3 2 7" xfId="31"/>
     <cellStyle name="注释" xfId="32" builtinId="10"/>
     <cellStyle name="常规 6" xfId="33"/>
-    <cellStyle name="標準 3 2 4 3" xfId="34"/>
-    <cellStyle name="常规 12 2 2" xfId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="36" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="34" builtinId="36"/>
+    <cellStyle name="標準 3 2 4 3" xfId="35"/>
+    <cellStyle name="常规 12 2 2" xfId="36"/>
     <cellStyle name="常规 4 12" xfId="37"/>
     <cellStyle name="常规 5 2 4" xfId="38"/>
     <cellStyle name="标题 4" xfId="39" builtinId="19"/>
@@ -3396,93 +3390,93 @@
     <cellStyle name="常规 4 2 2 3" xfId="41"/>
     <cellStyle name="常规 4 4 3" xfId="42"/>
     <cellStyle name="常规 6 5" xfId="43"/>
-    <cellStyle name="常规 5 2" xfId="44"/>
+    <cellStyle name="标题" xfId="44" builtinId="15"/>
     <cellStyle name="標準 2 6" xfId="45"/>
-    <cellStyle name="标题" xfId="46" builtinId="15"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="47"/>
-    <cellStyle name="標準 8" xfId="48"/>
-    <cellStyle name="常规 12" xfId="49"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="46"/>
+    <cellStyle name="常规 5 2" xfId="47"/>
+    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="49"/>
     <cellStyle name="常规 6 3 3 3" xfId="50"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="51"/>
-    <cellStyle name="解释性文本" xfId="52" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="53" builtinId="16"/>
+    <cellStyle name="标题 1" xfId="51" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="52" builtinId="17"/>
+    <cellStyle name="標準 2 6 2" xfId="53"/>
     <cellStyle name="常规 5 2 2" xfId="54"/>
-    <cellStyle name="標準 2 6 2" xfId="55"/>
-    <cellStyle name="标题 2" xfId="56" builtinId="17"/>
-    <cellStyle name="標準 3 2 4 2" xfId="57"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="58" builtinId="32"/>
-    <cellStyle name="常规 4 11" xfId="59"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="55" builtinId="32"/>
+    <cellStyle name="標準 3 2 4 2" xfId="56"/>
+    <cellStyle name="常规 4 11" xfId="57"/>
+    <cellStyle name="标题 3" xfId="58" builtinId="18"/>
+    <cellStyle name="標準 2 6 3" xfId="59"/>
     <cellStyle name="常规 5 2 3" xfId="60"/>
-    <cellStyle name="標準 2 6 3" xfId="61"/>
-    <cellStyle name="标题 3" xfId="62" builtinId="18"/>
-    <cellStyle name="常规 6 3 2 2" xfId="63"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="64" builtinId="44"/>
-    <cellStyle name="输出" xfId="65" builtinId="21"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="66"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="67"/>
-    <cellStyle name="计算" xfId="68" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="69" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="70" builtinId="50"/>
-    <cellStyle name="常规 8 3" xfId="71"/>
-    <cellStyle name="强调文字颜色 2" xfId="72" builtinId="33"/>
-    <cellStyle name="常规 2 2 2 5" xfId="73"/>
+    <cellStyle name="常规 6 3 2 2" xfId="61"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="62" builtinId="44"/>
+    <cellStyle name="输出" xfId="63" builtinId="21"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="64"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="65"/>
+    <cellStyle name="计算" xfId="66" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="67" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="68" builtinId="50"/>
+    <cellStyle name="常规 8 3" xfId="69"/>
+    <cellStyle name="强调文字颜色 2" xfId="70" builtinId="33"/>
+    <cellStyle name="常规 2 2 2 5" xfId="71"/>
+    <cellStyle name="链接单元格" xfId="72" builtinId="24"/>
+    <cellStyle name="標準 3 6 3" xfId="73"/>
     <cellStyle name="常规 6 2 3" xfId="74"/>
-    <cellStyle name="標準 3 6 3" xfId="75"/>
-    <cellStyle name="链接单元格" xfId="76" builtinId="24"/>
-    <cellStyle name="汇总" xfId="77" builtinId="25"/>
-    <cellStyle name="好" xfId="78" builtinId="26"/>
-    <cellStyle name="常规 3 2 6" xfId="79"/>
-    <cellStyle name="适中" xfId="80" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="81" builtinId="46"/>
-    <cellStyle name="常规 8 2" xfId="82"/>
-    <cellStyle name="强调文字颜色 1" xfId="83" builtinId="29"/>
-    <cellStyle name="常规 2 2 2 4" xfId="84"/>
+    <cellStyle name="汇总" xfId="75" builtinId="25"/>
+    <cellStyle name="好" xfId="76" builtinId="26"/>
+    <cellStyle name="常规 3 2 6" xfId="77"/>
+    <cellStyle name="适中" xfId="78" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="79" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="80"/>
+    <cellStyle name="强调文字颜色 1" xfId="81" builtinId="29"/>
+    <cellStyle name="常规 2 2 2 4" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="83" builtinId="30"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="84"/>
     <cellStyle name="標準 5 2" xfId="85"/>
     <cellStyle name="常规 6 2 3 3" xfId="86"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="88" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="89" builtinId="31"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="87" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="88" builtinId="34"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="89"/>
     <cellStyle name="標準 5 3" xfId="90"/>
     <cellStyle name="常规 2 2 2 2 2 3 2" xfId="91"/>
     <cellStyle name="常规 6 2 3 4" xfId="92"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="94" builtinId="34"/>
-    <cellStyle name="標準 4 2 2 2" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="96" builtinId="35"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="97"/>
-    <cellStyle name="强调文字颜色 3" xfId="98" builtinId="37"/>
-    <cellStyle name="常规 2 2 2 6" xfId="99"/>
-    <cellStyle name="强调文字颜色 4" xfId="100" builtinId="41"/>
-    <cellStyle name="常规 2 2 2 7" xfId="101"/>
-    <cellStyle name="常规 3 8 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="103" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="104" builtinId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="93" builtinId="35"/>
+    <cellStyle name="標準 4 2 2 2" xfId="94"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="95"/>
+    <cellStyle name="强调文字颜色 3" xfId="96" builtinId="37"/>
+    <cellStyle name="常规 2 2 2 6" xfId="97"/>
+    <cellStyle name="强调文字颜色 4" xfId="98" builtinId="41"/>
+    <cellStyle name="常规 2 2 2 7" xfId="99"/>
+    <cellStyle name="常规 3 8 2" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="101" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="102" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="103" builtinId="45"/>
+    <cellStyle name="常规 2 2 2 8" xfId="104"/>
     <cellStyle name="標準 2 3 2" xfId="105"/>
-    <cellStyle name="强调文字颜色 5" xfId="106" builtinId="45"/>
-    <cellStyle name="常规 2 2 2 8" xfId="107"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="108" builtinId="47"/>
-    <cellStyle name="常规 6 3 2 3" xfId="109"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="110" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="111" builtinId="49"/>
-    <cellStyle name="超链接 9" xfId="112"/>
-    <cellStyle name="常规 16 2" xfId="113"/>
-    <cellStyle name="標準 6" xfId="114"/>
-    <cellStyle name="常规 10" xfId="115"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="116" builtinId="51"/>
-    <cellStyle name="常规 3 2 6 2" xfId="117"/>
-    <cellStyle name="標準 6 2" xfId="118"/>
-    <cellStyle name="常规 10 2" xfId="119"/>
-    <cellStyle name="常规 5 2 8" xfId="120"/>
-    <cellStyle name="常规 6 2 4 3" xfId="121"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="122"/>
-    <cellStyle name="常规 6 3 2 4" xfId="123"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="124" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="106" builtinId="47"/>
+    <cellStyle name="常规 6 3 2 3" xfId="107"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="108" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="109" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="110" builtinId="51"/>
+    <cellStyle name="常规 3 2 6 2" xfId="111"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="112"/>
+    <cellStyle name="常规 6 3 2 4" xfId="113"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="114" builtinId="52"/>
+    <cellStyle name="標準 8" xfId="115"/>
+    <cellStyle name="常规 12" xfId="116"/>
+    <cellStyle name="標準 6" xfId="117"/>
+    <cellStyle name="常规 10" xfId="118"/>
+    <cellStyle name="超链接 9" xfId="119"/>
+    <cellStyle name="常规 16 2" xfId="120"/>
+    <cellStyle name="標準 6 2" xfId="121"/>
+    <cellStyle name="常规 10 2" xfId="122"/>
+    <cellStyle name="常规 5 2 8" xfId="123"/>
+    <cellStyle name="常规 6 2 4 3" xfId="124"/>
     <cellStyle name="常规 14" xfId="125"/>
-    <cellStyle name="常规 2 3 2 2" xfId="126"/>
-    <cellStyle name="常规 11 3" xfId="127"/>
-    <cellStyle name="常规 10 2 2" xfId="128"/>
-    <cellStyle name="常规 5 2 8 2" xfId="129"/>
-    <cellStyle name="常规 2 7" xfId="130"/>
+    <cellStyle name="常规 11 3" xfId="126"/>
+    <cellStyle name="常规 2 3 2 2" xfId="127"/>
+    <cellStyle name="常规 2 7" xfId="128"/>
+    <cellStyle name="常规 10 2 2" xfId="129"/>
+    <cellStyle name="常规 5 2 8 2" xfId="130"/>
     <cellStyle name="標準 7" xfId="131"/>
     <cellStyle name="常规 11" xfId="132"/>
     <cellStyle name="常规 13" xfId="133"/>
@@ -3490,8 +3484,8 @@
     <cellStyle name="常规 6 2 5 3" xfId="135"/>
     <cellStyle name="常规 12 2" xfId="136"/>
     <cellStyle name="常规 6 2 6 3" xfId="137"/>
-    <cellStyle name="常规 2 3 3 2" xfId="138"/>
-    <cellStyle name="常规 12 3" xfId="139"/>
+    <cellStyle name="常规 12 3" xfId="138"/>
+    <cellStyle name="常规 2 3 3 2" xfId="139"/>
     <cellStyle name="常规 14 2" xfId="140"/>
     <cellStyle name="常规 15" xfId="141"/>
     <cellStyle name="常规 15 2" xfId="142"/>
@@ -3513,8 +3507,8 @@
     <cellStyle name="超链接 2 6 2" xfId="158"/>
     <cellStyle name="常规 2 2 2" xfId="159"/>
     <cellStyle name="常规 2 2 2 2" xfId="160"/>
-    <cellStyle name="常规 2 4 4" xfId="161"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="162"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="161"/>
+    <cellStyle name="常规 2 4 4" xfId="162"/>
     <cellStyle name="常规 2 2 2 2 2 2" xfId="163"/>
     <cellStyle name="標準 4 3" xfId="164"/>
     <cellStyle name="常规 2 2 2 2 2 2 2" xfId="165"/>
@@ -3531,26 +3525,26 @@
     <cellStyle name="常规 6 2 2 5" xfId="176"/>
     <cellStyle name="標準 4 5" xfId="177"/>
     <cellStyle name="常规 2 2 2 2 2 2 4" xfId="178"/>
-    <cellStyle name="常规 6 8 3" xfId="179"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="180"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="179"/>
+    <cellStyle name="常规 6 8 3" xfId="180"/>
     <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="181"/>
     <cellStyle name="常规 2 2 2 2 2 4" xfId="182"/>
     <cellStyle name="常规 2 2 2 2 2 4 3" xfId="183"/>
-    <cellStyle name="超链接 2 7 2" xfId="184"/>
-    <cellStyle name="常规 2 3 2" xfId="185"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="186"/>
-    <cellStyle name="常规 2 4 5" xfId="187"/>
-    <cellStyle name="常规 7 2 2" xfId="188"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="189"/>
-    <cellStyle name="常规 7 2 2 2" xfId="190"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="191"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="184"/>
+    <cellStyle name="超链接 2 7 2" xfId="185"/>
+    <cellStyle name="常规 2 3 2" xfId="186"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="187"/>
+    <cellStyle name="常规 2 4 5" xfId="188"/>
+    <cellStyle name="常规 7 2 2" xfId="189"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="190"/>
+    <cellStyle name="常规 7 2 2 2" xfId="191"/>
     <cellStyle name="常规 2 2 2 2 3 2 3" xfId="192"/>
     <cellStyle name="常规 2 2 2 2 3 3" xfId="193"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="194"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="195"/>
-    <cellStyle name="常规 7 2 3" xfId="196"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="197"/>
-    <cellStyle name="常规 5 2 3 2" xfId="198"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="194"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="195"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="196"/>
+    <cellStyle name="常规 5 2 3 2" xfId="197"/>
+    <cellStyle name="常规 7 2 3" xfId="198"/>
     <cellStyle name="超链接 3 2 2 3" xfId="199"/>
     <cellStyle name="常规 2 2 2 2 4 2" xfId="200"/>
     <cellStyle name="常规 5 2 3 2 2" xfId="201"/>
@@ -3569,26 +3563,26 @@
     <cellStyle name="常规 2 2 2 2 6 3" xfId="214"/>
     <cellStyle name="常规 2 2 2 2 7" xfId="215"/>
     <cellStyle name="常规 2 2 2 3" xfId="216"/>
-    <cellStyle name="常规 2 5 4" xfId="217"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="218"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="217"/>
+    <cellStyle name="常规 2 5 4" xfId="218"/>
     <cellStyle name="常规 2 2 2 3 2 2" xfId="219"/>
     <cellStyle name="常规 2 2 2 3 2 2 3" xfId="220"/>
     <cellStyle name="常规 2 4 2" xfId="221"/>
     <cellStyle name="常规 2 2 2 3 2 3" xfId="222"/>
     <cellStyle name="常规 3 2 7 2" xfId="223"/>
     <cellStyle name="常规 2 2 2 3 2 4" xfId="224"/>
-    <cellStyle name="常规 7 3 2" xfId="225"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="226"/>
-    <cellStyle name="常规 7 3 2 2" xfId="227"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="228"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="225"/>
+    <cellStyle name="常规 7 3 2" xfId="226"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="227"/>
+    <cellStyle name="常规 7 3 2 2" xfId="228"/>
     <cellStyle name="常规 2 2 2 3 3 2 2" xfId="229"/>
     <cellStyle name="常规 2 2 2 3 3 2 3" xfId="230"/>
     <cellStyle name="常规 3 4 2" xfId="231"/>
     <cellStyle name="常规 2 2 2 3 3 3" xfId="232"/>
     <cellStyle name="常规 3 2 8 2" xfId="233"/>
-    <cellStyle name="常规 7 3 3" xfId="234"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="235"/>
-    <cellStyle name="常规 5 2 4 2" xfId="236"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="234"/>
+    <cellStyle name="常规 5 2 4 2" xfId="235"/>
+    <cellStyle name="常规 7 3 3" xfId="236"/>
     <cellStyle name="超链接 3 3 2 3" xfId="237"/>
     <cellStyle name="常规 2 2 2 3 4 2" xfId="238"/>
     <cellStyle name="常规 5 2 4 2 2" xfId="239"/>
@@ -3598,28 +3592,28 @@
     <cellStyle name="常规 2 2 2 4 2" xfId="243"/>
     <cellStyle name="標準 2 5" xfId="244"/>
     <cellStyle name="常规 2 2 2 4 2 2" xfId="245"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="246"/>
-    <cellStyle name="常规 4 5 2 2" xfId="247"/>
-    <cellStyle name="常规 7 4 2" xfId="248"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="249"/>
-    <cellStyle name="常规 7 4 3" xfId="250"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="251"/>
-    <cellStyle name="常规 5 2 5 2" xfId="252"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="246"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="247"/>
+    <cellStyle name="常规 4 5 2 2" xfId="248"/>
+    <cellStyle name="常规 7 4 2" xfId="249"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="250"/>
+    <cellStyle name="常规 5 2 5 2" xfId="251"/>
+    <cellStyle name="常规 7 4 3" xfId="252"/>
     <cellStyle name="常规 2 2 2 5 2" xfId="253"/>
     <cellStyle name="常规 2 2 2 5 2 2" xfId="254"/>
     <cellStyle name="常规 2 2 2 5 2 3" xfId="255"/>
-    <cellStyle name="常规 7 5 2" xfId="256"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="257"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="256"/>
+    <cellStyle name="常规 7 5 2" xfId="257"/>
     <cellStyle name="常规 2 2 2 5 4" xfId="258"/>
     <cellStyle name="常规 5 2 6 2" xfId="259"/>
     <cellStyle name="常规 2 2 2 6 2" xfId="260"/>
-    <cellStyle name="常规 7 6 2" xfId="261"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="262"/>
-    <cellStyle name="常规 2 5" xfId="263"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="264"/>
-    <cellStyle name="常规 2 6" xfId="265"/>
-    <cellStyle name="常规 7 7 2" xfId="266"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="267"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="261"/>
+    <cellStyle name="常规 7 6 2" xfId="262"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="263"/>
+    <cellStyle name="常规 2 5" xfId="264"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="265"/>
+    <cellStyle name="常规 2 6" xfId="266"/>
+    <cellStyle name="常规 7 7 2" xfId="267"/>
     <cellStyle name="超链接 2 6 3" xfId="268"/>
     <cellStyle name="常规 2 2 3" xfId="269"/>
     <cellStyle name="常规 2 2 3 2" xfId="270"/>
@@ -3628,37 +3622,37 @@
     <cellStyle name="常规 2 2 3 6" xfId="273"/>
     <cellStyle name="常规 2 2 3 2 2 3" xfId="274"/>
     <cellStyle name="常规 3 9 2" xfId="275"/>
-    <cellStyle name="常规 8 2 2" xfId="276"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="277"/>
-    <cellStyle name="常规 8 2 3" xfId="278"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="279"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="276"/>
+    <cellStyle name="常规 8 2 2" xfId="277"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="278"/>
+    <cellStyle name="常规 8 2 3" xfId="279"/>
     <cellStyle name="常规 2 2 3 3" xfId="280"/>
     <cellStyle name="常规 2 2 3 3 2" xfId="281"/>
     <cellStyle name="常规 2 2 3 3 2 2" xfId="282"/>
     <cellStyle name="常规 2 2 3 3 2 3" xfId="283"/>
     <cellStyle name="常规 4 2 7 2" xfId="284"/>
     <cellStyle name="常规 4 9 2" xfId="285"/>
-    <cellStyle name="常规 8 3 2" xfId="286"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="287"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="286"/>
+    <cellStyle name="常规 8 3 2" xfId="287"/>
     <cellStyle name="常规 2 2 3 4" xfId="288"/>
     <cellStyle name="常规 2 2 3 4 2" xfId="289"/>
-    <cellStyle name="常规 8 4 2" xfId="290"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="291"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="290"/>
+    <cellStyle name="常规 8 4 2" xfId="291"/>
     <cellStyle name="常规 2 2 3 5" xfId="292"/>
     <cellStyle name="常规 2 2 3 5 2" xfId="293"/>
     <cellStyle name="標準 2 2 3" xfId="294"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="295"/>
-    <cellStyle name="標準 2 2 4" xfId="296"/>
-    <cellStyle name="常规 8 5 2" xfId="297"/>
+    <cellStyle name="常规 8 5 2" xfId="295"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="296"/>
+    <cellStyle name="標準 2 2 4" xfId="297"/>
     <cellStyle name="适中 2 2 3" xfId="298"/>
     <cellStyle name="常规 2 2 4 2" xfId="299"/>
-    <cellStyle name="常规 6 6" xfId="300"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="301"/>
-    <cellStyle name="常规 3 10" xfId="302"/>
-    <cellStyle name="常规 6 7" xfId="303"/>
-    <cellStyle name="常规 9 2 2" xfId="304"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="305"/>
-    <cellStyle name="常规 3 11" xfId="306"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="300"/>
+    <cellStyle name="常规 3 10" xfId="301"/>
+    <cellStyle name="常规 6 6" xfId="302"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="303"/>
+    <cellStyle name="常规 3 11" xfId="304"/>
+    <cellStyle name="常规 6 7" xfId="305"/>
+    <cellStyle name="常规 9 2 2" xfId="306"/>
     <cellStyle name="常规 2 2 4 3" xfId="307"/>
     <cellStyle name="常规 2 2 4 4" xfId="308"/>
     <cellStyle name="常规 2 2 5" xfId="309"/>
@@ -3692,10 +3686,10 @@
     <cellStyle name="常规 2 3 5" xfId="337"/>
     <cellStyle name="常规 2 3 5 2" xfId="338"/>
     <cellStyle name="常规 2 3 5 3" xfId="339"/>
-    <cellStyle name="標準 4 5 3" xfId="340"/>
-    <cellStyle name="常规 5 2 2 2" xfId="341"/>
-    <cellStyle name="標準 2 6 2 2" xfId="342"/>
-    <cellStyle name="常规 2 3 6" xfId="343"/>
+    <cellStyle name="標準 2 6 2 2" xfId="340"/>
+    <cellStyle name="常规 2 3 6" xfId="341"/>
+    <cellStyle name="標準 4 5 3" xfId="342"/>
+    <cellStyle name="常规 5 2 2 2" xfId="343"/>
     <cellStyle name="超链接 2 8" xfId="344"/>
     <cellStyle name="常规 2 4" xfId="345"/>
     <cellStyle name="常规 2 4 2 2" xfId="346"/>
@@ -3705,8 +3699,8 @@
     <cellStyle name="常规 2 4 3 3" xfId="350"/>
     <cellStyle name="常规 2 5 2" xfId="351"/>
     <cellStyle name="常规 2 5 2 2" xfId="352"/>
-    <cellStyle name="常规 3 2 5 2" xfId="353"/>
-    <cellStyle name="常规 2 5 2 3" xfId="354"/>
+    <cellStyle name="常规 2 5 2 3" xfId="353"/>
+    <cellStyle name="常规 3 2 5 2" xfId="354"/>
     <cellStyle name="常规 2 5 3" xfId="355"/>
     <cellStyle name="常规 2 6 2" xfId="356"/>
     <cellStyle name="常规 2 6 3" xfId="357"/>
@@ -3714,12 +3708,12 @@
     <cellStyle name="常规 2 8" xfId="359"/>
     <cellStyle name="常规 3" xfId="360"/>
     <cellStyle name="常规 6 10" xfId="361"/>
-    <cellStyle name="常规 6 6 2" xfId="362"/>
-    <cellStyle name="常规 3 10 2" xfId="363"/>
-    <cellStyle name="常规 6 7 2" xfId="364"/>
-    <cellStyle name="常规 3 11 2" xfId="365"/>
-    <cellStyle name="常规 6 8" xfId="366"/>
-    <cellStyle name="常规 3 12" xfId="367"/>
+    <cellStyle name="常规 3 10 2" xfId="362"/>
+    <cellStyle name="常规 6 6 2" xfId="363"/>
+    <cellStyle name="常规 3 11 2" xfId="364"/>
+    <cellStyle name="常规 6 7 2" xfId="365"/>
+    <cellStyle name="常规 3 12" xfId="366"/>
+    <cellStyle name="常规 6 8" xfId="367"/>
     <cellStyle name="常规 3 2" xfId="368"/>
     <cellStyle name="常规 6 10 2" xfId="369"/>
     <cellStyle name="常规 3 2 2" xfId="370"/>
@@ -3751,8 +3745,8 @@
     <cellStyle name="標準 2 3 2 2" xfId="396"/>
     <cellStyle name="常规 3 5" xfId="397"/>
     <cellStyle name="常规 3 5 2" xfId="398"/>
-    <cellStyle name="常规 9 3" xfId="399"/>
-    <cellStyle name="常规 3 5 2 2" xfId="400"/>
+    <cellStyle name="常规 3 5 2 2" xfId="399"/>
+    <cellStyle name="常规 9 3" xfId="400"/>
     <cellStyle name="常规 3 5 3" xfId="401"/>
     <cellStyle name="常规 3 6" xfId="402"/>
     <cellStyle name="常规 7 8 2" xfId="403"/>
@@ -3811,15 +3805,15 @@
     <cellStyle name="常规 4 3 3" xfId="456"/>
     <cellStyle name="常规 5 5" xfId="457"/>
     <cellStyle name="常规 5" xfId="458"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="459"/>
-    <cellStyle name="常规 6 5 3" xfId="460"/>
-    <cellStyle name="常规 5 10" xfId="461"/>
+    <cellStyle name="常规 5 10" xfId="459"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="460"/>
+    <cellStyle name="常规 6 5 3" xfId="461"/>
     <cellStyle name="超链接 2 5 2 3" xfId="462"/>
     <cellStyle name="常规 5 10 2" xfId="463"/>
     <cellStyle name="常规 8" xfId="464"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="465"/>
-    <cellStyle name="常规 6 5 4" xfId="466"/>
-    <cellStyle name="常规 5 11" xfId="467"/>
+    <cellStyle name="常规 5 11" xfId="465"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="466"/>
+    <cellStyle name="常规 6 5 4" xfId="467"/>
     <cellStyle name="常规 5 2 2 2 2" xfId="468"/>
     <cellStyle name="標準 4 5 4" xfId="469"/>
     <cellStyle name="常规 5 2 2 3" xfId="470"/>
@@ -3832,8 +3826,8 @@
     <cellStyle name="常规 5 3" xfId="477"/>
     <cellStyle name="常规 5 3 2" xfId="478"/>
     <cellStyle name="常规 5 3 3" xfId="479"/>
-    <cellStyle name="常规 5 8" xfId="480"/>
-    <cellStyle name="常规 5 4 2 2" xfId="481"/>
+    <cellStyle name="常规 5 4 2 2" xfId="480"/>
+    <cellStyle name="常规 5 8" xfId="481"/>
     <cellStyle name="常规 5 4 3" xfId="482"/>
     <cellStyle name="超链接 2 2 4" xfId="483"/>
     <cellStyle name="常规 5 5 2" xfId="484"/>
@@ -3865,11 +3859,11 @@
     <cellStyle name="標準 4 2 3" xfId="510"/>
     <cellStyle name="常规 6 2 2 3 3" xfId="511"/>
     <cellStyle name="常规 6 2 3 2" xfId="512"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="513"/>
-    <cellStyle name="常规 6 6 3" xfId="514"/>
+    <cellStyle name="常规 6 6 3" xfId="513"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="514"/>
     <cellStyle name="常规 6 2 3 2 2" xfId="515"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="516"/>
-    <cellStyle name="常规 6 6 4" xfId="517"/>
+    <cellStyle name="常规 6 6 4" xfId="516"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="517"/>
     <cellStyle name="常规 6 2 3 2 3" xfId="518"/>
     <cellStyle name="常规 6 2 4" xfId="519"/>
     <cellStyle name="常规 6 2 4 2 3" xfId="520"/>
@@ -3877,10 +3871,10 @@
     <cellStyle name="常规 6 2 5 2" xfId="522"/>
     <cellStyle name="常规 6 2 6" xfId="523"/>
     <cellStyle name="常规 6 2 6 2" xfId="524"/>
-    <cellStyle name="常规 6 2 7" xfId="525"/>
-    <cellStyle name="常规 6 3 4 2" xfId="526"/>
-    <cellStyle name="常规 6 2 8" xfId="527"/>
-    <cellStyle name="常规 6 3 4 3" xfId="528"/>
+    <cellStyle name="常规 6 3 4 2" xfId="525"/>
+    <cellStyle name="常规 6 2 7" xfId="526"/>
+    <cellStyle name="常规 6 3 4 3" xfId="527"/>
+    <cellStyle name="常规 6 2 8" xfId="528"/>
     <cellStyle name="常规 6 2 9" xfId="529"/>
     <cellStyle name="常规 6 3" xfId="530"/>
     <cellStyle name="常规 6 3 2" xfId="531"/>
@@ -3888,24 +3882,24 @@
     <cellStyle name="常规 6 3 2 2 3" xfId="533"/>
     <cellStyle name="常规 6 3 3" xfId="534"/>
     <cellStyle name="常规 6 3 3 2" xfId="535"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="536"/>
-    <cellStyle name="常规 7 9" xfId="537"/>
+    <cellStyle name="常规 7 9" xfId="536"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="537"/>
     <cellStyle name="常规 6 3 3 2 3" xfId="538"/>
     <cellStyle name="常规 6 3 4" xfId="539"/>
     <cellStyle name="常规 6 3 5" xfId="540"/>
     <cellStyle name="常规 6 4 2 3" xfId="541"/>
-    <cellStyle name="超链接 3 2 4" xfId="542"/>
-    <cellStyle name="常规 6 5 2" xfId="543"/>
+    <cellStyle name="常规 6 5 2" xfId="542"/>
+    <cellStyle name="超链接 3 2 4" xfId="543"/>
     <cellStyle name="常规 6 5 2 2" xfId="544"/>
     <cellStyle name="常规 6 6 2 2" xfId="545"/>
     <cellStyle name="常规 6 6 2 3" xfId="546"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="547"/>
-    <cellStyle name="常规 6 7 3" xfId="548"/>
-    <cellStyle name="常规 6 8 2" xfId="549"/>
-    <cellStyle name="標準 2 2 2 3" xfId="550"/>
+    <cellStyle name="常规 6 7 3" xfId="547"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="548"/>
+    <cellStyle name="標準 2 2 2 3" xfId="549"/>
+    <cellStyle name="常规 6 8 2" xfId="550"/>
     <cellStyle name="常规 6 9" xfId="551"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="552"/>
-    <cellStyle name="常规 7" xfId="553"/>
+    <cellStyle name="常规 7" xfId="552"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="553"/>
     <cellStyle name="常规 8 6 2" xfId="554"/>
     <cellStyle name="常规 7 10" xfId="555"/>
     <cellStyle name="常规 7 2" xfId="556"/>
@@ -3941,19 +3935,19 @@
     <cellStyle name="標準 2 8" xfId="586"/>
     <cellStyle name="標準 2 8 2" xfId="587"/>
     <cellStyle name="標準 2 9" xfId="588"/>
-    <cellStyle name="標準 3 3 3 2" xfId="589"/>
-    <cellStyle name="標準 3" xfId="590"/>
+    <cellStyle name="標準 3" xfId="589"/>
+    <cellStyle name="標準 3 3 3 2" xfId="590"/>
     <cellStyle name="標準 3 2" xfId="591"/>
     <cellStyle name="標準 3 2 2" xfId="592"/>
-    <cellStyle name="標準 3 2 4" xfId="593"/>
-    <cellStyle name="標準 3 2 2 2" xfId="594"/>
-    <cellStyle name="標準 3 2 5" xfId="595"/>
-    <cellStyle name="標準 3 2 2 3" xfId="596"/>
+    <cellStyle name="標準 3 2 2 2" xfId="593"/>
+    <cellStyle name="標準 3 2 4" xfId="594"/>
+    <cellStyle name="標準 3 2 2 3" xfId="595"/>
+    <cellStyle name="標準 3 2 5" xfId="596"/>
     <cellStyle name="標準 3 2 3" xfId="597"/>
-    <cellStyle name="標準 3 3 4" xfId="598"/>
-    <cellStyle name="標準 3 2 3 2" xfId="599"/>
-    <cellStyle name="標準 3 3 5" xfId="600"/>
-    <cellStyle name="標準 3 2 3 3" xfId="601"/>
+    <cellStyle name="標準 3 2 3 2" xfId="598"/>
+    <cellStyle name="標準 3 3 4" xfId="599"/>
+    <cellStyle name="標準 3 2 3 3" xfId="600"/>
+    <cellStyle name="標準 3 3 5" xfId="601"/>
     <cellStyle name="標準 3 2 5 2" xfId="602"/>
     <cellStyle name="標準 3 2 5 3" xfId="603"/>
     <cellStyle name="標準 3 2 6" xfId="604"/>
@@ -3961,13 +3955,13 @@
     <cellStyle name="標準 3 2 6 3" xfId="606"/>
     <cellStyle name="標準 3 3" xfId="607"/>
     <cellStyle name="標準 3 3 2" xfId="608"/>
-    <cellStyle name="標準 4 2 4" xfId="609"/>
-    <cellStyle name="標準 3 3 2 2" xfId="610"/>
-    <cellStyle name="標準 4 2 5" xfId="611"/>
-    <cellStyle name="標準 3 3 2 3" xfId="612"/>
+    <cellStyle name="標準 3 3 2 2" xfId="609"/>
+    <cellStyle name="標準 4 2 4" xfId="610"/>
+    <cellStyle name="標準 3 3 2 3" xfId="611"/>
+    <cellStyle name="標準 4 2 5" xfId="612"/>
     <cellStyle name="標準 3 3 3" xfId="613"/>
-    <cellStyle name="標準 4" xfId="614"/>
-    <cellStyle name="標準 3 3 3 3" xfId="615"/>
+    <cellStyle name="標準 3 3 3 3" xfId="614"/>
+    <cellStyle name="標準 4" xfId="615"/>
     <cellStyle name="標準 3 4" xfId="616"/>
     <cellStyle name="標準 3 4 2" xfId="617"/>
     <cellStyle name="標準 3 5" xfId="618"/>
@@ -3989,8 +3983,8 @@
     <cellStyle name="標準 4 7" xfId="634"/>
     <cellStyle name="標準 5" xfId="635"/>
     <cellStyle name="超链接 10" xfId="636"/>
-    <cellStyle name="超链接 2 5 3" xfId="637"/>
-    <cellStyle name="超链接 2" xfId="638"/>
+    <cellStyle name="超链接 2" xfId="637"/>
+    <cellStyle name="超链接 2 5 3" xfId="638"/>
     <cellStyle name="超链接 2 2" xfId="639"/>
     <cellStyle name="超链接 2 2 2" xfId="640"/>
     <cellStyle name="超链接 2 2 2 2" xfId="641"/>
@@ -4012,8 +4006,8 @@
     <cellStyle name="超链接 2 2 4 3" xfId="657"/>
     <cellStyle name="超链接 2 2 4 4" xfId="658"/>
     <cellStyle name="超链接 2 2 5 2" xfId="659"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="660"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="661"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="660"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="661"/>
     <cellStyle name="超链接 2 2 6" xfId="662"/>
     <cellStyle name="超链接 2 2 6 2" xfId="663"/>
     <cellStyle name="超链接 2 2 6 3" xfId="664"/>
@@ -4379,9 +4373,9 @@
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="16.5"/>
@@ -6744,10 +6738,14 @@
       <c r="G60" s="26">
         <v>44851</v>
       </c>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="H60" s="26">
+        <v>44852</v>
+      </c>
+      <c r="I60" s="26">
+        <v>44852</v>
+      </c>
       <c r="J60" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="25"/>
       <c r="L60" s="26"/>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17670" tabRatio="581"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -382,16 +382,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -401,15 +401,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1157,60 +1157,60 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,19 +1231,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1265,7 +1265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,38 +1277,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1317,10 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1329,10 +1329,10 @@
     <xf numFmtId="0" fontId="25" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1341,23 +1341,23 @@
     <xf numFmtId="0" fontId="27" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1370,89 +1370,89 @@
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,14 +1461,14 @@
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1478,50 +1478,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1530,635 +1529,636 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2183,7 +2183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2230,75 +2230,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2365,17 +2365,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2383,76 +2383,76 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2462,7 +2462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2472,18 +2472,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2493,175 +2493,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2728,457 +2728,457 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3348,27 +3348,27 @@
   <cellStyles count="717">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="常规 5 9 2" xfId="3"/>
-    <cellStyle name="常规 2 2 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="6"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="3"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="5"/>
+    <cellStyle name="常规 5 9 2" xfId="6"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="8"/>
-    <cellStyle name="常规 6 2 4 4" xfId="9"/>
-    <cellStyle name="常规 5 2 9" xfId="10"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="11"/>
-    <cellStyle name="常规 10 3" xfId="12"/>
-    <cellStyle name="標準 6 3" xfId="13"/>
-    <cellStyle name="常规 3 4 3" xfId="14"/>
-    <cellStyle name="千位分隔[0]" xfId="15" builtinId="6"/>
-    <cellStyle name="常规 11 2 2" xfId="16"/>
-    <cellStyle name="常规 13 2" xfId="17"/>
-    <cellStyle name="常规 7 3" xfId="18"/>
-    <cellStyle name="千位分隔" xfId="19" builtinId="3"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="20"/>
-    <cellStyle name="標準 4 2 2 3" xfId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="22" builtinId="39"/>
+    <cellStyle name="標準 6 3" xfId="8"/>
+    <cellStyle name="常规 10 3" xfId="9"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="10"/>
+    <cellStyle name="常规 5 2 9" xfId="11"/>
+    <cellStyle name="常规 6 2 4 4" xfId="12"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="13"/>
+    <cellStyle name="常规 13 2" xfId="14"/>
+    <cellStyle name="常规 11 2 2" xfId="15"/>
+    <cellStyle name="常规 3 4 3" xfId="16"/>
+    <cellStyle name="千位分隔[0]" xfId="17" builtinId="6"/>
+    <cellStyle name="標準 4 2 2 3" xfId="18"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="19"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="20" builtinId="39"/>
+    <cellStyle name="常规 7 3" xfId="21"/>
+    <cellStyle name="千位分隔" xfId="22" builtinId="3"/>
     <cellStyle name="差" xfId="23" builtinId="27"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="24" builtinId="40"/>
     <cellStyle name="常规 3 6 3" xfId="25"/>
@@ -3390,23 +3390,23 @@
     <cellStyle name="常规 4 2 2 3" xfId="41"/>
     <cellStyle name="常规 4 4 3" xfId="42"/>
     <cellStyle name="常规 6 5" xfId="43"/>
-    <cellStyle name="标题" xfId="44" builtinId="15"/>
-    <cellStyle name="標準 2 6" xfId="45"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="46"/>
-    <cellStyle name="常规 5 2" xfId="47"/>
-    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="49"/>
-    <cellStyle name="常规 6 3 3 3" xfId="50"/>
+    <cellStyle name="常规 5 2" xfId="44"/>
+    <cellStyle name="标题" xfId="45" builtinId="15"/>
+    <cellStyle name="標準 2 6" xfId="46"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="47"/>
+    <cellStyle name="常规 6 3 3 3" xfId="48"/>
+    <cellStyle name="解释性文本" xfId="49" builtinId="53"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="50"/>
     <cellStyle name="标题 1" xfId="51" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="52" builtinId="17"/>
-    <cellStyle name="標準 2 6 2" xfId="53"/>
-    <cellStyle name="常规 5 2 2" xfId="54"/>
+    <cellStyle name="常规 5 2 2" xfId="52"/>
+    <cellStyle name="标题 2" xfId="53" builtinId="17"/>
+    <cellStyle name="標準 2 6 2" xfId="54"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="55" builtinId="32"/>
     <cellStyle name="標準 3 2 4 2" xfId="56"/>
     <cellStyle name="常规 4 11" xfId="57"/>
-    <cellStyle name="标题 3" xfId="58" builtinId="18"/>
-    <cellStyle name="標準 2 6 3" xfId="59"/>
-    <cellStyle name="常规 5 2 3" xfId="60"/>
+    <cellStyle name="常规 5 2 3" xfId="58"/>
+    <cellStyle name="标题 3" xfId="59" builtinId="18"/>
+    <cellStyle name="標準 2 6 3" xfId="60"/>
     <cellStyle name="常规 6 3 2 2" xfId="61"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="62" builtinId="44"/>
     <cellStyle name="输出" xfId="63" builtinId="21"/>
@@ -3418,9 +3418,9 @@
     <cellStyle name="常规 8 3" xfId="69"/>
     <cellStyle name="强调文字颜色 2" xfId="70" builtinId="33"/>
     <cellStyle name="常规 2 2 2 5" xfId="71"/>
-    <cellStyle name="链接单元格" xfId="72" builtinId="24"/>
-    <cellStyle name="標準 3 6 3" xfId="73"/>
-    <cellStyle name="常规 6 2 3" xfId="74"/>
+    <cellStyle name="常规 6 2 3" xfId="72"/>
+    <cellStyle name="链接单元格" xfId="73" builtinId="24"/>
+    <cellStyle name="標準 3 6 3" xfId="74"/>
     <cellStyle name="汇总" xfId="75" builtinId="25"/>
     <cellStyle name="好" xfId="76" builtinId="26"/>
     <cellStyle name="常规 3 2 6" xfId="77"/>
@@ -3429,16 +3429,16 @@
     <cellStyle name="常规 8 2" xfId="80"/>
     <cellStyle name="强调文字颜色 1" xfId="81" builtinId="29"/>
     <cellStyle name="常规 2 2 2 4" xfId="82"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="83" builtinId="30"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="84"/>
-    <cellStyle name="標準 5 2" xfId="85"/>
-    <cellStyle name="常规 6 2 3 3" xfId="86"/>
+    <cellStyle name="標準 5 2" xfId="83"/>
+    <cellStyle name="常规 6 2 3 3" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="85" builtinId="30"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="87" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="88" builtinId="34"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="89"/>
-    <cellStyle name="標準 5 3" xfId="90"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="91"/>
-    <cellStyle name="常规 6 2 3 4" xfId="92"/>
+    <cellStyle name="標準 5 3" xfId="88"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="89"/>
+    <cellStyle name="常规 6 2 3 4" xfId="90"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="91" builtinId="34"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="92"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="93" builtinId="35"/>
     <cellStyle name="標準 4 2 2 2" xfId="94"/>
     <cellStyle name="常规 6 2 2 3 2 2" xfId="95"/>
@@ -3449,9 +3449,9 @@
     <cellStyle name="常规 3 8 2" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="101" builtinId="42"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="102" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="103" builtinId="45"/>
-    <cellStyle name="常规 2 2 2 8" xfId="104"/>
-    <cellStyle name="標準 2 3 2" xfId="105"/>
+    <cellStyle name="標準 2 3 2" xfId="103"/>
+    <cellStyle name="强调文字颜色 5" xfId="104" builtinId="45"/>
+    <cellStyle name="常规 2 2 2 8" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="106" builtinId="47"/>
     <cellStyle name="常规 6 3 2 3" xfId="107"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="108" builtinId="48"/>
@@ -3463,20 +3463,20 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="114" builtinId="52"/>
     <cellStyle name="標準 8" xfId="115"/>
     <cellStyle name="常规 12" xfId="116"/>
-    <cellStyle name="標準 6" xfId="117"/>
-    <cellStyle name="常规 10" xfId="118"/>
-    <cellStyle name="超链接 9" xfId="119"/>
-    <cellStyle name="常规 16 2" xfId="120"/>
+    <cellStyle name="超链接 9" xfId="117"/>
+    <cellStyle name="常规 16 2" xfId="118"/>
+    <cellStyle name="標準 6" xfId="119"/>
+    <cellStyle name="常规 10" xfId="120"/>
     <cellStyle name="標準 6 2" xfId="121"/>
     <cellStyle name="常规 10 2" xfId="122"/>
     <cellStyle name="常规 5 2 8" xfId="123"/>
     <cellStyle name="常规 6 2 4 3" xfId="124"/>
     <cellStyle name="常规 14" xfId="125"/>
-    <cellStyle name="常规 11 3" xfId="126"/>
-    <cellStyle name="常规 2 3 2 2" xfId="127"/>
-    <cellStyle name="常规 2 7" xfId="128"/>
-    <cellStyle name="常规 10 2 2" xfId="129"/>
-    <cellStyle name="常规 5 2 8 2" xfId="130"/>
+    <cellStyle name="常规 2 3 2 2" xfId="126"/>
+    <cellStyle name="常规 11 3" xfId="127"/>
+    <cellStyle name="常规 10 2 2" xfId="128"/>
+    <cellStyle name="常规 5 2 8 2" xfId="129"/>
+    <cellStyle name="常规 2 7" xfId="130"/>
     <cellStyle name="標準 7" xfId="131"/>
     <cellStyle name="常规 11" xfId="132"/>
     <cellStyle name="常规 13" xfId="133"/>
@@ -3484,8 +3484,8 @@
     <cellStyle name="常规 6 2 5 3" xfId="135"/>
     <cellStyle name="常规 12 2" xfId="136"/>
     <cellStyle name="常规 6 2 6 3" xfId="137"/>
-    <cellStyle name="常规 12 3" xfId="138"/>
-    <cellStyle name="常规 2 3 3 2" xfId="139"/>
+    <cellStyle name="常规 2 3 3 2" xfId="138"/>
+    <cellStyle name="常规 12 3" xfId="139"/>
     <cellStyle name="常规 14 2" xfId="140"/>
     <cellStyle name="常规 15" xfId="141"/>
     <cellStyle name="常规 15 2" xfId="142"/>
@@ -3507,8 +3507,8 @@
     <cellStyle name="超链接 2 6 2" xfId="158"/>
     <cellStyle name="常规 2 2 2" xfId="159"/>
     <cellStyle name="常规 2 2 2 2" xfId="160"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="161"/>
-    <cellStyle name="常规 2 4 4" xfId="162"/>
+    <cellStyle name="常规 2 4 4" xfId="161"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="162"/>
     <cellStyle name="常规 2 2 2 2 2 2" xfId="163"/>
     <cellStyle name="標準 4 3" xfId="164"/>
     <cellStyle name="常规 2 2 2 2 2 2 2" xfId="165"/>
@@ -3525,26 +3525,26 @@
     <cellStyle name="常规 6 2 2 5" xfId="176"/>
     <cellStyle name="標準 4 5" xfId="177"/>
     <cellStyle name="常规 2 2 2 2 2 2 4" xfId="178"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="179"/>
-    <cellStyle name="常规 6 8 3" xfId="180"/>
+    <cellStyle name="常规 6 8 3" xfId="179"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="180"/>
     <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="181"/>
     <cellStyle name="常规 2 2 2 2 2 4" xfId="182"/>
     <cellStyle name="常规 2 2 2 2 2 4 3" xfId="183"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="184"/>
-    <cellStyle name="超链接 2 7 2" xfId="185"/>
-    <cellStyle name="常规 2 3 2" xfId="186"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="187"/>
-    <cellStyle name="常规 2 4 5" xfId="188"/>
-    <cellStyle name="常规 7 2 2" xfId="189"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="190"/>
-    <cellStyle name="常规 7 2 2 2" xfId="191"/>
+    <cellStyle name="超链接 2 7 2" xfId="184"/>
+    <cellStyle name="常规 2 3 2" xfId="185"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="186"/>
+    <cellStyle name="常规 2 4 5" xfId="187"/>
+    <cellStyle name="常规 7 2 2" xfId="188"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="189"/>
+    <cellStyle name="常规 7 2 2 2" xfId="190"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="191"/>
     <cellStyle name="常规 2 2 2 2 3 2 3" xfId="192"/>
     <cellStyle name="常规 2 2 2 2 3 3" xfId="193"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="194"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="195"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="196"/>
-    <cellStyle name="常规 5 2 3 2" xfId="197"/>
-    <cellStyle name="常规 7 2 3" xfId="198"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="194"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="195"/>
+    <cellStyle name="常规 7 2 3" xfId="196"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="197"/>
+    <cellStyle name="常规 5 2 3 2" xfId="198"/>
     <cellStyle name="超链接 3 2 2 3" xfId="199"/>
     <cellStyle name="常规 2 2 2 2 4 2" xfId="200"/>
     <cellStyle name="常规 5 2 3 2 2" xfId="201"/>
@@ -3563,26 +3563,26 @@
     <cellStyle name="常规 2 2 2 2 6 3" xfId="214"/>
     <cellStyle name="常规 2 2 2 2 7" xfId="215"/>
     <cellStyle name="常规 2 2 2 3" xfId="216"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="217"/>
-    <cellStyle name="常规 2 5 4" xfId="218"/>
+    <cellStyle name="常规 2 5 4" xfId="217"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="218"/>
     <cellStyle name="常规 2 2 2 3 2 2" xfId="219"/>
     <cellStyle name="常规 2 2 2 3 2 2 3" xfId="220"/>
     <cellStyle name="常规 2 4 2" xfId="221"/>
     <cellStyle name="常规 2 2 2 3 2 3" xfId="222"/>
     <cellStyle name="常规 3 2 7 2" xfId="223"/>
     <cellStyle name="常规 2 2 2 3 2 4" xfId="224"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="225"/>
-    <cellStyle name="常规 7 3 2" xfId="226"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="227"/>
-    <cellStyle name="常规 7 3 2 2" xfId="228"/>
+    <cellStyle name="常规 7 3 2" xfId="225"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="226"/>
+    <cellStyle name="常规 7 3 2 2" xfId="227"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="228"/>
     <cellStyle name="常规 2 2 2 3 3 2 2" xfId="229"/>
     <cellStyle name="常规 2 2 2 3 3 2 3" xfId="230"/>
     <cellStyle name="常规 3 4 2" xfId="231"/>
     <cellStyle name="常规 2 2 2 3 3 3" xfId="232"/>
     <cellStyle name="常规 3 2 8 2" xfId="233"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="234"/>
-    <cellStyle name="常规 5 2 4 2" xfId="235"/>
-    <cellStyle name="常规 7 3 3" xfId="236"/>
+    <cellStyle name="常规 7 3 3" xfId="234"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="235"/>
+    <cellStyle name="常规 5 2 4 2" xfId="236"/>
     <cellStyle name="超链接 3 3 2 3" xfId="237"/>
     <cellStyle name="常规 2 2 2 3 4 2" xfId="238"/>
     <cellStyle name="常规 5 2 4 2 2" xfId="239"/>
@@ -3592,28 +3592,28 @@
     <cellStyle name="常规 2 2 2 4 2" xfId="243"/>
     <cellStyle name="標準 2 5" xfId="244"/>
     <cellStyle name="常规 2 2 2 4 2 2" xfId="245"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="246"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="247"/>
-    <cellStyle name="常规 4 5 2 2" xfId="248"/>
-    <cellStyle name="常规 7 4 2" xfId="249"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="250"/>
-    <cellStyle name="常规 5 2 5 2" xfId="251"/>
-    <cellStyle name="常规 7 4 3" xfId="252"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="246"/>
+    <cellStyle name="常规 4 5 2 2" xfId="247"/>
+    <cellStyle name="常规 7 4 2" xfId="248"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="249"/>
+    <cellStyle name="常规 7 4 3" xfId="250"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="251"/>
+    <cellStyle name="常规 5 2 5 2" xfId="252"/>
     <cellStyle name="常规 2 2 2 5 2" xfId="253"/>
     <cellStyle name="常规 2 2 2 5 2 2" xfId="254"/>
     <cellStyle name="常规 2 2 2 5 2 3" xfId="255"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="256"/>
-    <cellStyle name="常规 7 5 2" xfId="257"/>
+    <cellStyle name="常规 7 5 2" xfId="256"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="257"/>
     <cellStyle name="常规 2 2 2 5 4" xfId="258"/>
     <cellStyle name="常规 5 2 6 2" xfId="259"/>
     <cellStyle name="常规 2 2 2 6 2" xfId="260"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="261"/>
-    <cellStyle name="常规 7 6 2" xfId="262"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="263"/>
-    <cellStyle name="常规 2 5" xfId="264"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="265"/>
-    <cellStyle name="常规 2 6" xfId="266"/>
-    <cellStyle name="常规 7 7 2" xfId="267"/>
+    <cellStyle name="常规 7 6 2" xfId="261"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="262"/>
+    <cellStyle name="常规 2 5" xfId="263"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="264"/>
+    <cellStyle name="常规 2 6" xfId="265"/>
+    <cellStyle name="常规 7 7 2" xfId="266"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="267"/>
     <cellStyle name="超链接 2 6 3" xfId="268"/>
     <cellStyle name="常规 2 2 3" xfId="269"/>
     <cellStyle name="常规 2 2 3 2" xfId="270"/>
@@ -3622,37 +3622,37 @@
     <cellStyle name="常规 2 2 3 6" xfId="273"/>
     <cellStyle name="常规 2 2 3 2 2 3" xfId="274"/>
     <cellStyle name="常规 3 9 2" xfId="275"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="276"/>
-    <cellStyle name="常规 8 2 2" xfId="277"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="278"/>
-    <cellStyle name="常规 8 2 3" xfId="279"/>
+    <cellStyle name="常规 8 2 2" xfId="276"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="277"/>
+    <cellStyle name="常规 8 2 3" xfId="278"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="279"/>
     <cellStyle name="常规 2 2 3 3" xfId="280"/>
     <cellStyle name="常规 2 2 3 3 2" xfId="281"/>
     <cellStyle name="常规 2 2 3 3 2 2" xfId="282"/>
     <cellStyle name="常规 2 2 3 3 2 3" xfId="283"/>
     <cellStyle name="常规 4 2 7 2" xfId="284"/>
     <cellStyle name="常规 4 9 2" xfId="285"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="286"/>
-    <cellStyle name="常规 8 3 2" xfId="287"/>
+    <cellStyle name="常规 8 3 2" xfId="286"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="287"/>
     <cellStyle name="常规 2 2 3 4" xfId="288"/>
     <cellStyle name="常规 2 2 3 4 2" xfId="289"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="290"/>
-    <cellStyle name="常规 8 4 2" xfId="291"/>
+    <cellStyle name="常规 8 4 2" xfId="290"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="291"/>
     <cellStyle name="常规 2 2 3 5" xfId="292"/>
     <cellStyle name="常规 2 2 3 5 2" xfId="293"/>
     <cellStyle name="標準 2 2 3" xfId="294"/>
-    <cellStyle name="常规 8 5 2" xfId="295"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="296"/>
-    <cellStyle name="標準 2 2 4" xfId="297"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="295"/>
+    <cellStyle name="標準 2 2 4" xfId="296"/>
+    <cellStyle name="常规 8 5 2" xfId="297"/>
     <cellStyle name="适中 2 2 3" xfId="298"/>
     <cellStyle name="常规 2 2 4 2" xfId="299"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="300"/>
-    <cellStyle name="常规 3 10" xfId="301"/>
-    <cellStyle name="常规 6 6" xfId="302"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="303"/>
-    <cellStyle name="常规 3 11" xfId="304"/>
-    <cellStyle name="常规 6 7" xfId="305"/>
-    <cellStyle name="常规 9 2 2" xfId="306"/>
+    <cellStyle name="常规 6 6" xfId="300"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="301"/>
+    <cellStyle name="常规 3 10" xfId="302"/>
+    <cellStyle name="常规 6 7" xfId="303"/>
+    <cellStyle name="常规 9 2 2" xfId="304"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="305"/>
+    <cellStyle name="常规 3 11" xfId="306"/>
     <cellStyle name="常规 2 2 4 3" xfId="307"/>
     <cellStyle name="常规 2 2 4 4" xfId="308"/>
     <cellStyle name="常规 2 2 5" xfId="309"/>
@@ -3686,10 +3686,10 @@
     <cellStyle name="常规 2 3 5" xfId="337"/>
     <cellStyle name="常规 2 3 5 2" xfId="338"/>
     <cellStyle name="常规 2 3 5 3" xfId="339"/>
-    <cellStyle name="標準 2 6 2 2" xfId="340"/>
-    <cellStyle name="常规 2 3 6" xfId="341"/>
-    <cellStyle name="標準 4 5 3" xfId="342"/>
-    <cellStyle name="常规 5 2 2 2" xfId="343"/>
+    <cellStyle name="標準 4 5 3" xfId="340"/>
+    <cellStyle name="常规 5 2 2 2" xfId="341"/>
+    <cellStyle name="標準 2 6 2 2" xfId="342"/>
+    <cellStyle name="常规 2 3 6" xfId="343"/>
     <cellStyle name="超链接 2 8" xfId="344"/>
     <cellStyle name="常规 2 4" xfId="345"/>
     <cellStyle name="常规 2 4 2 2" xfId="346"/>
@@ -3699,8 +3699,8 @@
     <cellStyle name="常规 2 4 3 3" xfId="350"/>
     <cellStyle name="常规 2 5 2" xfId="351"/>
     <cellStyle name="常规 2 5 2 2" xfId="352"/>
-    <cellStyle name="常规 2 5 2 3" xfId="353"/>
-    <cellStyle name="常规 3 2 5 2" xfId="354"/>
+    <cellStyle name="常规 3 2 5 2" xfId="353"/>
+    <cellStyle name="常规 2 5 2 3" xfId="354"/>
     <cellStyle name="常规 2 5 3" xfId="355"/>
     <cellStyle name="常规 2 6 2" xfId="356"/>
     <cellStyle name="常规 2 6 3" xfId="357"/>
@@ -3708,12 +3708,12 @@
     <cellStyle name="常规 2 8" xfId="359"/>
     <cellStyle name="常规 3" xfId="360"/>
     <cellStyle name="常规 6 10" xfId="361"/>
-    <cellStyle name="常规 3 10 2" xfId="362"/>
-    <cellStyle name="常规 6 6 2" xfId="363"/>
-    <cellStyle name="常规 3 11 2" xfId="364"/>
-    <cellStyle name="常规 6 7 2" xfId="365"/>
-    <cellStyle name="常规 3 12" xfId="366"/>
-    <cellStyle name="常规 6 8" xfId="367"/>
+    <cellStyle name="常规 6 6 2" xfId="362"/>
+    <cellStyle name="常规 3 10 2" xfId="363"/>
+    <cellStyle name="常规 6 7 2" xfId="364"/>
+    <cellStyle name="常规 3 11 2" xfId="365"/>
+    <cellStyle name="常规 6 8" xfId="366"/>
+    <cellStyle name="常规 3 12" xfId="367"/>
     <cellStyle name="常规 3 2" xfId="368"/>
     <cellStyle name="常规 6 10 2" xfId="369"/>
     <cellStyle name="常规 3 2 2" xfId="370"/>
@@ -3745,8 +3745,8 @@
     <cellStyle name="標準 2 3 2 2" xfId="396"/>
     <cellStyle name="常规 3 5" xfId="397"/>
     <cellStyle name="常规 3 5 2" xfId="398"/>
-    <cellStyle name="常规 3 5 2 2" xfId="399"/>
-    <cellStyle name="常规 9 3" xfId="400"/>
+    <cellStyle name="常规 9 3" xfId="399"/>
+    <cellStyle name="常规 3 5 2 2" xfId="400"/>
     <cellStyle name="常规 3 5 3" xfId="401"/>
     <cellStyle name="常规 3 6" xfId="402"/>
     <cellStyle name="常规 7 8 2" xfId="403"/>
@@ -3805,15 +3805,15 @@
     <cellStyle name="常规 4 3 3" xfId="456"/>
     <cellStyle name="常规 5 5" xfId="457"/>
     <cellStyle name="常规 5" xfId="458"/>
-    <cellStyle name="常规 5 10" xfId="459"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="460"/>
-    <cellStyle name="常规 6 5 3" xfId="461"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="459"/>
+    <cellStyle name="常规 6 5 3" xfId="460"/>
+    <cellStyle name="常规 5 10" xfId="461"/>
     <cellStyle name="超链接 2 5 2 3" xfId="462"/>
     <cellStyle name="常规 5 10 2" xfId="463"/>
     <cellStyle name="常规 8" xfId="464"/>
-    <cellStyle name="常规 5 11" xfId="465"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="466"/>
-    <cellStyle name="常规 6 5 4" xfId="467"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="465"/>
+    <cellStyle name="常规 6 5 4" xfId="466"/>
+    <cellStyle name="常规 5 11" xfId="467"/>
     <cellStyle name="常规 5 2 2 2 2" xfId="468"/>
     <cellStyle name="標準 4 5 4" xfId="469"/>
     <cellStyle name="常规 5 2 2 3" xfId="470"/>
@@ -3826,8 +3826,8 @@
     <cellStyle name="常规 5 3" xfId="477"/>
     <cellStyle name="常规 5 3 2" xfId="478"/>
     <cellStyle name="常规 5 3 3" xfId="479"/>
-    <cellStyle name="常规 5 4 2 2" xfId="480"/>
-    <cellStyle name="常规 5 8" xfId="481"/>
+    <cellStyle name="常规 5 8" xfId="480"/>
+    <cellStyle name="常规 5 4 2 2" xfId="481"/>
     <cellStyle name="常规 5 4 3" xfId="482"/>
     <cellStyle name="超链接 2 2 4" xfId="483"/>
     <cellStyle name="常规 5 5 2" xfId="484"/>
@@ -3859,11 +3859,11 @@
     <cellStyle name="標準 4 2 3" xfId="510"/>
     <cellStyle name="常规 6 2 2 3 3" xfId="511"/>
     <cellStyle name="常规 6 2 3 2" xfId="512"/>
-    <cellStyle name="常规 6 6 3" xfId="513"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="514"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="513"/>
+    <cellStyle name="常规 6 6 3" xfId="514"/>
     <cellStyle name="常规 6 2 3 2 2" xfId="515"/>
-    <cellStyle name="常规 6 6 4" xfId="516"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="517"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="516"/>
+    <cellStyle name="常规 6 6 4" xfId="517"/>
     <cellStyle name="常规 6 2 3 2 3" xfId="518"/>
     <cellStyle name="常规 6 2 4" xfId="519"/>
     <cellStyle name="常规 6 2 4 2 3" xfId="520"/>
@@ -3871,10 +3871,10 @@
     <cellStyle name="常规 6 2 5 2" xfId="522"/>
     <cellStyle name="常规 6 2 6" xfId="523"/>
     <cellStyle name="常规 6 2 6 2" xfId="524"/>
-    <cellStyle name="常规 6 3 4 2" xfId="525"/>
-    <cellStyle name="常规 6 2 7" xfId="526"/>
-    <cellStyle name="常规 6 3 4 3" xfId="527"/>
-    <cellStyle name="常规 6 2 8" xfId="528"/>
+    <cellStyle name="常规 6 2 7" xfId="525"/>
+    <cellStyle name="常规 6 3 4 2" xfId="526"/>
+    <cellStyle name="常规 6 2 8" xfId="527"/>
+    <cellStyle name="常规 6 3 4 3" xfId="528"/>
     <cellStyle name="常规 6 2 9" xfId="529"/>
     <cellStyle name="常规 6 3" xfId="530"/>
     <cellStyle name="常规 6 3 2" xfId="531"/>
@@ -3882,24 +3882,24 @@
     <cellStyle name="常规 6 3 2 2 3" xfId="533"/>
     <cellStyle name="常规 6 3 3" xfId="534"/>
     <cellStyle name="常规 6 3 3 2" xfId="535"/>
-    <cellStyle name="常规 7 9" xfId="536"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="537"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="536"/>
+    <cellStyle name="常规 7 9" xfId="537"/>
     <cellStyle name="常规 6 3 3 2 3" xfId="538"/>
     <cellStyle name="常规 6 3 4" xfId="539"/>
     <cellStyle name="常规 6 3 5" xfId="540"/>
     <cellStyle name="常规 6 4 2 3" xfId="541"/>
-    <cellStyle name="常规 6 5 2" xfId="542"/>
-    <cellStyle name="超链接 3 2 4" xfId="543"/>
+    <cellStyle name="超链接 3 2 4" xfId="542"/>
+    <cellStyle name="常规 6 5 2" xfId="543"/>
     <cellStyle name="常规 6 5 2 2" xfId="544"/>
     <cellStyle name="常规 6 6 2 2" xfId="545"/>
     <cellStyle name="常规 6 6 2 3" xfId="546"/>
-    <cellStyle name="常规 6 7 3" xfId="547"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="548"/>
-    <cellStyle name="標準 2 2 2 3" xfId="549"/>
-    <cellStyle name="常规 6 8 2" xfId="550"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="547"/>
+    <cellStyle name="常规 6 7 3" xfId="548"/>
+    <cellStyle name="常规 6 8 2" xfId="549"/>
+    <cellStyle name="標準 2 2 2 3" xfId="550"/>
     <cellStyle name="常规 6 9" xfId="551"/>
-    <cellStyle name="常规 7" xfId="552"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="553"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="552"/>
+    <cellStyle name="常规 7" xfId="553"/>
     <cellStyle name="常规 8 6 2" xfId="554"/>
     <cellStyle name="常规 7 10" xfId="555"/>
     <cellStyle name="常规 7 2" xfId="556"/>
@@ -3935,19 +3935,19 @@
     <cellStyle name="標準 2 8" xfId="586"/>
     <cellStyle name="標準 2 8 2" xfId="587"/>
     <cellStyle name="標準 2 9" xfId="588"/>
-    <cellStyle name="標準 3" xfId="589"/>
-    <cellStyle name="標準 3 3 3 2" xfId="590"/>
+    <cellStyle name="標準 3 3 3 2" xfId="589"/>
+    <cellStyle name="標準 3" xfId="590"/>
     <cellStyle name="標準 3 2" xfId="591"/>
     <cellStyle name="標準 3 2 2" xfId="592"/>
-    <cellStyle name="標準 3 2 2 2" xfId="593"/>
-    <cellStyle name="標準 3 2 4" xfId="594"/>
-    <cellStyle name="標準 3 2 2 3" xfId="595"/>
-    <cellStyle name="標準 3 2 5" xfId="596"/>
+    <cellStyle name="標準 3 2 4" xfId="593"/>
+    <cellStyle name="標準 3 2 2 2" xfId="594"/>
+    <cellStyle name="標準 3 2 5" xfId="595"/>
+    <cellStyle name="標準 3 2 2 3" xfId="596"/>
     <cellStyle name="標準 3 2 3" xfId="597"/>
-    <cellStyle name="標準 3 2 3 2" xfId="598"/>
-    <cellStyle name="標準 3 3 4" xfId="599"/>
-    <cellStyle name="標準 3 2 3 3" xfId="600"/>
-    <cellStyle name="標準 3 3 5" xfId="601"/>
+    <cellStyle name="標準 3 3 4" xfId="598"/>
+    <cellStyle name="標準 3 2 3 2" xfId="599"/>
+    <cellStyle name="標準 3 3 5" xfId="600"/>
+    <cellStyle name="標準 3 2 3 3" xfId="601"/>
     <cellStyle name="標準 3 2 5 2" xfId="602"/>
     <cellStyle name="標準 3 2 5 3" xfId="603"/>
     <cellStyle name="標準 3 2 6" xfId="604"/>
@@ -3955,13 +3955,13 @@
     <cellStyle name="標準 3 2 6 3" xfId="606"/>
     <cellStyle name="標準 3 3" xfId="607"/>
     <cellStyle name="標準 3 3 2" xfId="608"/>
-    <cellStyle name="標準 3 3 2 2" xfId="609"/>
-    <cellStyle name="標準 4 2 4" xfId="610"/>
-    <cellStyle name="標準 3 3 2 3" xfId="611"/>
-    <cellStyle name="標準 4 2 5" xfId="612"/>
+    <cellStyle name="標準 4 2 4" xfId="609"/>
+    <cellStyle name="標準 3 3 2 2" xfId="610"/>
+    <cellStyle name="標準 4 2 5" xfId="611"/>
+    <cellStyle name="標準 3 3 2 3" xfId="612"/>
     <cellStyle name="標準 3 3 3" xfId="613"/>
-    <cellStyle name="標準 3 3 3 3" xfId="614"/>
-    <cellStyle name="標準 4" xfId="615"/>
+    <cellStyle name="標準 4" xfId="614"/>
+    <cellStyle name="標準 3 3 3 3" xfId="615"/>
     <cellStyle name="標準 3 4" xfId="616"/>
     <cellStyle name="標準 3 4 2" xfId="617"/>
     <cellStyle name="標準 3 5" xfId="618"/>
@@ -3983,8 +3983,8 @@
     <cellStyle name="標準 4 7" xfId="634"/>
     <cellStyle name="標準 5" xfId="635"/>
     <cellStyle name="超链接 10" xfId="636"/>
-    <cellStyle name="超链接 2" xfId="637"/>
-    <cellStyle name="超链接 2 5 3" xfId="638"/>
+    <cellStyle name="超链接 2 5 3" xfId="637"/>
+    <cellStyle name="超链接 2" xfId="638"/>
     <cellStyle name="超链接 2 2" xfId="639"/>
     <cellStyle name="超链接 2 2 2" xfId="640"/>
     <cellStyle name="超链接 2 2 2 2" xfId="641"/>
@@ -4006,8 +4006,8 @@
     <cellStyle name="超链接 2 2 4 3" xfId="657"/>
     <cellStyle name="超链接 2 2 4 4" xfId="658"/>
     <cellStyle name="超链接 2 2 5 2" xfId="659"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="660"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="661"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="660"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="661"/>
     <cellStyle name="超链接 2 2 6" xfId="662"/>
     <cellStyle name="超链接 2 2 6 2" xfId="663"/>
     <cellStyle name="超链接 2 2 6 3" xfId="664"/>
@@ -4373,28 +4373,28 @@
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.44166666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.21666666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.4416666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="1.44444444444444" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.21296296296296" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" style="7" customWidth="1"/>
     <col min="4" max="4" width="24.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.21666666666667" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.21296296296296" style="7" customWidth="1"/>
     <col min="6" max="9" width="7.66666666666667" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.33333333333333" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.21666666666667" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.21296296296296" style="7" customWidth="1"/>
     <col min="12" max="15" width="7.66666666666667" style="8" customWidth="1"/>
     <col min="16" max="16" width="8.33333333333333" style="7" customWidth="1"/>
-    <col min="17" max="17" width="52.4416666666667" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="8.88333333333333" style="7"/>
+    <col min="17" max="17" width="52.4444444444444" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.87962962962963" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="33" spans="1:17">
+    <row r="1" s="4" customFormat="1" ht="30" spans="1:17">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="I11" s="26">
         <f>MAX(I12:I33)</f>
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="J11" s="39">
         <f>MIN(J12:J33)</f>
@@ -4943,10 +4943,14 @@
       <c r="G13" s="22">
         <v>44853</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="22">
+        <v>44850</v>
+      </c>
+      <c r="I13" s="22">
+        <v>44852</v>
+      </c>
       <c r="J13" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>34</v>
@@ -10424,7 +10428,7 @@
       </c>
       <c r="Q158" s="43"/>
     </row>
-    <row r="159" ht="17.25" outlineLevel="1" spans="2:17">
+    <row r="159" ht="15.75" outlineLevel="1" spans="2:17">
       <c r="B159" s="62" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -10482,13 +10486,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="8.10833333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.11111111111111" customWidth="1"/>
+    <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -10496,7 +10500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -10507,7 +10511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
+    <row r="3" ht="15" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -10515,7 +10519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
+    <row r="4" ht="15" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="18" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -10535,7 +10539,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
+    <row r="6" ht="15" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:4">
+    <row r="7" ht="15" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:4">
+    <row r="8" ht="15" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE3D47F-B325-4F14-98FC-A35601A3FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12456" tabRatio="581"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -13,7 +14,18 @@
   <definedNames>
     <definedName name="rv">list!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -265,7 +277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -276,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,7 +298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -355,7 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -363,13 +375,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -377,14 +389,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -399,7 +411,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -407,12 +419,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -422,7 +436,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -432,12 +446,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -445,7 +460,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,7 +491,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -856,12 +871,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="671">
+  <cellStyleXfs count="670">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -2770,7 +2784,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="670"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="669"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2902,678 +2916,677 @@
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="671">
-    <cellStyle name="ハイパーリンク" xfId="670" builtinId="8"/>
-    <cellStyle name="常规 10" xfId="4"/>
-    <cellStyle name="常规 10 2" xfId="5"/>
-    <cellStyle name="常规 10 2 2" xfId="6"/>
-    <cellStyle name="常规 10 3" xfId="7"/>
-    <cellStyle name="常规 11" xfId="8"/>
-    <cellStyle name="常规 11 2" xfId="9"/>
-    <cellStyle name="常规 11 2 2" xfId="10"/>
-    <cellStyle name="常规 11 3" xfId="11"/>
-    <cellStyle name="常规 12" xfId="12"/>
-    <cellStyle name="常规 12 2" xfId="13"/>
-    <cellStyle name="常规 12 2 2" xfId="14"/>
-    <cellStyle name="常规 12 3" xfId="15"/>
-    <cellStyle name="常规 13" xfId="16"/>
-    <cellStyle name="常规 13 2" xfId="17"/>
-    <cellStyle name="常规 14" xfId="18"/>
-    <cellStyle name="常规 14 2" xfId="19"/>
-    <cellStyle name="常规 15" xfId="20"/>
-    <cellStyle name="常规 15 2" xfId="21"/>
-    <cellStyle name="常规 16" xfId="22"/>
-    <cellStyle name="常规 16 2" xfId="23"/>
-    <cellStyle name="常规 17" xfId="24"/>
-    <cellStyle name="常规 17 2" xfId="25"/>
-    <cellStyle name="常规 18" xfId="26"/>
-    <cellStyle name="常规 19" xfId="27"/>
-    <cellStyle name="常规 2" xfId="28"/>
-    <cellStyle name="常规 2 2" xfId="29"/>
-    <cellStyle name="常规 2 2 2" xfId="30"/>
-    <cellStyle name="常规 2 2 2 2" xfId="31"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="32"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="33"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="34"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="35"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="36"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="37"/>
-    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="38"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="39"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="40"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="41"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="42"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="43"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="44"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="45"/>
-    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="46"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="47"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="48"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="49"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="50"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="51"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="52"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="53"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="54"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="55"/>
-    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="56"/>
-    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="57"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="58"/>
-    <cellStyle name="常规 2 2 2 2 4 4" xfId="59"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="60"/>
-    <cellStyle name="常规 2 2 2 2 5 2" xfId="61"/>
-    <cellStyle name="常规 2 2 2 2 5 3" xfId="62"/>
-    <cellStyle name="常规 2 2 2 2 6" xfId="63"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="64"/>
-    <cellStyle name="常规 2 2 2 2 6 3" xfId="65"/>
-    <cellStyle name="常规 2 2 2 2 7" xfId="66"/>
-    <cellStyle name="常规 2 2 2 3" xfId="67"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="68"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="69"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="70"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="71"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="72"/>
-    <cellStyle name="常规 2 2 2 3 2 4" xfId="73"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="74"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="75"/>
-    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="76"/>
-    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="77"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="78"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="79"/>
-    <cellStyle name="常规 2 2 2 3 4 2" xfId="80"/>
-    <cellStyle name="常规 2 2 2 3 4 3" xfId="81"/>
-    <cellStyle name="常规 2 2 2 3 5" xfId="82"/>
-    <cellStyle name="常规 2 2 2 4" xfId="83"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="84"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="85"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="86"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="87"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="88"/>
-    <cellStyle name="常规 2 2 2 5" xfId="89"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="90"/>
-    <cellStyle name="常规 2 2 2 5 2 2" xfId="91"/>
-    <cellStyle name="常规 2 2 2 5 2 3" xfId="92"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="93"/>
-    <cellStyle name="常规 2 2 2 5 4" xfId="94"/>
-    <cellStyle name="常规 2 2 2 6" xfId="95"/>
-    <cellStyle name="常规 2 2 2 6 2" xfId="96"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="97"/>
-    <cellStyle name="常规 2 2 2 7" xfId="98"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="99"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="100"/>
-    <cellStyle name="常规 2 2 2 8" xfId="101"/>
-    <cellStyle name="常规 2 2 3" xfId="102"/>
-    <cellStyle name="常规 2 2 3 2" xfId="103"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="104"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="105"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="106"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="107"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="108"/>
-    <cellStyle name="常规 2 2 3 3" xfId="109"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="110"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="111"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="112"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="113"/>
-    <cellStyle name="常规 2 2 3 4" xfId="114"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="115"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="116"/>
-    <cellStyle name="常规 2 2 3 5" xfId="117"/>
-    <cellStyle name="常规 2 2 3 5 2" xfId="118"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="119"/>
-    <cellStyle name="常规 2 2 3 6" xfId="120"/>
-    <cellStyle name="常规 2 2 4" xfId="121"/>
-    <cellStyle name="常规 2 2 4 2" xfId="122"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="123"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="124"/>
-    <cellStyle name="常规 2 2 4 3" xfId="125"/>
-    <cellStyle name="常规 2 2 4 4" xfId="126"/>
-    <cellStyle name="常规 2 2 5" xfId="127"/>
-    <cellStyle name="常规 2 2 5 2" xfId="128"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="129"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="130"/>
-    <cellStyle name="常规 2 2 5 3" xfId="131"/>
-    <cellStyle name="常规 2 2 5 4" xfId="132"/>
-    <cellStyle name="常规 2 2 6" xfId="133"/>
-    <cellStyle name="常规 2 2 6 2" xfId="134"/>
-    <cellStyle name="常规 2 2 6 3" xfId="135"/>
-    <cellStyle name="常规 2 2 7" xfId="136"/>
-    <cellStyle name="常规 2 2 7 2" xfId="137"/>
-    <cellStyle name="常规 2 2 7 3" xfId="138"/>
-    <cellStyle name="常规 2 2 8" xfId="139"/>
-    <cellStyle name="常规 2 3" xfId="140"/>
-    <cellStyle name="常规 2 3 2" xfId="141"/>
-    <cellStyle name="常规 2 3 2 2" xfId="142"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="143"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="144"/>
-    <cellStyle name="常规 2 3 2 3" xfId="145"/>
-    <cellStyle name="常规 2 3 2 4" xfId="146"/>
-    <cellStyle name="常规 2 3 3" xfId="147"/>
-    <cellStyle name="常规 2 3 3 2" xfId="148"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="149"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="150"/>
-    <cellStyle name="常规 2 3 3 3" xfId="151"/>
-    <cellStyle name="常规 2 3 4" xfId="152"/>
-    <cellStyle name="常规 2 3 4 2" xfId="153"/>
-    <cellStyle name="常规 2 3 4 3" xfId="154"/>
-    <cellStyle name="常规 2 3 5" xfId="155"/>
-    <cellStyle name="常规 2 3 5 2" xfId="156"/>
-    <cellStyle name="常规 2 3 5 3" xfId="157"/>
-    <cellStyle name="常规 2 3 6" xfId="158"/>
-    <cellStyle name="常规 2 4" xfId="159"/>
-    <cellStyle name="常规 2 4 2" xfId="160"/>
-    <cellStyle name="常规 2 4 2 2" xfId="161"/>
-    <cellStyle name="常规 2 4 2 3" xfId="162"/>
-    <cellStyle name="常规 2 4 3" xfId="163"/>
-    <cellStyle name="常规 2 4 3 2" xfId="164"/>
-    <cellStyle name="常规 2 4 3 3" xfId="165"/>
-    <cellStyle name="常规 2 4 4" xfId="166"/>
-    <cellStyle name="常规 2 4 5" xfId="167"/>
-    <cellStyle name="常规 2 5" xfId="168"/>
-    <cellStyle name="常规 2 5 2" xfId="169"/>
-    <cellStyle name="常规 2 5 2 2" xfId="170"/>
-    <cellStyle name="常规 2 5 2 3" xfId="171"/>
-    <cellStyle name="常规 2 5 3" xfId="172"/>
-    <cellStyle name="常规 2 5 4" xfId="173"/>
-    <cellStyle name="常规 2 6" xfId="174"/>
-    <cellStyle name="常规 2 6 2" xfId="175"/>
-    <cellStyle name="常规 2 6 3" xfId="176"/>
-    <cellStyle name="常规 2 7" xfId="177"/>
-    <cellStyle name="常规 2 7 2" xfId="178"/>
-    <cellStyle name="常规 2 7 3" xfId="179"/>
-    <cellStyle name="常规 2 8" xfId="180"/>
-    <cellStyle name="常规 22" xfId="669"/>
-    <cellStyle name="常规 3" xfId="181"/>
-    <cellStyle name="常规 3 10" xfId="182"/>
-    <cellStyle name="常规 3 10 2" xfId="183"/>
-    <cellStyle name="常规 3 11" xfId="184"/>
-    <cellStyle name="常规 3 11 2" xfId="185"/>
-    <cellStyle name="常规 3 12" xfId="186"/>
-    <cellStyle name="常规 3 2" xfId="187"/>
-    <cellStyle name="常规 3 2 2" xfId="188"/>
-    <cellStyle name="常规 3 2 2 2" xfId="189"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="190"/>
-    <cellStyle name="常规 3 2 2 3" xfId="191"/>
-    <cellStyle name="常规 3 2 3" xfId="192"/>
-    <cellStyle name="常规 3 2 3 2" xfId="193"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="194"/>
-    <cellStyle name="常规 3 2 3 3" xfId="195"/>
-    <cellStyle name="常规 3 2 4" xfId="196"/>
-    <cellStyle name="常规 3 2 4 2" xfId="197"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="198"/>
-    <cellStyle name="常规 3 2 4 3" xfId="199"/>
-    <cellStyle name="常规 3 2 5" xfId="200"/>
-    <cellStyle name="常规 3 2 5 2" xfId="201"/>
-    <cellStyle name="常规 3 2 6" xfId="202"/>
-    <cellStyle name="常规 3 2 6 2" xfId="203"/>
-    <cellStyle name="常规 3 2 7" xfId="204"/>
-    <cellStyle name="常规 3 2 7 2" xfId="205"/>
-    <cellStyle name="常规 3 2 8" xfId="206"/>
-    <cellStyle name="常规 3 2 8 2" xfId="207"/>
-    <cellStyle name="常规 3 2 9" xfId="208"/>
-    <cellStyle name="常规 3 3" xfId="209"/>
-    <cellStyle name="常规 3 3 2" xfId="210"/>
-    <cellStyle name="常规 3 3 2 2" xfId="211"/>
-    <cellStyle name="常规 3 3 3" xfId="212"/>
-    <cellStyle name="常规 3 4" xfId="213"/>
-    <cellStyle name="常规 3 4 2" xfId="214"/>
-    <cellStyle name="常规 3 4 2 2" xfId="215"/>
-    <cellStyle name="常规 3 4 3" xfId="216"/>
-    <cellStyle name="常规 3 5" xfId="217"/>
-    <cellStyle name="常规 3 5 2" xfId="218"/>
-    <cellStyle name="常规 3 5 2 2" xfId="219"/>
-    <cellStyle name="常规 3 5 3" xfId="220"/>
-    <cellStyle name="常规 3 6" xfId="221"/>
-    <cellStyle name="常规 3 6 2" xfId="222"/>
-    <cellStyle name="常规 3 6 2 2" xfId="223"/>
-    <cellStyle name="常规 3 6 3" xfId="224"/>
-    <cellStyle name="常规 3 7" xfId="225"/>
-    <cellStyle name="常规 3 7 2" xfId="226"/>
-    <cellStyle name="常规 3 8" xfId="227"/>
-    <cellStyle name="常规 3 8 2" xfId="228"/>
-    <cellStyle name="常规 3 9" xfId="229"/>
-    <cellStyle name="常规 3 9 2" xfId="230"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="常规 4 10" xfId="232"/>
-    <cellStyle name="常规 4 10 2" xfId="233"/>
-    <cellStyle name="常规 4 11" xfId="234"/>
-    <cellStyle name="常规 4 12" xfId="231"/>
-    <cellStyle name="常规 4 2" xfId="235"/>
-    <cellStyle name="常规 4 2 2" xfId="236"/>
-    <cellStyle name="常规 4 2 2 2" xfId="237"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="238"/>
-    <cellStyle name="常规 4 2 2 3" xfId="239"/>
-    <cellStyle name="常规 4 2 3" xfId="240"/>
-    <cellStyle name="常规 4 2 3 2" xfId="241"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="242"/>
-    <cellStyle name="常规 4 2 3 3" xfId="243"/>
-    <cellStyle name="常规 4 2 4" xfId="244"/>
-    <cellStyle name="常规 4 2 4 2" xfId="245"/>
-    <cellStyle name="常规 4 2 4 3" xfId="246"/>
-    <cellStyle name="常规 4 2 5" xfId="247"/>
-    <cellStyle name="常规 4 2 5 2" xfId="248"/>
-    <cellStyle name="常规 4 2 6" xfId="249"/>
-    <cellStyle name="常规 4 2 6 2" xfId="250"/>
-    <cellStyle name="常规 4 2 7" xfId="251"/>
-    <cellStyle name="常规 4 2 7 2" xfId="252"/>
-    <cellStyle name="常规 4 2 8" xfId="253"/>
-    <cellStyle name="常规 4 2 8 2" xfId="254"/>
-    <cellStyle name="常规 4 2 9" xfId="255"/>
-    <cellStyle name="常规 4 3" xfId="256"/>
-    <cellStyle name="常规 4 3 2" xfId="257"/>
-    <cellStyle name="常规 4 3 2 2" xfId="258"/>
-    <cellStyle name="常规 4 3 3" xfId="259"/>
-    <cellStyle name="常规 4 4" xfId="260"/>
-    <cellStyle name="常规 4 4 2" xfId="261"/>
-    <cellStyle name="常规 4 4 2 2" xfId="262"/>
-    <cellStyle name="常规 4 4 3" xfId="263"/>
-    <cellStyle name="常规 4 5" xfId="264"/>
-    <cellStyle name="常规 4 5 2" xfId="265"/>
-    <cellStyle name="常规 4 5 2 2" xfId="266"/>
-    <cellStyle name="常规 4 5 3" xfId="267"/>
-    <cellStyle name="常规 4 6" xfId="268"/>
-    <cellStyle name="常规 4 6 2" xfId="269"/>
-    <cellStyle name="常规 4 7" xfId="270"/>
-    <cellStyle name="常规 4 7 2" xfId="271"/>
-    <cellStyle name="常规 4 8" xfId="272"/>
-    <cellStyle name="常规 4 8 2" xfId="273"/>
-    <cellStyle name="常规 4 9" xfId="274"/>
-    <cellStyle name="常规 4 9 2" xfId="275"/>
-    <cellStyle name="常规 5" xfId="276"/>
-    <cellStyle name="常规 5 10" xfId="277"/>
-    <cellStyle name="常规 5 10 2" xfId="278"/>
-    <cellStyle name="常规 5 11" xfId="279"/>
-    <cellStyle name="常规 5 2" xfId="280"/>
-    <cellStyle name="常规 5 2 2" xfId="281"/>
-    <cellStyle name="常规 5 2 2 2" xfId="282"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="283"/>
-    <cellStyle name="常规 5 2 2 3" xfId="284"/>
-    <cellStyle name="常规 5 2 3" xfId="285"/>
-    <cellStyle name="常规 5 2 3 2" xfId="286"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="287"/>
-    <cellStyle name="常规 5 2 3 3" xfId="288"/>
-    <cellStyle name="常规 5 2 4" xfId="289"/>
-    <cellStyle name="常规 5 2 4 2" xfId="290"/>
-    <cellStyle name="常规 5 2 4 2 2" xfId="291"/>
-    <cellStyle name="常规 5 2 4 3" xfId="292"/>
-    <cellStyle name="常规 5 2 5" xfId="293"/>
-    <cellStyle name="常规 5 2 5 2" xfId="294"/>
-    <cellStyle name="常规 5 2 6" xfId="295"/>
-    <cellStyle name="常规 5 2 6 2" xfId="296"/>
-    <cellStyle name="常规 5 2 7" xfId="297"/>
-    <cellStyle name="常规 5 2 7 2" xfId="298"/>
-    <cellStyle name="常规 5 2 8" xfId="299"/>
-    <cellStyle name="常规 5 2 8 2" xfId="300"/>
-    <cellStyle name="常规 5 2 9" xfId="301"/>
-    <cellStyle name="常规 5 3" xfId="302"/>
-    <cellStyle name="常规 5 3 2" xfId="303"/>
-    <cellStyle name="常规 5 3 2 2" xfId="304"/>
-    <cellStyle name="常规 5 3 3" xfId="305"/>
-    <cellStyle name="常规 5 4" xfId="306"/>
-    <cellStyle name="常规 5 4 2" xfId="307"/>
-    <cellStyle name="常规 5 4 2 2" xfId="308"/>
-    <cellStyle name="常规 5 4 3" xfId="309"/>
-    <cellStyle name="常规 5 5" xfId="310"/>
-    <cellStyle name="常规 5 5 2" xfId="311"/>
-    <cellStyle name="常规 5 5 2 2" xfId="312"/>
-    <cellStyle name="常规 5 5 3" xfId="313"/>
-    <cellStyle name="常规 5 6" xfId="314"/>
-    <cellStyle name="常规 5 6 2" xfId="315"/>
-    <cellStyle name="常规 5 7" xfId="316"/>
-    <cellStyle name="常规 5 7 2" xfId="317"/>
-    <cellStyle name="常规 5 8" xfId="318"/>
-    <cellStyle name="常规 5 8 2" xfId="319"/>
-    <cellStyle name="常规 5 9" xfId="320"/>
-    <cellStyle name="常规 5 9 2" xfId="321"/>
-    <cellStyle name="常规 6" xfId="322"/>
-    <cellStyle name="常规 6 10" xfId="323"/>
-    <cellStyle name="常规 6 10 2" xfId="668"/>
-    <cellStyle name="常规 6 11" xfId="666"/>
-    <cellStyle name="常规 6 2" xfId="324"/>
-    <cellStyle name="常规 6 2 2" xfId="325"/>
-    <cellStyle name="常规 6 2 2 2" xfId="326"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="327"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="328"/>
-    <cellStyle name="常规 6 2 2 2 2 3" xfId="329"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="330"/>
-    <cellStyle name="常规 6 2 2 2 4" xfId="331"/>
-    <cellStyle name="常规 6 2 2 3" xfId="332"/>
-    <cellStyle name="常规 6 2 2 3 2" xfId="333"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="334"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="335"/>
-    <cellStyle name="常规 6 2 2 3 3" xfId="336"/>
-    <cellStyle name="常规 6 2 2 4" xfId="337"/>
-    <cellStyle name="常规 6 2 2 4 2" xfId="338"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="339"/>
-    <cellStyle name="常规 6 2 2 5" xfId="340"/>
-    <cellStyle name="常规 6 2 3" xfId="341"/>
-    <cellStyle name="常规 6 2 3 2" xfId="342"/>
-    <cellStyle name="常规 6 2 3 2 2" xfId="343"/>
-    <cellStyle name="常规 6 2 3 2 3" xfId="344"/>
-    <cellStyle name="常规 6 2 3 3" xfId="345"/>
-    <cellStyle name="常规 6 2 3 4" xfId="346"/>
-    <cellStyle name="常规 6 2 4" xfId="347"/>
-    <cellStyle name="常规 6 2 4 2" xfId="348"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="349"/>
-    <cellStyle name="常规 6 2 4 2 3" xfId="350"/>
-    <cellStyle name="常规 6 2 4 3" xfId="351"/>
-    <cellStyle name="常规 6 2 4 4" xfId="352"/>
-    <cellStyle name="常规 6 2 5" xfId="353"/>
-    <cellStyle name="常规 6 2 5 2" xfId="354"/>
-    <cellStyle name="常规 6 2 5 3" xfId="355"/>
-    <cellStyle name="常规 6 2 6" xfId="356"/>
-    <cellStyle name="常规 6 2 6 2" xfId="357"/>
-    <cellStyle name="常规 6 2 6 3" xfId="358"/>
-    <cellStyle name="常规 6 2 7" xfId="359"/>
-    <cellStyle name="常规 6 2 8" xfId="360"/>
-    <cellStyle name="常规 6 2 9" xfId="667"/>
-    <cellStyle name="常规 6 3" xfId="361"/>
-    <cellStyle name="常规 6 3 2" xfId="362"/>
-    <cellStyle name="常规 6 3 2 2" xfId="363"/>
-    <cellStyle name="常规 6 3 2 2 2" xfId="364"/>
-    <cellStyle name="常规 6 3 2 2 3" xfId="365"/>
-    <cellStyle name="常规 6 3 2 3" xfId="366"/>
-    <cellStyle name="常规 6 3 2 4" xfId="367"/>
-    <cellStyle name="常规 6 3 3" xfId="368"/>
-    <cellStyle name="常规 6 3 3 2" xfId="369"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="370"/>
-    <cellStyle name="常规 6 3 3 2 3" xfId="371"/>
-    <cellStyle name="常规 6 3 3 3" xfId="372"/>
-    <cellStyle name="常规 6 3 4" xfId="373"/>
-    <cellStyle name="常规 6 3 4 2" xfId="374"/>
-    <cellStyle name="常规 6 3 4 3" xfId="375"/>
-    <cellStyle name="常规 6 3 5" xfId="376"/>
-    <cellStyle name="常规 6 4" xfId="377"/>
-    <cellStyle name="常规 6 4 2" xfId="378"/>
-    <cellStyle name="常规 6 4 2 2" xfId="379"/>
-    <cellStyle name="常规 6 4 2 3" xfId="380"/>
-    <cellStyle name="常规 6 4 3" xfId="381"/>
-    <cellStyle name="常规 6 4 4" xfId="382"/>
-    <cellStyle name="常规 6 5" xfId="383"/>
-    <cellStyle name="常规 6 5 2" xfId="384"/>
-    <cellStyle name="常规 6 5 2 2" xfId="385"/>
-    <cellStyle name="常规 6 5 2 3" xfId="386"/>
-    <cellStyle name="常规 6 5 3" xfId="387"/>
-    <cellStyle name="常规 6 5 4" xfId="388"/>
-    <cellStyle name="常规 6 6" xfId="389"/>
-    <cellStyle name="常规 6 6 2" xfId="390"/>
-    <cellStyle name="常规 6 6 2 2" xfId="391"/>
-    <cellStyle name="常规 6 6 2 3" xfId="392"/>
-    <cellStyle name="常规 6 6 3" xfId="393"/>
-    <cellStyle name="常规 6 6 4" xfId="394"/>
-    <cellStyle name="常规 6 7" xfId="395"/>
-    <cellStyle name="常规 6 7 2" xfId="396"/>
-    <cellStyle name="常规 6 7 3" xfId="397"/>
-    <cellStyle name="常规 6 8" xfId="398"/>
-    <cellStyle name="常规 6 8 2" xfId="399"/>
-    <cellStyle name="常规 6 8 3" xfId="400"/>
-    <cellStyle name="常规 6 9" xfId="401"/>
-    <cellStyle name="常规 7" xfId="402"/>
-    <cellStyle name="常规 7 10" xfId="403"/>
-    <cellStyle name="常规 7 2" xfId="404"/>
-    <cellStyle name="常规 7 2 2" xfId="405"/>
-    <cellStyle name="常规 7 2 2 2" xfId="406"/>
-    <cellStyle name="常规 7 2 3" xfId="407"/>
-    <cellStyle name="常规 7 3" xfId="408"/>
-    <cellStyle name="常规 7 3 2" xfId="409"/>
-    <cellStyle name="常规 7 3 2 2" xfId="410"/>
-    <cellStyle name="常规 7 3 3" xfId="411"/>
-    <cellStyle name="常规 7 4" xfId="412"/>
-    <cellStyle name="常规 7 4 2" xfId="413"/>
-    <cellStyle name="常规 7 4 3" xfId="414"/>
-    <cellStyle name="常规 7 5" xfId="415"/>
-    <cellStyle name="常规 7 5 2" xfId="416"/>
-    <cellStyle name="常规 7 6" xfId="417"/>
-    <cellStyle name="常规 7 6 2" xfId="418"/>
-    <cellStyle name="常规 7 7" xfId="419"/>
-    <cellStyle name="常规 7 7 2" xfId="420"/>
-    <cellStyle name="常规 7 8" xfId="421"/>
-    <cellStyle name="常规 7 8 2" xfId="422"/>
-    <cellStyle name="常规 7 9" xfId="423"/>
-    <cellStyle name="常规 7 9 2" xfId="424"/>
-    <cellStyle name="常规 8" xfId="425"/>
-    <cellStyle name="常规 8 2" xfId="426"/>
-    <cellStyle name="常规 8 2 2" xfId="427"/>
-    <cellStyle name="常规 8 2 2 2" xfId="428"/>
-    <cellStyle name="常规 8 2 3" xfId="429"/>
-    <cellStyle name="常规 8 3" xfId="430"/>
-    <cellStyle name="常规 8 3 2" xfId="431"/>
-    <cellStyle name="常规 8 3 2 2" xfId="432"/>
-    <cellStyle name="常规 8 3 3" xfId="433"/>
-    <cellStyle name="常规 8 4" xfId="434"/>
-    <cellStyle name="常规 8 4 2" xfId="435"/>
-    <cellStyle name="常规 8 5" xfId="436"/>
-    <cellStyle name="常规 8 5 2" xfId="437"/>
-    <cellStyle name="常规 8 6" xfId="438"/>
-    <cellStyle name="常规 8 6 2" xfId="439"/>
-    <cellStyle name="常规 8 7" xfId="440"/>
-    <cellStyle name="常规 8 7 2" xfId="441"/>
-    <cellStyle name="常规 8 8" xfId="442"/>
-    <cellStyle name="常规 9" xfId="443"/>
-    <cellStyle name="常规 9 2" xfId="444"/>
-    <cellStyle name="常规 9 2 2" xfId="445"/>
-    <cellStyle name="常规 9 3" xfId="446"/>
-    <cellStyle name="常规_Sheet2" xfId="2"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="447"/>
-    <cellStyle name="標準 2 2" xfId="448"/>
-    <cellStyle name="標準 2 2 2" xfId="449"/>
-    <cellStyle name="標準 2 2 2 2" xfId="450"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="451"/>
-    <cellStyle name="標準 2 2 2 3" xfId="452"/>
-    <cellStyle name="標準 2 2 3" xfId="453"/>
-    <cellStyle name="標準 2 2 3 2" xfId="454"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="455"/>
-    <cellStyle name="標準 2 2 3 3" xfId="456"/>
-    <cellStyle name="標準 2 2 4" xfId="457"/>
-    <cellStyle name="標準 2 2 4 2" xfId="458"/>
-    <cellStyle name="標準 2 2 5" xfId="459"/>
-    <cellStyle name="標準 2 3" xfId="460"/>
-    <cellStyle name="標準 2 3 2" xfId="461"/>
-    <cellStyle name="標準 2 3 2 2" xfId="462"/>
-    <cellStyle name="標準 2 3 3" xfId="463"/>
-    <cellStyle name="標準 2 4" xfId="464"/>
-    <cellStyle name="標準 2 4 2" xfId="465"/>
-    <cellStyle name="標準 2 4 2 2" xfId="466"/>
-    <cellStyle name="標準 2 4 3" xfId="467"/>
-    <cellStyle name="標準 2 5" xfId="468"/>
-    <cellStyle name="標準 2 5 2" xfId="469"/>
-    <cellStyle name="標準 2 5 2 2" xfId="470"/>
-    <cellStyle name="標準 2 5 3" xfId="471"/>
-    <cellStyle name="標準 2 6" xfId="472"/>
-    <cellStyle name="標準 2 6 2" xfId="473"/>
-    <cellStyle name="標準 2 6 2 2" xfId="474"/>
-    <cellStyle name="標準 2 6 3" xfId="475"/>
-    <cellStyle name="標準 2 7" xfId="476"/>
-    <cellStyle name="標準 2 7 2" xfId="477"/>
-    <cellStyle name="標準 2 7 3" xfId="478"/>
-    <cellStyle name="標準 2 8" xfId="479"/>
-    <cellStyle name="標準 2 8 2" xfId="480"/>
-    <cellStyle name="標準 2 9" xfId="481"/>
-    <cellStyle name="標準 3" xfId="482"/>
-    <cellStyle name="標準 3 2" xfId="483"/>
-    <cellStyle name="標準 3 2 2" xfId="484"/>
-    <cellStyle name="標準 3 2 2 2" xfId="485"/>
-    <cellStyle name="標準 3 2 2 3" xfId="486"/>
-    <cellStyle name="標準 3 2 3" xfId="487"/>
-    <cellStyle name="標準 3 2 3 2" xfId="488"/>
-    <cellStyle name="標準 3 2 3 3" xfId="489"/>
-    <cellStyle name="標準 3 2 4" xfId="490"/>
-    <cellStyle name="標準 3 2 4 2" xfId="491"/>
-    <cellStyle name="標準 3 2 4 3" xfId="492"/>
-    <cellStyle name="標準 3 2 5" xfId="493"/>
-    <cellStyle name="標準 3 2 5 2" xfId="494"/>
-    <cellStyle name="標準 3 2 5 3" xfId="495"/>
-    <cellStyle name="標準 3 2 6" xfId="496"/>
-    <cellStyle name="標準 3 2 6 2" xfId="497"/>
-    <cellStyle name="標準 3 2 6 3" xfId="498"/>
-    <cellStyle name="標準 3 2 7" xfId="499"/>
-    <cellStyle name="標準 3 2 8" xfId="500"/>
-    <cellStyle name="標準 3 3" xfId="501"/>
-    <cellStyle name="標準 3 3 2" xfId="502"/>
-    <cellStyle name="標準 3 3 2 2" xfId="503"/>
-    <cellStyle name="標準 3 3 2 3" xfId="504"/>
-    <cellStyle name="標準 3 3 3" xfId="505"/>
-    <cellStyle name="標準 3 3 3 2" xfId="506"/>
-    <cellStyle name="標準 3 3 3 3" xfId="507"/>
-    <cellStyle name="標準 3 3 4" xfId="508"/>
-    <cellStyle name="標準 3 3 5" xfId="509"/>
-    <cellStyle name="標準 3 4" xfId="510"/>
-    <cellStyle name="標準 3 4 2" xfId="511"/>
-    <cellStyle name="標準 3 4 3" xfId="512"/>
-    <cellStyle name="標準 3 5" xfId="513"/>
-    <cellStyle name="標準 3 5 2" xfId="514"/>
-    <cellStyle name="標準 3 5 3" xfId="515"/>
-    <cellStyle name="標準 3 6" xfId="516"/>
-    <cellStyle name="標準 3 6 2" xfId="517"/>
-    <cellStyle name="標準 3 6 3" xfId="518"/>
-    <cellStyle name="標準 3 7" xfId="519"/>
-    <cellStyle name="標準 3 7 2" xfId="520"/>
-    <cellStyle name="標準 3 7 3" xfId="521"/>
-    <cellStyle name="標準 3 8" xfId="522"/>
-    <cellStyle name="標準 3 9" xfId="523"/>
-    <cellStyle name="標準 4" xfId="524"/>
-    <cellStyle name="標準 4 2" xfId="525"/>
-    <cellStyle name="標準 4 2 2" xfId="526"/>
-    <cellStyle name="標準 4 2 2 2" xfId="527"/>
-    <cellStyle name="標準 4 2 2 3" xfId="528"/>
-    <cellStyle name="標準 4 2 3" xfId="529"/>
-    <cellStyle name="標準 4 2 3 2" xfId="530"/>
-    <cellStyle name="標準 4 2 3 3" xfId="531"/>
-    <cellStyle name="標準 4 2 4" xfId="532"/>
-    <cellStyle name="標準 4 2 5" xfId="533"/>
-    <cellStyle name="標準 4 3" xfId="534"/>
-    <cellStyle name="標準 4 3 2" xfId="535"/>
-    <cellStyle name="標準 4 3 3" xfId="536"/>
-    <cellStyle name="標準 4 4" xfId="537"/>
-    <cellStyle name="標準 4 4 2" xfId="538"/>
-    <cellStyle name="標準 4 4 3" xfId="539"/>
-    <cellStyle name="標準 4 5" xfId="540"/>
-    <cellStyle name="標準 4 5 2" xfId="541"/>
-    <cellStyle name="標準 4 5 3" xfId="542"/>
-    <cellStyle name="標準 4 5 4" xfId="543"/>
-    <cellStyle name="標準 4 6" xfId="544"/>
-    <cellStyle name="標準 4 7" xfId="545"/>
-    <cellStyle name="標準 5" xfId="546"/>
-    <cellStyle name="標準 5 2" xfId="547"/>
-    <cellStyle name="標準 5 3" xfId="548"/>
-    <cellStyle name="標準 6" xfId="549"/>
-    <cellStyle name="標準 6 2" xfId="550"/>
-    <cellStyle name="標準 6 3" xfId="551"/>
-    <cellStyle name="標準 7" xfId="3"/>
-    <cellStyle name="標準 8" xfId="665"/>
-    <cellStyle name="超链接 10" xfId="552"/>
-    <cellStyle name="超链接 2" xfId="553"/>
-    <cellStyle name="超链接 2 2" xfId="554"/>
-    <cellStyle name="超链接 2 2 2" xfId="555"/>
-    <cellStyle name="超链接 2 2 2 2" xfId="556"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="557"/>
-    <cellStyle name="超链接 2 2 2 2 2 2" xfId="558"/>
-    <cellStyle name="超链接 2 2 2 2 2 3" xfId="559"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="560"/>
-    <cellStyle name="超链接 2 2 2 2 4" xfId="561"/>
-    <cellStyle name="超链接 2 2 2 3" xfId="562"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="563"/>
-    <cellStyle name="超链接 2 2 2 3 2 2" xfId="564"/>
-    <cellStyle name="超链接 2 2 2 3 2 3" xfId="565"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="566"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="567"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="568"/>
-    <cellStyle name="超链接 2 2 2 4 3" xfId="569"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="570"/>
-    <cellStyle name="超链接 2 2 3" xfId="571"/>
-    <cellStyle name="超链接 2 2 3 2" xfId="572"/>
-    <cellStyle name="超链接 2 2 3 2 2" xfId="573"/>
-    <cellStyle name="超链接 2 2 3 2 3" xfId="574"/>
-    <cellStyle name="超链接 2 2 3 3" xfId="575"/>
-    <cellStyle name="超链接 2 2 3 4" xfId="576"/>
-    <cellStyle name="超链接 2 2 4" xfId="577"/>
-    <cellStyle name="超链接 2 2 4 2" xfId="578"/>
-    <cellStyle name="超链接 2 2 4 2 2" xfId="579"/>
-    <cellStyle name="超链接 2 2 4 2 3" xfId="580"/>
-    <cellStyle name="超链接 2 2 4 3" xfId="581"/>
-    <cellStyle name="超链接 2 2 4 4" xfId="582"/>
-    <cellStyle name="超链接 2 2 5" xfId="583"/>
-    <cellStyle name="超链接 2 2 5 2" xfId="584"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="585"/>
-    <cellStyle name="超链接 2 2 6" xfId="586"/>
-    <cellStyle name="超链接 2 2 6 2" xfId="587"/>
-    <cellStyle name="超链接 2 2 6 3" xfId="588"/>
-    <cellStyle name="超链接 2 2 7" xfId="589"/>
-    <cellStyle name="超链接 2 3" xfId="590"/>
-    <cellStyle name="超链接 2 3 2" xfId="591"/>
-    <cellStyle name="超链接 2 3 2 2" xfId="592"/>
-    <cellStyle name="超链接 2 3 2 2 2" xfId="593"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="594"/>
-    <cellStyle name="超链接 2 3 2 3" xfId="595"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="596"/>
-    <cellStyle name="超链接 2 3 3" xfId="597"/>
-    <cellStyle name="超链接 2 3 3 2" xfId="598"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="599"/>
-    <cellStyle name="超链接 2 3 3 2 3" xfId="600"/>
-    <cellStyle name="超链接 2 3 3 3" xfId="601"/>
-    <cellStyle name="超链接 2 3 4" xfId="602"/>
-    <cellStyle name="超链接 2 3 4 2" xfId="603"/>
-    <cellStyle name="超链接 2 3 4 3" xfId="604"/>
-    <cellStyle name="超链接 2 3 5" xfId="605"/>
-    <cellStyle name="超链接 2 4" xfId="606"/>
-    <cellStyle name="超链接 2 4 2" xfId="607"/>
-    <cellStyle name="超链接 2 4 2 2" xfId="608"/>
-    <cellStyle name="超链接 2 4 2 3" xfId="609"/>
-    <cellStyle name="超链接 2 4 3" xfId="610"/>
-    <cellStyle name="超链接 2 4 4" xfId="611"/>
-    <cellStyle name="超链接 2 5" xfId="612"/>
-    <cellStyle name="超链接 2 5 2" xfId="613"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="614"/>
-    <cellStyle name="超链接 2 5 2 3" xfId="615"/>
-    <cellStyle name="超链接 2 5 3" xfId="616"/>
-    <cellStyle name="超链接 2 5 4" xfId="617"/>
-    <cellStyle name="超链接 2 6" xfId="618"/>
-    <cellStyle name="超链接 2 6 2" xfId="619"/>
-    <cellStyle name="超链接 2 6 3" xfId="620"/>
-    <cellStyle name="超链接 2 7" xfId="621"/>
-    <cellStyle name="超链接 2 7 2" xfId="622"/>
-    <cellStyle name="超链接 2 7 3" xfId="623"/>
-    <cellStyle name="超链接 2 8" xfId="624"/>
-    <cellStyle name="超链接 3" xfId="625"/>
-    <cellStyle name="超链接 3 2" xfId="626"/>
-    <cellStyle name="超链接 3 2 2" xfId="627"/>
-    <cellStyle name="超链接 3 2 2 2" xfId="628"/>
-    <cellStyle name="超链接 3 2 2 3" xfId="629"/>
-    <cellStyle name="超链接 3 2 3" xfId="630"/>
-    <cellStyle name="超链接 3 2 4" xfId="631"/>
-    <cellStyle name="超链接 3 3" xfId="632"/>
-    <cellStyle name="超链接 3 3 2" xfId="633"/>
-    <cellStyle name="超链接 3 3 2 2" xfId="634"/>
-    <cellStyle name="超链接 3 3 2 3" xfId="635"/>
-    <cellStyle name="超链接 3 3 3" xfId="636"/>
-    <cellStyle name="超链接 3 4" xfId="637"/>
-    <cellStyle name="超链接 3 4 2" xfId="638"/>
-    <cellStyle name="超链接 3 4 3" xfId="639"/>
-    <cellStyle name="超链接 3 5" xfId="640"/>
-    <cellStyle name="超链接 4" xfId="641"/>
-    <cellStyle name="超链接 4 2" xfId="642"/>
-    <cellStyle name="超链接 4 2 2" xfId="643"/>
-    <cellStyle name="超链接 4 3" xfId="644"/>
-    <cellStyle name="超链接 5" xfId="645"/>
-    <cellStyle name="超链接 5 2" xfId="646"/>
-    <cellStyle name="超链接 5 2 2" xfId="647"/>
-    <cellStyle name="超链接 5 2 3" xfId="648"/>
-    <cellStyle name="超链接 5 3" xfId="649"/>
-    <cellStyle name="超链接 5 4" xfId="650"/>
-    <cellStyle name="超链接 6" xfId="651"/>
-    <cellStyle name="超链接 6 2" xfId="652"/>
-    <cellStyle name="超链接 6 3" xfId="653"/>
-    <cellStyle name="超链接 7" xfId="654"/>
-    <cellStyle name="超链接 7 2" xfId="655"/>
-    <cellStyle name="超链接 7 3" xfId="656"/>
-    <cellStyle name="超链接 8" xfId="657"/>
-    <cellStyle name="超链接 9" xfId="658"/>
-    <cellStyle name="适中 2" xfId="659"/>
-    <cellStyle name="适中 2 2" xfId="660"/>
-    <cellStyle name="适中 2 2 2" xfId="661"/>
-    <cellStyle name="适中 2 2 3" xfId="662"/>
-    <cellStyle name="适中 2 3" xfId="663"/>
-    <cellStyle name="适中 2 4" xfId="664"/>
+  <cellStyles count="670">
+    <cellStyle name="標準 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="標準 2 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="標準 2 2 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="451" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="標準 2 2 3" xfId="452" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="標準 2 2 3 3" xfId="455" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="標準 2 2 4" xfId="456" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="標準 2 2 4 2" xfId="457" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="標準 2 2 5" xfId="458" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="標準 2 3" xfId="459" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="標準 2 3 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="標準 2 3 3" xfId="462" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="標準 2 4" xfId="463" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="標準 2 4 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="465" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="標準 2 4 3" xfId="466" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="標準 2 5" xfId="467" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="標準 2 5 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="標準 2 5 2 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="標準 2 5 3" xfId="470" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="標準 2 6" xfId="471" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="標準 2 6 2" xfId="472" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="標準 2 6 2 2" xfId="473" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="標準 2 6 3" xfId="474" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="標準 2 7" xfId="475" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="標準 2 7 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="標準 2 7 3" xfId="477" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="標準 2 8" xfId="478" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="標準 2 8 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="標準 2 9" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="標準 3" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="標準 3 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="標準 3 2 2" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="標準 3 2 2 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="標準 3 2 2 3" xfId="485" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="標準 3 2 3" xfId="486" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="標準 3 2 3 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="標準 3 2 3 3" xfId="488" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="標準 3 2 4" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="標準 3 2 4 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="標準 3 2 4 3" xfId="491" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="標準 3 2 5" xfId="492" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="標準 3 2 5 2" xfId="493" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="標準 3 2 5 3" xfId="494" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="標準 3 2 6" xfId="495" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="標準 3 2 6 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="標準 3 2 6 3" xfId="497" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="標準 3 2 7" xfId="498" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="標準 3 2 8" xfId="499" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="標準 3 3" xfId="500" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="標準 3 3 2" xfId="501" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="標準 3 3 2 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 3 3 2 3" xfId="503" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 3 3 3" xfId="504" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 3 3 3 2" xfId="505" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 3 3 3 3" xfId="506" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 3 3 4" xfId="507" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 3 3 5" xfId="508" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 3 4" xfId="509" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 3 4 2" xfId="510" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 3 4 3" xfId="511" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 3 5" xfId="512" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 3 5 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 3 5 3" xfId="514" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 3 6" xfId="515" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 3 6 2" xfId="516" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 3 6 3" xfId="517" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 3 7" xfId="518" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 3 7 2" xfId="519" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 3 7 3" xfId="520" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 3 8" xfId="521" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 3 9" xfId="522" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 4" xfId="523" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 4 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 4 2 2" xfId="525" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 4 2 2 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 4 2 2 3" xfId="527" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 4 2 3" xfId="528" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 4 2 3 2" xfId="529" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 4 2 3 3" xfId="530" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 4 2 4" xfId="531" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 4 2 5" xfId="532" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 4 3" xfId="533" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 4 3 2" xfId="534" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 4 3 3" xfId="535" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 4 4" xfId="536" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 4 4 2" xfId="537" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4 4 3" xfId="538" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 4 5" xfId="539" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 4 5 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 4 5 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 4 5 4" xfId="542" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 4 6" xfId="543" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 4 7" xfId="544" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 5" xfId="545" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 5 2" xfId="546" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 5 3" xfId="547" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 6" xfId="548" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準 6 2" xfId="549" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準 6 3" xfId="550" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準 7" xfId="2" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="標準 8" xfId="664" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 10 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 10 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 10 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 11" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 11 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 11 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 11 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 12" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 12 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 12 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 12 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 13" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 13 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 14" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 14 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 15" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 15 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 16" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 16 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 17" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 17 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 18" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 19" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2 2 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="53" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 4" xfId="58" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="59" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 2 2 2 2 5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="常规 2 2 2 2 5 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="常规 2 2 2 2 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="常规 2 2 2 2 6 3" xfId="64" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 2 2 2 2 7" xfId="65" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 2 2 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 4" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 2 2 2 3 4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="常规 2 2 2 3 4 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 2 2 3 5" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 2 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 2 2 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 2 2 5 2 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 2 2 5 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 2 2 2 5 4" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 2 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2 2 6 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 2 2 7" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 2 2 8" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 2 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="常规 2 2 3 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="常规 2 2 3 5" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="常规 2 2 3 5 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="常规 2 2 3 6" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="常规 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="常规 2 2 4 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="常规 2 2 4 3" xfId="124" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="常规 2 2 4 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="常规 2 2 5" xfId="126" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="常规 2 2 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="129" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="常规 2 2 5 3" xfId="130" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="常规 2 2 5 4" xfId="131" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="常规 2 2 6" xfId="132" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="常规 2 2 6 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="常规 2 2 6 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="常规 2 2 7" xfId="135" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="常规 2 2 7 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="常规 2 2 7 3" xfId="137" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="常规 2 2 8" xfId="138" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="常规 2 3" xfId="139" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="143" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="144" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="145" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="150" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="151" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="153" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="154" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="常规 2 3 5 3" xfId="156" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="常规 2 3 6" xfId="157" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="常规 2 4" xfId="158" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="常规 2 4 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="常规 2 4 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="常规 2 4 2 3" xfId="161" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="常规 2 4 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 2 4 3 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 2 4 3 3" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="常规 2 4 4" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="常规 2 4 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 2 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 2 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="常规 2 5 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="常规 2 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="常规 2 5 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="常规 2 5 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="常规 2 6" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="常规 2 6 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="常规 2 6 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="常规 2 7" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="常规 2 7 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="常规 2 7 3" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="常规 2 8" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="常规 22" xfId="668" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="常规 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="常规 3 10" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="常规 3 10 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="常规 3 11" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="常规 3 11 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="常规 3 12" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="常规 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="常规 3 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="常规 3 2 2 3" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="常规 3 2 3" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="常规 3 2 3 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="常规 3 2 3 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="常规 3 2 4" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="常规 3 2 4 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="常规 3 2 4 3" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="常规 3 2 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="常规 3 2 5 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="常规 3 2 6" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="常规 3 2 6 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="常规 3 2 7" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="常规 3 2 7 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="常规 3 2 8" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="常规 3 2 8 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="常规 3 2 9" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="常规 3 3" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="常规 3 3 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="常规 3 3 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="常规 3 3 3" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="常规 3 4" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="常规 3 4 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="常规 3 4 2 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="常规 3 4 3" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="常规 3 5" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="常规 3 5 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="常规 3 5 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="常规 3 5 3" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="常规 3 6" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="常规 3 6 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="常规 3 6 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="常规 3 6 3" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="常规 3 7" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 3 7 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="常规 3 8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="常规 3 8 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="常规 3 9" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="常规 3 9 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="常规 4 10" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="常规 4 10 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="常规 4 11" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="常规 4 12" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="常规 4 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="常规 4 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="常规 4 2 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="常规 4 2 2 3" xfId="238" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="常规 4 2 3" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="常规 4 2 3 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="常规 4 2 3 3" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="常规 4 2 4" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="常规 4 2 4 2" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="常规 4 2 4 3" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="常规 4 2 5" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="常规 4 2 5 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="常规 4 2 6" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="常规 4 2 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="常规 4 2 7" xfId="250" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 4 2 7 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="常规 4 2 8" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="常规 4 2 8 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="常规 4 2 9" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="常规 4 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="常规 4 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 4 3 2 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="常规 4 3 3" xfId="258" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="常规 4 4" xfId="259" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="常规 4 4 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="常规 4 4 2 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="常规 4 4 3" xfId="262" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="常规 4 5" xfId="263" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="常规 4 5 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="常规 4 5 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="常规 4 5 3" xfId="266" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 4 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="常规 4 6 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="常规 4 7" xfId="269" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 4 7 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="常规 4 8" xfId="271" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="常规 4 8 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="常规 4 9" xfId="273" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="常规 4 9 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="常规 5" xfId="275" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="常规 5 10" xfId="276" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="常规 5 10 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="常规 5 11" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="常规 5 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="常规 5 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="常规 5 2 3 3" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="288" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="常规 5 2 4 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="常规 5 2 4 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="292" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="常规 5 2 5 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="常规 5 2 6" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="常规 5 2 6 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="常规 5 2 7" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="常规 5 2 7 2" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="常规 5 2 8" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 5 2 8 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 2 9" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="常规 5 3" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="常规 5 3 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="常规 5 4" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="常规 5 4 2 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="常规 5 4 3" xfId="308" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="常规 5 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="常规 5 5 2 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="常规 5 5 3" xfId="312" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 5 6" xfId="313" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 5 6 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 5 7" xfId="315" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 5 7 2" xfId="316" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 5 8" xfId="317" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 5 8 2" xfId="318" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 5 9" xfId="319" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 5 9 2" xfId="320" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 6" xfId="321" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 6 10" xfId="322" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 6 10 2" xfId="667" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 6 11" xfId="665" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 6 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 6 2 2" xfId="324" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 6 2 2 2" xfId="325" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 6 2 2 2 2 3" xfId="328" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="329" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 6 2 2 2 4" xfId="330" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 6 2 2 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 6 2 2 3 2" xfId="332" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="333" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="334" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 6 2 2 3 3" xfId="335" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 6 2 2 4" xfId="336" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 6 2 2 4 2" xfId="337" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="338" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 6 2 2 5" xfId="339" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 6 2 3" xfId="340" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 6 2 3 2" xfId="341" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 6 2 3 2 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 6 2 3 2 3" xfId="343" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 6 2 3 3" xfId="344" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 6 2 3 4" xfId="345" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 6 2 4" xfId="346" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 6 2 4 2" xfId="347" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="348" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="常规 6 2 4 2 3" xfId="349" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="常规 6 2 4 3" xfId="350" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="常规 6 2 4 4" xfId="351" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="常规 6 2 5" xfId="352" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="常规 6 2 5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="常规 6 2 5 3" xfId="354" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="常规 6 2 6" xfId="355" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="常规 6 2 6 2" xfId="356" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="常规 6 2 6 3" xfId="357" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="常规 6 2 7" xfId="358" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="常规 6 2 8" xfId="359" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="常规 6 2 9" xfId="666" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="常规 6 3" xfId="360" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="常规 6 3 2" xfId="361" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="常规 6 3 2 2" xfId="362" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="常规 6 3 2 2 2" xfId="363" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="常规 6 3 2 2 3" xfId="364" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="常规 6 3 2 3" xfId="365" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="常规 6 3 2 4" xfId="366" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="常规 6 3 3" xfId="367" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="常规 6 3 3 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="常规 6 3 3 2 3" xfId="370" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="常规 6 3 3 3" xfId="371" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="常规 6 3 4" xfId="372" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="常规 6 3 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="常规 6 3 4 3" xfId="374" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="常规 6 3 5" xfId="375" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="常规 6 4" xfId="376" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="常规 6 4 2" xfId="377" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="常规 6 4 2 2" xfId="378" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="常规 6 4 2 3" xfId="379" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="常规 6 4 3" xfId="380" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="常规 6 4 4" xfId="381" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="常规 6 5" xfId="382" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="常规 6 5 2" xfId="383" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="常规 6 5 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="常规 6 5 2 3" xfId="385" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="常规 6 5 3" xfId="386" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="常规 6 5 4" xfId="387" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="常规 6 6" xfId="388" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="常规 6 6 2" xfId="389" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="常规 6 6 2 2" xfId="390" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="常规 6 6 2 3" xfId="391" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="常规 6 6 3" xfId="392" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="常规 6 6 4" xfId="393" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="常规 6 7" xfId="394" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="常规 6 7 2" xfId="395" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="常规 6 7 3" xfId="396" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="常规 6 8" xfId="397" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="常规 6 8 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="常规 6 8 3" xfId="399" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="常规 6 9" xfId="400" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="常规 7" xfId="401" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="常规 7 10" xfId="402" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="常规 7 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="常规 7 2 2" xfId="404" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="常规 7 2 2 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="常规 7 2 3" xfId="406" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="常规 7 3" xfId="407" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="常规 7 3 2" xfId="408" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="常规 7 3 2 2" xfId="409" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="常规 7 3 3" xfId="410" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="常规 7 4" xfId="411" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="常规 7 4 2" xfId="412" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="常规 7 4 3" xfId="413" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="常规 7 5" xfId="414" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="常规 7 5 2" xfId="415" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="常规 7 6" xfId="416" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="常规 7 6 2" xfId="417" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="常规 7 7" xfId="418" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="常规 7 7 2" xfId="419" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="常规 7 8" xfId="420" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="常规 7 8 2" xfId="421" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="常规 7 9" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="常规 7 9 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="常规 8" xfId="424" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="常规 8 2" xfId="425" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="常规 8 2 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="常规 8 2 2 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="常规 8 2 3" xfId="428" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="常规 8 3" xfId="429" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="常规 8 3 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="常规 8 3 2 2" xfId="431" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="常规 8 3 3" xfId="432" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="常规 8 4" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="常规 8 4 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="常规 8 5" xfId="435" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="常规 8 5 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="常规 8 6" xfId="437" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="常规 8 6 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="常规 8 7" xfId="439" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="常规 8 7 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="常规 8 8" xfId="441" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="常规 9" xfId="442" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="常规 9 2" xfId="443" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="常规 9 2 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="常规 9 3" xfId="445" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8"/>
+    <cellStyle name="超链接 10" xfId="551" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="超链接 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="超链接 2 2" xfId="553" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="超链接 2 2 2" xfId="554" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="超链接 2 2 2 2" xfId="555" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2 2" xfId="557" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2 3" xfId="558" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="559" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="超链接 2 2 2 2 4" xfId="560" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="超链接 2 2 2 3" xfId="561" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="562" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2 2" xfId="563" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2 3" xfId="564" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="565" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="566" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="567" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="超链接 2 2 2 4 3" xfId="568" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="569" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="超链接 2 2 3" xfId="570" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="超链接 2 2 3 2" xfId="571" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="超链接 2 2 3 2 2" xfId="572" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="超链接 2 2 3 2 3" xfId="573" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="超链接 2 2 3 3" xfId="574" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="超链接 2 2 3 4" xfId="575" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="超链接 2 2 4" xfId="576" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="超链接 2 2 4 2" xfId="577" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="超链接 2 2 4 2 2" xfId="578" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="超链接 2 2 4 2 3" xfId="579" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="超链接 2 2 4 3" xfId="580" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="超链接 2 2 4 4" xfId="581" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="超链接 2 2 5" xfId="582" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="超链接 2 2 5 2" xfId="583" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="584" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="超链接 2 2 6" xfId="585" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="超链接 2 2 6 2" xfId="586" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="超链接 2 2 6 3" xfId="587" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="超链接 2 2 7" xfId="588" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="超链接 2 3" xfId="589" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="超链接 2 3 2" xfId="590" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="超链接 2 3 2 2" xfId="591" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="超链接 2 3 2 2 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="593" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="超链接 2 3 2 3" xfId="594" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="595" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="超链接 2 3 3" xfId="596" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="超链接 2 3 3 2" xfId="597" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="598" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="超链接 2 3 3 2 3" xfId="599" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="超链接 2 3 3 3" xfId="600" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="超链接 2 3 4" xfId="601" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="超链接 2 3 4 2" xfId="602" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="超链接 2 3 4 3" xfId="603" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="超链接 2 3 5" xfId="604" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="超链接 2 4" xfId="605" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="超链接 2 4 2" xfId="606" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="超链接 2 4 2 2" xfId="607" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="超链接 2 4 2 3" xfId="608" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="超链接 2 4 3" xfId="609" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="超链接 2 4 4" xfId="610" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="超链接 2 5" xfId="611" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="超链接 2 5 2" xfId="612" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="613" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="超链接 2 5 2 3" xfId="614" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="超链接 2 5 3" xfId="615" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="超链接 2 5 4" xfId="616" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="超链接 2 6" xfId="617" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="超链接 2 6 2" xfId="618" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="超链接 2 6 3" xfId="619" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="超链接 2 7" xfId="620" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="超链接 2 7 2" xfId="621" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="超链接 2 7 3" xfId="622" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="超链接 2 8" xfId="623" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="超链接 3" xfId="624" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="超链接 3 2" xfId="625" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="超链接 3 2 2" xfId="626" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="超链接 3 2 2 2" xfId="627" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="超链接 3 2 2 3" xfId="628" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="超链接 3 2 3" xfId="629" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="超链接 3 2 4" xfId="630" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="超链接 3 3" xfId="631" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="超链接 3 3 2" xfId="632" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="超链接 3 3 2 2" xfId="633" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="超链接 3 3 2 3" xfId="634" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="超链接 3 3 3" xfId="635" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="超链接 3 4" xfId="636" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="超链接 3 4 2" xfId="637" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="超链接 3 4 3" xfId="638" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="超链接 3 5" xfId="639" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="超链接 4" xfId="640" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="超链接 4 2" xfId="641" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="超链接 4 2 2" xfId="642" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="超链接 4 3" xfId="643" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="超链接 5" xfId="644" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="超链接 5 2" xfId="645" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="超链接 5 2 2" xfId="646" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="超链接 5 2 3" xfId="647" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="超链接 5 3" xfId="648" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="超链接 5 4" xfId="649" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="超链接 6" xfId="650" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="超链接 6 2" xfId="651" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="超链接 6 3" xfId="652" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="超链接 7" xfId="653" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="超链接 7 2" xfId="654" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="超链接 7 3" xfId="655" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="超链接 8" xfId="656" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="超链接 9" xfId="657" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="适中 2" xfId="658" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="适中 2 2" xfId="659" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="适中 2 2 2" xfId="660" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="适中 2 2 3" xfId="661" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="适中 2 3" xfId="662" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="适中 2 4" xfId="663" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3599,7 +3612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3641,7 +3654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3674,9 +3687,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3709,6 +3739,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3884,12 +3931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -5148,7 +5195,9 @@
       <c r="G32" s="25">
         <v>44853</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="25">
+        <v>44848</v>
+      </c>
       <c r="I32" s="25"/>
       <c r="J32" s="26">
         <v>0</v>
@@ -9918,30 +9967,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>rv</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="8.109375" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -9949,7 +9998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9960,7 +10009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -9968,7 +10017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -9976,7 +10025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -9984,7 +10033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -9992,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -10000,7 +10049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -10086,7 +10135,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE3D47F-B325-4F14-98FC-A35601A3FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A8AF59-C8A6-4BF4-9822-7B563536C54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,13 +400,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -876,2045 +869,2045 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="669"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="669"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="670">
     <cellStyle name="標準 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
@@ -3936,7 +3929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -5198,9 +5191,11 @@
       <c r="H32" s="25">
         <v>44848</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="25">
+        <v>44853</v>
+      </c>
       <c r="J32" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="24" t="s">
         <v>52</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩宇\Desktop\skillup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517994A7-222E-4F03-9FCA-D8FE584A1294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17856" windowHeight="13176" tabRatio="581"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -13,7 +19,18 @@
   <definedNames>
     <definedName name="rv">list!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -246,7 +263,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <scheme val="minor"/>
       </rPr>
       <t>github</t>
@@ -255,7 +272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <scheme val="minor"/>
       </rPr>
       <t>账</t>
@@ -264,7 +281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <scheme val="minor"/>
       </rPr>
       <t>号一</t>
@@ -273,7 +290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <scheme val="minor"/>
       </rPr>
       <t>览：</t>
@@ -295,15 +312,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,14 +334,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -375,28 +392,30 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,17 +423,18 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2663,7 +2683,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2689,34 +2709,34 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2752,10 +2772,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2775,7 +2795,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2792,676 +2812,676 @@
     </xf>
   </cellXfs>
   <cellStyles count="670">
-    <cellStyle name="ハイパーリンク" xfId="464" builtinId="8"/>
-    <cellStyle name="常规 10" xfId="605"/>
-    <cellStyle name="常规 10 2" xfId="668"/>
-    <cellStyle name="常规 10 2 2" xfId="582"/>
-    <cellStyle name="常规 10 3" xfId="654"/>
-    <cellStyle name="常规 11" xfId="512"/>
-    <cellStyle name="常规 11 2" xfId="657"/>
-    <cellStyle name="常规 11 2 2" xfId="263"/>
-    <cellStyle name="常规 11 3" xfId="520"/>
-    <cellStyle name="常规 12" xfId="540"/>
-    <cellStyle name="常规 12 2" xfId="358"/>
-    <cellStyle name="常规 12 2 2" xfId="570"/>
-    <cellStyle name="常规 12 3" xfId="439"/>
-    <cellStyle name="常规 13" xfId="649"/>
-    <cellStyle name="常规 13 2" xfId="490"/>
-    <cellStyle name="常规 14" xfId="660"/>
-    <cellStyle name="常规 14 2" xfId="563"/>
-    <cellStyle name="常规 15" xfId="505"/>
-    <cellStyle name="常规 15 2" xfId="552"/>
-    <cellStyle name="常规 16" xfId="504"/>
-    <cellStyle name="常规 16 2" xfId="536"/>
-    <cellStyle name="常规 17" xfId="487"/>
-    <cellStyle name="常规 17 2" xfId="462"/>
-    <cellStyle name="常规 18" xfId="457"/>
-    <cellStyle name="常规 19" xfId="454"/>
-    <cellStyle name="常规 2" xfId="409"/>
-    <cellStyle name="常规 2 2" xfId="473"/>
-    <cellStyle name="常规 2 2 2" xfId="528"/>
-    <cellStyle name="常规 2 2 2 2" xfId="381"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="603"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="444"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="431"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="428"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="447"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="446"/>
-    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="442"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="587"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="573"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="317"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="485"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="637"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="440"/>
-    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="465"/>
-    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="579"/>
-    <cellStyle name="常规 2 2 2 2 2 5" xfId="655"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="651"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="468"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="426"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="416"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="493"/>
-    <cellStyle name="常规 2 2 2 2 3 4" xfId="482"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="593"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="576"/>
-    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="519"/>
-    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="412"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="560"/>
-    <cellStyle name="常规 2 2 2 2 4 4" xfId="619"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="410"/>
-    <cellStyle name="常规 2 2 2 2 5 2" xfId="472"/>
-    <cellStyle name="常规 2 2 2 2 5 3" xfId="276"/>
-    <cellStyle name="常规 2 2 2 2 6" xfId="354"/>
-    <cellStyle name="常规 2 2 2 2 6 2" xfId="248"/>
-    <cellStyle name="常规 2 2 2 2 6 3" xfId="535"/>
-    <cellStyle name="常规 2 2 2 2 7" xfId="526"/>
-    <cellStyle name="常规 2 2 2 3" xfId="402"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="400"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="399"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="418"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="398"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="394"/>
-    <cellStyle name="常规 2 2 2 3 2 4" xfId="390"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="388"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="530"/>
-    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="384"/>
-    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="382"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="591"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="506"/>
-    <cellStyle name="常规 2 2 2 3 4 2" xfId="372"/>
-    <cellStyle name="常规 2 2 2 3 4 3" xfId="368"/>
-    <cellStyle name="常规 2 2 2 3 5" xfId="364"/>
-    <cellStyle name="常规 2 2 2 4" xfId="498"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="361"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="350"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="322"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="541"/>
-    <cellStyle name="常规 2 2 2 4 4" xfId="554"/>
-    <cellStyle name="常规 2 2 2 5" xfId="360"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="351"/>
-    <cellStyle name="常规 2 2 2 5 2 2" xfId="348"/>
-    <cellStyle name="常规 2 2 2 5 2 3" xfId="300"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="323"/>
-    <cellStyle name="常规 2 2 2 5 4" xfId="345"/>
-    <cellStyle name="常规 2 2 2 6" xfId="542"/>
-    <cellStyle name="常规 2 2 2 6 2" xfId="341"/>
-    <cellStyle name="常规 2 2 2 6 3" xfId="650"/>
-    <cellStyle name="常规 2 2 2 7" xfId="555"/>
-    <cellStyle name="常规 2 2 2 7 2" xfId="336"/>
-    <cellStyle name="常规 2 2 2 7 3" xfId="611"/>
-    <cellStyle name="常规 2 2 2 8" xfId="553"/>
-    <cellStyle name="常规 2 2 3" xfId="356"/>
-    <cellStyle name="常规 2 2 3 2" xfId="568"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="501"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="326"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="328"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="316"/>
-    <cellStyle name="常规 2 2 3 3" xfId="314"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="437"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="312"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="376"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="310"/>
-    <cellStyle name="常规 2 2 3 4" xfId="308"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="305"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="303"/>
-    <cellStyle name="常规 2 2 3 5" xfId="349"/>
-    <cellStyle name="常规 2 2 3 5 2" xfId="347"/>
-    <cellStyle name="常规 2 2 3 5 3" xfId="301"/>
-    <cellStyle name="常规 2 2 3 6" xfId="324"/>
-    <cellStyle name="常规 2 2 4" xfId="583"/>
-    <cellStyle name="常规 2 2 4 2" xfId="614"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="599"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="463"/>
-    <cellStyle name="常规 2 2 4 3" xfId="289"/>
-    <cellStyle name="常规 2 2 4 4" xfId="288"/>
-    <cellStyle name="常规 2 2 5" xfId="287"/>
-    <cellStyle name="常规 2 2 5 2" xfId="285"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="284"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="352"/>
-    <cellStyle name="常规 2 2 5 3" xfId="283"/>
-    <cellStyle name="常规 2 2 5 4" xfId="282"/>
-    <cellStyle name="常规 2 2 6" xfId="281"/>
-    <cellStyle name="常规 2 2 6 2" xfId="648"/>
-    <cellStyle name="常规 2 2 6 3" xfId="659"/>
-    <cellStyle name="常规 2 2 7" xfId="280"/>
-    <cellStyle name="常规 2 2 7 2" xfId="279"/>
-    <cellStyle name="常规 2 2 7 3" xfId="616"/>
-    <cellStyle name="常规 2 2 8" xfId="318"/>
-    <cellStyle name="常规 2 3" xfId="278"/>
-    <cellStyle name="常规 2 3 2" xfId="434"/>
-    <cellStyle name="常规 2 3 2 2" xfId="595"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="522"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="558"/>
-    <cellStyle name="常规 2 3 2 3" xfId="408"/>
-    <cellStyle name="常规 2 3 2 4" xfId="459"/>
-    <cellStyle name="常规 2 3 3" xfId="385"/>
-    <cellStyle name="常规 2 3 3 2" xfId="509"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="366"/>
-    <cellStyle name="常规 2 3 3 3" xfId="363"/>
-    <cellStyle name="常规 2 3 4" xfId="273"/>
-    <cellStyle name="常规 2 3 4 2" xfId="404"/>
-    <cellStyle name="常规 2 3 4 3" xfId="272"/>
-    <cellStyle name="常规 2 3 5" xfId="270"/>
-    <cellStyle name="常规 2 3 5 2" xfId="344"/>
-    <cellStyle name="常规 2 3 5 3" xfId="269"/>
-    <cellStyle name="常规 2 3 6" xfId="383"/>
-    <cellStyle name="常规 2 4" xfId="267"/>
-    <cellStyle name="常规 2 4 2" xfId="397"/>
-    <cellStyle name="常规 2 4 2 2" xfId="246"/>
-    <cellStyle name="常规 2 4 2 3" xfId="265"/>
-    <cellStyle name="常规 2 4 3" xfId="264"/>
-    <cellStyle name="常规 2 4 3 2" xfId="262"/>
-    <cellStyle name="常规 2 4 3 3" xfId="259"/>
-    <cellStyle name="常规 2 4 4" xfId="453"/>
-    <cellStyle name="常规 2 4 5" xfId="429"/>
-    <cellStyle name="常规 2 5" xfId="337"/>
-    <cellStyle name="常规 2 5 2" xfId="257"/>
-    <cellStyle name="常规 2 5 2 2" xfId="491"/>
-    <cellStyle name="常规 2 5 2 3" xfId="480"/>
-    <cellStyle name="常规 2 5 3" xfId="251"/>
-    <cellStyle name="常规 2 5 4" xfId="401"/>
-    <cellStyle name="常规 2 6" xfId="626"/>
-    <cellStyle name="常规 2 6 2" xfId="471"/>
-    <cellStyle name="常规 2 6 3" xfId="274"/>
-    <cellStyle name="常规 2 7" xfId="518"/>
-    <cellStyle name="常规 2 7 2" xfId="250"/>
-    <cellStyle name="常规 2 7 3" xfId="646"/>
-    <cellStyle name="常规 2 8" xfId="247"/>
-    <cellStyle name="常规 22" xfId="486"/>
-    <cellStyle name="常规 3" xfId="353"/>
-    <cellStyle name="常规 3 10" xfId="580"/>
-    <cellStyle name="常规 3 10 2" xfId="244"/>
-    <cellStyle name="常规 3 11" xfId="292"/>
-    <cellStyle name="常规 3 11 2" xfId="241"/>
-    <cellStyle name="常规 3 12" xfId="237"/>
-    <cellStyle name="常规 3 2" xfId="249"/>
-    <cellStyle name="常规 3 2 2" xfId="669"/>
-    <cellStyle name="常规 3 2 2 2" xfId="585"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="290"/>
-    <cellStyle name="常规 3 2 2 3" xfId="430"/>
-    <cellStyle name="常规 3 2 3" xfId="235"/>
-    <cellStyle name="常规 3 2 3 2" xfId="339"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="231"/>
-    <cellStyle name="常规 3 2 3 3" xfId="396"/>
-    <cellStyle name="常规 3 2 4" xfId="229"/>
-    <cellStyle name="常规 3 2 4 2" xfId="331"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="636"/>
-    <cellStyle name="常规 3 2 4 3" xfId="256"/>
-    <cellStyle name="常规 3 2 5" xfId="226"/>
-    <cellStyle name="常规 3 2 5 2" xfId="254"/>
-    <cellStyle name="常规 3 2 6" xfId="613"/>
-    <cellStyle name="常规 3 2 6 2" xfId="478"/>
-    <cellStyle name="常规 3 2 7" xfId="335"/>
-    <cellStyle name="常规 3 2 7 2" xfId="393"/>
-    <cellStyle name="常规 3 2 8" xfId="609"/>
-    <cellStyle name="常规 3 2 8 2" xfId="379"/>
-    <cellStyle name="常规 3 2 9" xfId="223"/>
-    <cellStyle name="常规 3 3" xfId="534"/>
-    <cellStyle name="常规 3 3 2" xfId="469"/>
-    <cellStyle name="常规 3 3 2 2" xfId="617"/>
-    <cellStyle name="常规 3 3 3" xfId="219"/>
-    <cellStyle name="常规 3 4" xfId="217"/>
-    <cellStyle name="常规 3 4 2" xfId="380"/>
-    <cellStyle name="常规 3 4 2 2" xfId="215"/>
-    <cellStyle name="常规 3 4 3" xfId="569"/>
-    <cellStyle name="常规 3 5" xfId="214"/>
-    <cellStyle name="常规 3 5 2" xfId="213"/>
-    <cellStyle name="常规 3 5 2 2" xfId="210"/>
-    <cellStyle name="常规 3 5 3" xfId="209"/>
-    <cellStyle name="常规 3 6" xfId="208"/>
-    <cellStyle name="常规 3 6 2" xfId="207"/>
-    <cellStyle name="常规 3 6 2 2" xfId="206"/>
-    <cellStyle name="常规 3 6 3" xfId="615"/>
-    <cellStyle name="常规 3 7" xfId="475"/>
-    <cellStyle name="常规 3 7 2" xfId="622"/>
-    <cellStyle name="常规 3 8" xfId="261"/>
-    <cellStyle name="常规 3 8 2" xfId="539"/>
-    <cellStyle name="常规 3 9" xfId="258"/>
-    <cellStyle name="常规 3 9 2" xfId="286"/>
-    <cellStyle name="常规 4" xfId="525"/>
-    <cellStyle name="常规 4 10" xfId="205"/>
-    <cellStyle name="常规 4 10 2" xfId="204"/>
-    <cellStyle name="常规 4 11" xfId="658"/>
-    <cellStyle name="常规 4 12" xfId="602"/>
-    <cellStyle name="常规 4 2" xfId="203"/>
-    <cellStyle name="常规 4 2 2" xfId="559"/>
-    <cellStyle name="常规 4 2 2 2" xfId="199"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="411"/>
-    <cellStyle name="常规 4 2 2 3" xfId="600"/>
-    <cellStyle name="常规 4 2 3" xfId="618"/>
-    <cellStyle name="常规 4 2 3 2" xfId="196"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="357"/>
-    <cellStyle name="常规 4 2 3 3" xfId="581"/>
-    <cellStyle name="常规 4 2 4" xfId="191"/>
-    <cellStyle name="常规 4 2 4 2" xfId="188"/>
-    <cellStyle name="常规 4 2 4 3" xfId="606"/>
-    <cellStyle name="常规 4 2 5" xfId="630"/>
-    <cellStyle name="常规 4 2 5 2" xfId="183"/>
-    <cellStyle name="常规 4 2 6" xfId="180"/>
-    <cellStyle name="常规 4 2 6 2" xfId="178"/>
-    <cellStyle name="常规 4 2 7" xfId="177"/>
-    <cellStyle name="常规 4 2 7 2" xfId="311"/>
-    <cellStyle name="常规 4 2 8" xfId="175"/>
-    <cellStyle name="常规 4 2 8 2" xfId="306"/>
-    <cellStyle name="常规 4 2 9" xfId="174"/>
-    <cellStyle name="常规 4 3" xfId="194"/>
-    <cellStyle name="常规 4 3 2" xfId="275"/>
-    <cellStyle name="常规 4 3 2 2" xfId="433"/>
-    <cellStyle name="常规 4 3 3" xfId="266"/>
-    <cellStyle name="常规 4 4" xfId="201"/>
-    <cellStyle name="常规 4 4 2" xfId="533"/>
-    <cellStyle name="常规 4 4 2 2" xfId="470"/>
-    <cellStyle name="常规 4 4 3" xfId="216"/>
-    <cellStyle name="常规 4 5" xfId="197"/>
-    <cellStyle name="常规 4 5 2" xfId="195"/>
-    <cellStyle name="常规 4 5 2 2" xfId="277"/>
-    <cellStyle name="常规 4 5 3" xfId="200"/>
-    <cellStyle name="常规 4 6" xfId="635"/>
-    <cellStyle name="常规 4 6 2" xfId="186"/>
-    <cellStyle name="常规 4 7" xfId="184"/>
-    <cellStyle name="常规 4 7 2" xfId="182"/>
-    <cellStyle name="常规 4 8" xfId="179"/>
-    <cellStyle name="常规 4 8 2" xfId="488"/>
-    <cellStyle name="常规 4 9" xfId="176"/>
-    <cellStyle name="常规 4 9 2" xfId="224"/>
-    <cellStyle name="常规 5" xfId="170"/>
-    <cellStyle name="常规 5 10" xfId="653"/>
-    <cellStyle name="常规 5 10 2" xfId="167"/>
-    <cellStyle name="常规 5 11" xfId="565"/>
-    <cellStyle name="常规 5 2" xfId="597"/>
-    <cellStyle name="常规 5 2 2" xfId="367"/>
-    <cellStyle name="常规 5 2 2 2" xfId="321"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="547"/>
-    <cellStyle name="常规 5 2 2 3" xfId="508"/>
-    <cellStyle name="常规 5 2 3" xfId="633"/>
-    <cellStyle name="常规 5 2 3 2" xfId="414"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="590"/>
-    <cellStyle name="常规 5 2 3 3" xfId="406"/>
-    <cellStyle name="常规 5 2 4" xfId="638"/>
-    <cellStyle name="常规 5 2 4 2" xfId="375"/>
-    <cellStyle name="常规 5 2 4 2 2" xfId="369"/>
-    <cellStyle name="常规 5 2 4 3" xfId="343"/>
-    <cellStyle name="常规 5 2 5" xfId="163"/>
-    <cellStyle name="常规 5 2 5 2" xfId="456"/>
-    <cellStyle name="常规 5 2 6" xfId="162"/>
-    <cellStyle name="常规 5 2 6 2" xfId="342"/>
-    <cellStyle name="常规 5 2 7" xfId="161"/>
-    <cellStyle name="常规 5 2 7 2" xfId="484"/>
-    <cellStyle name="常规 5 2 8" xfId="524"/>
-    <cellStyle name="常规 5 2 8 2" xfId="497"/>
-    <cellStyle name="常规 5 2 9" xfId="663"/>
-    <cellStyle name="常规 5 3" xfId="185"/>
-    <cellStyle name="常规 5 3 2" xfId="641"/>
-    <cellStyle name="常规 5 3 2 2" xfId="474"/>
-    <cellStyle name="常规 5 3 3" xfId="645"/>
-    <cellStyle name="常规 5 4" xfId="173"/>
-    <cellStyle name="常规 5 4 2" xfId="172"/>
-    <cellStyle name="常规 5 4 2 2" xfId="644"/>
-    <cellStyle name="常规 5 4 3" xfId="158"/>
-    <cellStyle name="常规 5 5" xfId="171"/>
-    <cellStyle name="常规 5 5 2" xfId="157"/>
-    <cellStyle name="常规 5 5 2 2" xfId="154"/>
-    <cellStyle name="常规 5 5 3" xfId="150"/>
-    <cellStyle name="常规 5 6" xfId="149"/>
-    <cellStyle name="常规 5 6 2" xfId="148"/>
-    <cellStyle name="常规 5 7" xfId="147"/>
-    <cellStyle name="常规 5 7 2" xfId="146"/>
-    <cellStyle name="常规 5 8" xfId="159"/>
-    <cellStyle name="常规 5 8 2" xfId="144"/>
-    <cellStyle name="常规 5 9" xfId="143"/>
-    <cellStyle name="常规 5 9 2" xfId="631"/>
-    <cellStyle name="常规 6" xfId="604"/>
-    <cellStyle name="常规 6 10" xfId="476"/>
-    <cellStyle name="常规 6 10 2" xfId="623"/>
-    <cellStyle name="常规 6 11" xfId="260"/>
-    <cellStyle name="常规 6 2" xfId="666"/>
-    <cellStyle name="常规 6 2 2" xfId="610"/>
-    <cellStyle name="常规 6 2 2 2" xfId="142"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="140"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="450"/>
-    <cellStyle name="常规 6 2 2 2 2 3" xfId="664"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="141"/>
-    <cellStyle name="常规 6 2 2 2 4" xfId="139"/>
-    <cellStyle name="常规 6 2 2 3" xfId="138"/>
-    <cellStyle name="常规 6 2 2 3 2" xfId="136"/>
-    <cellStyle name="常规 6 2 2 3 2 2" xfId="564"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="240"/>
-    <cellStyle name="常规 6 2 2 3 3" xfId="134"/>
-    <cellStyle name="常规 6 2 2 4" xfId="452"/>
-    <cellStyle name="常规 6 2 2 4 2" xfId="538"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="551"/>
-    <cellStyle name="常规 6 2 2 5" xfId="532"/>
-    <cellStyle name="常规 6 2 3" xfId="443"/>
-    <cellStyle name="常规 6 2 3 2" xfId="133"/>
-    <cellStyle name="常规 6 2 3 2 2" xfId="129"/>
-    <cellStyle name="常规 6 2 3 2 3" xfId="494"/>
-    <cellStyle name="常规 6 2 3 3" xfId="575"/>
-    <cellStyle name="常规 6 2 3 4" xfId="567"/>
-    <cellStyle name="常规 6 2 4" xfId="128"/>
-    <cellStyle name="常规 6 2 4 2" xfId="550"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="160"/>
-    <cellStyle name="常规 6 2 4 2 3" xfId="460"/>
-    <cellStyle name="常规 6 2 4 3" xfId="629"/>
-    <cellStyle name="常规 6 2 4 4" xfId="517"/>
-    <cellStyle name="常规 6 2 5" xfId="189"/>
-    <cellStyle name="常规 6 2 5 2" xfId="127"/>
-    <cellStyle name="常规 6 2 5 3" xfId="422"/>
-    <cellStyle name="常规 6 2 6" xfId="125"/>
-    <cellStyle name="常规 6 2 6 2" xfId="124"/>
-    <cellStyle name="常规 6 2 6 3" xfId="523"/>
-    <cellStyle name="常规 6 2 7" xfId="122"/>
-    <cellStyle name="常规 6 2 8" xfId="120"/>
-    <cellStyle name="常规 6 2 9" xfId="117"/>
-    <cellStyle name="常规 6 3" xfId="181"/>
-    <cellStyle name="常规 6 3 2" xfId="236"/>
-    <cellStyle name="常规 6 3 2 2" xfId="495"/>
-    <cellStyle name="常规 6 3 2 2 2" xfId="116"/>
-    <cellStyle name="常规 6 3 2 2 3" xfId="420"/>
-    <cellStyle name="常规 6 3 2 3" xfId="483"/>
-    <cellStyle name="常规 6 3 2 4" xfId="544"/>
-    <cellStyle name="常规 6 3 3" xfId="115"/>
-    <cellStyle name="常规 6 3 3 2" xfId="114"/>
-    <cellStyle name="常规 6 3 3 2 2" xfId="113"/>
-    <cellStyle name="常规 6 3 3 2 3" xfId="386"/>
-    <cellStyle name="常规 6 3 3 3" xfId="621"/>
-    <cellStyle name="常规 6 3 4" xfId="112"/>
-    <cellStyle name="常规 6 3 4 2" xfId="121"/>
-    <cellStyle name="常规 6 3 4 3" xfId="119"/>
-    <cellStyle name="常规 6 3 5" xfId="111"/>
-    <cellStyle name="常规 6 4" xfId="198"/>
-    <cellStyle name="常规 6 4 2" xfId="466"/>
-    <cellStyle name="常规 6 4 2 2" xfId="461"/>
-    <cellStyle name="常规 6 4 2 3" xfId="109"/>
-    <cellStyle name="常规 6 4 3" xfId="578"/>
-    <cellStyle name="常规 6 4 4" xfId="514"/>
-    <cellStyle name="常规 6 5" xfId="656"/>
-    <cellStyle name="常规 6 5 2" xfId="108"/>
-    <cellStyle name="常规 6 5 2 2" xfId="107"/>
-    <cellStyle name="常规 6 5 2 3" xfId="403"/>
-    <cellStyle name="常规 6 5 3" xfId="169"/>
-    <cellStyle name="常规 6 5 4" xfId="165"/>
-    <cellStyle name="常规 6 6" xfId="295"/>
-    <cellStyle name="常规 6 6 2" xfId="245"/>
-    <cellStyle name="常规 6 6 2 2" xfId="545"/>
-    <cellStyle name="常规 6 6 2 3" xfId="106"/>
-    <cellStyle name="常规 6 6 3" xfId="130"/>
-    <cellStyle name="常规 6 6 4" xfId="561"/>
-    <cellStyle name="常规 6 7" xfId="294"/>
-    <cellStyle name="常规 6 7 2" xfId="243"/>
-    <cellStyle name="常规 6 7 3" xfId="105"/>
-    <cellStyle name="常规 6 8" xfId="239"/>
-    <cellStyle name="常规 6 8 2" xfId="601"/>
-    <cellStyle name="常规 6 8 3" xfId="441"/>
-    <cellStyle name="常规 6 9" xfId="102"/>
-    <cellStyle name="常规 7" xfId="98"/>
-    <cellStyle name="常规 7 10" xfId="221"/>
-    <cellStyle name="常规 7 2" xfId="97"/>
-    <cellStyle name="常规 7 2 2" xfId="427"/>
-    <cellStyle name="常规 7 2 2 2" xfId="421"/>
-    <cellStyle name="常规 7 2 3" xfId="417"/>
-    <cellStyle name="常规 7 3" xfId="489"/>
-    <cellStyle name="常规 7 3 2" xfId="389"/>
-    <cellStyle name="常规 7 3 2 2" xfId="387"/>
-    <cellStyle name="常规 7 3 3" xfId="652"/>
-    <cellStyle name="常规 7 4" xfId="193"/>
-    <cellStyle name="常规 7 4 2" xfId="355"/>
-    <cellStyle name="常规 7 4 3" xfId="527"/>
-    <cellStyle name="常规 7 5" xfId="192"/>
-    <cellStyle name="常规 7 5 2" xfId="584"/>
-    <cellStyle name="常规 7 6" xfId="95"/>
-    <cellStyle name="常规 7 6 2" xfId="340"/>
-    <cellStyle name="常规 7 7" xfId="131"/>
-    <cellStyle name="常规 7 7 2" xfId="333"/>
-    <cellStyle name="常规 7 8" xfId="499"/>
-    <cellStyle name="常规 7 8 2" xfId="325"/>
-    <cellStyle name="常规 7 9" xfId="327"/>
-    <cellStyle name="常规 7 9 2" xfId="190"/>
-    <cellStyle name="常规 8" xfId="166"/>
-    <cellStyle name="常规 8 2" xfId="228"/>
-    <cellStyle name="常规 8 2 2" xfId="330"/>
-    <cellStyle name="常规 8 2 2 2" xfId="634"/>
-    <cellStyle name="常规 8 2 3" xfId="255"/>
-    <cellStyle name="常规 8 3" xfId="225"/>
-    <cellStyle name="常规 8 3 2" xfId="253"/>
-    <cellStyle name="常规 8 3 2 2" xfId="155"/>
-    <cellStyle name="常规 8 3 3" xfId="151"/>
-    <cellStyle name="常规 8 4" xfId="612"/>
-    <cellStyle name="常规 8 4 2" xfId="479"/>
-    <cellStyle name="常规 8 5" xfId="334"/>
-    <cellStyle name="常规 8 5 2" xfId="392"/>
-    <cellStyle name="常规 8 6" xfId="608"/>
-    <cellStyle name="常规 8 6 2" xfId="377"/>
-    <cellStyle name="常规 8 7" xfId="220"/>
-    <cellStyle name="常规 8 7 2" xfId="94"/>
-    <cellStyle name="常规 8 8" xfId="436"/>
-    <cellStyle name="常规 9" xfId="93"/>
-    <cellStyle name="常规 9 2" xfId="92"/>
-    <cellStyle name="常规 9 2 2" xfId="574"/>
-    <cellStyle name="常规 9 3" xfId="212"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="448"/>
-    <cellStyle name="標準 2 2" xfId="211"/>
-    <cellStyle name="標準 2 2 2" xfId="627"/>
-    <cellStyle name="標準 2 2 2 2" xfId="91"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="90"/>
-    <cellStyle name="標準 2 2 2 3" xfId="103"/>
-    <cellStyle name="標準 2 2 3" xfId="516"/>
-    <cellStyle name="標準 2 2 3 2" xfId="233"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="513"/>
-    <cellStyle name="標準 2 2 3 3" xfId="662"/>
-    <cellStyle name="標準 2 2 4" xfId="298"/>
-    <cellStyle name="標準 2 2 4 2" xfId="218"/>
-    <cellStyle name="標準 2 2 5" xfId="510"/>
-    <cellStyle name="標準 2 3" xfId="89"/>
-    <cellStyle name="標準 2 3 2" xfId="423"/>
-    <cellStyle name="標準 2 3 2 2" xfId="419"/>
-    <cellStyle name="標準 2 3 3" xfId="88"/>
-    <cellStyle name="標準 2 4" xfId="594"/>
-    <cellStyle name="標準 2 4 2" xfId="521"/>
-    <cellStyle name="標準 2 4 2 2" xfId="86"/>
-    <cellStyle name="標準 2 4 3" xfId="557"/>
-    <cellStyle name="標準 2 5" xfId="407"/>
-    <cellStyle name="標準 2 5 2" xfId="85"/>
-    <cellStyle name="標準 2 5 2 2" xfId="84"/>
-    <cellStyle name="標準 2 5 3" xfId="83"/>
-    <cellStyle name="標準 2 6" xfId="458"/>
-    <cellStyle name="標準 2 6 2" xfId="586"/>
-    <cellStyle name="標準 2 6 2 2" xfId="291"/>
-    <cellStyle name="標準 2 6 3" xfId="432"/>
-    <cellStyle name="標準 2 7" xfId="304"/>
-    <cellStyle name="標準 2 7 2" xfId="624"/>
-    <cellStyle name="標準 2 7 3" xfId="571"/>
-    <cellStyle name="標準 2 8" xfId="302"/>
-    <cellStyle name="標準 2 8 2" xfId="467"/>
-    <cellStyle name="標準 2 9" xfId="82"/>
-    <cellStyle name="標準 3" xfId="79"/>
-    <cellStyle name="標準 3 2" xfId="78"/>
-    <cellStyle name="標準 3 2 2" xfId="118"/>
-    <cellStyle name="標準 3 2 2 2" xfId="76"/>
-    <cellStyle name="標準 3 2 2 3" xfId="202"/>
-    <cellStyle name="標準 3 2 3" xfId="74"/>
-    <cellStyle name="標準 3 2 3 2" xfId="72"/>
-    <cellStyle name="標準 3 2 3 3" xfId="596"/>
-    <cellStyle name="標準 3 2 4" xfId="77"/>
-    <cellStyle name="標準 3 2 4 2" xfId="665"/>
-    <cellStyle name="標準 3 2 4 3" xfId="667"/>
-    <cellStyle name="標準 3 2 5" xfId="75"/>
-    <cellStyle name="標準 3 2 5 2" xfId="70"/>
-    <cellStyle name="標準 3 2 5 3" xfId="96"/>
-    <cellStyle name="標準 3 2 6" xfId="187"/>
-    <cellStyle name="標準 3 2 6 2" xfId="234"/>
-    <cellStyle name="標準 3 2 6 3" xfId="227"/>
-    <cellStyle name="標準 3 2 7" xfId="607"/>
-    <cellStyle name="標準 3 2 8" xfId="359"/>
-    <cellStyle name="標準 3 3" xfId="320"/>
-    <cellStyle name="標準 3 3 2" xfId="546"/>
-    <cellStyle name="標準 3 3 2 2" xfId="68"/>
-    <cellStyle name="標準 3 3 2 3" xfId="66"/>
-    <cellStyle name="標準 3 3 3" xfId="65"/>
-    <cellStyle name="標準 3 3 3 2" xfId="80"/>
-    <cellStyle name="標準 3 3 3 3" xfId="64"/>
-    <cellStyle name="標準 3 3 4" xfId="73"/>
-    <cellStyle name="標準 3 3 5" xfId="71"/>
-    <cellStyle name="標準 3 4" xfId="507"/>
-    <cellStyle name="標準 3 4 2" xfId="370"/>
-    <cellStyle name="標準 3 4 3" xfId="365"/>
-    <cellStyle name="標準 3 5" xfId="362"/>
-    <cellStyle name="標準 3 5 2" xfId="63"/>
-    <cellStyle name="標準 3 5 3" xfId="496"/>
-    <cellStyle name="標準 3 6" xfId="62"/>
-    <cellStyle name="標準 3 6 2" xfId="61"/>
-    <cellStyle name="標準 3 6 3" xfId="425"/>
-    <cellStyle name="標準 3 7" xfId="346"/>
-    <cellStyle name="標準 3 7 2" xfId="59"/>
-    <cellStyle name="標準 3 7 3" xfId="57"/>
-    <cellStyle name="標準 3 8" xfId="299"/>
-    <cellStyle name="標準 3 9" xfId="502"/>
-    <cellStyle name="標準 4" xfId="338"/>
-    <cellStyle name="標準 4 2" xfId="230"/>
-    <cellStyle name="標準 4 2 2" xfId="137"/>
-    <cellStyle name="標準 4 2 2 2" xfId="562"/>
-    <cellStyle name="標準 4 2 2 3" xfId="620"/>
-    <cellStyle name="標準 4 2 3" xfId="135"/>
-    <cellStyle name="標準 4 2 3 2" xfId="55"/>
-    <cellStyle name="標準 4 2 3 3" xfId="54"/>
-    <cellStyle name="標準 4 2 4" xfId="69"/>
-    <cellStyle name="標準 4 2 5" xfId="67"/>
-    <cellStyle name="標準 4 3" xfId="413"/>
-    <cellStyle name="標準 4 3 2" xfId="589"/>
-    <cellStyle name="標準 4 3 3" xfId="449"/>
-    <cellStyle name="標準 4 4" xfId="405"/>
-    <cellStyle name="標準 4 4 2" xfId="53"/>
-    <cellStyle name="標準 4 4 3" xfId="52"/>
-    <cellStyle name="標準 4 5" xfId="271"/>
-    <cellStyle name="標準 4 5 2" xfId="51"/>
-    <cellStyle name="標準 4 5 3" xfId="268"/>
-    <cellStyle name="標準 4 5 4" xfId="164"/>
-    <cellStyle name="標準 4 6" xfId="50"/>
-    <cellStyle name="標準 4 7" xfId="49"/>
-    <cellStyle name="標準 5" xfId="395"/>
-    <cellStyle name="標準 5 2" xfId="642"/>
-    <cellStyle name="標準 5 3" xfId="374"/>
-    <cellStyle name="標準 6" xfId="529"/>
-    <cellStyle name="標準 6 2" xfId="640"/>
-    <cellStyle name="標準 6 3" xfId="455"/>
-    <cellStyle name="標準 7" xfId="625"/>
-    <cellStyle name="標準 8" xfId="572"/>
-    <cellStyle name="超链接 10" xfId="48"/>
-    <cellStyle name="超链接 2" xfId="46"/>
-    <cellStyle name="超链接 2 2" xfId="45"/>
-    <cellStyle name="超链接 2 2 2" xfId="44"/>
-    <cellStyle name="超链接 2 2 2 2" xfId="577"/>
-    <cellStyle name="超链接 2 2 2 2 2" xfId="293"/>
-    <cellStyle name="超链接 2 2 2 2 2 2" xfId="242"/>
-    <cellStyle name="超链接 2 2 2 2 2 3" xfId="104"/>
-    <cellStyle name="超链接 2 2 2 2 3" xfId="238"/>
-    <cellStyle name="超链接 2 2 2 2 4" xfId="101"/>
-    <cellStyle name="超链接 2 2 2 3" xfId="43"/>
-    <cellStyle name="超链接 2 2 2 3 2" xfId="132"/>
-    <cellStyle name="超链接 2 2 2 3 2 2" xfId="332"/>
-    <cellStyle name="超链接 2 2 2 3 2 3" xfId="42"/>
-    <cellStyle name="超链接 2 2 2 3 3" xfId="500"/>
-    <cellStyle name="超链接 2 2 2 4" xfId="492"/>
-    <cellStyle name="超链接 2 2 2 4 2" xfId="222"/>
-    <cellStyle name="超链接 2 2 2 4 3" xfId="435"/>
-    <cellStyle name="超链接 2 2 2 5" xfId="481"/>
-    <cellStyle name="超链接 2 2 3" xfId="41"/>
-    <cellStyle name="超链接 2 2 3 2" xfId="647"/>
-    <cellStyle name="超链接 2 2 3 2 2" xfId="40"/>
-    <cellStyle name="超链接 2 2 3 2 3" xfId="38"/>
-    <cellStyle name="超链接 2 2 3 3" xfId="643"/>
-    <cellStyle name="超链接 2 2 3 4" xfId="632"/>
-    <cellStyle name="超链接 2 2 4" xfId="252"/>
-    <cellStyle name="超链接 2 2 4 2" xfId="156"/>
-    <cellStyle name="超链接 2 2 4 2 2" xfId="37"/>
-    <cellStyle name="超链接 2 2 4 2 3" xfId="36"/>
-    <cellStyle name="超链接 2 2 4 3" xfId="35"/>
-    <cellStyle name="超链接 2 2 4 4" xfId="34"/>
-    <cellStyle name="超链接 2 2 5" xfId="152"/>
-    <cellStyle name="超链接 2 2 5 2" xfId="33"/>
-    <cellStyle name="超链接 2 2 5 3" xfId="31"/>
-    <cellStyle name="超链接 2 2 6" xfId="30"/>
-    <cellStyle name="超链接 2 2 6 2" xfId="29"/>
-    <cellStyle name="超链接 2 2 6 3" xfId="39"/>
-    <cellStyle name="超链接 2 2 7" xfId="99"/>
-    <cellStyle name="超链接 2 3" xfId="28"/>
-    <cellStyle name="超链接 2 3 2" xfId="315"/>
-    <cellStyle name="超链接 2 3 2 2" xfId="110"/>
-    <cellStyle name="超链接 2 3 2 2 2" xfId="27"/>
-    <cellStyle name="超链接 2 3 2 2 3" xfId="548"/>
-    <cellStyle name="超链接 2 3 2 3" xfId="26"/>
-    <cellStyle name="超链接 2 3 2 4" xfId="592"/>
-    <cellStyle name="超链接 2 3 3" xfId="25"/>
-    <cellStyle name="超链接 2 3 3 2" xfId="24"/>
-    <cellStyle name="超链接 2 3 3 2 2" xfId="32"/>
-    <cellStyle name="超链接 2 3 3 2 3" xfId="588"/>
-    <cellStyle name="超链接 2 3 3 3" xfId="153"/>
-    <cellStyle name="超链接 2 3 4" xfId="477"/>
-    <cellStyle name="超链接 2 3 4 2" xfId="23"/>
-    <cellStyle name="超链接 2 3 4 3" xfId="22"/>
-    <cellStyle name="超链接 2 3 5" xfId="21"/>
-    <cellStyle name="超链接 2 4" xfId="60"/>
-    <cellStyle name="超链接 2 4 2" xfId="20"/>
-    <cellStyle name="超链接 2 4 2 2" xfId="19"/>
-    <cellStyle name="超链接 2 4 2 3" xfId="18"/>
-    <cellStyle name="超链接 2 4 3" xfId="17"/>
-    <cellStyle name="超链接 2 4 4" xfId="391"/>
-    <cellStyle name="超链接 2 5" xfId="424"/>
-    <cellStyle name="超链接 2 5 2" xfId="81"/>
-    <cellStyle name="超链接 2 5 2 2" xfId="100"/>
-    <cellStyle name="超链接 2 5 2 3" xfId="168"/>
-    <cellStyle name="超链接 2 5 3" xfId="47"/>
-    <cellStyle name="超链接 2 5 4" xfId="378"/>
-    <cellStyle name="超链接 2 6" xfId="415"/>
-    <cellStyle name="超链接 2 6 2" xfId="503"/>
-    <cellStyle name="超链接 2 6 3" xfId="329"/>
-    <cellStyle name="超链接 2 7" xfId="313"/>
-    <cellStyle name="超链接 2 7 2" xfId="438"/>
-    <cellStyle name="超链接 2 7 3" xfId="309"/>
-    <cellStyle name="超链接 2 8" xfId="307"/>
-    <cellStyle name="超链接 3" xfId="145"/>
-    <cellStyle name="超链接 3 2" xfId="451"/>
-    <cellStyle name="超链接 3 2 2" xfId="537"/>
-    <cellStyle name="超链接 3 2 2 2" xfId="16"/>
-    <cellStyle name="超链接 3 2 2 3" xfId="598"/>
-    <cellStyle name="超链接 3 2 3" xfId="549"/>
-    <cellStyle name="超链接 3 2 4" xfId="628"/>
-    <cellStyle name="超链接 3 3" xfId="531"/>
-    <cellStyle name="超链接 3 3 2" xfId="15"/>
-    <cellStyle name="超链接 3 3 2 2" xfId="14"/>
-    <cellStyle name="超链接 3 3 2 3" xfId="373"/>
-    <cellStyle name="超链接 3 3 3" xfId="126"/>
-    <cellStyle name="超链接 3 4" xfId="58"/>
-    <cellStyle name="超链接 3 4 2" xfId="13"/>
-    <cellStyle name="超链接 3 4 3" xfId="123"/>
-    <cellStyle name="超链接 3 5" xfId="56"/>
-    <cellStyle name="超链接 4" xfId="12"/>
-    <cellStyle name="超链接 4 2" xfId="566"/>
-    <cellStyle name="超链接 4 2 2" xfId="639"/>
-    <cellStyle name="超链接 4 3" xfId="11"/>
-    <cellStyle name="超链接 5" xfId="10"/>
-    <cellStyle name="超链接 5 2" xfId="515"/>
-    <cellStyle name="超链接 5 2 2" xfId="232"/>
-    <cellStyle name="超链接 5 2 3" xfId="661"/>
-    <cellStyle name="超链接 5 3" xfId="297"/>
-    <cellStyle name="超链接 5 4" xfId="511"/>
-    <cellStyle name="超链接 6" xfId="9"/>
-    <cellStyle name="超链接 6 2" xfId="87"/>
-    <cellStyle name="超链接 6 3" xfId="8"/>
-    <cellStyle name="超链接 7" xfId="7"/>
-    <cellStyle name="超链接 7 2" xfId="556"/>
-    <cellStyle name="超链接 7 3" xfId="6"/>
-    <cellStyle name="超链接 8" xfId="5"/>
-    <cellStyle name="超链接 9" xfId="445"/>
-    <cellStyle name="适中 2" xfId="4"/>
-    <cellStyle name="适中 2 2" xfId="543"/>
-    <cellStyle name="适中 2 2 2" xfId="3"/>
-    <cellStyle name="适中 2 2 3" xfId="296"/>
-    <cellStyle name="适中 2 3" xfId="2"/>
-    <cellStyle name="适中 2 4" xfId="1"/>
+    <cellStyle name="標準 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="標準 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="標準 2 2 2" xfId="627" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="91" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="90" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="103" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="標準 2 2 3" xfId="516" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="513" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="標準 2 2 3 3" xfId="662" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="標準 2 2 4" xfId="298" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="標準 2 2 4 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="標準 2 2 5" xfId="510" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="標準 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="標準 2 3 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="419" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="標準 2 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="標準 2 4" xfId="594" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="標準 2 4 2" xfId="521" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="標準 2 4 3" xfId="557" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="標準 2 5" xfId="407" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="標準 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="標準 2 5 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="標準 2 5 3" xfId="83" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="標準 2 6" xfId="458" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="標準 2 6 2" xfId="586" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="標準 2 6 2 2" xfId="291" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="標準 2 6 3" xfId="432" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="標準 2 7" xfId="304" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="標準 2 7 2" xfId="624" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="標準 2 7 3" xfId="571" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="標準 2 8" xfId="302" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="標準 2 8 2" xfId="467" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="標準 2 9" xfId="82" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="標準 3" xfId="79" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="標準 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="標準 3 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="標準 3 2 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="標準 3 2 2 3" xfId="202" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="標準 3 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="標準 3 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="標準 3 2 3 3" xfId="596" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="標準 3 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="標準 3 2 4 2" xfId="665" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="標準 3 2 4 3" xfId="667" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="標準 3 2 5" xfId="75" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="標準 3 2 5 2" xfId="70" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="標準 3 2 5 3" xfId="96" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="標準 3 2 6" xfId="187" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="標準 3 2 6 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="標準 3 2 6 3" xfId="227" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="標準 3 2 7" xfId="607" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="標準 3 2 8" xfId="359" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="標準 3 3" xfId="320" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="標準 3 3 2" xfId="546" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="標準 3 3 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="標準 3 3 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 3 3 3" xfId="65" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 3 3 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 3 3 3 3" xfId="64" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 3 3 4" xfId="73" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 3 3 5" xfId="71" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 3 4" xfId="507" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 3 4 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 3 4 3" xfId="365" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 3 5" xfId="362" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 3 5 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 3 5 3" xfId="496" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 3 6" xfId="62" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 3 6 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 3 6 3" xfId="425" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 3 7" xfId="346" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 3 7 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 3 7 3" xfId="57" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 3 8" xfId="299" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 3 9" xfId="502" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 4" xfId="338" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 4 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 4 2 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 4 2 2 2" xfId="562" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 4 2 2 3" xfId="620" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 4 2 3" xfId="135" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 4 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 4 2 3 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 4 2 4" xfId="69" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 4 2 5" xfId="67" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 4 3" xfId="413" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 4 3 2" xfId="589" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 4 3 3" xfId="449" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 4 4" xfId="405" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 4 4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 4 4 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4 5" xfId="271" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 4 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 4 5 3" xfId="268" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 4 5 4" xfId="164" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 4 6" xfId="50" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 4 7" xfId="49" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 5" xfId="395" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 5 2" xfId="642" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 5 3" xfId="374" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 6" xfId="529" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 6 2" xfId="640" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準 6 3" xfId="455" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準 7" xfId="625" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準 8" xfId="572" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="605" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 10 2" xfId="668" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 10 2 2" xfId="582" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 10 3" xfId="654" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 11" xfId="512" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 11 2" xfId="657" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 11 2 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 11 3" xfId="520" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 12" xfId="540" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 12 2" xfId="358" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 12 2 2" xfId="570" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 12 3" xfId="439" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 13" xfId="649" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 13 2" xfId="490" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 14" xfId="660" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 14 2" xfId="563" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 15" xfId="505" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 15 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 16" xfId="504" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 16 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 17" xfId="487" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 17 2" xfId="462" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 18" xfId="457" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 19" xfId="454" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 2" xfId="409" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 2 2" xfId="473" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="528" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2 2 2 2" xfId="381" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="603" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="444" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="431" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="428" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="447" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="446" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 2 4" xfId="442" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="587" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="573" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2 3" xfId="485" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="637" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="440" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4 2" xfId="465" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 4 3" xfId="579" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="常规 2 2 2 2 2 5" xfId="655" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="651" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="468" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="426" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="416" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="493" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 2 2 2 3 4" xfId="482" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="593" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="576" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2 2" xfId="519" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 2 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="560" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 2 2 2 2 4 4" xfId="619" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="410" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 2 2 2 2 5 2" xfId="472" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="常规 2 2 2 2 5 3" xfId="276" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="常规 2 2 2 2 6" xfId="354" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="常规 2 2 2 2 6 2" xfId="248" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="常规 2 2 2 2 6 3" xfId="535" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 2 2 2 2 7" xfId="526" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 2 2 2 3" xfId="402" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="400" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="418" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="398" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="394" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 2 2 2 3 2 4" xfId="390" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="388" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 2 3" xfId="382" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="591" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="506" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 2 2 2 3 4 2" xfId="372" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="常规 2 2 2 3 4 3" xfId="368" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 2 2 3 5" xfId="364" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 2 2 4" xfId="498" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="350" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="322" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="常规 2 2 2 4 4" xfId="554" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 2 2 5" xfId="360" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 2 2 2 5 2 2" xfId="348" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 2 2 2 5 2 3" xfId="300" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="323" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 2 2 2 5 4" xfId="345" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 2 2 6" xfId="542" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2 2 6 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 2 2 6 3" xfId="650" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 2 2 7" xfId="555" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 2 2 7 2" xfId="336" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 2 2 7 3" xfId="611" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 2 2 8" xfId="553" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="356" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 2 3 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="501" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="319" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="328" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="316" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 2 3 3" xfId="314" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="437" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="312" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="376" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="310" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="常规 2 2 3 4" xfId="308" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="303" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="常规 2 2 3 5" xfId="349" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="常规 2 2 3 5 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="常规 2 2 3 5 3" xfId="301" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="常规 2 2 3 6" xfId="324" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="常规 2 2 4" xfId="583" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="常规 2 2 4 2" xfId="614" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="599" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="463" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="常规 2 2 4 3" xfId="289" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="常规 2 2 4 4" xfId="288" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="常规 2 2 5" xfId="287" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="常规 2 2 5 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="352" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="常规 2 2 5 3" xfId="283" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="常规 2 2 5 4" xfId="282" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="常规 2 2 6" xfId="281" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="常规 2 2 6 2" xfId="648" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="常规 2 2 6 3" xfId="659" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="常规 2 2 7" xfId="280" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="常规 2 2 7 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="常规 2 2 7 3" xfId="616" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="常规 2 2 8" xfId="318" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="常规 2 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="434" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="595" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="522" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="558" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="408" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="459" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="385" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="509" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="366" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="363" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="273" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="404" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="270" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="常规 2 3 5 3" xfId="269" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="常规 2 3 6" xfId="383" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="常规 2 4" xfId="267" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="常规 2 4 2" xfId="397" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="常规 2 4 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="常规 2 4 2 3" xfId="265" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="常规 2 4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 2 4 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 2 4 3 3" xfId="259" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="常规 2 4 4" xfId="453" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="常规 2 4 5" xfId="429" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 2 5" xfId="337" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 2 5 2" xfId="257" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="常规 2 5 2 2" xfId="491" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="常规 2 5 2 3" xfId="480" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="常规 2 5 3" xfId="251" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="常规 2 5 4" xfId="401" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="常规 2 6" xfId="626" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="常规 2 6 2" xfId="471" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="常规 2 6 3" xfId="274" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="常规 2 7" xfId="518" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="常规 2 7 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="常规 2 7 3" xfId="646" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="常规 2 8" xfId="247" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="常规 22" xfId="486" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="常规 3" xfId="353" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="常规 3 10" xfId="580" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="常规 3 10 2" xfId="244" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="常规 3 11" xfId="292" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="常规 3 11 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="常规 3 12" xfId="237" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="常规 3 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="669" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="常规 3 2 2 2" xfId="585" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="常规 3 2 2 3" xfId="430" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="常规 3 2 3" xfId="235" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="常规 3 2 3 2" xfId="339" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="常规 3 2 3 3" xfId="396" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="常规 3 2 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="常规 3 2 4 2" xfId="331" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="636" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="常规 3 2 4 3" xfId="256" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="常规 3 2 5" xfId="226" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="常规 3 2 5 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="常规 3 2 6" xfId="613" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="常规 3 2 6 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="常规 3 2 7" xfId="335" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="常规 3 2 7 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="常规 3 2 8" xfId="609" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="常规 3 2 8 2" xfId="379" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="常规 3 2 9" xfId="223" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="常规 3 3" xfId="534" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="常规 3 3 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="常规 3 3 2 2" xfId="617" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="常规 3 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="常规 3 4" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="常规 3 4 2" xfId="380" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="常规 3 4 2 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="常规 3 4 3" xfId="569" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="常规 3 5" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="常规 3 5 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="常规 3 5 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="常规 3 5 3" xfId="209" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="常规 3 6" xfId="208" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="常规 3 6 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="常规 3 6 2 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="常规 3 6 3" xfId="615" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="常规 3 7" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 3 7 2" xfId="622" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="常规 3 8" xfId="261" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="常规 3 8 2" xfId="539" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="常规 3 9" xfId="258" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="常规 3 9 2" xfId="286" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规 4" xfId="525" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="常规 4 10" xfId="205" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="常规 4 10 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="常规 4 11" xfId="658" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="常规 4 12" xfId="602" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="常规 4 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="常规 4 2 2" xfId="559" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="常规 4 2 2 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="常规 4 2 2 3" xfId="600" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="常规 4 2 3" xfId="618" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="常规 4 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="357" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="常规 4 2 3 3" xfId="581" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="常规 4 2 4" xfId="191" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="常规 4 2 4 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="常规 4 2 4 3" xfId="606" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="常规 4 2 5" xfId="630" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="常规 4 2 5 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="常规 4 2 6" xfId="180" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="常规 4 2 6 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="常规 4 2 7" xfId="177" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 4 2 7 2" xfId="311" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="常规 4 2 8" xfId="175" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="常规 4 2 8 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="常规 4 2 9" xfId="174" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="常规 4 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="常规 4 3 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 4 3 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="常规 4 3 3" xfId="266" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="常规 4 4" xfId="201" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="常规 4 4 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="常规 4 4 2 2" xfId="470" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="常规 4 4 3" xfId="216" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="常规 4 5" xfId="197" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="常规 4 5 2" xfId="195" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="常规 4 5 2 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="常规 4 5 3" xfId="200" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 4 6" xfId="635" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="常规 4 6 2" xfId="186" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="常规 4 7" xfId="184" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 4 7 2" xfId="182" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="常规 4 8" xfId="179" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="常规 4 8 2" xfId="488" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="常规 4 9" xfId="176" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="常规 4 9 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="常规 5" xfId="170" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="常规 5 10" xfId="653" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="常规 5 10 2" xfId="167" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="常规 5 11" xfId="565" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="常规 5 2" xfId="597" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="常规 5 2 2" xfId="367" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="547" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="508" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="633" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="414" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="590" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="常规 5 2 3 3" xfId="406" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="638" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="常规 5 2 4 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="常规 5 2 4 3" xfId="343" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="163" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="常规 5 2 5 2" xfId="456" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="常规 5 2 6" xfId="162" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="常规 5 2 6 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="常规 5 2 7" xfId="161" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="常规 5 2 7 2" xfId="484" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="常规 5 2 8" xfId="524" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 5 2 8 2" xfId="497" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 2 9" xfId="663" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="常规 5 3" xfId="185" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="641" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="常规 5 3 2 2" xfId="474" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="645" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="常规 5 4" xfId="173" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="常规 5 4 2 2" xfId="644" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="常规 5 4 3" xfId="158" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="常规 5 5" xfId="171" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="常规 5 5 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="常规 5 5 3" xfId="150" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 5 6" xfId="149" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 5 6 2" xfId="148" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 5 7" xfId="147" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 5 7 2" xfId="146" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 5 8" xfId="159" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 5 8 2" xfId="144" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 5 9" xfId="143" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 5 9 2" xfId="631" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 6" xfId="604" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 6 10" xfId="476" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 6 10 2" xfId="623" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 6 11" xfId="260" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 6 2" xfId="666" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 6 2 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 6 2 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="140" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 6 2 2 2 2 3" xfId="664" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="141" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 6 2 2 2 4" xfId="139" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 6 2 2 3" xfId="138" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 6 2 2 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 6 2 2 3 2 2" xfId="564" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="240" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 6 2 2 3 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 6 2 2 4" xfId="452" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 6 2 2 4 2" xfId="538" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="551" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 6 2 2 5" xfId="532" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 6 2 3" xfId="443" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 6 2 3 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 6 2 3 2 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 6 2 3 2 3" xfId="494" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 6 2 3 3" xfId="575" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 6 2 3 4" xfId="567" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 6 2 4" xfId="128" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 6 2 4 2" xfId="550" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="常规 6 2 4 2 3" xfId="460" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="常规 6 2 4 3" xfId="629" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="常规 6 2 4 4" xfId="517" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="常规 6 2 5" xfId="189" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="常规 6 2 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="常规 6 2 5 3" xfId="422" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="常规 6 2 6" xfId="125" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="常规 6 2 6 2" xfId="124" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="常规 6 2 6 3" xfId="523" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="常规 6 2 7" xfId="122" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="常规 6 2 8" xfId="120" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="常规 6 2 9" xfId="117" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="常规 6 3" xfId="181" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="常规 6 3 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="常规 6 3 2 2" xfId="495" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="常规 6 3 2 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="常规 6 3 2 2 3" xfId="420" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="常规 6 3 2 3" xfId="483" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="常规 6 3 2 4" xfId="544" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="常规 6 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="常规 6 3 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="常规 6 3 3 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="常规 6 3 3 2 3" xfId="386" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="常规 6 3 3 3" xfId="621" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="常规 6 3 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="常规 6 3 4 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="常规 6 3 4 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="常规 6 3 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="常规 6 4" xfId="198" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="常规 6 4 2" xfId="466" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="常规 6 4 2 2" xfId="461" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="常规 6 4 2 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="常规 6 4 3" xfId="578" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="常规 6 4 4" xfId="514" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="常规 6 5" xfId="656" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="常规 6 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="常规 6 5 2 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="常规 6 5 2 3" xfId="403" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="常规 6 5 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="常规 6 5 4" xfId="165" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="常规 6 6" xfId="295" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="常规 6 6 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="常规 6 6 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="常规 6 6 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="常规 6 6 3" xfId="130" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="常规 6 6 4" xfId="561" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="常规 6 7" xfId="294" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="常规 6 7 2" xfId="243" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="常规 6 7 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="常规 6 8" xfId="239" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="常规 6 8 2" xfId="601" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="常规 6 8 3" xfId="441" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="常规 6 9" xfId="102" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="常规 7" xfId="98" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="常规 7 10" xfId="221" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="常规 7 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="常规 7 2 2" xfId="427" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="常规 7 2 2 2" xfId="421" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="常规 7 2 3" xfId="417" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="常规 7 3" xfId="489" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="常规 7 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="常规 7 3 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="常规 7 3 3" xfId="652" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="常规 7 4" xfId="193" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="常规 7 4 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="常规 7 4 3" xfId="527" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="常规 7 5" xfId="192" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="常规 7 5 2" xfId="584" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="常规 7 6" xfId="95" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="常规 7 6 2" xfId="340" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="常规 7 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="常规 7 7 2" xfId="333" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="常规 7 8" xfId="499" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="常规 7 8 2" xfId="325" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="常规 7 9" xfId="327" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="常规 7 9 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="常规 8" xfId="166" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="常规 8 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="常规 8 2 2" xfId="330" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="常规 8 2 2 2" xfId="634" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="常规 8 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="常规 8 3" xfId="225" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="常规 8 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="常规 8 3 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="常规 8 3 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="常规 8 4" xfId="612" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="常规 8 4 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="常规 8 5" xfId="334" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="常规 8 5 2" xfId="392" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="常规 8 6" xfId="608" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="常规 8 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="常规 8 7" xfId="220" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="常规 8 7 2" xfId="94" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="常规 8 8" xfId="436" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="常规 9" xfId="93" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="常规 9 2" xfId="92" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="常规 9 2 2" xfId="574" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="常规 9 3" xfId="212" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8"/>
+    <cellStyle name="超链接 10" xfId="48" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="超链接 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="超链接 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="超链接 2 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="超链接 2 2 2 2" xfId="577" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="超链接 2 2 2 2 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="超链接 2 2 2 2 3" xfId="238" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="超链接 2 2 2 2 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="超链接 2 2 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2 2" xfId="332" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="超链接 2 2 2 3 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="超链接 2 2 2 3 3" xfId="500" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="超链接 2 2 2 4" xfId="492" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="超链接 2 2 2 4 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="超链接 2 2 2 4 3" xfId="435" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="超链接 2 2 2 5" xfId="481" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="超链接 2 2 3" xfId="41" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="超链接 2 2 3 2" xfId="647" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="超链接 2 2 3 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="超链接 2 2 3 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="超链接 2 2 3 3" xfId="643" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="超链接 2 2 3 4" xfId="632" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="超链接 2 2 4" xfId="252" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="超链接 2 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="超链接 2 2 4 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="超链接 2 2 4 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="超链接 2 2 4 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="超链接 2 2 4 4" xfId="34" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="超链接 2 2 5" xfId="152" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="超链接 2 2 5 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="超链接 2 2 5 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="超链接 2 2 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="超链接 2 2 6 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="超链接 2 2 6 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="超链接 2 2 7" xfId="99" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="超链接 2 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="超链接 2 3 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="超链接 2 3 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="超链接 2 3 2 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="超链接 2 3 2 2 3" xfId="548" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="超链接 2 3 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="超链接 2 3 2 4" xfId="592" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="超链接 2 3 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="超链接 2 3 3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="超链接 2 3 3 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="超链接 2 3 3 2 3" xfId="588" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="超链接 2 3 3 3" xfId="153" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="超链接 2 3 4" xfId="477" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="超链接 2 3 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="超链接 2 3 4 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="超链接 2 3 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="超链接 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="超链接 2 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="超链接 2 4 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="超链接 2 4 2 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="超链接 2 4 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="超链接 2 4 4" xfId="391" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="超链接 2 5" xfId="424" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="超链接 2 5 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="超链接 2 5 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="超链接 2 5 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="超链接 2 5 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="超链接 2 5 4" xfId="378" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="超链接 2 6" xfId="415" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="超链接 2 6 2" xfId="503" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="超链接 2 6 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="超链接 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="超链接 2 7 2" xfId="438" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="超链接 2 7 3" xfId="309" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="超链接 2 8" xfId="307" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="超链接 3" xfId="145" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="超链接 3 2" xfId="451" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="超链接 3 2 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="超链接 3 2 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="超链接 3 2 2 3" xfId="598" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="超链接 3 2 3" xfId="549" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="超链接 3 2 4" xfId="628" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="超链接 3 3" xfId="531" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="超链接 3 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="超链接 3 3 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="超链接 3 3 2 3" xfId="373" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="超链接 3 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="超链接 3 4" xfId="58" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="超链接 3 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="超链接 3 4 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="超链接 3 5" xfId="56" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="超链接 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="超链接 4 2" xfId="566" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="超链接 4 2 2" xfId="639" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="超链接 4 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="超链接 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="超链接 5 2" xfId="515" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="超链接 5 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="超链接 5 2 3" xfId="661" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="超链接 5 3" xfId="297" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="超链接 5 4" xfId="511" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="超链接 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="超链接 6 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="超链接 6 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="超链接 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="超链接 7 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="超链接 7 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="超链接 8" xfId="5" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="超链接 9" xfId="445" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="适中 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="适中 2 2" xfId="543" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="适中 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="适中 2 2 3" xfId="296" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="适中 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="适中 2 4" xfId="1" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3478,6 +3498,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3769,12 +3792,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -5097,8 +5120,12 @@
       <c r="G32" s="29">
         <v>44853</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="H32" s="29">
+        <v>44849</v>
+      </c>
+      <c r="I32" s="29">
+        <v>44853</v>
+      </c>
       <c r="J32" s="37">
         <v>0</v>
       </c>
@@ -9875,7 +9902,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>rv</formula1>
     </dataValidation>
   </dataValidations>
@@ -9885,20 +9912,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="8.109375" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -9906,7 +9933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -9917,7 +9944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -9925,7 +9952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -9945,7 +9972,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9953,7 +9980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -9961,7 +9988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -10047,8 +10074,8 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩宇\Desktop\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517994A7-222E-4F03-9FCA-D8FE584A1294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40623A20-7064-4276-87FA-6BBE0B2273CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,6 +264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>github</t>
@@ -273,6 +274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>账</t>
@@ -282,6 +284,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>号一</t>
@@ -291,6 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>览：</t>
@@ -316,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +339,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,12 +400,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -416,6 +415,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -767,185 +767,185 @@
   </borders>
   <cellStyleXfs count="670">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -970,21 +970,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1048,323 +1048,323 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1373,197 +1373,197 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1575,371 +1575,371 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1948,727 +1948,727 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3797,7 +3797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -5127,7 +5127,7 @@
         <v>44853</v>
       </c>
       <c r="J32" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>34</v>
@@ -9900,7 +9900,7 @@
       <c r="Q159" s="58"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K159" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>rv</formula1>
@@ -10072,7 +10072,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩宇\Desktop\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40623A20-7064-4276-87FA-6BBE0B2273CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EC5E67-2D8C-4F63-955A-2663F23AE516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3797,7 +3797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -5121,7 +5121,7 @@
         <v>44853</v>
       </c>
       <c r="H32" s="29">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="I32" s="29">
         <v>44853</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -3548,7 +3548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3583,7 +3583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3796,7 +3796,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -4886,10 +4886,10 @@
         <v>44853</v>
       </c>
       <c r="H26" s="29">
-        <v>44850</v>
+        <v>44852</v>
       </c>
       <c r="I26" s="29">
-        <v>44851</v>
+        <v>44853</v>
       </c>
       <c r="J26" s="37">
         <v>1</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\skillup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newSpace\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3548,7 +3548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3583,7 +3583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4892,7 +4892,7 @@
         <v>44853</v>
       </c>
       <c r="J26" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>43</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -4892,7 +4892,7 @@
         <v>44853</v>
       </c>
       <c r="J26" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>43</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newSpace\skillup\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" tabRatio="581"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12828" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="9" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="rv">list!$A$1:$A$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -262,8 +257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>github</t>
@@ -272,8 +266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>账</t>
@@ -282,8 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>号一</t>
@@ -292,8 +284,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>览：</t>
@@ -311,19 +302,27 @@
   <si>
     <t>彭成龙</t>
   </si>
+  <si>
+    <t>NG。超过期日未更新、提交作业。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>作业完成较好。</t>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -337,8 +336,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,20 +399,17 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,24 +417,29 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,7 +2675,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2809,116 +2815,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="670">
-    <cellStyle name="標準 2" xfId="448"/>
-    <cellStyle name="標準 2 2" xfId="211"/>
-    <cellStyle name="標準 2 2 2" xfId="627"/>
-    <cellStyle name="標準 2 2 2 2" xfId="91"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="90"/>
-    <cellStyle name="標準 2 2 2 3" xfId="103"/>
-    <cellStyle name="標準 2 2 3" xfId="516"/>
-    <cellStyle name="標準 2 2 3 2" xfId="233"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="513"/>
-    <cellStyle name="標準 2 2 3 3" xfId="662"/>
-    <cellStyle name="標準 2 2 4" xfId="298"/>
-    <cellStyle name="標準 2 2 4 2" xfId="218"/>
-    <cellStyle name="標準 2 2 5" xfId="510"/>
-    <cellStyle name="標準 2 3" xfId="89"/>
-    <cellStyle name="標準 2 3 2" xfId="423"/>
-    <cellStyle name="標準 2 3 2 2" xfId="419"/>
-    <cellStyle name="標準 2 3 3" xfId="88"/>
-    <cellStyle name="標準 2 4" xfId="594"/>
-    <cellStyle name="標準 2 4 2" xfId="521"/>
-    <cellStyle name="標準 2 4 2 2" xfId="86"/>
-    <cellStyle name="標準 2 4 3" xfId="557"/>
-    <cellStyle name="標準 2 5" xfId="407"/>
-    <cellStyle name="標準 2 5 2" xfId="85"/>
-    <cellStyle name="標準 2 5 2 2" xfId="84"/>
-    <cellStyle name="標準 2 5 3" xfId="83"/>
-    <cellStyle name="標準 2 6" xfId="458"/>
-    <cellStyle name="標準 2 6 2" xfId="586"/>
-    <cellStyle name="標準 2 6 2 2" xfId="291"/>
-    <cellStyle name="標準 2 6 3" xfId="432"/>
-    <cellStyle name="標準 2 7" xfId="304"/>
-    <cellStyle name="標準 2 7 2" xfId="624"/>
-    <cellStyle name="標準 2 7 3" xfId="571"/>
-    <cellStyle name="標準 2 8" xfId="302"/>
-    <cellStyle name="標準 2 8 2" xfId="467"/>
-    <cellStyle name="標準 2 9" xfId="82"/>
-    <cellStyle name="標準 3" xfId="79"/>
-    <cellStyle name="標準 3 2" xfId="78"/>
-    <cellStyle name="標準 3 2 2" xfId="118"/>
-    <cellStyle name="標準 3 2 2 2" xfId="76"/>
-    <cellStyle name="標準 3 2 2 3" xfId="202"/>
-    <cellStyle name="標準 3 2 3" xfId="74"/>
-    <cellStyle name="標準 3 2 3 2" xfId="72"/>
-    <cellStyle name="標準 3 2 3 3" xfId="596"/>
-    <cellStyle name="標準 3 2 4" xfId="77"/>
-    <cellStyle name="標準 3 2 4 2" xfId="665"/>
-    <cellStyle name="標準 3 2 4 3" xfId="667"/>
-    <cellStyle name="標準 3 2 5" xfId="75"/>
-    <cellStyle name="標準 3 2 5 2" xfId="70"/>
-    <cellStyle name="標準 3 2 5 3" xfId="96"/>
-    <cellStyle name="標準 3 2 6" xfId="187"/>
-    <cellStyle name="標準 3 2 6 2" xfId="234"/>
-    <cellStyle name="標準 3 2 6 3" xfId="227"/>
-    <cellStyle name="標準 3 2 7" xfId="607"/>
-    <cellStyle name="標準 3 2 8" xfId="359"/>
-    <cellStyle name="標準 3 3" xfId="320"/>
-    <cellStyle name="標準 3 3 2" xfId="546"/>
-    <cellStyle name="標準 3 3 2 2" xfId="68"/>
-    <cellStyle name="標準 3 3 2 3" xfId="66"/>
-    <cellStyle name="標準 3 3 3" xfId="65"/>
-    <cellStyle name="標準 3 3 3 2" xfId="80"/>
-    <cellStyle name="標準 3 3 3 3" xfId="64"/>
-    <cellStyle name="標準 3 3 4" xfId="73"/>
-    <cellStyle name="標準 3 3 5" xfId="71"/>
-    <cellStyle name="標準 3 4" xfId="507"/>
-    <cellStyle name="標準 3 4 2" xfId="370"/>
-    <cellStyle name="標準 3 4 3" xfId="365"/>
-    <cellStyle name="標準 3 5" xfId="362"/>
-    <cellStyle name="標準 3 5 2" xfId="63"/>
-    <cellStyle name="標準 3 5 3" xfId="496"/>
-    <cellStyle name="標準 3 6" xfId="62"/>
-    <cellStyle name="標準 3 6 2" xfId="61"/>
-    <cellStyle name="標準 3 6 3" xfId="425"/>
-    <cellStyle name="標準 3 7" xfId="346"/>
-    <cellStyle name="標準 3 7 2" xfId="59"/>
-    <cellStyle name="標準 3 7 3" xfId="57"/>
-    <cellStyle name="標準 3 8" xfId="299"/>
-    <cellStyle name="標準 3 9" xfId="502"/>
-    <cellStyle name="標準 4" xfId="338"/>
-    <cellStyle name="標準 4 2" xfId="230"/>
-    <cellStyle name="標準 4 2 2" xfId="137"/>
-    <cellStyle name="標準 4 2 2 2" xfId="562"/>
-    <cellStyle name="標準 4 2 2 3" xfId="620"/>
-    <cellStyle name="標準 4 2 3" xfId="135"/>
-    <cellStyle name="標準 4 2 3 2" xfId="55"/>
-    <cellStyle name="標準 4 2 3 3" xfId="54"/>
-    <cellStyle name="標準 4 2 4" xfId="69"/>
-    <cellStyle name="標準 4 2 5" xfId="67"/>
-    <cellStyle name="標準 4 3" xfId="413"/>
-    <cellStyle name="標準 4 3 2" xfId="589"/>
-    <cellStyle name="標準 4 3 3" xfId="449"/>
-    <cellStyle name="標準 4 4" xfId="405"/>
-    <cellStyle name="標準 4 4 2" xfId="53"/>
-    <cellStyle name="標準 4 4 3" xfId="52"/>
-    <cellStyle name="標準 4 5" xfId="271"/>
-    <cellStyle name="標準 4 5 2" xfId="51"/>
-    <cellStyle name="標準 4 5 3" xfId="268"/>
-    <cellStyle name="標準 4 5 4" xfId="164"/>
-    <cellStyle name="標準 4 6" xfId="50"/>
-    <cellStyle name="標準 4 7" xfId="49"/>
-    <cellStyle name="標準 5" xfId="395"/>
-    <cellStyle name="標準 5 2" xfId="642"/>
-    <cellStyle name="標準 5 3" xfId="374"/>
-    <cellStyle name="標準 6" xfId="529"/>
-    <cellStyle name="標準 6 2" xfId="640"/>
-    <cellStyle name="標準 6 3" xfId="455"/>
-    <cellStyle name="標準 7" xfId="625"/>
-    <cellStyle name="標準 8" xfId="572"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="464" builtinId="8"/>
     <cellStyle name="常规 10" xfId="605"/>
     <cellStyle name="常规 10 2" xfId="668"/>
     <cellStyle name="常规 10 2 2" xfId="582"/>
@@ -3367,7 +3269,114 @@
     <cellStyle name="常规 9 2" xfId="92"/>
     <cellStyle name="常规 9 2 2" xfId="574"/>
     <cellStyle name="常规 9 3" xfId="212"/>
-    <cellStyle name="超链接" xfId="464" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="448"/>
+    <cellStyle name="標準 2 2" xfId="211"/>
+    <cellStyle name="標準 2 2 2" xfId="627"/>
+    <cellStyle name="標準 2 2 2 2" xfId="91"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="90"/>
+    <cellStyle name="標準 2 2 2 3" xfId="103"/>
+    <cellStyle name="標準 2 2 3" xfId="516"/>
+    <cellStyle name="標準 2 2 3 2" xfId="233"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="513"/>
+    <cellStyle name="標準 2 2 3 3" xfId="662"/>
+    <cellStyle name="標準 2 2 4" xfId="298"/>
+    <cellStyle name="標準 2 2 4 2" xfId="218"/>
+    <cellStyle name="標準 2 2 5" xfId="510"/>
+    <cellStyle name="標準 2 3" xfId="89"/>
+    <cellStyle name="標準 2 3 2" xfId="423"/>
+    <cellStyle name="標準 2 3 2 2" xfId="419"/>
+    <cellStyle name="標準 2 3 3" xfId="88"/>
+    <cellStyle name="標準 2 4" xfId="594"/>
+    <cellStyle name="標準 2 4 2" xfId="521"/>
+    <cellStyle name="標準 2 4 2 2" xfId="86"/>
+    <cellStyle name="標準 2 4 3" xfId="557"/>
+    <cellStyle name="標準 2 5" xfId="407"/>
+    <cellStyle name="標準 2 5 2" xfId="85"/>
+    <cellStyle name="標準 2 5 2 2" xfId="84"/>
+    <cellStyle name="標準 2 5 3" xfId="83"/>
+    <cellStyle name="標準 2 6" xfId="458"/>
+    <cellStyle name="標準 2 6 2" xfId="586"/>
+    <cellStyle name="標準 2 6 2 2" xfId="291"/>
+    <cellStyle name="標準 2 6 3" xfId="432"/>
+    <cellStyle name="標準 2 7" xfId="304"/>
+    <cellStyle name="標準 2 7 2" xfId="624"/>
+    <cellStyle name="標準 2 7 3" xfId="571"/>
+    <cellStyle name="標準 2 8" xfId="302"/>
+    <cellStyle name="標準 2 8 2" xfId="467"/>
+    <cellStyle name="標準 2 9" xfId="82"/>
+    <cellStyle name="標準 3" xfId="79"/>
+    <cellStyle name="標準 3 2" xfId="78"/>
+    <cellStyle name="標準 3 2 2" xfId="118"/>
+    <cellStyle name="標準 3 2 2 2" xfId="76"/>
+    <cellStyle name="標準 3 2 2 3" xfId="202"/>
+    <cellStyle name="標準 3 2 3" xfId="74"/>
+    <cellStyle name="標準 3 2 3 2" xfId="72"/>
+    <cellStyle name="標準 3 2 3 3" xfId="596"/>
+    <cellStyle name="標準 3 2 4" xfId="77"/>
+    <cellStyle name="標準 3 2 4 2" xfId="665"/>
+    <cellStyle name="標準 3 2 4 3" xfId="667"/>
+    <cellStyle name="標準 3 2 5" xfId="75"/>
+    <cellStyle name="標準 3 2 5 2" xfId="70"/>
+    <cellStyle name="標準 3 2 5 3" xfId="96"/>
+    <cellStyle name="標準 3 2 6" xfId="187"/>
+    <cellStyle name="標準 3 2 6 2" xfId="234"/>
+    <cellStyle name="標準 3 2 6 3" xfId="227"/>
+    <cellStyle name="標準 3 2 7" xfId="607"/>
+    <cellStyle name="標準 3 2 8" xfId="359"/>
+    <cellStyle name="標準 3 3" xfId="320"/>
+    <cellStyle name="標準 3 3 2" xfId="546"/>
+    <cellStyle name="標準 3 3 2 2" xfId="68"/>
+    <cellStyle name="標準 3 3 2 3" xfId="66"/>
+    <cellStyle name="標準 3 3 3" xfId="65"/>
+    <cellStyle name="標準 3 3 3 2" xfId="80"/>
+    <cellStyle name="標準 3 3 3 3" xfId="64"/>
+    <cellStyle name="標準 3 3 4" xfId="73"/>
+    <cellStyle name="標準 3 3 5" xfId="71"/>
+    <cellStyle name="標準 3 4" xfId="507"/>
+    <cellStyle name="標準 3 4 2" xfId="370"/>
+    <cellStyle name="標準 3 4 3" xfId="365"/>
+    <cellStyle name="標準 3 5" xfId="362"/>
+    <cellStyle name="標準 3 5 2" xfId="63"/>
+    <cellStyle name="標準 3 5 3" xfId="496"/>
+    <cellStyle name="標準 3 6" xfId="62"/>
+    <cellStyle name="標準 3 6 2" xfId="61"/>
+    <cellStyle name="標準 3 6 3" xfId="425"/>
+    <cellStyle name="標準 3 7" xfId="346"/>
+    <cellStyle name="標準 3 7 2" xfId="59"/>
+    <cellStyle name="標準 3 7 3" xfId="57"/>
+    <cellStyle name="標準 3 8" xfId="299"/>
+    <cellStyle name="標準 3 9" xfId="502"/>
+    <cellStyle name="標準 4" xfId="338"/>
+    <cellStyle name="標準 4 2" xfId="230"/>
+    <cellStyle name="標準 4 2 2" xfId="137"/>
+    <cellStyle name="標準 4 2 2 2" xfId="562"/>
+    <cellStyle name="標準 4 2 2 3" xfId="620"/>
+    <cellStyle name="標準 4 2 3" xfId="135"/>
+    <cellStyle name="標準 4 2 3 2" xfId="55"/>
+    <cellStyle name="標準 4 2 3 3" xfId="54"/>
+    <cellStyle name="標準 4 2 4" xfId="69"/>
+    <cellStyle name="標準 4 2 5" xfId="67"/>
+    <cellStyle name="標準 4 3" xfId="413"/>
+    <cellStyle name="標準 4 3 2" xfId="589"/>
+    <cellStyle name="標準 4 3 3" xfId="449"/>
+    <cellStyle name="標準 4 4" xfId="405"/>
+    <cellStyle name="標準 4 4 2" xfId="53"/>
+    <cellStyle name="標準 4 4 3" xfId="52"/>
+    <cellStyle name="標準 4 5" xfId="271"/>
+    <cellStyle name="標準 4 5 2" xfId="51"/>
+    <cellStyle name="標準 4 5 3" xfId="268"/>
+    <cellStyle name="標準 4 5 4" xfId="164"/>
+    <cellStyle name="標準 4 6" xfId="50"/>
+    <cellStyle name="標準 4 7" xfId="49"/>
+    <cellStyle name="標準 5" xfId="395"/>
+    <cellStyle name="標準 5 2" xfId="642"/>
+    <cellStyle name="標準 5 3" xfId="374"/>
+    <cellStyle name="標準 6" xfId="529"/>
+    <cellStyle name="標準 6 2" xfId="640"/>
+    <cellStyle name="標準 6 3" xfId="455"/>
+    <cellStyle name="標準 7" xfId="625"/>
+    <cellStyle name="標準 8" xfId="572"/>
     <cellStyle name="超链接 10" xfId="48"/>
     <cellStyle name="超链接 2" xfId="46"/>
     <cellStyle name="超链接 2 2" xfId="45"/>
@@ -3506,7 +3515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3548,7 +3557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3583,7 +3592,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3796,26 +3805,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="7" customWidth="1"/>
-    <col min="6" max="9" width="7.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="7" customWidth="1"/>
-    <col min="12" max="15" width="7.625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="52.5" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="7"/>
+    <col min="1" max="1" width="1.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="7" customWidth="1"/>
+    <col min="6" max="9" width="7.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="7" customWidth="1"/>
+    <col min="12" max="15" width="7.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="52.44140625" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="33">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -3866,7 +3875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3901,7 +3910,7 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="41"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="3" spans="1:17" outlineLevel="1">
       <c r="B3" s="59" t="str">
         <f>$B$2&amp;"-1"</f>
         <v>1-1</v>
@@ -3948,7 +3957,7 @@
       </c>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="4" spans="1:17" outlineLevel="1">
       <c r="B4" s="59" t="str">
         <f>$B$2&amp;"-2"</f>
         <v>1-2</v>
@@ -3997,7 +4006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="5" spans="1:17" outlineLevel="1">
       <c r="B5" s="59" t="str">
         <f>$B$2&amp;"-3"</f>
         <v>1-3</v>
@@ -4042,7 +4051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="6" spans="1:17" outlineLevel="1">
       <c r="B6" s="59" t="str">
         <f>$B$2&amp;"-4"</f>
         <v>1-4</v>
@@ -4091,7 +4100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="7" spans="1:17" outlineLevel="1">
       <c r="B7" s="59" t="str">
         <f>$B$2&amp;"-5"</f>
         <v>1-5</v>
@@ -4136,7 +4145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="8" spans="1:17" outlineLevel="1">
       <c r="B8" s="59" t="str">
         <f>$B$2&amp;"-6"</f>
         <v>1-6</v>
@@ -4183,7 +4192,7 @@
       </c>
       <c r="Q8" s="42"/>
     </row>
-    <row r="9" spans="1:17" ht="17.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -4227,7 +4236,7 @@
       </c>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" ht="17.25">
+    <row r="10" spans="1:17">
       <c r="B10" s="59" t="str">
         <f>$B$9&amp;"-1"</f>
         <v>2-1</v>
@@ -4262,7 +4271,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="43"/>
     </row>
-    <row r="11" spans="1:17" ht="17.25">
+    <row r="11" spans="1:17">
       <c r="B11" s="59" t="str">
         <f t="shared" ref="B11:B33" si="0">$B$9&amp;"-2"</f>
         <v>2-2</v>
@@ -4311,7 +4320,7 @@
       </c>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="12" spans="1:17" outlineLevel="1">
       <c r="B12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4345,14 +4354,14 @@
       <c r="M12" s="29">
         <v>44853</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
       <c r="P12" s="37">
         <v>0</v>
       </c>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="13" spans="1:17" outlineLevel="1">
       <c r="B13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4386,14 +4395,14 @@
       <c r="M13" s="29">
         <v>44853</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="37">
         <v>0</v>
       </c>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="14" spans="1:17" outlineLevel="1">
       <c r="B14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4427,14 +4436,14 @@
       <c r="M14" s="29">
         <v>44853</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="37">
         <v>0</v>
       </c>
       <c r="Q14" s="44"/>
     </row>
-    <row r="15" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="15" spans="1:17" outlineLevel="1">
       <c r="B15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4468,14 +4477,14 @@
       <c r="M15" s="29">
         <v>44853</v>
       </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="37">
         <v>0</v>
       </c>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="16" spans="1:17" outlineLevel="1">
       <c r="B16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4509,14 +4518,14 @@
       <c r="M16" s="29">
         <v>44853</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="37">
         <v>0</v>
       </c>
       <c r="Q16" s="42"/>
     </row>
-    <row r="17" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="17" spans="2:17" outlineLevel="1">
       <c r="B17" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4550,14 +4559,14 @@
       <c r="M17" s="29">
         <v>44853</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="37">
         <v>0</v>
       </c>
       <c r="Q17" s="42"/>
     </row>
-    <row r="18" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="18" spans="2:17" outlineLevel="1">
       <c r="B18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4587,14 +4596,16 @@
       <c r="M18" s="29">
         <v>44853</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
       <c r="P18" s="37">
         <v>0</v>
       </c>
-      <c r="Q18" s="42"/>
-    </row>
-    <row r="19" spans="2:17" ht="17.25" outlineLevel="1">
+      <c r="Q18" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" outlineLevel="1">
       <c r="B19" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4624,14 +4635,16 @@
       <c r="M19" s="29">
         <v>44853</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="37">
         <v>0</v>
       </c>
-      <c r="Q19" s="42"/>
-    </row>
-    <row r="20" spans="2:17" ht="17.25" outlineLevel="1">
+      <c r="Q19" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" outlineLevel="1">
       <c r="B20" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4661,14 +4674,16 @@
       <c r="M20" s="29">
         <v>44853</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="37">
         <v>0</v>
       </c>
-      <c r="Q20" s="42"/>
-    </row>
-    <row r="21" spans="2:17" ht="17.25" outlineLevel="1">
+      <c r="Q20" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" outlineLevel="1">
       <c r="B21" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4698,14 +4713,16 @@
       <c r="M21" s="29">
         <v>44853</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="37">
         <v>0</v>
       </c>
-      <c r="Q21" s="42"/>
-    </row>
-    <row r="22" spans="2:17" ht="17.25" outlineLevel="1">
+      <c r="Q21" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" outlineLevel="1">
       <c r="B22" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4739,14 +4756,14 @@
       <c r="M22" s="29">
         <v>44853</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="37">
         <v>0</v>
       </c>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="23" spans="2:17" outlineLevel="1">
       <c r="B23" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4780,14 +4797,14 @@
       <c r="M23" s="29">
         <v>44853</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="37">
         <v>0</v>
       </c>
       <c r="Q23" s="42"/>
     </row>
-    <row r="24" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="24" spans="2:17" outlineLevel="1">
       <c r="B24" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4821,14 +4838,14 @@
       <c r="M24" s="29">
         <v>44853</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="37">
         <v>0</v>
       </c>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="25" spans="2:17" outlineLevel="1">
       <c r="B25" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4862,14 +4879,14 @@
       <c r="M25" s="29">
         <v>44853</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="37">
         <v>0</v>
       </c>
       <c r="Q25" s="42"/>
     </row>
-    <row r="26" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="26" spans="2:17" outlineLevel="1">
       <c r="B26" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4903,14 +4920,14 @@
       <c r="M26" s="29">
         <v>44853</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
       <c r="P26" s="37">
         <v>0</v>
       </c>
       <c r="Q26" s="42"/>
     </row>
-    <row r="27" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="27" spans="2:17" outlineLevel="1">
       <c r="B27" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4944,14 +4961,16 @@
       <c r="M27" s="29">
         <v>44853</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="37">
         <v>0</v>
       </c>
-      <c r="Q27" s="42"/>
-    </row>
-    <row r="28" spans="2:17" ht="17.25" outlineLevel="1">
+      <c r="Q27" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" outlineLevel="1">
       <c r="B28" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -4985,14 +5004,14 @@
       <c r="M28" s="29">
         <v>44853</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
       <c r="P28" s="37">
         <v>0</v>
       </c>
       <c r="Q28" s="42"/>
     </row>
-    <row r="29" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="29" spans="2:17" outlineLevel="1">
       <c r="B29" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5022,14 +5041,16 @@
       <c r="M29" s="29">
         <v>44853</v>
       </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="37">
         <v>0</v>
       </c>
-      <c r="Q29" s="42"/>
-    </row>
-    <row r="30" spans="2:17" ht="17.25" outlineLevel="1">
+      <c r="Q29" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" outlineLevel="1">
       <c r="B30" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5063,14 +5084,14 @@
       <c r="M30" s="29">
         <v>44853</v>
       </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="37">
         <v>0</v>
       </c>
       <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="31" spans="2:17" outlineLevel="1">
       <c r="B31" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5100,14 +5121,16 @@
       <c r="M31" s="29">
         <v>44853</v>
       </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="37">
         <v>0</v>
       </c>
-      <c r="Q31" s="42"/>
-    </row>
-    <row r="32" spans="2:17" ht="17.25" outlineLevel="1">
+      <c r="Q31" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" outlineLevel="1">
       <c r="B32" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5141,14 +5164,14 @@
       <c r="M32" s="29">
         <v>44853</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="37">
         <v>0</v>
       </c>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="33" spans="1:17" outlineLevel="1">
       <c r="B33" s="59" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
@@ -5178,14 +5201,16 @@
       <c r="M33" s="29">
         <v>44853</v>
       </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="37">
         <v>0</v>
       </c>
-      <c r="Q33" s="42"/>
-    </row>
-    <row r="34" spans="1:17" ht="17.25">
+      <c r="Q33" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -5229,7 +5254,7 @@
       </c>
       <c r="Q34" s="45"/>
     </row>
-    <row r="35" spans="1:17" ht="17.25">
+    <row r="35" spans="1:17">
       <c r="B35" s="59" t="str">
         <f>$B$34&amp;"-1"</f>
         <v>3-1</v>
@@ -5260,7 +5285,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:17" ht="17.25">
+    <row r="36" spans="1:17">
       <c r="B36" s="59" t="str">
         <f>$B$34&amp;"-2"</f>
         <v>3-2</v>
@@ -5303,7 +5328,7 @@
       </c>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="37" spans="1:17" outlineLevel="1">
       <c r="B37" s="59" t="str">
         <f t="shared" ref="B37:B58" si="1">$B$34&amp;"-2"</f>
         <v>3-2</v>
@@ -5340,7 +5365,7 @@
       </c>
       <c r="Q37" s="42"/>
     </row>
-    <row r="38" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="38" spans="1:17" outlineLevel="1">
       <c r="B38" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5377,7 +5402,7 @@
       </c>
       <c r="Q38" s="42"/>
     </row>
-    <row r="39" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="39" spans="1:17" outlineLevel="1">
       <c r="B39" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5414,7 +5439,7 @@
       </c>
       <c r="Q39" s="42"/>
     </row>
-    <row r="40" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="40" spans="1:17" outlineLevel="1">
       <c r="B40" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5451,7 +5476,7 @@
       </c>
       <c r="Q40" s="42"/>
     </row>
-    <row r="41" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="41" spans="1:17" outlineLevel="1">
       <c r="B41" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5488,7 +5513,7 @@
       </c>
       <c r="Q41" s="42"/>
     </row>
-    <row r="42" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="42" spans="1:17" outlineLevel="1">
       <c r="B42" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5525,7 +5550,7 @@
       </c>
       <c r="Q42" s="42"/>
     </row>
-    <row r="43" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="43" spans="1:17" outlineLevel="1">
       <c r="B43" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5562,7 +5587,7 @@
       </c>
       <c r="Q43" s="42"/>
     </row>
-    <row r="44" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="44" spans="1:17" outlineLevel="1">
       <c r="B44" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5599,7 +5624,7 @@
       </c>
       <c r="Q44" s="42"/>
     </row>
-    <row r="45" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="45" spans="1:17" outlineLevel="1">
       <c r="B45" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5636,7 +5661,7 @@
       </c>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="46" spans="1:17" outlineLevel="1">
       <c r="B46" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5673,7 +5698,7 @@
       </c>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="47" spans="1:17" outlineLevel="1">
       <c r="B47" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5710,7 +5735,7 @@
       </c>
       <c r="Q47" s="42"/>
     </row>
-    <row r="48" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="48" spans="1:17" outlineLevel="1">
       <c r="B48" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5747,7 +5772,7 @@
       </c>
       <c r="Q48" s="42"/>
     </row>
-    <row r="49" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="49" spans="1:17" outlineLevel="1">
       <c r="B49" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5784,7 +5809,7 @@
       </c>
       <c r="Q49" s="42"/>
     </row>
-    <row r="50" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="50" spans="1:17" outlineLevel="1">
       <c r="B50" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5821,7 +5846,7 @@
       </c>
       <c r="Q50" s="42"/>
     </row>
-    <row r="51" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="51" spans="1:17" outlineLevel="1">
       <c r="B51" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5858,7 +5883,7 @@
       </c>
       <c r="Q51" s="42"/>
     </row>
-    <row r="52" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="52" spans="1:17" outlineLevel="1">
       <c r="B52" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5895,7 +5920,7 @@
       </c>
       <c r="Q52" s="42"/>
     </row>
-    <row r="53" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="53" spans="1:17" outlineLevel="1">
       <c r="B53" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5932,7 +5957,7 @@
       </c>
       <c r="Q53" s="42"/>
     </row>
-    <row r="54" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="54" spans="1:17" outlineLevel="1">
       <c r="B54" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -5969,7 +5994,7 @@
       </c>
       <c r="Q54" s="42"/>
     </row>
-    <row r="55" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="55" spans="1:17" outlineLevel="1">
       <c r="B55" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6006,7 +6031,7 @@
       </c>
       <c r="Q55" s="42"/>
     </row>
-    <row r="56" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="56" spans="1:17" outlineLevel="1">
       <c r="B56" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6043,7 +6068,7 @@
       </c>
       <c r="Q56" s="42"/>
     </row>
-    <row r="57" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="57" spans="1:17" outlineLevel="1">
       <c r="B57" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6080,7 +6105,7 @@
       </c>
       <c r="Q57" s="42"/>
     </row>
-    <row r="58" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="58" spans="1:17" outlineLevel="1">
       <c r="B58" s="59" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
@@ -6117,7 +6142,7 @@
       </c>
       <c r="Q58" s="42"/>
     </row>
-    <row r="59" spans="1:17" ht="17.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="5">
         <v>4</v>
       </c>
@@ -6161,7 +6186,7 @@
       </c>
       <c r="Q59" s="45"/>
     </row>
-    <row r="60" spans="1:17" ht="17.25">
+    <row r="60" spans="1:17">
       <c r="B60" s="59" t="str">
         <f>$B$59&amp;"-1"</f>
         <v>4-1</v>
@@ -6196,7 +6221,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="43"/>
     </row>
-    <row r="61" spans="1:17" ht="17.25">
+    <row r="61" spans="1:17">
       <c r="B61" s="59" t="str">
         <f>$B$59&amp;"-2"</f>
         <v>4-2</v>
@@ -6231,7 +6256,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="43"/>
     </row>
-    <row r="62" spans="1:17" ht="17.25">
+    <row r="62" spans="1:17">
       <c r="B62" s="59" t="str">
         <f>$B$59&amp;"-3"</f>
         <v>4-3</v>
@@ -6274,7 +6299,7 @@
       </c>
       <c r="Q62" s="43"/>
     </row>
-    <row r="63" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="63" spans="1:17" outlineLevel="1">
       <c r="B63" s="59" t="str">
         <f t="shared" ref="B63:B84" si="2">$B$59&amp;"-3"</f>
         <v>4-3</v>
@@ -6311,7 +6336,7 @@
       </c>
       <c r="Q63" s="42"/>
     </row>
-    <row r="64" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="64" spans="1:17" outlineLevel="1">
       <c r="B64" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6348,7 +6373,7 @@
       </c>
       <c r="Q64" s="42"/>
     </row>
-    <row r="65" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="65" spans="2:17" outlineLevel="1">
       <c r="B65" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6385,7 +6410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="66" spans="2:17" outlineLevel="1">
       <c r="B66" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6422,7 +6447,7 @@
       </c>
       <c r="Q66" s="42"/>
     </row>
-    <row r="67" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="67" spans="2:17" outlineLevel="1">
       <c r="B67" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6459,7 +6484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="68" spans="2:17" outlineLevel="1">
       <c r="B68" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6496,7 +6521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="69" spans="2:17" outlineLevel="1">
       <c r="B69" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6533,7 +6558,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="70" spans="2:17" outlineLevel="1">
       <c r="B70" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6570,7 +6595,7 @@
       </c>
       <c r="Q70" s="42"/>
     </row>
-    <row r="71" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="71" spans="2:17" outlineLevel="1">
       <c r="B71" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6607,7 +6632,7 @@
       </c>
       <c r="Q71" s="42"/>
     </row>
-    <row r="72" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="72" spans="2:17" outlineLevel="1">
       <c r="B72" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6644,7 +6669,7 @@
       </c>
       <c r="Q72" s="42"/>
     </row>
-    <row r="73" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="73" spans="2:17" outlineLevel="1">
       <c r="B73" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6681,7 +6706,7 @@
       </c>
       <c r="Q73" s="42"/>
     </row>
-    <row r="74" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="74" spans="2:17" outlineLevel="1">
       <c r="B74" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6718,7 +6743,7 @@
       </c>
       <c r="Q74" s="42"/>
     </row>
-    <row r="75" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="75" spans="2:17" outlineLevel="1">
       <c r="B75" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6755,7 +6780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="76" spans="2:17" outlineLevel="1">
       <c r="B76" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6792,7 +6817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="77" spans="2:17" outlineLevel="1">
       <c r="B77" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6829,7 +6854,7 @@
       </c>
       <c r="Q77" s="42"/>
     </row>
-    <row r="78" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="78" spans="2:17" outlineLevel="1">
       <c r="B78" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6866,7 +6891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="79" spans="2:17" outlineLevel="1">
       <c r="B79" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6903,7 +6928,7 @@
       </c>
       <c r="Q79" s="42"/>
     </row>
-    <row r="80" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="80" spans="2:17" outlineLevel="1">
       <c r="B80" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6940,7 +6965,7 @@
       </c>
       <c r="Q80" s="42"/>
     </row>
-    <row r="81" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="81" spans="1:17" outlineLevel="1">
       <c r="B81" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -6977,7 +7002,7 @@
       </c>
       <c r="Q81" s="42"/>
     </row>
-    <row r="82" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="82" spans="1:17" outlineLevel="1">
       <c r="B82" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -7014,7 +7039,7 @@
       </c>
       <c r="Q82" s="42"/>
     </row>
-    <row r="83" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="83" spans="1:17" outlineLevel="1">
       <c r="B83" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -7051,7 +7076,7 @@
       </c>
       <c r="Q83" s="42"/>
     </row>
-    <row r="84" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="84" spans="1:17" outlineLevel="1">
       <c r="B84" s="59" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
@@ -7088,7 +7113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="17.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="5">
         <v>5</v>
       </c>
@@ -7134,7 +7159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="17.25">
+    <row r="86" spans="1:17">
       <c r="B86" s="59" t="str">
         <f>$B$85&amp;"-1"</f>
         <v>5-1</v>
@@ -7169,7 +7194,7 @@
       <c r="P86" s="38"/>
       <c r="Q86" s="43"/>
     </row>
-    <row r="87" spans="1:17" ht="17.25">
+    <row r="87" spans="1:17">
       <c r="B87" s="59" t="str">
         <f t="shared" ref="B87:B109" si="3">$B$85&amp;"-2"</f>
         <v>5-2</v>
@@ -7212,7 +7237,7 @@
       </c>
       <c r="Q87" s="43"/>
     </row>
-    <row r="88" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="88" spans="1:17" outlineLevel="1">
       <c r="B88" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7249,7 +7274,7 @@
       </c>
       <c r="Q88" s="42"/>
     </row>
-    <row r="89" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="89" spans="1:17" outlineLevel="1">
       <c r="B89" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7286,7 +7311,7 @@
       </c>
       <c r="Q89" s="42"/>
     </row>
-    <row r="90" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="90" spans="1:17" outlineLevel="1">
       <c r="B90" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7323,7 +7348,7 @@
       </c>
       <c r="Q90" s="42"/>
     </row>
-    <row r="91" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="91" spans="1:17" outlineLevel="1">
       <c r="B91" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7360,7 +7385,7 @@
       </c>
       <c r="Q91" s="42"/>
     </row>
-    <row r="92" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="92" spans="1:17" outlineLevel="1">
       <c r="B92" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7397,7 +7422,7 @@
       </c>
       <c r="Q92" s="42"/>
     </row>
-    <row r="93" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="93" spans="1:17" outlineLevel="1">
       <c r="B93" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7434,7 +7459,7 @@
       </c>
       <c r="Q93" s="42"/>
     </row>
-    <row r="94" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="94" spans="1:17" outlineLevel="1">
       <c r="B94" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7471,7 +7496,7 @@
       </c>
       <c r="Q94" s="42"/>
     </row>
-    <row r="95" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="95" spans="1:17" outlineLevel="1">
       <c r="B95" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7508,7 +7533,7 @@
       </c>
       <c r="Q95" s="42"/>
     </row>
-    <row r="96" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="96" spans="1:17" outlineLevel="1">
       <c r="B96" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7545,7 +7570,7 @@
       </c>
       <c r="Q96" s="42"/>
     </row>
-    <row r="97" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="97" spans="1:17" outlineLevel="1">
       <c r="B97" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7582,7 +7607,7 @@
       </c>
       <c r="Q97" s="42"/>
     </row>
-    <row r="98" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="98" spans="1:17" outlineLevel="1">
       <c r="B98" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7619,7 +7644,7 @@
       </c>
       <c r="Q98" s="42"/>
     </row>
-    <row r="99" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="99" spans="1:17" outlineLevel="1">
       <c r="B99" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7656,7 +7681,7 @@
       </c>
       <c r="Q99" s="42"/>
     </row>
-    <row r="100" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="100" spans="1:17" outlineLevel="1">
       <c r="B100" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7693,7 +7718,7 @@
       </c>
       <c r="Q100" s="42"/>
     </row>
-    <row r="101" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="101" spans="1:17" outlineLevel="1">
       <c r="B101" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7730,7 +7755,7 @@
       </c>
       <c r="Q101" s="42"/>
     </row>
-    <row r="102" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="102" spans="1:17" outlineLevel="1">
       <c r="B102" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7767,7 +7792,7 @@
       </c>
       <c r="Q102" s="42"/>
     </row>
-    <row r="103" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="103" spans="1:17" outlineLevel="1">
       <c r="B103" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7804,7 +7829,7 @@
       </c>
       <c r="Q103" s="42"/>
     </row>
-    <row r="104" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="104" spans="1:17" outlineLevel="1">
       <c r="B104" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7841,7 +7866,7 @@
       </c>
       <c r="Q104" s="42"/>
     </row>
-    <row r="105" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="105" spans="1:17" outlineLevel="1">
       <c r="B105" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7878,7 +7903,7 @@
       </c>
       <c r="Q105" s="42"/>
     </row>
-    <row r="106" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="106" spans="1:17" outlineLevel="1">
       <c r="B106" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7915,7 +7940,7 @@
       </c>
       <c r="Q106" s="42"/>
     </row>
-    <row r="107" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="107" spans="1:17" outlineLevel="1">
       <c r="B107" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7952,7 +7977,7 @@
       </c>
       <c r="Q107" s="42"/>
     </row>
-    <row r="108" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="108" spans="1:17" outlineLevel="1">
       <c r="B108" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -7989,7 +8014,7 @@
       </c>
       <c r="Q108" s="42"/>
     </row>
-    <row r="109" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="109" spans="1:17" outlineLevel="1">
       <c r="B109" s="59" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
@@ -8026,7 +8051,7 @@
       </c>
       <c r="Q109" s="42"/>
     </row>
-    <row r="110" spans="1:17" ht="17.25">
+    <row r="110" spans="1:17">
       <c r="A110" s="5">
         <v>6</v>
       </c>
@@ -8070,7 +8095,7 @@
       </c>
       <c r="Q110" s="41"/>
     </row>
-    <row r="111" spans="1:17" ht="17.25">
+    <row r="111" spans="1:17">
       <c r="B111" s="59" t="str">
         <f>$B$110&amp;"-1"</f>
         <v>6-1</v>
@@ -8107,7 +8132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="17.25">
+    <row r="112" spans="1:17">
       <c r="B112" s="59" t="str">
         <f t="shared" ref="B112:B134" si="4">$B$110&amp;"-2"</f>
         <v>6-2</v>
@@ -8150,7 +8175,7 @@
       </c>
       <c r="Q112" s="43"/>
     </row>
-    <row r="113" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="113" spans="2:17" outlineLevel="1">
       <c r="B113" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8187,7 +8212,7 @@
       </c>
       <c r="Q113" s="42"/>
     </row>
-    <row r="114" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="114" spans="2:17" outlineLevel="1">
       <c r="B114" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8224,7 +8249,7 @@
       </c>
       <c r="Q114" s="42"/>
     </row>
-    <row r="115" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="115" spans="2:17" outlineLevel="1">
       <c r="B115" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8261,7 +8286,7 @@
       </c>
       <c r="Q115" s="42"/>
     </row>
-    <row r="116" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="116" spans="2:17" outlineLevel="1">
       <c r="B116" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8298,7 +8323,7 @@
       </c>
       <c r="Q116" s="42"/>
     </row>
-    <row r="117" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="117" spans="2:17" outlineLevel="1">
       <c r="B117" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8335,7 +8360,7 @@
       </c>
       <c r="Q117" s="42"/>
     </row>
-    <row r="118" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="118" spans="2:17" outlineLevel="1">
       <c r="B118" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8372,7 +8397,7 @@
       </c>
       <c r="Q118" s="42"/>
     </row>
-    <row r="119" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="119" spans="2:17" outlineLevel="1">
       <c r="B119" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8409,7 +8434,7 @@
       </c>
       <c r="Q119" s="42"/>
     </row>
-    <row r="120" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="120" spans="2:17" outlineLevel="1">
       <c r="B120" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8446,7 +8471,7 @@
       </c>
       <c r="Q120" s="42"/>
     </row>
-    <row r="121" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="121" spans="2:17" outlineLevel="1">
       <c r="B121" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8483,7 +8508,7 @@
       </c>
       <c r="Q121" s="42"/>
     </row>
-    <row r="122" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="122" spans="2:17" outlineLevel="1">
       <c r="B122" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8520,7 +8545,7 @@
       </c>
       <c r="Q122" s="42"/>
     </row>
-    <row r="123" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="123" spans="2:17" outlineLevel="1">
       <c r="B123" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8557,7 +8582,7 @@
       </c>
       <c r="Q123" s="42"/>
     </row>
-    <row r="124" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="124" spans="2:17" outlineLevel="1">
       <c r="B124" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8594,7 +8619,7 @@
       </c>
       <c r="Q124" s="42"/>
     </row>
-    <row r="125" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="125" spans="2:17" outlineLevel="1">
       <c r="B125" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8631,7 +8656,7 @@
       </c>
       <c r="Q125" s="42"/>
     </row>
-    <row r="126" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="126" spans="2:17" outlineLevel="1">
       <c r="B126" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8668,7 +8693,7 @@
       </c>
       <c r="Q126" s="42"/>
     </row>
-    <row r="127" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="127" spans="2:17" outlineLevel="1">
       <c r="B127" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8705,7 +8730,7 @@
       </c>
       <c r="Q127" s="42"/>
     </row>
-    <row r="128" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="128" spans="2:17" outlineLevel="1">
       <c r="B128" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8744,7 +8769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="129" spans="1:17" outlineLevel="1">
       <c r="B129" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8781,7 +8806,7 @@
       </c>
       <c r="Q129" s="42"/>
     </row>
-    <row r="130" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="130" spans="1:17" outlineLevel="1">
       <c r="B130" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8818,7 +8843,7 @@
       </c>
       <c r="Q130" s="42"/>
     </row>
-    <row r="131" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="131" spans="1:17" outlineLevel="1">
       <c r="B131" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8855,7 +8880,7 @@
       </c>
       <c r="Q131" s="42"/>
     </row>
-    <row r="132" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="132" spans="1:17" outlineLevel="1">
       <c r="B132" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8892,7 +8917,7 @@
       </c>
       <c r="Q132" s="42"/>
     </row>
-    <row r="133" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="133" spans="1:17" outlineLevel="1">
       <c r="B133" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8929,7 +8954,7 @@
       </c>
       <c r="Q133" s="42"/>
     </row>
-    <row r="134" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="134" spans="1:17" outlineLevel="1">
       <c r="B134" s="59" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
@@ -8966,7 +8991,7 @@
       </c>
       <c r="Q134" s="42"/>
     </row>
-    <row r="135" spans="1:17" ht="17.25">
+    <row r="135" spans="1:17">
       <c r="A135" s="5">
         <v>7</v>
       </c>
@@ -9010,7 +9035,7 @@
       </c>
       <c r="Q135" s="41"/>
     </row>
-    <row r="136" spans="1:17" ht="17.25">
+    <row r="136" spans="1:17">
       <c r="B136" s="59" t="str">
         <f>$B$135&amp;"-1"</f>
         <v>7-1</v>
@@ -9045,7 +9070,7 @@
       <c r="P136" s="38"/>
       <c r="Q136" s="43"/>
     </row>
-    <row r="137" spans="1:17" ht="17.25">
+    <row r="137" spans="1:17">
       <c r="B137" s="59" t="str">
         <f>$B$135&amp;"-2"</f>
         <v>7-2</v>
@@ -9088,7 +9113,7 @@
       </c>
       <c r="Q137" s="43"/>
     </row>
-    <row r="138" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="138" spans="1:17" outlineLevel="1">
       <c r="B138" s="59" t="str">
         <f t="shared" ref="B138:B159" si="5">$B$135&amp;"-2"</f>
         <v>7-2</v>
@@ -9125,7 +9150,7 @@
       </c>
       <c r="Q138" s="42"/>
     </row>
-    <row r="139" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="139" spans="1:17" outlineLevel="1">
       <c r="B139" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9162,7 +9187,7 @@
       </c>
       <c r="Q139" s="42"/>
     </row>
-    <row r="140" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="140" spans="1:17" outlineLevel="1">
       <c r="B140" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9199,7 +9224,7 @@
       </c>
       <c r="Q140" s="42"/>
     </row>
-    <row r="141" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="141" spans="1:17" outlineLevel="1">
       <c r="B141" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9236,7 +9261,7 @@
       </c>
       <c r="Q141" s="42"/>
     </row>
-    <row r="142" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="142" spans="1:17" outlineLevel="1">
       <c r="B142" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9273,7 +9298,7 @@
       </c>
       <c r="Q142" s="42"/>
     </row>
-    <row r="143" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="143" spans="1:17" outlineLevel="1">
       <c r="B143" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9310,7 +9335,7 @@
       </c>
       <c r="Q143" s="42"/>
     </row>
-    <row r="144" spans="1:17" ht="17.25" outlineLevel="1">
+    <row r="144" spans="1:17" outlineLevel="1">
       <c r="B144" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9347,7 +9372,7 @@
       </c>
       <c r="Q144" s="42"/>
     </row>
-    <row r="145" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="145" spans="2:17" outlineLevel="1">
       <c r="B145" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9384,7 +9409,7 @@
       </c>
       <c r="Q145" s="42"/>
     </row>
-    <row r="146" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="146" spans="2:17" outlineLevel="1">
       <c r="B146" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9421,7 +9446,7 @@
       </c>
       <c r="Q146" s="42"/>
     </row>
-    <row r="147" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="147" spans="2:17" outlineLevel="1">
       <c r="B147" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9458,7 +9483,7 @@
       </c>
       <c r="Q147" s="42"/>
     </row>
-    <row r="148" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="148" spans="2:17" outlineLevel="1">
       <c r="B148" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9495,7 +9520,7 @@
       </c>
       <c r="Q148" s="42"/>
     </row>
-    <row r="149" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="149" spans="2:17" outlineLevel="1">
       <c r="B149" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9532,7 +9557,7 @@
       </c>
       <c r="Q149" s="42"/>
     </row>
-    <row r="150" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="150" spans="2:17" outlineLevel="1">
       <c r="B150" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9569,7 +9594,7 @@
       </c>
       <c r="Q150" s="42"/>
     </row>
-    <row r="151" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="151" spans="2:17" outlineLevel="1">
       <c r="B151" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9606,7 +9631,7 @@
       </c>
       <c r="Q151" s="42"/>
     </row>
-    <row r="152" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="152" spans="2:17" outlineLevel="1">
       <c r="B152" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9643,7 +9668,7 @@
       </c>
       <c r="Q152" s="42"/>
     </row>
-    <row r="153" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="153" spans="2:17" outlineLevel="1">
       <c r="B153" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9680,7 +9705,7 @@
       </c>
       <c r="Q153" s="42"/>
     </row>
-    <row r="154" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="154" spans="2:17" outlineLevel="1">
       <c r="B154" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9717,7 +9742,7 @@
       </c>
       <c r="Q154" s="42"/>
     </row>
-    <row r="155" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="155" spans="2:17" outlineLevel="1">
       <c r="B155" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9754,7 +9779,7 @@
       </c>
       <c r="Q155" s="42"/>
     </row>
-    <row r="156" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="156" spans="2:17" outlineLevel="1">
       <c r="B156" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9791,7 +9816,7 @@
       </c>
       <c r="Q156" s="42"/>
     </row>
-    <row r="157" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="157" spans="2:17" outlineLevel="1">
       <c r="B157" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9828,7 +9853,7 @@
       </c>
       <c r="Q157" s="42"/>
     </row>
-    <row r="158" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="158" spans="2:17" outlineLevel="1">
       <c r="B158" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9865,7 +9890,7 @@
       </c>
       <c r="Q158" s="42"/>
     </row>
-    <row r="159" spans="2:17" ht="17.25" outlineLevel="1">
+    <row r="159" spans="2:17" outlineLevel="1">
       <c r="B159" s="60" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
@@ -9922,13 +9947,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -9947,7 +9972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -9955,7 +9980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -9963,7 +9988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -9975,7 +10000,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9983,7 +10008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -9991,7 +10016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -258,6 +258,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>github</t>
@@ -267,6 +269,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>账</t>
@@ -276,6 +280,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>号一</t>
@@ -285,6 +291,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>览：</t>
@@ -308,6 +316,30 @@
   </si>
   <si>
     <t>作业完成较好。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>NG。超过期日未更新、提交作业。没有自己的代码。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>NG。复制李义新branch，做了细微修改。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>执行结果截图和代码不一致。有问题。和杨鉴的代码100%一致。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>NG。UserListServiceImpl.java格纳不对，能正确执行？</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>NG。执行结果截图和代码不一致。有问题。和姜文俊的代码100%一致。</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>自立完成</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -337,6 +369,8 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,6 +444,8 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,6 +472,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2675,7 +2713,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2768,9 +2806,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2817,6 +2852,12 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="670">
@@ -3805,7 +3846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -3911,7 +3952,7 @@
       <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" outlineLevel="1">
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="58" t="str">
         <f>$B$2&amp;"-1"</f>
         <v>1-1</v>
       </c>
@@ -3958,7 +3999,7 @@
       <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" outlineLevel="1">
-      <c r="B4" s="59" t="str">
+      <c r="B4" s="58" t="str">
         <f>$B$2&amp;"-2"</f>
         <v>1-2</v>
       </c>
@@ -4007,7 +4048,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" outlineLevel="1">
-      <c r="B5" s="59" t="str">
+      <c r="B5" s="58" t="str">
         <f>$B$2&amp;"-3"</f>
         <v>1-3</v>
       </c>
@@ -4052,7 +4093,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" outlineLevel="1">
-      <c r="B6" s="59" t="str">
+      <c r="B6" s="58" t="str">
         <f>$B$2&amp;"-4"</f>
         <v>1-4</v>
       </c>
@@ -4101,7 +4142,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" outlineLevel="1">
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="58" t="str">
         <f>$B$2&amp;"-5"</f>
         <v>1-5</v>
       </c>
@@ -4146,7 +4187,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" outlineLevel="1">
-      <c r="B8" s="59" t="str">
+      <c r="B8" s="58" t="str">
         <f>$B$2&amp;"-6"</f>
         <v>1-6</v>
       </c>
@@ -4237,7 +4278,7 @@
       <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="59" t="str">
+      <c r="B10" s="58" t="str">
         <f>$B$9&amp;"-1"</f>
         <v>2-1</v>
       </c>
@@ -4272,7 +4313,7 @@
       <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="B11" s="59" t="str">
+      <c r="B11" s="58" t="str">
         <f t="shared" ref="B11:B33" si="0">$B$9&amp;"-2"</f>
         <v>2-2</v>
       </c>
@@ -4321,7 +4362,7 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" outlineLevel="1">
-      <c r="B12" s="59" t="str">
+      <c r="B12" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4354,15 +4395,17 @@
       <c r="M12" s="29">
         <v>44853</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="37">
         <v>0</v>
       </c>
-      <c r="Q12" s="42"/>
+      <c r="Q12" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:17" outlineLevel="1">
-      <c r="B13" s="59" t="str">
+      <c r="B13" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4395,15 +4438,17 @@
       <c r="M13" s="29">
         <v>44853</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
       <c r="P13" s="37">
         <v>0</v>
       </c>
-      <c r="Q13" s="42"/>
+      <c r="Q13" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:17" outlineLevel="1">
-      <c r="B14" s="59" t="str">
+      <c r="B14" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4436,15 +4481,17 @@
       <c r="M14" s="29">
         <v>44853</v>
       </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
       <c r="P14" s="37">
         <v>0</v>
       </c>
-      <c r="Q14" s="44"/>
+      <c r="Q14" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:17" outlineLevel="1">
-      <c r="B15" s="59" t="str">
+      <c r="B15" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4477,15 +4524,17 @@
       <c r="M15" s="29">
         <v>44853</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="37">
         <v>0</v>
       </c>
-      <c r="Q15" s="42"/>
+      <c r="Q15" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:17" outlineLevel="1">
-      <c r="B16" s="59" t="str">
+      <c r="B16" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4518,15 +4567,17 @@
       <c r="M16" s="29">
         <v>44853</v>
       </c>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="37">
         <v>0</v>
       </c>
-      <c r="Q16" s="42"/>
+      <c r="Q16" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="2:17" outlineLevel="1">
-      <c r="B17" s="59" t="str">
+      <c r="B17" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4559,15 +4610,17 @@
       <c r="M17" s="29">
         <v>44853</v>
       </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="37">
         <v>0</v>
       </c>
-      <c r="Q17" s="42"/>
+      <c r="Q17" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="2:17" outlineLevel="1">
-      <c r="B18" s="59" t="str">
+      <c r="B18" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4596,8 +4649,8 @@
       <c r="M18" s="29">
         <v>44853</v>
       </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
       <c r="P18" s="37">
         <v>0</v>
       </c>
@@ -4606,7 +4659,7 @@
       </c>
     </row>
     <row r="19" spans="2:17" outlineLevel="1">
-      <c r="B19" s="59" t="str">
+      <c r="B19" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4635,8 +4688,8 @@
       <c r="M19" s="29">
         <v>44853</v>
       </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="37">
         <v>0</v>
       </c>
@@ -4645,7 +4698,7 @@
       </c>
     </row>
     <row r="20" spans="2:17" outlineLevel="1">
-      <c r="B20" s="59" t="str">
+      <c r="B20" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4674,8 +4727,8 @@
       <c r="M20" s="29">
         <v>44853</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="37">
         <v>0</v>
       </c>
@@ -4684,7 +4737,7 @@
       </c>
     </row>
     <row r="21" spans="2:17" outlineLevel="1">
-      <c r="B21" s="59" t="str">
+      <c r="B21" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4713,8 +4766,8 @@
       <c r="M21" s="29">
         <v>44853</v>
       </c>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
       <c r="P21" s="37">
         <v>0</v>
       </c>
@@ -4723,7 +4776,7 @@
       </c>
     </row>
     <row r="22" spans="2:17" outlineLevel="1">
-      <c r="B22" s="59" t="str">
+      <c r="B22" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4756,15 +4809,17 @@
       <c r="M22" s="29">
         <v>44853</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
       <c r="P22" s="37">
         <v>0</v>
       </c>
-      <c r="Q22" s="42"/>
+      <c r="Q22" s="61" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="2:17" outlineLevel="1">
-      <c r="B23" s="59" t="str">
+      <c r="B23" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4797,15 +4852,17 @@
       <c r="M23" s="29">
         <v>44853</v>
       </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
       <c r="P23" s="37">
         <v>0</v>
       </c>
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="62" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="2:17" outlineLevel="1">
-      <c r="B24" s="59" t="str">
+      <c r="B24" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4838,15 +4895,17 @@
       <c r="M24" s="29">
         <v>44853</v>
       </c>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
       <c r="P24" s="37">
         <v>0</v>
       </c>
-      <c r="Q24" s="42"/>
+      <c r="Q24" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="2:17" outlineLevel="1">
-      <c r="B25" s="59" t="str">
+      <c r="B25" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4879,15 +4938,17 @@
       <c r="M25" s="29">
         <v>44853</v>
       </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
       <c r="P25" s="37">
         <v>0</v>
       </c>
-      <c r="Q25" s="42"/>
+      <c r="Q25" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="2:17" outlineLevel="1">
-      <c r="B26" s="59" t="str">
+      <c r="B26" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4920,15 +4981,17 @@
       <c r="M26" s="29">
         <v>44853</v>
       </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
       <c r="P26" s="37">
         <v>0</v>
       </c>
-      <c r="Q26" s="42"/>
+      <c r="Q26" s="61" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="2:17" outlineLevel="1">
-      <c r="B27" s="59" t="str">
+      <c r="B27" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4961,8 +5024,8 @@
       <c r="M27" s="29">
         <v>44853</v>
       </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
       <c r="P27" s="37">
         <v>0</v>
       </c>
@@ -4971,7 +5034,7 @@
       </c>
     </row>
     <row r="28" spans="2:17" outlineLevel="1">
-      <c r="B28" s="59" t="str">
+      <c r="B28" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5004,15 +5067,17 @@
       <c r="M28" s="29">
         <v>44853</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
       <c r="P28" s="37">
         <v>0</v>
       </c>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="62" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="2:17" outlineLevel="1">
-      <c r="B29" s="59" t="str">
+      <c r="B29" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5041,8 +5106,8 @@
       <c r="M29" s="29">
         <v>44853</v>
       </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
       <c r="P29" s="37">
         <v>0</v>
       </c>
@@ -5051,7 +5116,7 @@
       </c>
     </row>
     <row r="30" spans="2:17" outlineLevel="1">
-      <c r="B30" s="59" t="str">
+      <c r="B30" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5084,15 +5149,17 @@
       <c r="M30" s="29">
         <v>44853</v>
       </c>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
       <c r="P30" s="37">
         <v>0</v>
       </c>
-      <c r="Q30" s="42"/>
+      <c r="Q30" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="2:17" outlineLevel="1">
-      <c r="B31" s="59" t="str">
+      <c r="B31" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5121,8 +5188,8 @@
       <c r="M31" s="29">
         <v>44853</v>
       </c>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
       <c r="P31" s="37">
         <v>0</v>
       </c>
@@ -5131,7 +5198,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" outlineLevel="1">
-      <c r="B32" s="59" t="str">
+      <c r="B32" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5164,15 +5231,17 @@
       <c r="M32" s="29">
         <v>44853</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
       <c r="P32" s="37">
         <v>0</v>
       </c>
-      <c r="Q32" s="42"/>
+      <c r="Q32" s="61" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:17" outlineLevel="1">
-      <c r="B33" s="59" t="str">
+      <c r="B33" s="58" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5201,8 +5270,8 @@
       <c r="M33" s="29">
         <v>44853</v>
       </c>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
       <c r="P33" s="37">
         <v>0</v>
       </c>
@@ -5252,10 +5321,10 @@
         <f>MIN(P35:P58)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="45"/>
+      <c r="Q34" s="44"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="B35" s="59" t="str">
+      <c r="B35" s="58" t="str">
         <f>$B$34&amp;"-1"</f>
         <v>3-1</v>
       </c>
@@ -5286,7 +5355,7 @@
       <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="B36" s="59" t="str">
+      <c r="B36" s="58" t="str">
         <f>$B$34&amp;"-2"</f>
         <v>3-2</v>
       </c>
@@ -5329,7 +5398,7 @@
       <c r="Q36" s="43"/>
     </row>
     <row r="37" spans="1:17" outlineLevel="1">
-      <c r="B37" s="59" t="str">
+      <c r="B37" s="58" t="str">
         <f t="shared" ref="B37:B58" si="1">$B$34&amp;"-2"</f>
         <v>3-2</v>
       </c>
@@ -5366,7 +5435,7 @@
       <c r="Q37" s="42"/>
     </row>
     <row r="38" spans="1:17" outlineLevel="1">
-      <c r="B38" s="59" t="str">
+      <c r="B38" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5403,7 +5472,7 @@
       <c r="Q38" s="42"/>
     </row>
     <row r="39" spans="1:17" outlineLevel="1">
-      <c r="B39" s="59" t="str">
+      <c r="B39" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5440,7 +5509,7 @@
       <c r="Q39" s="42"/>
     </row>
     <row r="40" spans="1:17" outlineLevel="1">
-      <c r="B40" s="59" t="str">
+      <c r="B40" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5477,7 +5546,7 @@
       <c r="Q40" s="42"/>
     </row>
     <row r="41" spans="1:17" outlineLevel="1">
-      <c r="B41" s="59" t="str">
+      <c r="B41" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5514,7 +5583,7 @@
       <c r="Q41" s="42"/>
     </row>
     <row r="42" spans="1:17" outlineLevel="1">
-      <c r="B42" s="59" t="str">
+      <c r="B42" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5551,7 +5620,7 @@
       <c r="Q42" s="42"/>
     </row>
     <row r="43" spans="1:17" outlineLevel="1">
-      <c r="B43" s="59" t="str">
+      <c r="B43" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5588,7 +5657,7 @@
       <c r="Q43" s="42"/>
     </row>
     <row r="44" spans="1:17" outlineLevel="1">
-      <c r="B44" s="59" t="str">
+      <c r="B44" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5625,7 +5694,7 @@
       <c r="Q44" s="42"/>
     </row>
     <row r="45" spans="1:17" outlineLevel="1">
-      <c r="B45" s="59" t="str">
+      <c r="B45" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5662,7 +5731,7 @@
       <c r="Q45" s="42"/>
     </row>
     <row r="46" spans="1:17" outlineLevel="1">
-      <c r="B46" s="59" t="str">
+      <c r="B46" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5699,7 +5768,7 @@
       <c r="Q46" s="42"/>
     </row>
     <row r="47" spans="1:17" outlineLevel="1">
-      <c r="B47" s="59" t="str">
+      <c r="B47" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5736,7 +5805,7 @@
       <c r="Q47" s="42"/>
     </row>
     <row r="48" spans="1:17" outlineLevel="1">
-      <c r="B48" s="59" t="str">
+      <c r="B48" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5773,7 +5842,7 @@
       <c r="Q48" s="42"/>
     </row>
     <row r="49" spans="1:17" outlineLevel="1">
-      <c r="B49" s="59" t="str">
+      <c r="B49" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5810,7 +5879,7 @@
       <c r="Q49" s="42"/>
     </row>
     <row r="50" spans="1:17" outlineLevel="1">
-      <c r="B50" s="59" t="str">
+      <c r="B50" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5847,7 +5916,7 @@
       <c r="Q50" s="42"/>
     </row>
     <row r="51" spans="1:17" outlineLevel="1">
-      <c r="B51" s="59" t="str">
+      <c r="B51" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5884,7 +5953,7 @@
       <c r="Q51" s="42"/>
     </row>
     <row r="52" spans="1:17" outlineLevel="1">
-      <c r="B52" s="59" t="str">
+      <c r="B52" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5921,7 +5990,7 @@
       <c r="Q52" s="42"/>
     </row>
     <row r="53" spans="1:17" outlineLevel="1">
-      <c r="B53" s="59" t="str">
+      <c r="B53" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5958,7 +6027,7 @@
       <c r="Q53" s="42"/>
     </row>
     <row r="54" spans="1:17" outlineLevel="1">
-      <c r="B54" s="59" t="str">
+      <c r="B54" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5995,7 +6064,7 @@
       <c r="Q54" s="42"/>
     </row>
     <row r="55" spans="1:17" outlineLevel="1">
-      <c r="B55" s="59" t="str">
+      <c r="B55" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6032,7 +6101,7 @@
       <c r="Q55" s="42"/>
     </row>
     <row r="56" spans="1:17" outlineLevel="1">
-      <c r="B56" s="59" t="str">
+      <c r="B56" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6069,7 +6138,7 @@
       <c r="Q56" s="42"/>
     </row>
     <row r="57" spans="1:17" outlineLevel="1">
-      <c r="B57" s="59" t="str">
+      <c r="B57" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6106,7 +6175,7 @@
       <c r="Q57" s="42"/>
     </row>
     <row r="58" spans="1:17" outlineLevel="1">
-      <c r="B58" s="59" t="str">
+      <c r="B58" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6184,10 +6253,10 @@
         <f>MIN(P61:P84)</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="45"/>
+      <c r="Q59" s="44"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="B60" s="59" t="str">
+      <c r="B60" s="58" t="str">
         <f>$B$59&amp;"-1"</f>
         <v>4-1</v>
       </c>
@@ -6222,7 +6291,7 @@
       <c r="Q60" s="43"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="B61" s="59" t="str">
+      <c r="B61" s="58" t="str">
         <f>$B$59&amp;"-2"</f>
         <v>4-2</v>
       </c>
@@ -6257,7 +6326,7 @@
       <c r="Q61" s="43"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="B62" s="59" t="str">
+      <c r="B62" s="58" t="str">
         <f>$B$59&amp;"-3"</f>
         <v>4-3</v>
       </c>
@@ -6300,7 +6369,7 @@
       <c r="Q62" s="43"/>
     </row>
     <row r="63" spans="1:17" outlineLevel="1">
-      <c r="B63" s="59" t="str">
+      <c r="B63" s="58" t="str">
         <f t="shared" ref="B63:B84" si="2">$B$59&amp;"-3"</f>
         <v>4-3</v>
       </c>
@@ -6337,7 +6406,7 @@
       <c r="Q63" s="42"/>
     </row>
     <row r="64" spans="1:17" outlineLevel="1">
-      <c r="B64" s="59" t="str">
+      <c r="B64" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6374,44 +6443,44 @@
       <c r="Q64" s="42"/>
     </row>
     <row r="65" spans="2:17" outlineLevel="1">
-      <c r="B65" s="59" t="str">
+      <c r="B65" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="46" t="s">
+      <c r="E65" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="47">
+      <c r="F65" s="46">
         <v>44851</v>
       </c>
-      <c r="G65" s="47">
+      <c r="G65" s="46">
         <v>44854</v>
       </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="49">
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="48">
         <v>1</v>
       </c>
-      <c r="K65" s="46"/>
-      <c r="L65" s="47">
+      <c r="K65" s="45"/>
+      <c r="L65" s="46">
         <v>44851</v>
       </c>
-      <c r="M65" s="47">
+      <c r="M65" s="46">
         <v>44854</v>
       </c>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="52" t="s">
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="2:17" outlineLevel="1">
-      <c r="B66" s="59" t="str">
+      <c r="B66" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6448,118 +6517,118 @@
       <c r="Q66" s="42"/>
     </row>
     <row r="67" spans="2:17" outlineLevel="1">
-      <c r="B67" s="59" t="str">
+      <c r="B67" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F67" s="46">
         <v>44851</v>
       </c>
-      <c r="G67" s="47">
+      <c r="G67" s="46">
         <v>44854</v>
       </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="49">
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="48">
         <v>1</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="47">
+      <c r="K67" s="45"/>
+      <c r="L67" s="46">
         <v>44851</v>
       </c>
-      <c r="M67" s="47">
+      <c r="M67" s="46">
         <v>44854</v>
       </c>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="52" t="s">
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:17" outlineLevel="1">
-      <c r="B68" s="59" t="str">
+      <c r="B68" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F68" s="46">
         <v>44851</v>
       </c>
-      <c r="G68" s="47">
+      <c r="G68" s="46">
         <v>44854</v>
       </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="49">
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="48">
         <v>1</v>
       </c>
-      <c r="K68" s="46"/>
-      <c r="L68" s="47">
+      <c r="K68" s="45"/>
+      <c r="L68" s="46">
         <v>44851</v>
       </c>
-      <c r="M68" s="47">
+      <c r="M68" s="46">
         <v>44854</v>
       </c>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="52" t="s">
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:17" outlineLevel="1">
-      <c r="B69" s="59" t="str">
+      <c r="B69" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="46">
         <v>44851</v>
       </c>
-      <c r="G69" s="47">
+      <c r="G69" s="46">
         <v>44854</v>
       </c>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="49">
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="48">
         <v>1</v>
       </c>
-      <c r="K69" s="46"/>
-      <c r="L69" s="47">
+      <c r="K69" s="45"/>
+      <c r="L69" s="46">
         <v>44851</v>
       </c>
-      <c r="M69" s="47">
+      <c r="M69" s="46">
         <v>44854</v>
       </c>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="52" t="s">
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="2:17" outlineLevel="1">
-      <c r="B70" s="59" t="str">
+      <c r="B70" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6596,7 +6665,7 @@
       <c r="Q70" s="42"/>
     </row>
     <row r="71" spans="2:17" outlineLevel="1">
-      <c r="B71" s="59" t="str">
+      <c r="B71" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6633,7 +6702,7 @@
       <c r="Q71" s="42"/>
     </row>
     <row r="72" spans="2:17" outlineLevel="1">
-      <c r="B72" s="59" t="str">
+      <c r="B72" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6670,7 +6739,7 @@
       <c r="Q72" s="42"/>
     </row>
     <row r="73" spans="2:17" outlineLevel="1">
-      <c r="B73" s="59" t="str">
+      <c r="B73" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6707,7 +6776,7 @@
       <c r="Q73" s="42"/>
     </row>
     <row r="74" spans="2:17" outlineLevel="1">
-      <c r="B74" s="59" t="str">
+      <c r="B74" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6744,81 +6813,81 @@
       <c r="Q74" s="42"/>
     </row>
     <row r="75" spans="2:17" outlineLevel="1">
-      <c r="B75" s="59" t="str">
+      <c r="B75" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="46" t="s">
+      <c r="E75" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="46">
         <v>44851</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="46">
         <v>44854</v>
       </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="49">
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="48">
         <v>1</v>
       </c>
-      <c r="K75" s="46"/>
-      <c r="L75" s="47">
+      <c r="K75" s="45"/>
+      <c r="L75" s="46">
         <v>44851</v>
       </c>
-      <c r="M75" s="47">
+      <c r="M75" s="46">
         <v>44854</v>
       </c>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="52" t="s">
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="76" spans="2:17" outlineLevel="1">
-      <c r="B76" s="59" t="str">
+      <c r="B76" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="46">
         <v>44851</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="46">
         <v>44854</v>
       </c>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="49">
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="48">
         <v>1</v>
       </c>
-      <c r="K76" s="46"/>
-      <c r="L76" s="47">
+      <c r="K76" s="45"/>
+      <c r="L76" s="46">
         <v>44851</v>
       </c>
-      <c r="M76" s="47">
+      <c r="M76" s="46">
         <v>44854</v>
       </c>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="52" t="s">
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:17" outlineLevel="1">
-      <c r="B77" s="59" t="str">
+      <c r="B77" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6855,44 +6924,44 @@
       <c r="Q77" s="42"/>
     </row>
     <row r="78" spans="2:17" outlineLevel="1">
-      <c r="B78" s="59" t="str">
+      <c r="B78" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="46" t="s">
+      <c r="E78" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="47">
+      <c r="F78" s="46">
         <v>44851</v>
       </c>
-      <c r="G78" s="47">
+      <c r="G78" s="46">
         <v>44854</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="49">
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="48">
         <v>1</v>
       </c>
-      <c r="K78" s="46"/>
-      <c r="L78" s="47">
+      <c r="K78" s="45"/>
+      <c r="L78" s="46">
         <v>44851</v>
       </c>
-      <c r="M78" s="47">
+      <c r="M78" s="46">
         <v>44854</v>
       </c>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="52" t="s">
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="2:17" outlineLevel="1">
-      <c r="B79" s="59" t="str">
+      <c r="B79" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6929,7 +6998,7 @@
       <c r="Q79" s="42"/>
     </row>
     <row r="80" spans="2:17" outlineLevel="1">
-      <c r="B80" s="59" t="str">
+      <c r="B80" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6966,7 +7035,7 @@
       <c r="Q80" s="42"/>
     </row>
     <row r="81" spans="1:17" outlineLevel="1">
-      <c r="B81" s="59" t="str">
+      <c r="B81" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7003,7 +7072,7 @@
       <c r="Q81" s="42"/>
     </row>
     <row r="82" spans="1:17" outlineLevel="1">
-      <c r="B82" s="59" t="str">
+      <c r="B82" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7040,7 +7109,7 @@
       <c r="Q82" s="42"/>
     </row>
     <row r="83" spans="1:17" outlineLevel="1">
-      <c r="B83" s="59" t="str">
+      <c r="B83" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7077,39 +7146,39 @@
       <c r="Q83" s="42"/>
     </row>
     <row r="84" spans="1:17" outlineLevel="1">
-      <c r="B84" s="59" t="str">
+      <c r="B84" s="58" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="21"/>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F84" s="47">
+      <c r="F84" s="46">
         <v>44851</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="46">
         <v>44854</v>
       </c>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="49">
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="48">
         <v>1</v>
       </c>
-      <c r="K84" s="46"/>
-      <c r="L84" s="47">
+      <c r="K84" s="45"/>
+      <c r="L84" s="46">
         <v>44851</v>
       </c>
-      <c r="M84" s="47">
+      <c r="M84" s="46">
         <v>44854</v>
       </c>
-      <c r="N84" s="47"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="52" t="s">
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="51" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7160,7 +7229,7 @@
       </c>
     </row>
     <row r="86" spans="1:17">
-      <c r="B86" s="59" t="str">
+      <c r="B86" s="58" t="str">
         <f>$B$85&amp;"-1"</f>
         <v>5-1</v>
       </c>
@@ -7195,7 +7264,7 @@
       <c r="Q86" s="43"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="B87" s="59" t="str">
+      <c r="B87" s="58" t="str">
         <f t="shared" ref="B87:B109" si="3">$B$85&amp;"-2"</f>
         <v>5-2</v>
       </c>
@@ -7238,7 +7307,7 @@
       <c r="Q87" s="43"/>
     </row>
     <row r="88" spans="1:17" outlineLevel="1">
-      <c r="B88" s="59" t="str">
+      <c r="B88" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7275,7 +7344,7 @@
       <c r="Q88" s="42"/>
     </row>
     <row r="89" spans="1:17" outlineLevel="1">
-      <c r="B89" s="59" t="str">
+      <c r="B89" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7312,7 +7381,7 @@
       <c r="Q89" s="42"/>
     </row>
     <row r="90" spans="1:17" outlineLevel="1">
-      <c r="B90" s="59" t="str">
+      <c r="B90" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7349,7 +7418,7 @@
       <c r="Q90" s="42"/>
     </row>
     <row r="91" spans="1:17" outlineLevel="1">
-      <c r="B91" s="59" t="str">
+      <c r="B91" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7386,7 +7455,7 @@
       <c r="Q91" s="42"/>
     </row>
     <row r="92" spans="1:17" outlineLevel="1">
-      <c r="B92" s="59" t="str">
+      <c r="B92" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7423,7 +7492,7 @@
       <c r="Q92" s="42"/>
     </row>
     <row r="93" spans="1:17" outlineLevel="1">
-      <c r="B93" s="59" t="str">
+      <c r="B93" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7460,7 +7529,7 @@
       <c r="Q93" s="42"/>
     </row>
     <row r="94" spans="1:17" outlineLevel="1">
-      <c r="B94" s="59" t="str">
+      <c r="B94" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7497,7 +7566,7 @@
       <c r="Q94" s="42"/>
     </row>
     <row r="95" spans="1:17" outlineLevel="1">
-      <c r="B95" s="59" t="str">
+      <c r="B95" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7534,7 +7603,7 @@
       <c r="Q95" s="42"/>
     </row>
     <row r="96" spans="1:17" outlineLevel="1">
-      <c r="B96" s="59" t="str">
+      <c r="B96" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7571,7 +7640,7 @@
       <c r="Q96" s="42"/>
     </row>
     <row r="97" spans="1:17" outlineLevel="1">
-      <c r="B97" s="59" t="str">
+      <c r="B97" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7608,7 +7677,7 @@
       <c r="Q97" s="42"/>
     </row>
     <row r="98" spans="1:17" outlineLevel="1">
-      <c r="B98" s="59" t="str">
+      <c r="B98" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7645,7 +7714,7 @@
       <c r="Q98" s="42"/>
     </row>
     <row r="99" spans="1:17" outlineLevel="1">
-      <c r="B99" s="59" t="str">
+      <c r="B99" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7682,7 +7751,7 @@
       <c r="Q99" s="42"/>
     </row>
     <row r="100" spans="1:17" outlineLevel="1">
-      <c r="B100" s="59" t="str">
+      <c r="B100" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7719,7 +7788,7 @@
       <c r="Q100" s="42"/>
     </row>
     <row r="101" spans="1:17" outlineLevel="1">
-      <c r="B101" s="59" t="str">
+      <c r="B101" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7756,7 +7825,7 @@
       <c r="Q101" s="42"/>
     </row>
     <row r="102" spans="1:17" outlineLevel="1">
-      <c r="B102" s="59" t="str">
+      <c r="B102" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7793,7 +7862,7 @@
       <c r="Q102" s="42"/>
     </row>
     <row r="103" spans="1:17" outlineLevel="1">
-      <c r="B103" s="59" t="str">
+      <c r="B103" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7830,7 +7899,7 @@
       <c r="Q103" s="42"/>
     </row>
     <row r="104" spans="1:17" outlineLevel="1">
-      <c r="B104" s="59" t="str">
+      <c r="B104" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7867,7 +7936,7 @@
       <c r="Q104" s="42"/>
     </row>
     <row r="105" spans="1:17" outlineLevel="1">
-      <c r="B105" s="59" t="str">
+      <c r="B105" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7904,7 +7973,7 @@
       <c r="Q105" s="42"/>
     </row>
     <row r="106" spans="1:17" outlineLevel="1">
-      <c r="B106" s="59" t="str">
+      <c r="B106" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7941,7 +8010,7 @@
       <c r="Q106" s="42"/>
     </row>
     <row r="107" spans="1:17" outlineLevel="1">
-      <c r="B107" s="59" t="str">
+      <c r="B107" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7978,7 +8047,7 @@
       <c r="Q107" s="42"/>
     </row>
     <row r="108" spans="1:17" outlineLevel="1">
-      <c r="B108" s="59" t="str">
+      <c r="B108" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -8015,7 +8084,7 @@
       <c r="Q108" s="42"/>
     </row>
     <row r="109" spans="1:17" outlineLevel="1">
-      <c r="B109" s="59" t="str">
+      <c r="B109" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -8096,7 +8165,7 @@
       <c r="Q110" s="41"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="B111" s="59" t="str">
+      <c r="B111" s="58" t="str">
         <f>$B$110&amp;"-1"</f>
         <v>6-1</v>
       </c>
@@ -8107,22 +8176,22 @@
       <c r="E111" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F111" s="48">
-        <v>44865</v>
-      </c>
-      <c r="G111" s="48">
-        <v>44865</v>
-      </c>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="50">
-        <v>0</v>
-      </c>
-      <c r="K111" s="51"/>
-      <c r="L111" s="48">
-        <v>44865</v>
-      </c>
-      <c r="M111" s="48">
+      <c r="F111" s="47">
+        <v>44865</v>
+      </c>
+      <c r="G111" s="47">
+        <v>44865</v>
+      </c>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="49">
+        <v>0</v>
+      </c>
+      <c r="K111" s="50"/>
+      <c r="L111" s="47">
+        <v>44865</v>
+      </c>
+      <c r="M111" s="47">
         <v>44865</v>
       </c>
       <c r="N111" s="31"/>
@@ -8133,7 +8202,7 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="B112" s="59" t="str">
+      <c r="B112" s="58" t="str">
         <f t="shared" ref="B112:B134" si="4">$B$110&amp;"-2"</f>
         <v>6-2</v>
       </c>
@@ -8176,7 +8245,7 @@
       <c r="Q112" s="43"/>
     </row>
     <row r="113" spans="2:17" outlineLevel="1">
-      <c r="B113" s="59" t="str">
+      <c r="B113" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8213,7 +8282,7 @@
       <c r="Q113" s="42"/>
     </row>
     <row r="114" spans="2:17" outlineLevel="1">
-      <c r="B114" s="59" t="str">
+      <c r="B114" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8250,7 +8319,7 @@
       <c r="Q114" s="42"/>
     </row>
     <row r="115" spans="2:17" outlineLevel="1">
-      <c r="B115" s="59" t="str">
+      <c r="B115" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8287,7 +8356,7 @@
       <c r="Q115" s="42"/>
     </row>
     <row r="116" spans="2:17" outlineLevel="1">
-      <c r="B116" s="59" t="str">
+      <c r="B116" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8324,7 +8393,7 @@
       <c r="Q116" s="42"/>
     </row>
     <row r="117" spans="2:17" outlineLevel="1">
-      <c r="B117" s="59" t="str">
+      <c r="B117" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8361,7 +8430,7 @@
       <c r="Q117" s="42"/>
     </row>
     <row r="118" spans="2:17" outlineLevel="1">
-      <c r="B118" s="59" t="str">
+      <c r="B118" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8398,7 +8467,7 @@
       <c r="Q118" s="42"/>
     </row>
     <row r="119" spans="2:17" outlineLevel="1">
-      <c r="B119" s="59" t="str">
+      <c r="B119" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8435,7 +8504,7 @@
       <c r="Q119" s="42"/>
     </row>
     <row r="120" spans="2:17" outlineLevel="1">
-      <c r="B120" s="59" t="str">
+      <c r="B120" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8472,7 +8541,7 @@
       <c r="Q120" s="42"/>
     </row>
     <row r="121" spans="2:17" outlineLevel="1">
-      <c r="B121" s="59" t="str">
+      <c r="B121" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8509,7 +8578,7 @@
       <c r="Q121" s="42"/>
     </row>
     <row r="122" spans="2:17" outlineLevel="1">
-      <c r="B122" s="59" t="str">
+      <c r="B122" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8546,7 +8615,7 @@
       <c r="Q122" s="42"/>
     </row>
     <row r="123" spans="2:17" outlineLevel="1">
-      <c r="B123" s="59" t="str">
+      <c r="B123" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8583,7 +8652,7 @@
       <c r="Q123" s="42"/>
     </row>
     <row r="124" spans="2:17" outlineLevel="1">
-      <c r="B124" s="59" t="str">
+      <c r="B124" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8620,7 +8689,7 @@
       <c r="Q124" s="42"/>
     </row>
     <row r="125" spans="2:17" outlineLevel="1">
-      <c r="B125" s="59" t="str">
+      <c r="B125" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8657,7 +8726,7 @@
       <c r="Q125" s="42"/>
     </row>
     <row r="126" spans="2:17" outlineLevel="1">
-      <c r="B126" s="59" t="str">
+      <c r="B126" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8694,7 +8763,7 @@
       <c r="Q126" s="42"/>
     </row>
     <row r="127" spans="2:17" outlineLevel="1">
-      <c r="B127" s="59" t="str">
+      <c r="B127" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8731,46 +8800,46 @@
       <c r="Q127" s="42"/>
     </row>
     <row r="128" spans="2:17" outlineLevel="1">
-      <c r="B128" s="59" t="str">
+      <c r="B128" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="17"/>
-      <c r="E128" s="46" t="s">
+      <c r="E128" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F128" s="47">
+      <c r="F128" s="46">
         <v>44859</v>
       </c>
-      <c r="G128" s="47">
-        <v>44865</v>
-      </c>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
-      <c r="J128" s="49">
+      <c r="G128" s="46">
+        <v>44865</v>
+      </c>
+      <c r="H128" s="46"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="48">
         <v>1</v>
       </c>
-      <c r="K128" s="46" t="s">
+      <c r="K128" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L128" s="47">
+      <c r="L128" s="46">
         <v>44859</v>
       </c>
-      <c r="M128" s="47">
-        <v>44865</v>
-      </c>
-      <c r="N128" s="47"/>
-      <c r="O128" s="47"/>
-      <c r="P128" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="52" t="s">
+      <c r="M128" s="46">
+        <v>44865</v>
+      </c>
+      <c r="N128" s="46"/>
+      <c r="O128" s="46"/>
+      <c r="P128" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:17" outlineLevel="1">
-      <c r="B129" s="59" t="str">
+      <c r="B129" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8807,7 +8876,7 @@
       <c r="Q129" s="42"/>
     </row>
     <row r="130" spans="1:17" outlineLevel="1">
-      <c r="B130" s="59" t="str">
+      <c r="B130" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8844,7 +8913,7 @@
       <c r="Q130" s="42"/>
     </row>
     <row r="131" spans="1:17" outlineLevel="1">
-      <c r="B131" s="59" t="str">
+      <c r="B131" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8881,7 +8950,7 @@
       <c r="Q131" s="42"/>
     </row>
     <row r="132" spans="1:17" outlineLevel="1">
-      <c r="B132" s="59" t="str">
+      <c r="B132" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8918,7 +8987,7 @@
       <c r="Q132" s="42"/>
     </row>
     <row r="133" spans="1:17" outlineLevel="1">
-      <c r="B133" s="59" t="str">
+      <c r="B133" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8955,7 +9024,7 @@
       <c r="Q133" s="42"/>
     </row>
     <row r="134" spans="1:17" outlineLevel="1">
-      <c r="B134" s="59" t="str">
+      <c r="B134" s="58" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -9036,7 +9105,7 @@
       <c r="Q135" s="41"/>
     </row>
     <row r="136" spans="1:17">
-      <c r="B136" s="59" t="str">
+      <c r="B136" s="58" t="str">
         <f>$B$135&amp;"-1"</f>
         <v>7-1</v>
       </c>
@@ -9071,7 +9140,7 @@
       <c r="Q136" s="43"/>
     </row>
     <row r="137" spans="1:17">
-      <c r="B137" s="59" t="str">
+      <c r="B137" s="58" t="str">
         <f>$B$135&amp;"-2"</f>
         <v>7-2</v>
       </c>
@@ -9114,7 +9183,7 @@
       <c r="Q137" s="43"/>
     </row>
     <row r="138" spans="1:17" outlineLevel="1">
-      <c r="B138" s="59" t="str">
+      <c r="B138" s="58" t="str">
         <f t="shared" ref="B138:B159" si="5">$B$135&amp;"-2"</f>
         <v>7-2</v>
       </c>
@@ -9151,7 +9220,7 @@
       <c r="Q138" s="42"/>
     </row>
     <row r="139" spans="1:17" outlineLevel="1">
-      <c r="B139" s="59" t="str">
+      <c r="B139" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9188,7 +9257,7 @@
       <c r="Q139" s="42"/>
     </row>
     <row r="140" spans="1:17" outlineLevel="1">
-      <c r="B140" s="59" t="str">
+      <c r="B140" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9225,7 +9294,7 @@
       <c r="Q140" s="42"/>
     </row>
     <row r="141" spans="1:17" outlineLevel="1">
-      <c r="B141" s="59" t="str">
+      <c r="B141" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9262,7 +9331,7 @@
       <c r="Q141" s="42"/>
     </row>
     <row r="142" spans="1:17" outlineLevel="1">
-      <c r="B142" s="59" t="str">
+      <c r="B142" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9299,7 +9368,7 @@
       <c r="Q142" s="42"/>
     </row>
     <row r="143" spans="1:17" outlineLevel="1">
-      <c r="B143" s="59" t="str">
+      <c r="B143" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9336,7 +9405,7 @@
       <c r="Q143" s="42"/>
     </row>
     <row r="144" spans="1:17" outlineLevel="1">
-      <c r="B144" s="59" t="str">
+      <c r="B144" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9373,7 +9442,7 @@
       <c r="Q144" s="42"/>
     </row>
     <row r="145" spans="2:17" outlineLevel="1">
-      <c r="B145" s="59" t="str">
+      <c r="B145" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9410,7 +9479,7 @@
       <c r="Q145" s="42"/>
     </row>
     <row r="146" spans="2:17" outlineLevel="1">
-      <c r="B146" s="59" t="str">
+      <c r="B146" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9447,7 +9516,7 @@
       <c r="Q146" s="42"/>
     </row>
     <row r="147" spans="2:17" outlineLevel="1">
-      <c r="B147" s="59" t="str">
+      <c r="B147" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9484,7 +9553,7 @@
       <c r="Q147" s="42"/>
     </row>
     <row r="148" spans="2:17" outlineLevel="1">
-      <c r="B148" s="59" t="str">
+      <c r="B148" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9521,7 +9590,7 @@
       <c r="Q148" s="42"/>
     </row>
     <row r="149" spans="2:17" outlineLevel="1">
-      <c r="B149" s="59" t="str">
+      <c r="B149" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9558,7 +9627,7 @@
       <c r="Q149" s="42"/>
     </row>
     <row r="150" spans="2:17" outlineLevel="1">
-      <c r="B150" s="59" t="str">
+      <c r="B150" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9595,7 +9664,7 @@
       <c r="Q150" s="42"/>
     </row>
     <row r="151" spans="2:17" outlineLevel="1">
-      <c r="B151" s="59" t="str">
+      <c r="B151" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9632,7 +9701,7 @@
       <c r="Q151" s="42"/>
     </row>
     <row r="152" spans="2:17" outlineLevel="1">
-      <c r="B152" s="59" t="str">
+      <c r="B152" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9669,7 +9738,7 @@
       <c r="Q152" s="42"/>
     </row>
     <row r="153" spans="2:17" outlineLevel="1">
-      <c r="B153" s="59" t="str">
+      <c r="B153" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9706,7 +9775,7 @@
       <c r="Q153" s="42"/>
     </row>
     <row r="154" spans="2:17" outlineLevel="1">
-      <c r="B154" s="59" t="str">
+      <c r="B154" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9743,7 +9812,7 @@
       <c r="Q154" s="42"/>
     </row>
     <row r="155" spans="2:17" outlineLevel="1">
-      <c r="B155" s="59" t="str">
+      <c r="B155" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9780,7 +9849,7 @@
       <c r="Q155" s="42"/>
     </row>
     <row r="156" spans="2:17" outlineLevel="1">
-      <c r="B156" s="59" t="str">
+      <c r="B156" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9817,7 +9886,7 @@
       <c r="Q156" s="42"/>
     </row>
     <row r="157" spans="2:17" outlineLevel="1">
-      <c r="B157" s="59" t="str">
+      <c r="B157" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9854,7 +9923,7 @@
       <c r="Q157" s="42"/>
     </row>
     <row r="158" spans="2:17" outlineLevel="1">
-      <c r="B158" s="59" t="str">
+      <c r="B158" s="58" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9891,41 +9960,41 @@
       <c r="Q158" s="42"/>
     </row>
     <row r="159" spans="2:17" outlineLevel="1">
-      <c r="B159" s="60" t="str">
+      <c r="B159" s="59" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
-      <c r="C159" s="53"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="55" t="s">
+      <c r="C159" s="52"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F159" s="56">
-        <v>44865</v>
-      </c>
-      <c r="G159" s="56">
+      <c r="F159" s="55">
+        <v>44865</v>
+      </c>
+      <c r="G159" s="55">
         <v>44867</v>
       </c>
-      <c r="H159" s="56"/>
-      <c r="I159" s="56"/>
-      <c r="J159" s="57">
-        <v>0</v>
-      </c>
-      <c r="K159" s="55" t="s">
+      <c r="H159" s="55"/>
+      <c r="I159" s="55"/>
+      <c r="J159" s="56">
+        <v>0</v>
+      </c>
+      <c r="K159" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="L159" s="56">
-        <v>44865</v>
-      </c>
-      <c r="M159" s="56">
+      <c r="L159" s="55">
+        <v>44865</v>
+      </c>
+      <c r="M159" s="55">
         <v>44867</v>
       </c>
-      <c r="N159" s="56"/>
-      <c r="O159" s="56"/>
-      <c r="P159" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="58"/>
+      <c r="N159" s="55"/>
+      <c r="O159" s="55"/>
+      <c r="P159" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17"/>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="82">
   <si>
     <t>#</t>
   </si>
@@ -327,19 +327,15 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>执行结果截图和代码不一致。有问题。和杨鉴的代码100%一致。</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>NG。UserListServiceImpl.java格纳不对，能正确执行？</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>NG。执行结果截图和代码不一致。有问题。和姜文俊的代码100%一致。</t>
+    <t>自立完成</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>自立完成</t>
+    <t>NG。执行结果截图和代码不一致。有问题。</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -2713,7 +2709,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2857,6 +2853,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3846,7 +3845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomLeft" activeCell="Q26" sqref="E26:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -4401,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" outlineLevel="1">
@@ -4444,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" outlineLevel="1">
@@ -4487,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" outlineLevel="1">
@@ -4530,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" outlineLevel="1">
@@ -4573,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:17" outlineLevel="1">
@@ -4616,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:17" outlineLevel="1">
@@ -4654,7 +4653,7 @@
       <c r="P18" s="37">
         <v>0</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="63" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4693,7 +4692,7 @@
       <c r="P19" s="37">
         <v>0</v>
       </c>
-      <c r="Q19" s="42" t="s">
+      <c r="Q19" s="63" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4732,7 +4731,7 @@
       <c r="P20" s="37">
         <v>0</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="Q20" s="63" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4771,7 +4770,7 @@
       <c r="P21" s="37">
         <v>0</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="Q21" s="63" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4815,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:17" outlineLevel="1">
@@ -4901,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:17" outlineLevel="1">
@@ -4944,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:17" outlineLevel="1">
@@ -5072,8 +5071,8 @@
       <c r="P28" s="37">
         <v>0</v>
       </c>
-      <c r="Q28" s="62" t="s">
-        <v>79</v>
+      <c r="Q28" s="42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:17" outlineLevel="1">
@@ -5111,7 +5110,7 @@
       <c r="P29" s="37">
         <v>0</v>
       </c>
-      <c r="Q29" s="42" t="s">
+      <c r="Q29" s="63" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5155,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:17" outlineLevel="1">
@@ -5193,7 +5192,7 @@
       <c r="P31" s="37">
         <v>0</v>
       </c>
-      <c r="Q31" s="42" t="s">
+      <c r="Q31" s="63" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5236,7 +5235,7 @@
       <c r="P32" s="37">
         <v>0</v>
       </c>
-      <c r="Q32" s="61" t="s">
+      <c r="Q32" s="62" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5275,7 +5274,7 @@
       <c r="P33" s="37">
         <v>0</v>
       </c>
-      <c r="Q33" s="42" t="s">
+      <c r="Q33" s="63" t="s">
         <v>75</v>
       </c>
     </row>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩宇\Desktop\作业\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D8C6F-AD14-436E-BC10-80589B2F7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A711EF-C07B-4FF7-828B-376AFE490954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2723,7 +2723,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2734,7 +2734,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2745,12 +2745,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2758,7 +2758,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2769,14 +2769,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2788,7 +2788,7 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,10 +2821,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2844,7 +2844,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3846,7 +3846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomLeft" activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -7135,7 +7135,7 @@
         <v>44856</v>
       </c>
       <c r="J83" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>34</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩宇\Desktop\作业\skillup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A711EF-C07B-4FF7-828B-376AFE490954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D8C6F-AD14-436E-BC10-80589B2F7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2723,7 +2723,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2734,7 +2734,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2745,12 +2745,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2758,7 +2758,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2769,14 +2769,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2788,7 +2788,7 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,10 +2821,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2844,7 +2844,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3846,7 +3846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -7135,7 +7135,7 @@
         <v>44856</v>
       </c>
       <c r="J83" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>34</v>

--- a/D311_2022教育計画V4_WBS.xlsx
+++ b/D311_2022教育計画V4_WBS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -267,6 +267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,6 +278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,6 +300,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,15 +323,111 @@
     <t>针对综合练习1不能完成的组员总结原因，补充讲解。蒋分享</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>11/1再检查，作业已提交，但页面显示乱码待解决。（请尝试修改html的charset）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，作业没有更新。禁止上传zip包！需要按照项目要求目录上传。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，已提交练习1，并且完成了java单项练习。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，请不要出现仅字母大小写有变化的同名branch，在Windows上有问题。（Liuzhaobin，liuzhaobin）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，执行结果已更新。并且完成了java单项练习。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，甚至连branch都没有创建。完全不会？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，自己branch的执行结果截图以及代码未更新。Java单项作业未完成。</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ミコウシン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，没有找到对应的个人branch。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11/1再检查，代码不完全，为什么能够得到测试结果页面？Java单项作业未完成。</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フカンゼン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イタル</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +446,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -410,6 +511,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -423,12 +525,14 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -443,7 +547,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,6 +557,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2690,7 +2801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2703,7 +2814,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2714,7 +2825,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2725,12 +2836,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2738,7 +2849,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2749,14 +2860,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,7 +2879,7 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2789,9 +2900,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2804,10 +2912,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2827,7 +2935,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2842,6 +2950,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="670">
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8"/>
@@ -3822,11 +3946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q159"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:M5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -3932,7 +4056,7 @@
       <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="1:17" outlineLevel="1">
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="62" t="str">
         <f>$B$2&amp;"-1"</f>
         <v>1-1</v>
       </c>
@@ -3979,7 +4103,7 @@
       <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" outlineLevel="1">
-      <c r="B4" s="63" t="str">
+      <c r="B4" s="62" t="str">
         <f>$B$2&amp;"-2"</f>
         <v>1-2</v>
       </c>
@@ -4028,7 +4152,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" outlineLevel="1">
-      <c r="B5" s="63" t="str">
+      <c r="B5" s="62" t="str">
         <f>$B$2&amp;"-3"</f>
         <v>1-3</v>
       </c>
@@ -4075,7 +4199,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" outlineLevel="1">
-      <c r="B6" s="63" t="str">
+      <c r="B6" s="62" t="str">
         <f>$B$2&amp;"-4"</f>
         <v>1-4</v>
       </c>
@@ -4124,7 +4248,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" outlineLevel="1">
-      <c r="B7" s="63" t="str">
+      <c r="B7" s="62" t="str">
         <f>$B$2&amp;"-5"</f>
         <v>1-5</v>
       </c>
@@ -4173,7 +4297,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" outlineLevel="1">
-      <c r="B8" s="63" t="str">
+      <c r="B8" s="62" t="str">
         <f>$B$2&amp;"-6"</f>
         <v>1-6</v>
       </c>
@@ -4264,7 +4388,7 @@
       <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="63" t="str">
+      <c r="B10" s="62" t="str">
         <f>$B$9&amp;"-1"</f>
         <v>2-1</v>
       </c>
@@ -4299,7 +4423,7 @@
       <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="B11" s="63" t="str">
+      <c r="B11" s="62" t="str">
         <f t="shared" ref="B11:B33" si="0">$B$9&amp;"-2"</f>
         <v>2-2</v>
       </c>
@@ -4348,7 +4472,7 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" outlineLevel="1">
-      <c r="B12" s="63" t="str">
+      <c r="B12" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4391,7 +4515,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" outlineLevel="1">
-      <c r="B13" s="63" t="str">
+      <c r="B13" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4434,7 +4558,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" outlineLevel="1">
-      <c r="B14" s="63" t="str">
+      <c r="B14" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4477,7 +4601,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" outlineLevel="1">
-      <c r="B15" s="63" t="str">
+      <c r="B15" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4520,7 +4644,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" outlineLevel="1">
-      <c r="B16" s="63" t="str">
+      <c r="B16" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4562,8 +4686,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:17" outlineLevel="1">
-      <c r="B17" s="63" t="str">
+    <row r="17" spans="2:18" outlineLevel="1">
+      <c r="B17" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4605,8 +4729,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:17" outlineLevel="1">
-      <c r="B18" s="63" t="str">
+    <row r="18" spans="2:18" outlineLevel="1">
+      <c r="B18" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4643,9 +4767,12 @@
       <c r="Q18" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" outlineLevel="1">
-      <c r="B19" s="63" t="str">
+      <c r="R18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" outlineLevel="1">
+      <c r="B19" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4682,9 +4809,12 @@
       <c r="Q19" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" outlineLevel="1">
-      <c r="B20" s="63" t="str">
+      <c r="R19" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" outlineLevel="1">
+      <c r="B20" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4721,9 +4851,12 @@
       <c r="Q20" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" outlineLevel="1">
-      <c r="B21" s="63" t="str">
+      <c r="R20" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" outlineLevel="1">
+      <c r="B21" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4760,52 +4893,58 @@
       <c r="Q21" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" ht="60" outlineLevel="1">
-      <c r="B22" s="63" t="str">
+      <c r="R21" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="60" outlineLevel="1">
+      <c r="B22" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="65">
         <v>44848</v>
       </c>
-      <c r="G22" s="21">
-        <v>44853</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="G22" s="65">
+        <v>44853</v>
+      </c>
+      <c r="H22" s="65">
         <v>44849</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="65">
         <v>44850</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="66">
         <v>1</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="65">
         <v>44848</v>
       </c>
-      <c r="M22" s="21">
-        <v>44853</v>
-      </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="46" t="s">
+      <c r="M22" s="65">
+        <v>44853</v>
+      </c>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="68" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" outlineLevel="1">
-      <c r="B23" s="63" t="str">
+      <c r="R22" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" outlineLevel="1">
+      <c r="B23" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4843,12 +4982,15 @@
       <c r="P23" s="37">
         <v>0</v>
       </c>
-      <c r="Q23" s="47" t="s">
+      <c r="Q23" s="46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" outlineLevel="1">
-      <c r="B24" s="63" t="str">
+      <c r="R23" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" outlineLevel="1">
+      <c r="B24" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4890,8 +5032,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:17" outlineLevel="1">
-      <c r="B25" s="63" t="str">
+    <row r="25" spans="2:18" outlineLevel="1">
+      <c r="B25" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4933,8 +5075,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:17" outlineLevel="1">
-      <c r="B26" s="63" t="str">
+    <row r="26" spans="2:18" outlineLevel="1">
+      <c r="B26" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -4972,12 +5114,15 @@
       <c r="P26" s="37">
         <v>0</v>
       </c>
-      <c r="Q26" s="48" t="s">
+      <c r="Q26" s="47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" outlineLevel="1">
-      <c r="B27" s="63" t="str">
+      <c r="R26" s="69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" outlineLevel="1">
+      <c r="B27" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5019,8 +5164,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:17" outlineLevel="1">
-      <c r="B28" s="63" t="str">
+    <row r="28" spans="2:18" outlineLevel="1">
+      <c r="B28" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5062,8 +5207,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:17" outlineLevel="1">
-      <c r="B29" s="63" t="str">
+    <row r="29" spans="2:18" outlineLevel="1">
+      <c r="B29" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5100,9 +5245,12 @@
       <c r="Q29" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" outlineLevel="1">
-      <c r="B30" s="63" t="str">
+      <c r="R29" s="69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" outlineLevel="1">
+      <c r="B30" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5143,9 +5291,10 @@
       <c r="Q30" s="43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" outlineLevel="1">
-      <c r="B31" s="63" t="str">
+      <c r="R30" s="69"/>
+    </row>
+    <row r="31" spans="2:18" outlineLevel="1">
+      <c r="B31" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5182,9 +5331,12 @@
       <c r="Q31" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" outlineLevel="1">
-      <c r="B32" s="63" t="str">
+      <c r="R31" s="69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" outlineLevel="1">
+      <c r="B32" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5222,12 +5374,13 @@
       <c r="P32" s="37">
         <v>0</v>
       </c>
-      <c r="Q32" s="47" t="s">
+      <c r="Q32" s="46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" outlineLevel="1">
-      <c r="B33" s="63" t="str">
+      <c r="R32" s="69"/>
+    </row>
+    <row r="33" spans="1:18" outlineLevel="1">
+      <c r="B33" s="62" t="str">
         <f t="shared" si="0"/>
         <v>2-2</v>
       </c>
@@ -5264,8 +5417,11 @@
       <c r="Q33" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -5307,10 +5463,10 @@
         <f>MIN(P35:P58)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="49"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="B35" s="63" t="str">
+      <c r="Q34" s="48"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="B35" s="62" t="str">
         <f>$B$34&amp;"-1"</f>
         <v>3-1</v>
       </c>
@@ -5340,8 +5496,8 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="44"/>
     </row>
-    <row r="36" spans="1:17">
-      <c r="B36" s="63" t="str">
+    <row r="36" spans="1:18">
+      <c r="B36" s="62" t="str">
         <f>$B$34&amp;"-2"</f>
         <v>3-2</v>
       </c>
@@ -5383,8 +5539,8 @@
       </c>
       <c r="Q36" s="44"/>
     </row>
-    <row r="37" spans="1:17" outlineLevel="1">
-      <c r="B37" s="63" t="str">
+    <row r="37" spans="1:18" outlineLevel="1">
+      <c r="B37" s="62" t="str">
         <f t="shared" ref="B37:B58" si="1">$B$34&amp;"-2"</f>
         <v>3-2</v>
       </c>
@@ -5420,8 +5576,8 @@
       </c>
       <c r="Q37" s="43"/>
     </row>
-    <row r="38" spans="1:17" outlineLevel="1">
-      <c r="B38" s="63" t="str">
+    <row r="38" spans="1:18" outlineLevel="1">
+      <c r="B38" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5457,8 +5613,8 @@
       </c>
       <c r="Q38" s="43"/>
     </row>
-    <row r="39" spans="1:17" outlineLevel="1">
-      <c r="B39" s="63" t="str">
+    <row r="39" spans="1:18" outlineLevel="1">
+      <c r="B39" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5494,8 +5650,8 @@
       </c>
       <c r="Q39" s="43"/>
     </row>
-    <row r="40" spans="1:17" outlineLevel="1">
-      <c r="B40" s="63" t="str">
+    <row r="40" spans="1:18" outlineLevel="1">
+      <c r="B40" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5531,8 +5687,8 @@
       </c>
       <c r="Q40" s="43"/>
     </row>
-    <row r="41" spans="1:17" outlineLevel="1">
-      <c r="B41" s="63" t="str">
+    <row r="41" spans="1:18" outlineLevel="1">
+      <c r="B41" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5568,8 +5724,8 @@
       </c>
       <c r="Q41" s="43"/>
     </row>
-    <row r="42" spans="1:17" outlineLevel="1">
-      <c r="B42" s="63" t="str">
+    <row r="42" spans="1:18" outlineLevel="1">
+      <c r="B42" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5605,8 +5761,8 @@
       </c>
       <c r="Q42" s="43"/>
     </row>
-    <row r="43" spans="1:17" outlineLevel="1">
-      <c r="B43" s="63" t="str">
+    <row r="43" spans="1:18" outlineLevel="1">
+      <c r="B43" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5642,8 +5798,8 @@
       </c>
       <c r="Q43" s="43"/>
     </row>
-    <row r="44" spans="1:17" outlineLevel="1">
-      <c r="B44" s="63" t="str">
+    <row r="44" spans="1:18" outlineLevel="1">
+      <c r="B44" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5679,8 +5835,8 @@
       </c>
       <c r="Q44" s="43"/>
     </row>
-    <row r="45" spans="1:17" outlineLevel="1">
-      <c r="B45" s="63" t="str">
+    <row r="45" spans="1:18" outlineLevel="1">
+      <c r="B45" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5716,8 +5872,8 @@
       </c>
       <c r="Q45" s="43"/>
     </row>
-    <row r="46" spans="1:17" outlineLevel="1">
-      <c r="B46" s="63" t="str">
+    <row r="46" spans="1:18" outlineLevel="1">
+      <c r="B46" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5753,8 +5909,8 @@
       </c>
       <c r="Q46" s="43"/>
     </row>
-    <row r="47" spans="1:17" outlineLevel="1">
-      <c r="B47" s="63" t="str">
+    <row r="47" spans="1:18" outlineLevel="1">
+      <c r="B47" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5790,8 +5946,8 @@
       </c>
       <c r="Q47" s="43"/>
     </row>
-    <row r="48" spans="1:17" outlineLevel="1">
-      <c r="B48" s="63" t="str">
+    <row r="48" spans="1:18" outlineLevel="1">
+      <c r="B48" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5828,7 +5984,7 @@
       <c r="Q48" s="43"/>
     </row>
     <row r="49" spans="1:17" outlineLevel="1">
-      <c r="B49" s="63" t="str">
+      <c r="B49" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5865,7 +6021,7 @@
       <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:17" outlineLevel="1">
-      <c r="B50" s="63" t="str">
+      <c r="B50" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5902,7 +6058,7 @@
       <c r="Q50" s="43"/>
     </row>
     <row r="51" spans="1:17" outlineLevel="1">
-      <c r="B51" s="63" t="str">
+      <c r="B51" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5939,7 +6095,7 @@
       <c r="Q51" s="43"/>
     </row>
     <row r="52" spans="1:17" outlineLevel="1">
-      <c r="B52" s="63" t="str">
+      <c r="B52" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -5976,7 +6132,7 @@
       <c r="Q52" s="43"/>
     </row>
     <row r="53" spans="1:17" outlineLevel="1">
-      <c r="B53" s="63" t="str">
+      <c r="B53" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6013,7 +6169,7 @@
       <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:17" outlineLevel="1">
-      <c r="B54" s="63" t="str">
+      <c r="B54" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6050,7 +6206,7 @@
       <c r="Q54" s="43"/>
     </row>
     <row r="55" spans="1:17" outlineLevel="1">
-      <c r="B55" s="63" t="str">
+      <c r="B55" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6087,7 +6243,7 @@
       <c r="Q55" s="43"/>
     </row>
     <row r="56" spans="1:17" outlineLevel="1">
-      <c r="B56" s="63" t="str">
+      <c r="B56" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6124,7 +6280,7 @@
       <c r="Q56" s="43"/>
     </row>
     <row r="57" spans="1:17" outlineLevel="1">
-      <c r="B57" s="63" t="str">
+      <c r="B57" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6161,7 +6317,7 @@
       <c r="Q57" s="43"/>
     </row>
     <row r="58" spans="1:17" outlineLevel="1">
-      <c r="B58" s="63" t="str">
+      <c r="B58" s="62" t="str">
         <f t="shared" si="1"/>
         <v>3-2</v>
       </c>
@@ -6239,10 +6395,10 @@
         <f>MIN(P61:P84)</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="49"/>
+      <c r="Q59" s="48"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="B60" s="63" t="str">
+      <c r="B60" s="62" t="str">
         <f>$B$59&amp;"-1"</f>
         <v>4-1</v>
       </c>
@@ -6277,7 +6433,7 @@
       <c r="Q60" s="44"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="B61" s="63" t="str">
+      <c r="B61" s="62" t="str">
         <f>$B$59&amp;"-2"</f>
         <v>4-2</v>
       </c>
@@ -6312,7 +6468,7 @@
       <c r="Q61" s="44"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="B62" s="63" t="str">
+      <c r="B62" s="62" t="str">
         <f>$B$59&amp;"-3"</f>
         <v>4-3</v>
       </c>
@@ -6355,7 +6511,7 @@
       <c r="Q62" s="44"/>
     </row>
     <row r="63" spans="1:17" outlineLevel="1">
-      <c r="B63" s="63" t="str">
+      <c r="B63" s="62" t="str">
         <f t="shared" ref="B63:B84" si="2">$B$59&amp;"-3"</f>
         <v>4-3</v>
       </c>
@@ -6392,7 +6548,7 @@
       <c r="Q63" s="43"/>
     </row>
     <row r="64" spans="1:17" outlineLevel="1">
-      <c r="B64" s="63" t="str">
+      <c r="B64" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6429,44 +6585,44 @@
       <c r="Q64" s="43"/>
     </row>
     <row r="65" spans="2:17" outlineLevel="1">
-      <c r="B65" s="63" t="str">
+      <c r="B65" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="22"/>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="50">
         <v>44851</v>
       </c>
-      <c r="G65" s="51">
+      <c r="G65" s="50">
         <v>44854</v>
       </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="53">
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="52">
         <v>1</v>
       </c>
-      <c r="K65" s="50"/>
-      <c r="L65" s="51">
+      <c r="K65" s="49"/>
+      <c r="L65" s="50">
         <v>44851</v>
       </c>
-      <c r="M65" s="51">
+      <c r="M65" s="50">
         <v>44854</v>
       </c>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="56" t="s">
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="2:17" outlineLevel="1">
-      <c r="B66" s="63" t="str">
+      <c r="B66" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6503,118 +6659,118 @@
       <c r="Q66" s="43"/>
     </row>
     <row r="67" spans="2:17" outlineLevel="1">
-      <c r="B67" s="63" t="str">
+      <c r="B67" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="22"/>
-      <c r="E67" s="50" t="s">
+      <c r="E67" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="51">
+      <c r="F67" s="50">
         <v>44851</v>
       </c>
-      <c r="G67" s="51">
+      <c r="G67" s="50">
         <v>44854</v>
       </c>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="53">
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="52">
         <v>1</v>
       </c>
-      <c r="K67" s="50"/>
-      <c r="L67" s="51">
+      <c r="K67" s="49"/>
+      <c r="L67" s="50">
         <v>44851</v>
       </c>
-      <c r="M67" s="51">
+      <c r="M67" s="50">
         <v>44854</v>
       </c>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="56" t="s">
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:17" outlineLevel="1">
-      <c r="B68" s="63" t="str">
+      <c r="B68" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="22"/>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="51">
+      <c r="F68" s="50">
         <v>44851</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="50">
         <v>44854</v>
       </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="53">
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="52">
         <v>1</v>
       </c>
-      <c r="K68" s="50"/>
-      <c r="L68" s="51">
+      <c r="K68" s="49"/>
+      <c r="L68" s="50">
         <v>44851</v>
       </c>
-      <c r="M68" s="51">
+      <c r="M68" s="50">
         <v>44854</v>
       </c>
-      <c r="N68" s="51"/>
-      <c r="O68" s="51"/>
-      <c r="P68" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="56" t="s">
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="2:17" outlineLevel="1">
-      <c r="B69" s="63" t="str">
+      <c r="B69" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="51">
+      <c r="F69" s="50">
         <v>44851</v>
       </c>
-      <c r="G69" s="51">
+      <c r="G69" s="50">
         <v>44854</v>
       </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="53">
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="52">
         <v>1</v>
       </c>
-      <c r="K69" s="50"/>
-      <c r="L69" s="51">
+      <c r="K69" s="49"/>
+      <c r="L69" s="50">
         <v>44851</v>
       </c>
-      <c r="M69" s="51">
+      <c r="M69" s="50">
         <v>44854</v>
       </c>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="56" t="s">
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:17" outlineLevel="1">
-      <c r="B70" s="63" t="str">
+      <c r="B70" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6651,7 +6807,7 @@
       <c r="Q70" s="43"/>
     </row>
     <row r="71" spans="2:17" outlineLevel="1">
-      <c r="B71" s="63" t="str">
+      <c r="B71" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6688,7 +6844,7 @@
       <c r="Q71" s="43"/>
     </row>
     <row r="72" spans="2:17" outlineLevel="1">
-      <c r="B72" s="63" t="str">
+      <c r="B72" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6725,7 +6881,7 @@
       <c r="Q72" s="43"/>
     </row>
     <row r="73" spans="2:17" outlineLevel="1">
-      <c r="B73" s="63" t="str">
+      <c r="B73" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6766,7 +6922,7 @@
       <c r="Q73" s="43"/>
     </row>
     <row r="74" spans="2:17" outlineLevel="1">
-      <c r="B74" s="63" t="str">
+      <c r="B74" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6803,81 +6959,81 @@
       <c r="Q74" s="43"/>
     </row>
     <row r="75" spans="2:17" outlineLevel="1">
-      <c r="B75" s="63" t="str">
+      <c r="B75" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="50" t="s">
+      <c r="E75" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="51">
+      <c r="F75" s="50">
         <v>44851</v>
       </c>
-      <c r="G75" s="51">
+      <c r="G75" s="50">
         <v>44854</v>
       </c>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="53">
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="52">
         <v>1</v>
       </c>
-      <c r="K75" s="50"/>
-      <c r="L75" s="51">
+      <c r="K75" s="49"/>
+      <c r="L75" s="50">
         <v>44851</v>
       </c>
-      <c r="M75" s="51">
+      <c r="M75" s="50">
         <v>44854</v>
       </c>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="56" t="s">
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:17" outlineLevel="1">
-      <c r="B76" s="63" t="str">
+      <c r="B76" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="22"/>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="51">
+      <c r="F76" s="50">
         <v>44851</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="50">
         <v>44854</v>
       </c>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="53">
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="52">
         <v>1</v>
       </c>
-      <c r="K76" s="50"/>
-      <c r="L76" s="51">
+      <c r="K76" s="49"/>
+      <c r="L76" s="50">
         <v>44851</v>
       </c>
-      <c r="M76" s="51">
+      <c r="M76" s="50">
         <v>44854</v>
       </c>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="56" t="s">
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="77" spans="2:17" outlineLevel="1">
-      <c r="B77" s="63" t="str">
+      <c r="B77" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6914,44 +7070,44 @@
       <c r="Q77" s="43"/>
     </row>
     <row r="78" spans="2:17" outlineLevel="1">
-      <c r="B78" s="63" t="str">
+      <c r="B78" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="22"/>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F78" s="51">
+      <c r="F78" s="50">
         <v>44851</v>
       </c>
-      <c r="G78" s="51">
+      <c r="G78" s="50">
         <v>44854</v>
       </c>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="53">
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="52">
         <v>1</v>
       </c>
-      <c r="K78" s="50"/>
-      <c r="L78" s="51">
+      <c r="K78" s="49"/>
+      <c r="L78" s="50">
         <v>44851</v>
       </c>
-      <c r="M78" s="51">
+      <c r="M78" s="50">
         <v>44854</v>
       </c>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="56" t="s">
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:17" outlineLevel="1">
-      <c r="B79" s="63" t="str">
+      <c r="B79" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -6988,7 +7144,7 @@
       <c r="Q79" s="43"/>
     </row>
     <row r="80" spans="2:17" outlineLevel="1">
-      <c r="B80" s="63" t="str">
+      <c r="B80" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7025,7 +7181,7 @@
       <c r="Q80" s="43"/>
     </row>
     <row r="81" spans="1:17" outlineLevel="1">
-      <c r="B81" s="63" t="str">
+      <c r="B81" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7066,7 +7222,7 @@
       <c r="Q81" s="43"/>
     </row>
     <row r="82" spans="1:17" outlineLevel="1">
-      <c r="B82" s="63" t="str">
+      <c r="B82" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7103,7 +7259,7 @@
       <c r="Q82" s="43"/>
     </row>
     <row r="83" spans="1:17" outlineLevel="1">
-      <c r="B83" s="63" t="str">
+      <c r="B83" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
@@ -7144,39 +7300,39 @@
       <c r="Q83" s="43"/>
     </row>
     <row r="84" spans="1:17" outlineLevel="1">
-      <c r="B84" s="63" t="str">
+      <c r="B84" s="62" t="str">
         <f t="shared" si="2"/>
         <v>4-3</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="50" t="s">
+      <c r="E84" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F84" s="51">
+      <c r="F84" s="50">
         <v>44851</v>
       </c>
-      <c r="G84" s="51">
+      <c r="G84" s="50">
         <v>44854</v>
       </c>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="53">
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="52">
         <v>1</v>
       </c>
-      <c r="K84" s="50"/>
-      <c r="L84" s="51">
+      <c r="K84" s="49"/>
+      <c r="L84" s="50">
         <v>44851</v>
       </c>
-      <c r="M84" s="51">
+      <c r="M84" s="50">
         <v>44854</v>
       </c>
-      <c r="N84" s="51"/>
-      <c r="O84" s="51"/>
-      <c r="P84" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="56" t="s">
+      <c r="N84" s="50"/>
+      <c r="O84" s="50"/>
+      <c r="P84" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="55" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7227,7 +7383,7 @@
       </c>
     </row>
     <row r="86" spans="1:17">
-      <c r="B86" s="63" t="str">
+      <c r="B86" s="62" t="str">
         <f>$B$85&amp;"-1"</f>
         <v>5-1</v>
       </c>
@@ -7262,7 +7418,7 @@
       <c r="Q86" s="44"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="B87" s="63" t="str">
+      <c r="B87" s="62" t="str">
         <f t="shared" ref="B87:B109" si="3">$B$85&amp;"-2"</f>
         <v>5-2</v>
       </c>
@@ -7305,7 +7461,7 @@
       <c r="Q87" s="44"/>
     </row>
     <row r="88" spans="1:17" outlineLevel="1">
-      <c r="B88" s="63" t="str">
+      <c r="B88" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7342,7 +7498,7 @@
       <c r="Q88" s="43"/>
     </row>
     <row r="89" spans="1:17" outlineLevel="1">
-      <c r="B89" s="63" t="str">
+      <c r="B89" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7379,7 +7535,7 @@
       <c r="Q89" s="43"/>
     </row>
     <row r="90" spans="1:17" outlineLevel="1">
-      <c r="B90" s="63" t="str">
+      <c r="B90" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7416,7 +7572,7 @@
       <c r="Q90" s="43"/>
     </row>
     <row r="91" spans="1:17" outlineLevel="1">
-      <c r="B91" s="63" t="str">
+      <c r="B91" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7453,7 +7609,7 @@
       <c r="Q91" s="43"/>
     </row>
     <row r="92" spans="1:17" outlineLevel="1">
-      <c r="B92" s="63" t="str">
+      <c r="B92" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7490,7 +7646,7 @@
       <c r="Q92" s="43"/>
     </row>
     <row r="93" spans="1:17" outlineLevel="1">
-      <c r="B93" s="63" t="str">
+      <c r="B93" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7527,7 +7683,7 @@
       <c r="Q93" s="43"/>
     </row>
     <row r="94" spans="1:17" outlineLevel="1">
-      <c r="B94" s="63" t="str">
+      <c r="B94" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7564,7 +7720,7 @@
       <c r="Q94" s="43"/>
     </row>
     <row r="95" spans="1:17" outlineLevel="1">
-      <c r="B95" s="63" t="str">
+      <c r="B95" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7601,7 +7757,7 @@
       <c r="Q95" s="43"/>
     </row>
     <row r="96" spans="1:17" outlineLevel="1">
-      <c r="B96" s="63" t="str">
+      <c r="B96" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7638,7 +7794,7 @@
       <c r="Q96" s="43"/>
     </row>
     <row r="97" spans="1:17" outlineLevel="1">
-      <c r="B97" s="63" t="str">
+      <c r="B97" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7675,7 +7831,7 @@
       <c r="Q97" s="43"/>
     </row>
     <row r="98" spans="1:17" outlineLevel="1">
-      <c r="B98" s="63" t="str">
+      <c r="B98" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7712,7 +7868,7 @@
       <c r="Q98" s="43"/>
     </row>
     <row r="99" spans="1:17" outlineLevel="1">
-      <c r="B99" s="63" t="str">
+      <c r="B99" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7749,7 +7905,7 @@
       <c r="Q99" s="43"/>
     </row>
     <row r="100" spans="1:17" outlineLevel="1">
-      <c r="B100" s="63" t="str">
+      <c r="B100" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7786,7 +7942,7 @@
       <c r="Q100" s="43"/>
     </row>
     <row r="101" spans="1:17" outlineLevel="1">
-      <c r="B101" s="63" t="str">
+      <c r="B101" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7823,7 +7979,7 @@
       <c r="Q101" s="43"/>
     </row>
     <row r="102" spans="1:17" outlineLevel="1">
-      <c r="B102" s="63" t="str">
+      <c r="B102" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7860,7 +8016,7 @@
       <c r="Q102" s="43"/>
     </row>
     <row r="103" spans="1:17" outlineLevel="1">
-      <c r="B103" s="63" t="str">
+      <c r="B103" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7897,7 +8053,7 @@
       <c r="Q103" s="43"/>
     </row>
     <row r="104" spans="1:17" outlineLevel="1">
-      <c r="B104" s="63" t="str">
+      <c r="B104" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7934,7 +8090,7 @@
       <c r="Q104" s="43"/>
     </row>
     <row r="105" spans="1:17" outlineLevel="1">
-      <c r="B105" s="63" t="str">
+      <c r="B105" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -7971,7 +8127,7 @@
       <c r="Q105" s="43"/>
     </row>
     <row r="106" spans="1:17" outlineLevel="1">
-      <c r="B106" s="63" t="str">
+      <c r="B106" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -8008,7 +8164,7 @@
       <c r="Q106" s="43"/>
     </row>
     <row r="107" spans="1:17" outlineLevel="1">
-      <c r="B107" s="63" t="str">
+      <c r="B107" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -8045,7 +8201,7 @@
       <c r="Q107" s="43"/>
     </row>
     <row r="108" spans="1:17" outlineLevel="1">
-      <c r="B108" s="63" t="str">
+      <c r="B108" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -8082,7 +8238,7 @@
       <c r="Q108" s="43"/>
     </row>
     <row r="109" spans="1:17" outlineLevel="1">
-      <c r="B109" s="63" t="str">
+      <c r="B109" s="62" t="str">
         <f t="shared" si="3"/>
         <v>5-2</v>
       </c>
@@ -8167,7 +8323,7 @@
       <c r="Q110" s="42"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="B111" s="63" t="str">
+      <c r="B111" s="62" t="str">
         <f>$B$110&amp;"-1"</f>
         <v>6-1</v>
       </c>
@@ -8178,26 +8334,26 @@
       <c r="E111" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F111" s="52">
+      <c r="F111" s="51">
         <v>44865</v>
       </c>
-      <c r="G111" s="52">
+      <c r="G111" s="51">
         <v>44865</v>
       </c>
-      <c r="H111" s="52">
+      <c r="H111" s="51">
         <v>44865</v>
       </c>
-      <c r="I111" s="52">
+      <c r="I111" s="51">
         <v>44865</v>
       </c>
-      <c r="J111" s="54">
+      <c r="J111" s="53">
         <v>1</v>
       </c>
-      <c r="K111" s="55"/>
-      <c r="L111" s="52">
+      <c r="K111" s="54"/>
+      <c r="L111" s="51">
         <v>44865</v>
       </c>
-      <c r="M111" s="52">
+      <c r="M111" s="51">
         <v>44865</v>
       </c>
       <c r="N111" s="25"/>
@@ -8208,7 +8364,7 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="B112" s="63" t="str">
+      <c r="B112" s="62" t="str">
         <f t="shared" ref="B112:B134" si="4">$B$110&amp;"-2"</f>
         <v>6-2</v>
       </c>
@@ -8251,7 +8407,7 @@
       <c r="Q112" s="44"/>
     </row>
     <row r="113" spans="2:17" outlineLevel="1">
-      <c r="B113" s="63" t="str">
+      <c r="B113" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8288,7 +8444,7 @@
       <c r="Q113" s="43"/>
     </row>
     <row r="114" spans="2:17" outlineLevel="1">
-      <c r="B114" s="63" t="str">
+      <c r="B114" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8325,7 +8481,7 @@
       <c r="Q114" s="43"/>
     </row>
     <row r="115" spans="2:17" outlineLevel="1">
-      <c r="B115" s="63" t="str">
+      <c r="B115" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8362,7 +8518,7 @@
       <c r="Q115" s="43"/>
     </row>
     <row r="116" spans="2:17" outlineLevel="1">
-      <c r="B116" s="63" t="str">
+      <c r="B116" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8399,7 +8555,7 @@
       <c r="Q116" s="43"/>
     </row>
     <row r="117" spans="2:17" outlineLevel="1">
-      <c r="B117" s="63" t="str">
+      <c r="B117" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8436,7 +8592,7 @@
       <c r="Q117" s="43"/>
     </row>
     <row r="118" spans="2:17" outlineLevel="1">
-      <c r="B118" s="63" t="str">
+      <c r="B118" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8473,7 +8629,7 @@
       <c r="Q118" s="43"/>
     </row>
     <row r="119" spans="2:17" outlineLevel="1">
-      <c r="B119" s="63" t="str">
+      <c r="B119" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8510,7 +8666,7 @@
       <c r="Q119" s="43"/>
     </row>
     <row r="120" spans="2:17" outlineLevel="1">
-      <c r="B120" s="63" t="str">
+      <c r="B120" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8547,7 +8703,7 @@
       <c r="Q120" s="43"/>
     </row>
     <row r="121" spans="2:17" outlineLevel="1">
-      <c r="B121" s="63" t="str">
+      <c r="B121" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8584,7 +8740,7 @@
       <c r="Q121" s="43"/>
     </row>
     <row r="122" spans="2:17" outlineLevel="1">
-      <c r="B122" s="63" t="str">
+      <c r="B122" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8621,7 +8777,7 @@
       <c r="Q122" s="43"/>
     </row>
     <row r="123" spans="2:17" outlineLevel="1">
-      <c r="B123" s="63" t="str">
+      <c r="B123" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8658,7 +8814,7 @@
       <c r="Q123" s="43"/>
     </row>
     <row r="124" spans="2:17" outlineLevel="1">
-      <c r="B124" s="63" t="str">
+      <c r="B124" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8695,7 +8851,7 @@
       <c r="Q124" s="43"/>
     </row>
     <row r="125" spans="2:17" outlineLevel="1">
-      <c r="B125" s="63" t="str">
+      <c r="B125" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8732,7 +8888,7 @@
       <c r="Q125" s="43"/>
     </row>
     <row r="126" spans="2:17" outlineLevel="1">
-      <c r="B126" s="63" t="str">
+      <c r="B126" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8769,7 +8925,7 @@
       <c r="Q126" s="43"/>
     </row>
     <row r="127" spans="2:17" outlineLevel="1">
-      <c r="B127" s="63" t="str">
+      <c r="B127" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8806,46 +8962,46 @@
       <c r="Q127" s="43"/>
     </row>
     <row r="128" spans="2:17" outlineLevel="1">
-      <c r="B128" s="63" t="str">
+      <c r="B128" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
       <c r="C128" s="26"/>
       <c r="D128" s="22"/>
-      <c r="E128" s="50" t="s">
+      <c r="E128" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F128" s="51">
+      <c r="F128" s="50">
         <v>44866</v>
       </c>
-      <c r="G128" s="51">
+      <c r="G128" s="50">
         <v>44873</v>
       </c>
-      <c r="H128" s="51"/>
-      <c r="I128" s="51"/>
-      <c r="J128" s="53">
+      <c r="H128" s="50"/>
+      <c r="I128" s="50"/>
+      <c r="J128" s="52">
         <v>1</v>
       </c>
-      <c r="K128" s="50" t="s">
+      <c r="K128" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L128" s="51">
+      <c r="L128" s="50">
         <v>44866</v>
       </c>
-      <c r="M128" s="51">
+      <c r="M128" s="50">
         <v>44873</v>
       </c>
-      <c r="N128" s="51"/>
-      <c r="O128" s="51"/>
-      <c r="P128" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="56" t="s">
+      <c r="N128" s="50"/>
+      <c r="O128" s="50"/>
+      <c r="P128" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:17" outlineLevel="1">
-      <c r="B129" s="63" t="str">
+      <c r="B129" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8882,7 +9038,7 @@
       <c r="Q129" s="43"/>
     </row>
     <row r="130" spans="1:17" outlineLevel="1">
-      <c r="B130" s="63" t="str">
+      <c r="B130" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8919,7 +9075,7 @@
       <c r="Q130" s="43"/>
     </row>
     <row r="131" spans="1:17" outlineLevel="1">
-      <c r="B131" s="63" t="str">
+      <c r="B131" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8956,7 +9112,7 @@
       <c r="Q131" s="43"/>
     </row>
     <row r="132" spans="1:17" outlineLevel="1">
-      <c r="B132" s="63" t="str">
+      <c r="B132" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -8993,7 +9149,7 @@
       <c r="Q132" s="43"/>
     </row>
     <row r="133" spans="1:17" outlineLevel="1">
-      <c r="B133" s="63" t="str">
+      <c r="B133" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -9030,7 +9186,7 @@
       <c r="Q133" s="43"/>
     </row>
     <row r="134" spans="1:17" outlineLevel="1">
-      <c r="B134" s="63" t="str">
+      <c r="B134" s="62" t="str">
         <f t="shared" si="4"/>
         <v>6-2</v>
       </c>
@@ -9111,7 +9267,7 @@
       <c r="Q135" s="42"/>
     </row>
     <row r="136" spans="1:17">
-      <c r="B136" s="63" t="str">
+      <c r="B136" s="62" t="str">
         <f>$B$135&amp;"-1"</f>
         <v>7-1</v>
       </c>
@@ -9146,7 +9302,7 @@
       <c r="Q136" s="44"/>
     </row>
     <row r="137" spans="1:17">
-      <c r="B137" s="63" t="str">
+      <c r="B137" s="62" t="str">
         <f>$B$135&amp;"-2"</f>
         <v>7-2</v>
       </c>
@@ -9189,7 +9345,7 @@
       <c r="Q137" s="44"/>
     </row>
     <row r="138" spans="1:17" outlineLevel="1">
-      <c r="B138" s="63" t="str">
+      <c r="B138" s="62" t="str">
         <f t="shared" ref="B138:B159" si="5">$B$135&amp;"-2"</f>
         <v>7-2</v>
       </c>
@@ -9226,7 +9382,7 @@
       <c r="Q138" s="43"/>
     </row>
     <row r="139" spans="1:17" outlineLevel="1">
-      <c r="B139" s="63" t="str">
+      <c r="B139" s="62" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9263,7 +9419,7 @@
       <c r="Q139" s="43"/>
     </row>
     <row r="140" spans="1:17" outlineLevel="1">
-      <c r="B140" s="63" t="str">
+      <c r="B140" s="62" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9300,7 +9456,7 @@
       <c r="Q140" s="43"/>
     </row>
     <row r="141" spans="1:17" outlineLevel="1">
-      <c r="B141" s="63" t="str">
+      <c r="B141" s="62" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9337,7 +9493,7 @@
       <c r="Q141" s="43"/>
     </row>
     <row r="142" spans="1:17" outlineLevel="1">
-      <c r="B142" s="63" t="str">
+      <c r="B142" s="62" t="str">
         <f t="shared" si="5"/>
         <v>7-2</v>
       </c>
@@ -9374,7 +9530,7 @@
       <c r="Q142" s="43"/>
     </row>
     <row r="143" spans="1:17" outlin